--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C479"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,11 +448,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.13122</v>
+        <v>9.090909999999999</v>
       </c>
     </row>
     <row r="3">
@@ -461,11 +461,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('스프', '스프레드시트')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.62135</v>
+        <v>7.14286</v>
       </c>
     </row>
     <row r="4">
@@ -474,11 +474,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('워드', '프로세서')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.61886</v>
+        <v>6.99301</v>
       </c>
     </row>
     <row r="5">
@@ -487,11 +487,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5778799999999999</v>
+        <v>6.66667</v>
       </c>
     </row>
     <row r="6">
@@ -500,11 +500,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.52425</v>
+        <v>6.66667</v>
       </c>
     </row>
     <row r="7">
@@ -513,11 +513,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('대응', '표본', '검정')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.49819</v>
+        <v>6.54762</v>
       </c>
     </row>
     <row r="8">
@@ -526,11 +526,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('사회', '연결망', '분석')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.48148</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="9">
@@ -539,11 +539,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.46512</v>
+        <v>6.22222</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.38776</v>
+        <v>5.12821</v>
       </c>
     </row>
     <row r="11">
@@ -565,11 +565,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.38229</v>
+        <v>4.58333</v>
       </c>
     </row>
     <row r="12">
@@ -578,11 +578,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.37793</v>
+        <v>4.54545</v>
       </c>
     </row>
     <row r="13">
@@ -591,11 +591,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.34202</v>
+        <v>4.45344</v>
       </c>
     </row>
     <row r="14">
@@ -604,11 +604,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('잠재', '위험군')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.33578</v>
+        <v>3.78788</v>
       </c>
     </row>
     <row r="15">
@@ -617,11 +617,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('운영', '체제', '교육')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.33542</v>
+        <v>3.4965</v>
       </c>
     </row>
     <row r="16">
@@ -630,11 +630,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.32738</v>
+        <v>3.32481</v>
       </c>
     </row>
     <row r="17">
@@ -643,11 +643,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('융합', '활동', '영역')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.32377</v>
+        <v>3.20856</v>
       </c>
     </row>
     <row r="18">
@@ -656,11 +656,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('ict', '리터러시', '수준')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.31829</v>
+        <v>2.94118</v>
       </c>
     </row>
     <row r="19">
@@ -669,11 +669,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.30985</v>
+        <v>2.71605</v>
       </c>
     </row>
     <row r="20">
@@ -682,11 +682,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('정보', '보호', '교육')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.29292</v>
+        <v>2.71493</v>
       </c>
     </row>
     <row r="21">
@@ -695,11 +695,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('정보', '통신', '기술')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.29202</v>
+        <v>2.54372</v>
       </c>
     </row>
     <row r="22">
@@ -708,11 +708,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('학년', '학생', '대상')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.29181</v>
+        <v>2.50965</v>
       </c>
     </row>
     <row r="23">
@@ -721,11 +721,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.28555</v>
+        <v>2.19298</v>
       </c>
     </row>
     <row r="24">
@@ -734,11 +734,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('초등', '학년', '학생')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.27008</v>
+        <v>2.17391</v>
       </c>
     </row>
     <row r="25">
@@ -747,11 +747,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.26242</v>
+        <v>2.15385</v>
       </c>
     </row>
     <row r="26">
@@ -760,11 +760,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('학습자', '중심', '평가')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.21183</v>
+        <v>2.08333</v>
       </c>
     </row>
     <row r="27">
@@ -773,11 +773,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('컴퓨터', '과학', '교육')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.21075</v>
+        <v>1.92308</v>
       </c>
     </row>
     <row r="28">
@@ -786,11 +786,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('창의', '문제', '해결력')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.20917</v>
+        <v>1.88537</v>
       </c>
     </row>
     <row r="29">
@@ -799,11 +799,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '개발')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.20479</v>
+        <v>1.53846</v>
       </c>
     </row>
     <row r="30">
@@ -812,11 +812,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('문제', '해결', '과정')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.19134</v>
+        <v>1.44558</v>
       </c>
     </row>
     <row r="31">
@@ -825,11 +825,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.18916</v>
+        <v>1.40429</v>
       </c>
     </row>
     <row r="32">
@@ -838,11 +838,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.18223</v>
+        <v>1.40399</v>
       </c>
     </row>
     <row r="33">
@@ -851,11 +851,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('인터넷', '중독', '잠재')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.16111</v>
+        <v>1.36986</v>
       </c>
     </row>
     <row r="34">
@@ -864,11 +864,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('학습', '만족도', '영향')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.16026</v>
+        <v>1.3587</v>
       </c>
     </row>
     <row r="35">
@@ -877,11 +877,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('초등', '소프트웨어', '교육')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.15752</v>
+        <v>1.35266</v>
       </c>
     </row>
     <row r="36">
@@ -890,11 +890,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('활용', 'sw', '교육')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.15279</v>
+        <v>1.35234</v>
       </c>
     </row>
     <row r="37">
@@ -903,11 +903,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('웹기반', '프로젝트', '학습')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.15173</v>
+        <v>1.35135</v>
       </c>
     </row>
     <row r="38">
@@ -916,11 +916,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('성취', '기준', '교수')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.14876</v>
+        <v>1.35135</v>
       </c>
     </row>
     <row r="39">
@@ -929,11 +929,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('남학생', '여학생')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.14058</v>
+        <v>1.27877</v>
       </c>
     </row>
     <row r="40">
@@ -942,11 +942,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('활용', '실태', '분석')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.13917</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="41">
@@ -955,11 +955,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.13645</v>
+        <v>1.22222</v>
       </c>
     </row>
     <row r="42">
@@ -968,11 +968,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.13547</v>
+        <v>1.21816</v>
       </c>
     </row>
     <row r="43">
@@ -981,11 +981,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('학업', '성취도', '영향')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.13219</v>
+        <v>1.20614</v>
       </c>
     </row>
     <row r="44">
@@ -994,11 +994,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('음악', '감상')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.13011</v>
+        <v>1.20192</v>
       </c>
     </row>
     <row r="45">
@@ -1007,11 +1007,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('로봇', '활용', '교육')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.12738</v>
+        <v>1.19048</v>
       </c>
     </row>
     <row r="46">
@@ -1020,11 +1020,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('선행', '연구', '분석')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.12527</v>
+        <v>1.16144</v>
       </c>
     </row>
     <row r="47">
@@ -1033,11 +1033,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.12426</v>
+        <v>1.1324</v>
       </c>
     </row>
     <row r="48">
@@ -1046,11 +1046,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('초등', '학년', '대상')</t>
+          <t>('개인', '정보', '보호')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.12032</v>
+        <v>1.13122</v>
       </c>
     </row>
     <row r="49">
@@ -1059,11 +1059,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('학습', '모형', '개발')</t>
+          <t>('교육', '자료', '개발')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.11949</v>
+        <v>1.11288</v>
       </c>
     </row>
     <row r="50">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.11934</v>
+        <v>1.11111</v>
       </c>
     </row>
     <row r="51">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('교수', '학습', '방법')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.10834</v>
+        <v>1.10323</v>
       </c>
     </row>
     <row r="52">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('컴퓨터', '교과', '교육')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.10629</v>
+        <v>1.10193</v>
       </c>
     </row>
     <row r="53">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('결과', '연구', '개발')</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.10582</v>
+        <v>1.04762</v>
       </c>
     </row>
     <row r="54">
@@ -1124,11 +1124,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('현직', '초등', '교사')</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.10442</v>
+        <v>1.04167</v>
       </c>
     </row>
     <row r="55">
@@ -1137,11 +1137,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('학습', '동기', '학업')</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.09916</v>
+        <v>1.03093</v>
       </c>
     </row>
     <row r="56">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('초등', '논리', '사고력')</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0956</v>
+        <v>0.9920600000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.0955</v>
+        <v>0.98289</v>
       </c>
     </row>
     <row r="58">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('교육', '과정', '개발')</t>
+          <t>('결과', '실험', '집단')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.09246</v>
+        <v>0.98039</v>
       </c>
     </row>
     <row r="59">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('학습', '시스템', '개발')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.09239</v>
+        <v>0.96831</v>
       </c>
     </row>
     <row r="60">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('분석', '연구', '결과')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.09238</v>
+        <v>0.94628</v>
       </c>
     </row>
     <row r="61">
@@ -1215,11 +1215,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('학습', '동기', '학습')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.09075</v>
+        <v>0.94502</v>
       </c>
     </row>
     <row r="62">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨팅', '사고력')</t>
+          <t>('초등', '중등', '교육')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.08867999999999999</v>
+        <v>0.94178</v>
       </c>
     </row>
     <row r="63">
@@ -1241,11 +1241,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('교육', '지원', '시스템')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.08475000000000001</v>
+        <v>0.93677</v>
       </c>
     </row>
     <row r="64">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('입체', '도형')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.08343</v>
+        <v>0.93284</v>
       </c>
     </row>
     <row r="65">
@@ -1267,11 +1267,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.07992</v>
+        <v>0.92262</v>
       </c>
     </row>
     <row r="66">
@@ -1280,11 +1280,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('교육', '실시', '학생')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0789</v>
+        <v>0.87025</v>
       </c>
     </row>
     <row r="67">
@@ -1293,11 +1293,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('초등', '정보', '과학')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.07817</v>
+        <v>0.8609599999999999</v>
       </c>
     </row>
     <row r="68">
@@ -1306,11 +1306,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.07716000000000001</v>
+        <v>0.85665</v>
       </c>
     </row>
     <row r="69">
@@ -1319,11 +1319,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('학생', '인터넷', '중독')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.07574</v>
+        <v>0.85616</v>
       </c>
     </row>
     <row r="70">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.07461</v>
+        <v>0.8519</v>
       </c>
     </row>
     <row r="71">
@@ -1345,11 +1345,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('컴퓨터', '게임', '중독')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.07426000000000001</v>
+        <v>0.81159</v>
       </c>
     </row>
     <row r="72">
@@ -1358,11 +1358,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('개정', '교육', '과정')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.07363</v>
+        <v>0.78486</v>
       </c>
     </row>
     <row r="73">
@@ -1371,11 +1371,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('ict', '활용', '교육')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.07025000000000001</v>
+        <v>0.78265</v>
       </c>
     </row>
     <row r="74">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('초등', '교사', '대상')</t>
+          <t>('연구', '목적', '초등')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.06852999999999999</v>
+        <v>0.77959</v>
       </c>
     </row>
     <row r="75">
@@ -1397,11 +1397,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('학습', '시스템', '설계')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.06636</v>
+        <v>0.77778</v>
       </c>
     </row>
     <row r="76">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('초등', '정보', '교육')</t>
+          <t>('컴퓨터', '과학', '언플러그드')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.05928</v>
+        <v>0.76923</v>
       </c>
     </row>
     <row r="77">
@@ -1423,11 +1423,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨팅', '사고력')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.05891</v>
+        <v>0.75581</v>
       </c>
     </row>
     <row r="78">
@@ -1436,11 +1436,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0583</v>
+        <v>0.75164</v>
       </c>
     </row>
     <row r="79">
@@ -1449,11 +1449,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('프로그래밍', '언어', '활용')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.05809</v>
+        <v>0.75131</v>
       </c>
     </row>
     <row r="80">
@@ -1462,11 +1462,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('교수', '학습', '모형')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.05571</v>
+        <v>0.74557</v>
       </c>
     </row>
     <row r="81">
@@ -1475,11 +1475,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨터', '교육')</t>
+          <t>('분석', '실시', '결과')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.05538</v>
+        <v>0.74324</v>
       </c>
     </row>
     <row r="82">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '향상')</t>
+          <t>('피지컬', '컴퓨팅', '교육')</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.05476</v>
+        <v>0.74013</v>
       </c>
     </row>
     <row r="83">
@@ -1501,11 +1501,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.05298</v>
+        <v>0.7284</v>
       </c>
     </row>
     <row r="84">
@@ -1514,11 +1514,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('활용', '프로그래밍', '교육')</t>
+          <t>('프로그래밍', '언어', '교육')</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.05146</v>
+        <v>0.7162500000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1527,11 +1527,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.05093</v>
+        <v>0.71225</v>
       </c>
     </row>
     <row r="86">
@@ -1540,11 +1540,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('대상', '설문', '조사')</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0505</v>
+        <v>0.6944399999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1553,11 +1553,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('프로그램', '개발', '적용')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.04934</v>
+        <v>0.68493</v>
       </c>
     </row>
     <row r="88">
@@ -1566,11 +1566,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.04752</v>
+        <v>0.68027</v>
       </c>
     </row>
     <row r="89">
@@ -1579,11 +1579,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('시스템', '개발', '적용')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.04703</v>
+        <v>0.6773400000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('ict', '활용', '능력')</t>
+          <t>('창의', '문제', '해결능력')</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.04566</v>
+        <v>0.66425</v>
       </c>
     </row>
     <row r="91">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('평가', '도구', '개발')</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.04498</v>
+        <v>0.64412</v>
       </c>
     </row>
     <row r="92">
@@ -1618,11 +1618,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '초등')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0436</v>
+        <v>0.63601</v>
       </c>
     </row>
     <row r="93">
@@ -1631,11 +1631,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.04344</v>
+        <v>0.63492</v>
       </c>
     </row>
     <row r="94">
@@ -1644,11 +1644,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.04019</v>
+        <v>0.63213</v>
       </c>
     </row>
     <row r="95">
@@ -1657,11 +1657,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('효과', '검증')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.03913</v>
+        <v>0.62893</v>
       </c>
     </row>
     <row r="96">
@@ -1670,11 +1670,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('교사', '대상', '설문')</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.03845</v>
+        <v>0.62135</v>
       </c>
     </row>
     <row r="97">
@@ -1683,11 +1683,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('문제', '해결', '능력')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.03687</v>
+        <v>0.61813</v>
       </c>
     </row>
     <row r="98">
@@ -1696,11 +1696,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('교육', '콘텐츠', '개발')</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.03615</v>
+        <v>0.60293</v>
       </c>
     </row>
     <row r="99">
@@ -1709,11 +1709,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('수행', '평가')</t>
+          <t>('문제', '해결력', '신장')</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.03455</v>
+        <v>0.60241</v>
       </c>
     </row>
     <row r="100">
@@ -1722,11 +1722,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('연구', '목적', '달성')</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.03358</v>
+        <v>0.60241</v>
       </c>
     </row>
     <row r="101">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('대상', '설문', '조사')</t>
+          <t>('문제', '해결력', '향상')</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.03307</v>
+        <v>0.60241</v>
       </c>
     </row>
     <row r="102">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('내용', '체계')</t>
+          <t>('문제', '해결력', '영향')</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.03172</v>
+        <v>0.60241</v>
       </c>
     </row>
     <row r="103">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('초등', '학년')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.02918</v>
+        <v>0.59583</v>
       </c>
     </row>
     <row r="104">
@@ -1774,11 +1774,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('능력', '신장')</t>
+          <t>('활용', '능력', '평가')</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.02907</v>
+        <v>0.59524</v>
       </c>
     </row>
     <row r="105">
@@ -1787,11 +1787,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('컴퓨터', '과학')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0281</v>
+        <v>0.59156</v>
       </c>
     </row>
     <row r="106">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('교수', '학습', '전략')</t>
+          <t>('교육', '학습자', '중심')</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.02797</v>
+        <v>0.58761</v>
       </c>
     </row>
     <row r="107">
@@ -1813,11 +1813,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('초등', '중등')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.02755</v>
+        <v>0.58704</v>
       </c>
     </row>
     <row r="108">
@@ -1826,11 +1826,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.02646</v>
+        <v>0.58055</v>
       </c>
     </row>
     <row r="109">
@@ -1839,11 +1839,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('능력', '향상')</t>
+          <t>('사이버', '정교사')</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.02538</v>
+        <v>0.57176</v>
       </c>
     </row>
     <row r="110">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('협력', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.02388</v>
+        <v>0.5707</v>
       </c>
     </row>
     <row r="111">
@@ -1865,11 +1865,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('창의', '문제')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.02368</v>
+        <v>0.5430199999999999</v>
       </c>
     </row>
     <row r="112">
@@ -1878,11 +1878,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('ict', '활용')</t>
+          <t>('통신', '기술', '발달')</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.02313</v>
+        <v>0.53241</v>
       </c>
     </row>
     <row r="113">
@@ -1891,11 +1891,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('시스템', '설계')</t>
+          <t>('교육', '초등', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.02215</v>
+        <v>0.53173</v>
       </c>
     </row>
     <row r="114">
@@ -1904,11 +1904,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('과학', '영재')</t>
+          <t>('학년', '학생', '대상')</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.02153</v>
+        <v>0.51627</v>
       </c>
     </row>
     <row r="115">
@@ -1917,11 +1917,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('학년', '학생')</t>
+          <t>('학습자', '상호', '작용')</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.02084</v>
+        <v>0.50802</v>
       </c>
     </row>
     <row r="116">
@@ -1930,11 +1930,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('내용', '선정')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.02076</v>
+        <v>0.50214</v>
       </c>
     </row>
     <row r="117">
@@ -1943,11 +1943,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.02062</v>
+        <v>0.49452</v>
       </c>
     </row>
     <row r="118">
@@ -1956,11 +1956,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('정보', '보호')</t>
+          <t>('설계', '구현', '논문')</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.02013</v>
+        <v>0.4898</v>
       </c>
     </row>
     <row r="119">
@@ -1969,11 +1969,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('정보', '교육', '과정')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.02003</v>
+        <v>0.47847</v>
       </c>
     </row>
     <row r="120">
@@ -1982,11 +1982,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('영향', '요인')</t>
+          <t>('교육', '내용', '방법')</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.01993</v>
+        <v>0.46642</v>
       </c>
     </row>
     <row r="121">
@@ -1995,11 +1995,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('교수', '학습')</t>
+          <t>('학습', '모형', '개발')</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.01971</v>
+        <v>0.46091</v>
       </c>
     </row>
     <row r="122">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('방향', '제시')</t>
+          <t>('사고력', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.01894</v>
+        <v>0.45181</v>
       </c>
     </row>
     <row r="123">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('지원', '시스템')</t>
+          <t>('문제', '해결', '수업')</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.01893</v>
+        <v>0.44248</v>
       </c>
     </row>
     <row r="124">
@@ -2034,11 +2034,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('설계', '구현', '연구')</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.0189</v>
+        <v>0.44156</v>
       </c>
     </row>
     <row r="125">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('개발', '교육', '프로그램')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.01886</v>
+        <v>0.4342</v>
       </c>
     </row>
     <row r="126">
@@ -2060,11 +2060,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('교육', '과정', '분석')</t>
+          <t>('학습', '모형', '적용')</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.01849</v>
+        <v>0.43317</v>
       </c>
     </row>
     <row r="127">
@@ -2073,11 +2073,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('과학', '영재', '교육')</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.01829</v>
+        <v>0.4329</v>
       </c>
     </row>
     <row r="128">
@@ -2086,11 +2086,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('관리', '시스템')</t>
+          <t>('문제', '해결', '과정')</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.01804</v>
+        <v>0.43052</v>
       </c>
     </row>
     <row r="129">
@@ -2099,11 +2099,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('대상', '설문')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.0179</v>
+        <v>0.42544</v>
       </c>
     </row>
     <row r="130">
@@ -2112,11 +2112,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('콘텐츠', '제작')</t>
+          <t>('컴퓨터', '과학', '교육')</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.01775</v>
+        <v>0.4215</v>
       </c>
     </row>
     <row r="131">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('논리', '사고력', '향상')</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.0177</v>
+        <v>0.4199</v>
       </c>
     </row>
     <row r="132">
@@ -2138,11 +2138,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('선행', '연구')</t>
+          <t>('교육', '학습', '동기')</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.01742</v>
+        <v>0.40695</v>
       </c>
     </row>
     <row r="133">
@@ -2151,11 +2151,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('현장', '적용')</t>
+          <t>('활동', '중심', '학습')</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.01719</v>
+        <v>0.4065</v>
       </c>
     </row>
     <row r="134">
@@ -2164,11 +2164,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('프로그램', '개발')</t>
+          <t>('문제', '해결', '능력')</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.01707</v>
+        <v>0.4056</v>
       </c>
     </row>
     <row r="135">
@@ -2177,11 +2177,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('교육', '효과', '분석')</t>
+          <t>('교육', '내용', '선정')</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.01667</v>
+        <v>0.40512</v>
       </c>
     </row>
     <row r="136">
@@ -2190,11 +2190,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('sw', '교육', '초등')</t>
+          <t>('적용', '효과', '검증')</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.01661</v>
+        <v>0.39939</v>
       </c>
     </row>
     <row r="137">
@@ -2203,11 +2203,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('방안', '제시')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.01634</v>
+        <v>0.39933</v>
       </c>
     </row>
     <row r="138">
@@ -2216,11 +2216,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('교육', '교육', '과정')</t>
+          <t>('수행', '평가', '시스템')</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.01623</v>
+        <v>0.39773</v>
       </c>
     </row>
     <row r="139">
@@ -2229,11 +2229,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('학습', '동기')</t>
+          <t>('문제', '해결', '학습')</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.01598</v>
+        <v>0.39331</v>
       </c>
     </row>
     <row r="140">
@@ -2242,11 +2242,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('인식', '조사')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.0159</v>
+        <v>0.39062</v>
       </c>
     </row>
     <row r="141">
@@ -2255,11 +2255,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('교육', '교수', '학습')</t>
+          <t>('정보', '통신', '기술교육')</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.01504</v>
+        <v>0.39062</v>
       </c>
     </row>
     <row r="142">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('문제', '중심')</t>
+          <t>('초등', '학년', '대상')</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.01487</v>
+        <v>0.3877</v>
       </c>
     </row>
     <row r="143">
@@ -2281,11 +2281,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('주도', '학습')</t>
+          <t>('초등', '학년', '학생')</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.01482</v>
+        <v>0.37811</v>
       </c>
     </row>
     <row r="144">
@@ -2294,11 +2294,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('협동', '학습')</t>
+          <t>('창의', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.01481</v>
+        <v>0.37651</v>
       </c>
     </row>
     <row r="145">
@@ -2307,11 +2307,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('교육', '과정', '모델')</t>
+          <t>('정보', '통신', '기술')</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.01457</v>
+        <v>0.36787</v>
       </c>
     </row>
     <row r="146">
@@ -2320,11 +2320,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('분석', '결과')</t>
+          <t>('초등', '로봇', '활용')</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.01455</v>
+        <v>0.3663</v>
       </c>
     </row>
     <row r="147">
@@ -2333,11 +2333,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('로봇', '활용')</t>
+          <t>('교사', 'ict', '활용')</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.01444</v>
+        <v>0.36049</v>
       </c>
     </row>
     <row r="148">
@@ -2346,11 +2346,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('sw', '교육')</t>
+          <t>('독서', '교육', '시스템')</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.01437</v>
+        <v>0.35691</v>
       </c>
     </row>
     <row r="149">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('연구', '목적')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.01418</v>
+        <v>0.35614</v>
       </c>
     </row>
     <row r="150">
@@ -2372,11 +2372,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>('조사', '실시')</t>
+          <t>('적용', '결과', '학생')</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.01415</v>
+        <v>0.35367</v>
       </c>
     </row>
     <row r="151">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>('학생', '대상')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.01391</v>
+        <v>0.35319</v>
       </c>
     </row>
     <row r="152">
@@ -2398,11 +2398,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('평가', '기준')</t>
+          <t>('학생', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.01366</v>
+        <v>0.34364</v>
       </c>
     </row>
     <row r="153">
@@ -2411,11 +2411,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>('교사', '대상')</t>
+          <t>('컴퓨팅', '사고력', '평가')</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.01359</v>
+        <v>0.34364</v>
       </c>
     </row>
     <row r="154">
@@ -2424,11 +2424,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>('정보', '영재')</t>
+          <t>('초등', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.01336</v>
+        <v>0.34285</v>
       </c>
     </row>
     <row r="155">
@@ -2437,11 +2437,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('비교', '분석')</t>
+          <t>('초등', '교사', '대상')</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.01326</v>
+        <v>0.34265</v>
       </c>
     </row>
     <row r="156">
@@ -2450,11 +2450,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>('사고력', '향상')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.0132</v>
+        <v>0.3426</v>
       </c>
     </row>
     <row r="157">
@@ -2463,11 +2463,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>('교육', '과정')</t>
+          <t>('개발', '개발', '교육')</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.01298</v>
+        <v>0.33784</v>
       </c>
     </row>
     <row r="158">
@@ -2476,11 +2476,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('설계', '구현', '시스템')</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.01288</v>
+        <v>0.33613</v>
       </c>
     </row>
     <row r="159">
@@ -2489,11 +2489,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>('정보', '사회')</t>
+          <t>('교육', '프로그램', '초등')</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.01279</v>
+        <v>0.3343</v>
       </c>
     </row>
     <row r="160">
@@ -2502,11 +2502,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교육', '과정')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.01274</v>
+        <v>0.3224</v>
       </c>
     </row>
     <row r="161">
@@ -2515,11 +2515,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>('검사', '실시')</t>
+          <t>('컴퓨팅', '사고력', '창의')</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.01262</v>
+        <v>0.32073</v>
       </c>
     </row>
     <row r="162">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>('정보', '과학')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.012</v>
+        <v>0.31788</v>
       </c>
     </row>
     <row r="163">
@@ -2541,11 +2541,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>('방안', '제안')</t>
+          <t>('분석', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.01188</v>
+        <v>0.31721</v>
       </c>
     </row>
     <row r="164">
@@ -2554,11 +2554,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>('학년', '대상')</t>
+          <t>('통신', '기술교육')</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.01162</v>
+        <v>0.31456</v>
       </c>
     </row>
     <row r="165">
@@ -2567,11 +2567,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>('수업', '진행')</t>
+          <t>('컴퓨터', '활용', '능력')</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.01154</v>
+        <v>0.31098</v>
       </c>
     </row>
     <row r="166">
@@ -2580,11 +2580,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>('소프트웨어', '교육')</t>
+          <t>('초등', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.01149</v>
+        <v>0.31039</v>
       </c>
     </row>
     <row r="167">
@@ -2593,11 +2593,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>('로봇', '프로그래밍', '교육')</t>
+          <t>('학습', '능력', '향상')</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.01126</v>
+        <v>0.30769</v>
       </c>
     </row>
     <row r="168">
@@ -2606,11 +2606,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.01119</v>
+        <v>0.30358</v>
       </c>
     </row>
     <row r="169">
@@ -2619,11 +2619,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>('개발', '적용')</t>
+          <t>('토론', '학습', '시스템')</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.01086</v>
+        <v>0.30303</v>
       </c>
     </row>
     <row r="170">
@@ -2632,11 +2632,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>('교육', '로봇', '활용')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.01086</v>
+        <v>0.2962</v>
       </c>
     </row>
     <row r="171">
@@ -2645,11 +2645,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>('활용', '능력')</t>
+          <t>('과정', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.01079</v>
+        <v>0.29343</v>
       </c>
     </row>
     <row r="172">
@@ -2658,11 +2658,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>('스크래치', '프로그래밍')</t>
+          <t>('검증', '연구', '결과')</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.0107</v>
+        <v>0.29049</v>
       </c>
     </row>
     <row r="173">
@@ -2671,11 +2671,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>('평가', '도구')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.01055</v>
+        <v>0.29049</v>
       </c>
     </row>
     <row r="174">
@@ -2684,11 +2684,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>('프로젝트', '학습')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.01054</v>
+        <v>0.28805</v>
       </c>
     </row>
     <row r="175">
@@ -2697,11 +2697,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>('교사', '인식')</t>
+          <t>('초등', '교육', '현장')</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.01013</v>
+        <v>0.2852</v>
       </c>
     </row>
     <row r="176">
@@ -2710,11 +2710,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>('정보', '윤리')</t>
+          <t>('개발', '적용', '효과')</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.009820000000000001</v>
+        <v>0.28335</v>
       </c>
     </row>
     <row r="177">
@@ -2723,11 +2723,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>('연구', '결과')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.009679999999999999</v>
+        <v>0.28245</v>
       </c>
     </row>
     <row r="178">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>('교재', '개발')</t>
+          <t>('교육', '프로그램', '개발')</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.00953</v>
+        <v>0.27421</v>
       </c>
     </row>
     <row r="179">
@@ -2749,11 +2749,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>('시스템', '개발')</t>
+          <t>('적용', '결과', '분석')</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.009259999999999999</v>
+        <v>0.27367</v>
       </c>
     </row>
     <row r="180">
@@ -2762,11 +2762,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>('언플러그드', '활동')</t>
+          <t>('분석', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.009140000000000001</v>
+        <v>0.27086</v>
       </c>
     </row>
     <row r="181">
@@ -2775,11 +2775,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>('정의', '영역')</t>
+          <t>('역량', '계발')</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.008840000000000001</v>
+        <v>0.2704</v>
       </c>
     </row>
     <row r="182">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>('로봇', '프로그래밍')</t>
+          <t>('목표', '달성')</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.00881</v>
+        <v>0.26991</v>
       </c>
     </row>
     <row r="183">
@@ -2801,11 +2801,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.00868</v>
+        <v>0.26844</v>
       </c>
     </row>
     <row r="184">
@@ -2814,11 +2814,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>('교수', '학습', '자료')</t>
+          <t>('연구', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.008670000000000001</v>
+        <v>0.26408</v>
       </c>
     </row>
     <row r="185">
@@ -2827,11 +2827,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>('도구', '개발')</t>
+          <t>('교육', '현장', '적용')</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.00847</v>
+        <v>0.26369</v>
       </c>
     </row>
     <row r="186">
@@ -2840,11 +2840,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>('모형', '개발')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.00839</v>
+        <v>0.26272</v>
       </c>
     </row>
     <row r="187">
@@ -2853,11 +2853,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>('인터넷', '사용')</t>
+          <t>('문제', '해결', '방법')</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.00839</v>
+        <v>0.26028</v>
       </c>
     </row>
     <row r="188">
@@ -2866,11 +2866,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>('학습자', '중심')</t>
+          <t>('개발', '적용', '연구')</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.008229999999999999</v>
+        <v>0.25826</v>
       </c>
     </row>
     <row r="189">
@@ -2879,11 +2879,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>('실정', '연구')</t>
+          <t>('교수', '학습', '과정안')</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.00822</v>
+        <v>0.25575</v>
       </c>
     </row>
     <row r="190">
@@ -2892,11 +2892,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>('적용', '결과')</t>
+          <t>('기준', '교수', '학습')</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.00813</v>
+        <v>0.25575</v>
       </c>
     </row>
     <row r="191">
@@ -2905,11 +2905,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>('긍정', '효과')</t>
+          <t>('교육', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.25528</v>
       </c>
     </row>
     <row r="192">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>('교육', '대학교')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.007939999999999999</v>
+        <v>0.25407</v>
       </c>
     </row>
     <row r="193">
@@ -2931,11 +2931,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>('교수', '학습', '시스템')</t>
+          <t>('교육', '내용', '체계')</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.00775</v>
+        <v>0.25345</v>
       </c>
     </row>
     <row r="194">
@@ -2944,11 +2944,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>('사고력', '신장')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.00753</v>
+        <v>0.25253</v>
       </c>
     </row>
     <row r="195">
@@ -2957,11 +2957,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>('스마트', '교육')</t>
+          <t>('적용', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.00732</v>
+        <v>0.25189</v>
       </c>
     </row>
     <row r="196">
@@ -2970,11 +2970,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>('교육', '프로그램')</t>
+          <t>('교사', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.00723</v>
+        <v>0.25189</v>
       </c>
     </row>
     <row r="197">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>('학습', '모형')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.0072</v>
+        <v>0.25172</v>
       </c>
     </row>
     <row r="198">
@@ -2996,11 +2996,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>('초등', '예비')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.00717</v>
+        <v>0.2442</v>
       </c>
     </row>
     <row r="199">
@@ -3009,11 +3009,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>('활동', '중심')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.00709</v>
+        <v>0.24093</v>
       </c>
     </row>
     <row r="200">
@@ -3022,11 +3022,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>('실태', '분석')</t>
+          <t>('초등', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.00679</v>
+        <v>0.23989</v>
       </c>
     </row>
     <row r="201">
@@ -3035,11 +3035,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>('학습', '전략')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.00677</v>
+        <v>0.23975</v>
       </c>
     </row>
     <row r="202">
@@ -3048,11 +3048,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>('검사', '결과')</t>
+          <t>('정보', '과학', '교육')</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.00677</v>
+        <v>0.23709</v>
       </c>
     </row>
     <row r="203">
@@ -3061,11 +3061,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>('콘텐츠', '개발')</t>
+          <t>('활용', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.00669</v>
+        <v>0.23537</v>
       </c>
     </row>
     <row r="204">
@@ -3074,11 +3074,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>('교사', '연수')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.0066</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="205">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>('학습', '부진아')</t>
+          <t>('정보', '영재', '교육')</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.00656</v>
+        <v>0.23474</v>
       </c>
     </row>
     <row r="206">
@@ -3100,11 +3100,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>('학습', '몰입')</t>
+          <t>('초등', '정보', '과학')</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.00656</v>
+        <v>0.23452</v>
       </c>
     </row>
     <row r="207">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>('학습', '방법')</t>
+          <t>('분석', '컴퓨터', '교육')</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.00654</v>
+        <v>0.23245</v>
       </c>
     </row>
     <row r="208">
@@ -3126,11 +3126,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>('수업', '모형')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.00651</v>
+        <v>0.23224</v>
       </c>
     </row>
     <row r="209">
@@ -3139,11 +3139,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>('평가', '방법')</t>
+          <t>('시스템', '설계', '개발')</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.0064</v>
+        <v>0.22941</v>
       </c>
     </row>
     <row r="210">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>('결과', '다음')</t>
+          <t>('개발', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.0062</v>
+        <v>0.22899</v>
       </c>
     </row>
     <row r="211">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>('기술', '발전')</t>
+          <t>('교육', '로봇', '활용')</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.00611</v>
+        <v>0.22816</v>
       </c>
     </row>
     <row r="212">
@@ -3178,11 +3178,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>('조사', '결과')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.00599</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="213">
@@ -3191,11 +3191,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>('해결', '과정')</t>
+          <t>('지원', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.00588</v>
+        <v>0.22658</v>
       </c>
     </row>
     <row r="214">
@@ -3204,11 +3204,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>('윤리', '교육')</t>
+          <t>('교육', '프로그램', '적용')</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.00587</v>
+        <v>0.22551</v>
       </c>
     </row>
     <row r="215">
@@ -3217,11 +3217,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>('효과', '분석')</t>
+          <t>('예비', '교사', '교육')</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.00582</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="216">
@@ -3230,11 +3230,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>('만족도', '영향')</t>
+          <t>('활용', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.00578</v>
+        <v>0.22298</v>
       </c>
     </row>
     <row r="217">
@@ -3243,11 +3243,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>('프로그래밍', '교육')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.00571</v>
+        <v>0.2187</v>
       </c>
     </row>
     <row r="218">
@@ -3256,11 +3256,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>('교수', '학습', '활동')</t>
+          <t>('결과', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.00568</v>
+        <v>0.2183</v>
       </c>
     </row>
     <row r="219">
@@ -3269,11 +3269,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>('메이커', '교육')</t>
+          <t>('현장', '적용', '결과')</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.00562</v>
+        <v>0.21799</v>
       </c>
     </row>
     <row r="220">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>('수업', '설계')</t>
+          <t>('실시', '연구', '결과')</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.00556</v>
+        <v>0.21786</v>
       </c>
     </row>
     <row r="221">
@@ -3295,11 +3295,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>('초등', '교사')</t>
+          <t>('학습', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.00555</v>
+        <v>0.21557</v>
       </c>
     </row>
     <row r="222">
@@ -3308,11 +3308,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>('원격', '교육')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.0055</v>
+        <v>0.21524</v>
       </c>
     </row>
     <row r="223">
@@ -3321,11 +3321,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>('적용', '가능')</t>
+          <t>('사용', '자군')</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.0055</v>
+        <v>0.21368</v>
       </c>
     </row>
     <row r="224">
@@ -3334,11 +3334,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>('독서', '교육')</t>
+          <t>('분석', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.00546</v>
+        <v>0.21314</v>
       </c>
     </row>
     <row r="225">
@@ -3347,11 +3347,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>('ai', '교육')</t>
+          <t>('초등', '교사', '인식')</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.00534</v>
+        <v>0.21259</v>
       </c>
     </row>
     <row r="226">
@@ -3360,11 +3360,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교과')</t>
+          <t>('학습자', '문제', '해결')</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.00529</v>
+        <v>0.21239</v>
       </c>
     </row>
     <row r="227">
@@ -3373,11 +3373,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.00521</v>
+        <v>0.21106</v>
       </c>
     </row>
     <row r="228">
@@ -3386,11 +3386,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>('인공지능', '교육')</t>
+          <t>('중독', '잠재')</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.00521</v>
+        <v>0.21044</v>
       </c>
     </row>
     <row r="229">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>('향상', '긍정')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.00515</v>
+        <v>0.21026</v>
       </c>
     </row>
     <row r="230">
@@ -3412,11 +3412,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>('결과', '토대')</t>
+          <t>('적응', '코스웨어')</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.0051</v>
+        <v>0.20968</v>
       </c>
     </row>
     <row r="231">
@@ -3425,11 +3425,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>('활용', 'sw')</t>
+          <t>('로봇', '활용', '교육')</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.00508</v>
+        <v>0.20957</v>
       </c>
     </row>
     <row r="232">
@@ -3438,11 +3438,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.00504</v>
+        <v>0.20885</v>
       </c>
     </row>
     <row r="233">
@@ -3451,11 +3451,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>('개정', '교육')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.00504</v>
+        <v>0.20872</v>
       </c>
     </row>
     <row r="234">
@@ -3464,11 +3464,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>('도구', '활용')</t>
+          <t>('활용', '프로그래밍', '학습')</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.00501</v>
+        <v>0.20851</v>
       </c>
     </row>
     <row r="235">
@@ -3477,11 +3477,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교육')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.00488</v>
+        <v>0.20786</v>
       </c>
     </row>
     <row r="236">
@@ -3490,11 +3490,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>('비교', '집단')</t>
+          <t>('효과', '분석', '분석')</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.00488</v>
+        <v>0.20393</v>
       </c>
     </row>
     <row r="237">
@@ -3503,11 +3503,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>('수업', '적용')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.00476</v>
+        <v>0.20386</v>
       </c>
     </row>
     <row r="238">
@@ -3516,11 +3516,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>('중심', '학습')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.00474</v>
+        <v>0.20282</v>
       </c>
     </row>
     <row r="239">
@@ -3529,11 +3529,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>('소양', '능력')</t>
+          <t>('연구', '컴퓨터', '과학')</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.00467</v>
+        <v>0.20243</v>
       </c>
     </row>
     <row r="240">
@@ -3542,11 +3542,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>('향상', '효과')</t>
+          <t>('전문가', '검토')</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.0046</v>
+        <v>0.20243</v>
       </c>
     </row>
     <row r="241">
@@ -3555,11 +3555,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>('모델', '개발')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.00452</v>
+        <v>0.20243</v>
       </c>
     </row>
     <row r="242">
@@ -3568,11 +3568,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>('학습', '성과')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.0045</v>
+        <v>0.20121</v>
       </c>
     </row>
     <row r="243">
@@ -3581,11 +3581,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>('교육', '현장')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.00449</v>
+        <v>0.19773</v>
       </c>
     </row>
     <row r="244">
@@ -3594,11 +3594,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>('steam', '교육')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.00443</v>
+        <v>0.19757</v>
       </c>
     </row>
     <row r="245">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>('스마트폰', '사용')</t>
+          <t>('교육', '프로그램', '효과')</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.00441</v>
+        <v>0.19678</v>
       </c>
     </row>
     <row r="246">
@@ -3620,11 +3620,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>('연구', '초등')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.0044</v>
+        <v>0.18997</v>
       </c>
     </row>
     <row r="247">
@@ -3633,11 +3633,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>('실시', '결과')</t>
+          <t>('연구', '결과', '토대')</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.0044</v>
+        <v>0.18861</v>
       </c>
     </row>
     <row r="248">
@@ -3646,11 +3646,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>('학습', '활동')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.00436</v>
+        <v>0.18744</v>
       </c>
     </row>
     <row r="249">
@@ -3659,11 +3659,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>('모형', '적용')</t>
+          <t>('연구', '결과', '초등')</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.0043</v>
+        <v>0.18706</v>
       </c>
     </row>
     <row r="250">
@@ -3672,11 +3672,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>('환경', '제공')</t>
+          <t>('프로그램', '개발', '개발')</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.00425</v>
+        <v>0.18657</v>
       </c>
     </row>
     <row r="251">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>('기술', '활용')</t>
+          <t>('체계', '문헌')</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.00414</v>
+        <v>0.18519</v>
       </c>
     </row>
     <row r="252">
@@ -3698,11 +3698,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>('학습', '내용')</t>
+          <t>('교육', '효과', '분석')</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.00408</v>
+        <v>0.18338</v>
       </c>
     </row>
     <row r="253">
@@ -3711,11 +3711,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>('학습', '시스템')</t>
+          <t>('시스템', '개발', '적용')</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.00405</v>
+        <v>0.18142</v>
       </c>
     </row>
     <row r="254">
@@ -3724,11 +3724,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>('초등', '정보')</t>
+          <t>('연구', '결과', '다음')</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.00401</v>
+        <v>0.18107</v>
       </c>
     </row>
     <row r="255">
@@ -3737,11 +3737,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>('교육', '내용')</t>
+          <t>('요구', '분석', '결과')</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.00398</v>
+        <v>0.18067</v>
       </c>
     </row>
     <row r="256">
@@ -3750,11 +3750,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>('학습', '태도')</t>
+          <t>('예비', '교사', '대상')</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.00397</v>
+        <v>0.18025</v>
       </c>
     </row>
     <row r="257">
@@ -3763,11 +3763,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>('영재', '교육')</t>
+          <t>('초등', '컴퓨터', '교육')</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.00393</v>
+        <v>0.17844</v>
       </c>
     </row>
     <row r="258">
@@ -3776,11 +3776,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>('검증', '결과')</t>
+          <t>('학습', '시스템', '설계')</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.0039</v>
+        <v>0.17695</v>
       </c>
     </row>
     <row r="259">
@@ -3789,11 +3789,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교과서')</t>
+          <t>('초등', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.00384</v>
+        <v>0.17689</v>
       </c>
     </row>
     <row r="260">
@@ -3802,11 +3802,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>('시스템', '구현')</t>
+          <t>('분석', '연구', '결과')</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.0037</v>
+        <v>0.17637</v>
       </c>
     </row>
     <row r="261">
@@ -3815,11 +3815,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>('학습', '자료')</t>
+          <t>('ict', '활용', '능력')</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.0037</v>
+        <v>0.17613</v>
       </c>
     </row>
     <row r="262">
@@ -3828,11 +3828,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>('초등', '대상')</t>
+          <t>('운영', '지침')</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.00355</v>
+        <v>0.1746</v>
       </c>
     </row>
     <row r="263">
@@ -3841,11 +3841,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>('학습', '환경')</t>
+          <t>('프로그램', '개발', '적용')</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.00353</v>
+        <v>0.17269</v>
       </c>
     </row>
     <row r="264">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>('수학', '과학')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.00353</v>
+        <v>0.17007</v>
       </c>
     </row>
     <row r="265">
@@ -3867,11 +3867,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>('지식', '정보')</t>
+          <t>('교수', '학습', '모델')</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.00345</v>
+        <v>0.1668</v>
       </c>
     </row>
     <row r="266">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>('수업', '실시')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.00345</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="267">
@@ -3893,11 +3893,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>('프로그래밍', '학습')</t>
+          <t>('교육', '교수', '학습')</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.00337</v>
+        <v>0.16549</v>
       </c>
     </row>
     <row r="268">
@@ -3906,11 +3906,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>('개인', '정보')</t>
+          <t>('컴퓨팅', '사고력', '신장')</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.00337</v>
+        <v>0.16495</v>
       </c>
     </row>
     <row r="269">
@@ -3919,11 +3919,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨터')</t>
+          <t>('컴퓨터', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.00334</v>
+        <v>0.16173</v>
       </c>
     </row>
     <row r="270">
@@ -3932,11 +3932,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>('자료', '개발')</t>
+          <t>('교육', '과정', '교육')</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.00329</v>
+        <v>0.16026</v>
       </c>
     </row>
     <row r="271">
@@ -3945,11 +3945,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>('평가', '결과')</t>
+          <t>('교육', '과정', '내용')</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.00329</v>
+        <v>0.16026</v>
       </c>
     </row>
     <row r="272">
@@ -3958,11 +3958,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>('로봇', '교육')</t>
+          <t>('교육', '과정', '모델')</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.00323</v>
+        <v>0.16026</v>
       </c>
     </row>
     <row r="273">
@@ -3971,11 +3971,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>('검사', '도구')</t>
+          <t>('개정', '교육', '과정')</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.00322</v>
+        <v>0.16026</v>
       </c>
     </row>
     <row r="274">
@@ -3984,11 +3984,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>('상담', '시스템')</t>
+          <t>('교육', '과정', '표준')</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.00318</v>
+        <v>0.16026</v>
       </c>
     </row>
     <row r="275">
@@ -3997,11 +3997,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>('프로그램', '적용')</t>
+          <t>('컴퓨팅', '사고력', '향상')</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.00316</v>
+        <v>0.15983</v>
       </c>
     </row>
     <row r="276">
@@ -4010,11 +4010,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>('차이', '분석')</t>
+          <t>('ict', '활용', '교육')</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.00314</v>
+        <v>0.15806</v>
       </c>
     </row>
     <row r="277">
@@ -4023,11 +4023,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>('협력', '학습')</t>
+          <t>('교육', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.00311</v>
+        <v>0.15775</v>
       </c>
     </row>
     <row r="278">
@@ -4036,11 +4036,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>('정보', '기기')</t>
+          <t>('교육', '로봇', '교육')</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.00309</v>
+        <v>0.15667</v>
       </c>
     </row>
     <row r="279">
@@ -4049,11 +4049,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>('교사', '학생')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.00308</v>
+        <v>0.15665</v>
       </c>
     </row>
     <row r="280">
@@ -4062,11 +4062,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>('활용', '방안')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.003</v>
+        <v>0.15603</v>
       </c>
     </row>
     <row r="281">
@@ -4075,11 +4075,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>('교육', '중요')</t>
+          <t>('교육', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.00297</v>
+        <v>0.15534</v>
       </c>
     </row>
     <row r="282">
@@ -4088,11 +4088,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>('교육', '활성')</t>
+          <t>('교육', '과정', '개발')</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.00296</v>
+        <v>0.15409</v>
       </c>
     </row>
     <row r="283">
@@ -4101,11 +4101,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>('학습', '만족도')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.00296</v>
+        <v>0.15295</v>
       </c>
     </row>
     <row r="284">
@@ -4114,11 +4114,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>('방안', '연구')</t>
+          <t>('활용', '능력', '향상')</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.00294</v>
+        <v>0.15238</v>
       </c>
     </row>
     <row r="285">
@@ -4127,11 +4127,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>('평가', '시스템')</t>
+          <t>('세부', '역량')</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.00293</v>
+        <v>0.15109</v>
       </c>
     </row>
     <row r="286">
@@ -4140,11 +4140,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>('학습', '콘텐츠')</t>
+          <t>('sw', '교육', '인식')</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.00293</v>
+        <v>0.14817</v>
       </c>
     </row>
     <row r="287">
@@ -4153,11 +4153,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>('요인', '분석')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.00291</v>
+        <v>0.14798</v>
       </c>
     </row>
     <row r="288">
@@ -4166,11 +4166,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>('융합', '활동')</t>
+          <t>('교육', '과정', '제안')</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.00288</v>
+        <v>0.14793</v>
       </c>
     </row>
     <row r="289">
@@ -4179,11 +4179,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>('해결력', '향상')</t>
+          <t>('연구', '정보', '교육')</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.00287</v>
+        <v>0.14741</v>
       </c>
     </row>
     <row r="290">
@@ -4192,11 +4192,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>('분석', '실시')</t>
+          <t>('비판', '사고')</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.00286</v>
+        <v>0.14697</v>
       </c>
     </row>
     <row r="291">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>('교육', '실시')</t>
+          <t>('교육', '과정', '개선')</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.00285</v>
+        <v>0.1469</v>
       </c>
     </row>
     <row r="292">
@@ -4218,11 +4218,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>('알고리즘', '프로그래밍')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.00281</v>
+        <v>0.14458</v>
       </c>
     </row>
     <row r="293">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>('과정', '개발')</t>
+          <t>('개발', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.00278</v>
+        <v>0.14456</v>
       </c>
     </row>
     <row r="294">
@@ -4244,11 +4244,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>('논문', '초등')</t>
+          <t>('초등', '정보', '교육')</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.00274</v>
+        <v>0.14397</v>
       </c>
     </row>
     <row r="295">
@@ -4257,11 +4257,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>('필요', '연구')</t>
+          <t>('교수', '학습', '방법')</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.00271</v>
+        <v>0.14386</v>
       </c>
     </row>
     <row r="296">
@@ -4270,11 +4270,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>('제안', '제안')</t>
+          <t>('교육', '과정', '연구')</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.0027</v>
+        <v>0.14245</v>
       </c>
     </row>
     <row r="297">
@@ -4283,11 +4283,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>('영향', '분석')</t>
+          <t>('로봇', '교육', '로봇')</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.0027</v>
+        <v>0.14243</v>
       </c>
     </row>
     <row r="298">
@@ -4296,11 +4296,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>('교육', '정책')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.00269</v>
+        <v>0.14194</v>
       </c>
     </row>
     <row r="299">
@@ -4309,11 +4309,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>('블록', '프로그래밍')</t>
+          <t>('교육', '과정', '분석')</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.00269</v>
+        <v>0.14177</v>
       </c>
     </row>
     <row r="300">
@@ -4322,11 +4322,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>('학습', '효과')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.00268</v>
+        <v>0.14171</v>
       </c>
     </row>
     <row r="301">
@@ -4335,11 +4335,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>('활용', '실태')</t>
+          <t>('교육', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.00264</v>
+        <v>0.13994</v>
       </c>
     </row>
     <row r="302">
@@ -4348,11 +4348,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>('토론', '학습')</t>
+          <t>('프로그래밍', '교육', '방안')</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.0026</v>
+        <v>0.13976</v>
       </c>
     </row>
     <row r="303">
@@ -4361,11 +4361,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>('분석', '연구')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.00259</v>
+        <v>0.1395</v>
       </c>
     </row>
     <row r="304">
@@ -4374,11 +4374,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>('해결', '능력')</t>
+          <t>('초등', '정보', '영재')</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.00252</v>
+        <v>0.13741</v>
       </c>
     </row>
     <row r="305">
@@ -4387,11 +4387,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>('방법', '제안')</t>
+          <t>('개발', '초등', '학년')</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.00251</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="306">
@@ -4400,11 +4400,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>('교육', '효과')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.0025</v>
+        <v>0.13569</v>
       </c>
     </row>
     <row r="307">
@@ -4413,11 +4413,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>('요구', '분석')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.0025</v>
+        <v>0.13569</v>
       </c>
     </row>
     <row r="308">
@@ -4426,11 +4426,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>('과학', '교육')</t>
+          <t>('교육', '과정', '컴퓨터')</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.00247</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="309">
@@ -4439,11 +4439,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>('교육', '콘텐츠')</t>
+          <t>('적극', '참여')</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.00245</v>
+        <v>0.13369</v>
       </c>
     </row>
     <row r="310">
@@ -4452,11 +4452,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>('초등', '소프트웨어')</t>
+          <t>('교육', '과정', '소프트웨어')</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.00245</v>
+        <v>0.13355</v>
       </c>
     </row>
     <row r="311">
@@ -4465,11 +4465,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>('스크래치', '활용')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.00243</v>
+        <v>0.13167</v>
       </c>
     </row>
     <row r="312">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>('조사', '분석')</t>
+          <t>('활용', '교수', '학습')</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0024</v>
+        <v>0.12788</v>
       </c>
     </row>
     <row r="313">
@@ -4491,11 +4491,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>('디지털교과서', '활용')</t>
+          <t>('교육', '과정', '정보')</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.0024</v>
+        <v>0.12687</v>
       </c>
     </row>
     <row r="314">
@@ -4504,11 +4504,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>('교육', '필요')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.00236</v>
+        <v>0.12674</v>
       </c>
     </row>
     <row r="315">
@@ -4517,11 +4517,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>('온라인', '학습')</t>
+          <t>('교육', '과정', '구성')</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.00229</v>
+        <v>0.12542</v>
       </c>
     </row>
     <row r="316">
@@ -4530,11 +4530,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>('학습', '스타일')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.00226</v>
+        <v>0.12535</v>
       </c>
     </row>
     <row r="317">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>('적용', '효과')</t>
+          <t>('교육', '효과', '검증')</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.00225</v>
+        <v>0.12503</v>
       </c>
     </row>
     <row r="318">
@@ -4556,11 +4556,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>('활용', '수업')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.0022</v>
+        <v>0.12442</v>
       </c>
     </row>
     <row r="319">
@@ -4569,11 +4569,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>('정보', '교육')</t>
+          <t>('로봇', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.00214</v>
+        <v>0.12391</v>
       </c>
     </row>
     <row r="320">
@@ -4582,11 +4582,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>('컴퓨터', '활용')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.0021</v>
+        <v>0.12369</v>
       </c>
     </row>
     <row r="321">
@@ -4595,11 +4595,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>('설계', '개발')</t>
+          <t>('프로젝트', '학습', '시스템')</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0021</v>
+        <v>0.12285</v>
       </c>
     </row>
     <row r="322">
@@ -4608,11 +4608,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>('교육', '기관')</t>
+          <t>('steam', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.00208</v>
+        <v>0.12182</v>
       </c>
     </row>
     <row r="323">
@@ -4621,11 +4621,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>('교육', '방법')</t>
+          <t>('교육', '과정', '운영')</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.00204</v>
+        <v>0.12019</v>
       </c>
     </row>
     <row r="324">
@@ -4634,11 +4634,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>('학습', '능력')</t>
+          <t>('교육', '과정', '초등')</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.00203</v>
+        <v>0.12019</v>
       </c>
     </row>
     <row r="325">
@@ -4647,11 +4647,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>('현장', '교사')</t>
+          <t>('교육', '과정', '설계')</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.00199</v>
+        <v>0.12019</v>
       </c>
     </row>
     <row r="326">
@@ -4660,11 +4660,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>('학습자', '학습')</t>
+          <t>('창의', '인성')</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.00198</v>
+        <v>0.11985</v>
       </c>
     </row>
     <row r="327">
@@ -4673,11 +4673,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>('프로그래밍', '수업')</t>
+          <t>('교육', '시스템', '설계')</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.00194</v>
+        <v>0.11984</v>
       </c>
     </row>
     <row r="328">
@@ -4686,11 +4686,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>('수업', '참여')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.00193</v>
+        <v>0.11934</v>
       </c>
     </row>
     <row r="329">
@@ -4699,11 +4699,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>('알고리즘', '교육')</t>
+          <t>('관계', '규명')</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.0019</v>
+        <v>0.1175</v>
       </c>
     </row>
     <row r="330">
@@ -4712,11 +4712,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>('논문', '제안')</t>
+          <t>('교육', '컴퓨터', '교육')</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.00189</v>
+        <v>0.11677</v>
       </c>
     </row>
     <row r="331">
@@ -4725,11 +4725,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>('컴퓨터', '게임')</t>
+          <t>('세기', '지식')</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.00189</v>
+        <v>0.11475</v>
       </c>
     </row>
     <row r="332">
@@ -4738,11 +4738,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>('영어', '학습')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.00188</v>
+        <v>0.11379</v>
       </c>
     </row>
     <row r="333">
@@ -4751,11 +4751,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>('분석', '분석')</t>
+          <t>('교원', '연수')</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.00187</v>
+        <v>0.11344</v>
       </c>
     </row>
     <row r="334">
@@ -4764,11 +4764,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>('개발', '개발')</t>
+          <t>('성별', '차이')</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.00186</v>
+        <v>0.11211</v>
       </c>
     </row>
     <row r="335">
@@ -4777,11 +4777,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>('정보', '검색')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.00182</v>
+        <v>0.11184</v>
       </c>
     </row>
     <row r="336">
@@ -4790,11 +4790,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>('활용', '프로그래밍')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.00182</v>
+        <v>0.11088</v>
       </c>
     </row>
     <row r="337">
@@ -4803,11 +4803,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>('정보', '제공')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.00181</v>
+        <v>0.11065</v>
       </c>
     </row>
     <row r="338">
@@ -4816,11 +4816,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>('활용', '교육')</t>
+          <t>('연구', '컴퓨터', '교육')</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.0018</v>
+        <v>0.11011</v>
       </c>
     </row>
     <row r="339">
@@ -4829,11 +4829,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>('데이터', '분석')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.00179</v>
+        <v>0.10934</v>
       </c>
     </row>
     <row r="340">
@@ -4842,11 +4842,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>('정보', '활용')</t>
+          <t>('교수', '학습', '전략')</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.00174</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="341">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>('융합', '교육')</t>
+          <t>('교수', '학습', '모형')</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.00168</v>
+        <v>0.10635</v>
       </c>
     </row>
     <row r="342">
@@ -4868,11 +4868,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>('결과', '학생')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.00166</v>
+        <v>0.10582</v>
       </c>
     </row>
     <row r="343">
@@ -4881,11 +4881,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>('학습', '지원')</t>
+          <t>('연구', '정보', '통신')</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.00165</v>
+        <v>0.10318</v>
       </c>
     </row>
     <row r="344">
@@ -4894,11 +4894,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>('실시', '연구')</t>
+          <t>('사이버', '상담')</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.00159</v>
+        <v>0.10281</v>
       </c>
     </row>
     <row r="345">
@@ -4907,11 +4907,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>('학습', '경험')</t>
+          <t>('중독', '정도')</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.00157</v>
+        <v>0.10101</v>
       </c>
     </row>
     <row r="346">
@@ -4920,11 +4920,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>('교육', '정보')</t>
+          <t>('과학', '예술')</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.00153</v>
+        <v>0.10041</v>
       </c>
     </row>
     <row r="347">
@@ -4933,11 +4933,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>('ict', '교육')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.00152</v>
+        <v>0.09956</v>
       </c>
     </row>
     <row r="348">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>('학교', '교육')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.00149</v>
+        <v>0.09791</v>
       </c>
     </row>
     <row r="349">
@@ -4959,11 +4959,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>('연수', '프로그램')</t>
+          <t>('하위', '요소')</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.00149</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="350">
@@ -4972,11 +4972,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>('방법', '평가')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.00149</v>
+        <v>0.09544</v>
       </c>
     </row>
     <row r="351">
@@ -4985,11 +4985,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>('교육', '대학')</t>
+          <t>('교수', '학습', '자료')</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.00147</v>
+        <v>0.09537</v>
       </c>
     </row>
     <row r="352">
@@ -4998,11 +4998,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>('학습', '목표')</t>
+          <t>('교수', '학습', '적용')</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.00144</v>
+        <v>0.09472</v>
       </c>
     </row>
     <row r="353">
@@ -5011,11 +5011,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>('결과', '분석')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.00142</v>
+        <v>0.09463000000000001</v>
       </c>
     </row>
     <row r="354">
@@ -5024,11 +5024,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨팅')</t>
+          <t>('창의', '문제', '해결')</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.0014</v>
+        <v>0.09218</v>
       </c>
     </row>
     <row r="355">
@@ -5037,11 +5037,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>('프로그램', '초등')</t>
+          <t>('미래', '사회')</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.00139</v>
+        <v>0.09163</v>
       </c>
     </row>
     <row r="356">
@@ -5050,11 +5050,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍')</t>
+          <t>('역량', '강화')</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.00137</v>
+        <v>0.08969000000000001</v>
       </c>
     </row>
     <row r="357">
@@ -5063,11 +5063,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>('정보', '교과')</t>
+          <t>('sw', '교육', '관련')</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.00136</v>
+        <v>0.08816</v>
       </c>
     </row>
     <row r="358">
@@ -5076,11 +5076,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>('자료', '활용')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.00133</v>
+        <v>0.08776</v>
       </c>
     </row>
     <row r="359">
@@ -5089,11 +5089,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>('개발', '연구')</t>
+          <t>('ct', '역량')</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.00131</v>
+        <v>0.08656999999999999</v>
       </c>
     </row>
     <row r="360">
@@ -5102,11 +5102,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>('교육', '관련')</t>
+          <t>('의도', '영향')</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.00128</v>
+        <v>0.08547</v>
       </c>
     </row>
     <row r="361">
@@ -5115,11 +5115,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>('효과', '확인')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.00128</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="362">
@@ -5128,11 +5128,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>('교육', '로봇')</t>
+          <t>('가상현실', '콘텐츠')</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.00127</v>
+        <v>0.08402999999999999</v>
       </c>
     </row>
     <row r="363">
@@ -5141,11 +5141,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>('실험', '결과')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.00126</v>
+        <v>0.08384999999999999</v>
       </c>
     </row>
     <row r="364">
@@ -5154,11 +5154,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>('학습', '과정')</t>
+          <t>('시간', '공간')</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.00126</v>
+        <v>0.08302</v>
       </c>
     </row>
     <row r="365">
@@ -5167,11 +5167,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>('프로그램', '효과')</t>
+          <t>('교구', '관리')</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.00125</v>
+        <v>0.08289000000000001</v>
       </c>
     </row>
     <row r="366">
@@ -5180,11 +5180,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>('교육', '환경')</t>
+          <t>('교육', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.00123</v>
+        <v>0.08119999999999999</v>
       </c>
     </row>
     <row r="367">
@@ -5193,11 +5193,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>('교육', '방향')</t>
+          <t>('관련', '교육', '과정')</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.00122</v>
+        <v>0.08013000000000001</v>
       </c>
     </row>
     <row r="368">
@@ -5206,11 +5206,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>('개발', '초등')</t>
+          <t>('기술', '수용')</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.00118</v>
+        <v>0.07849</v>
       </c>
     </row>
     <row r="369">
@@ -5219,11 +5219,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>('개발', '시스템')</t>
+          <t>('핵심', '개념')</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.00117</v>
+        <v>0.07689</v>
       </c>
     </row>
     <row r="370">
@@ -5232,11 +5232,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>('학생', '정보')</t>
+          <t>('데이터', '수집')</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.00112</v>
+        <v>0.07376000000000001</v>
       </c>
     </row>
     <row r="371">
@@ -5245,11 +5245,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>('진로', '교육')</t>
+          <t>('교수', '학습', '과정')</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.0011</v>
+        <v>0.07307</v>
       </c>
     </row>
     <row r="372">
@@ -5258,11 +5258,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>('과정', '구성')</t>
+          <t>('사전', '검사')</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.00107</v>
+        <v>0.07278999999999999</v>
       </c>
     </row>
     <row r="373">
@@ -5271,11 +5271,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>('교육', '목표')</t>
+          <t>('담당', '교사')</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.00106</v>
+        <v>0.07251000000000001</v>
       </c>
     </row>
     <row r="374">
@@ -5284,11 +5284,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>('교육', '시스템')</t>
+          <t>('협업', '능력')</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.00105</v>
+        <v>0.07198</v>
       </c>
     </row>
     <row r="375">
@@ -5297,11 +5297,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>('정보', '기술')</t>
+          <t>('sw', '교육', '초등')</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.00102</v>
+        <v>0.07197000000000001</v>
       </c>
     </row>
     <row r="376">
@@ -5310,11 +5310,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>('컴퓨터', '프로그래밍')</t>
+          <t>('교육', '연구', '초등')</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.00102</v>
+        <v>0.07086000000000001</v>
       </c>
     </row>
     <row r="377">
@@ -5323,11 +5323,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>('교육', '자료')</t>
+          <t>('하위', '영역')</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.00099</v>
+        <v>0.07056</v>
       </c>
     </row>
     <row r="378">
@@ -5336,11 +5336,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>('학습', '학습자')</t>
+          <t>('교육', '초등', '학년')</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.00099</v>
+        <v>0.07052</v>
       </c>
     </row>
     <row r="379">
@@ -5349,11 +5349,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>('과정', '모델')</t>
+          <t>('회귀', '분석')</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.00099</v>
+        <v>0.07013</v>
       </c>
     </row>
     <row r="380">
@@ -5362,11 +5362,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>('소양', '교육')</t>
+          <t>('비교', '분석', '결과')</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.07009</v>
       </c>
     </row>
     <row r="381">
@@ -5375,11 +5375,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>('교과', '교육')</t>
+          <t>('도형', '영역')</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.00096</v>
+        <v>0.06995999999999999</v>
       </c>
     </row>
     <row r="382">
@@ -5388,11 +5388,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>('초등', '수학')</t>
+          <t>('활성', '방안')</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.00096</v>
+        <v>0.06972</v>
       </c>
     </row>
     <row r="383">
@@ -5401,11 +5401,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>('연구', '정보')</t>
+          <t>('제공', '의의')</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.00096</v>
+        <v>0.06962</v>
       </c>
     </row>
     <row r="384">
@@ -5414,11 +5414,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>('학생', '컴퓨터')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.00095</v>
+        <v>0.06959</v>
       </c>
     </row>
     <row r="385">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>('연구', '컴퓨터')</t>
+          <t>('원리', '이해')</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.00094</v>
+        <v>0.06839000000000001</v>
       </c>
     </row>
     <row r="386">
@@ -5440,11 +5440,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>('방법', '연구')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.00091</v>
+        <v>0.06791</v>
       </c>
     </row>
     <row r="387">
@@ -5453,11 +5453,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>('교육', '초등')</t>
+          <t>('정의', '영역')</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.0009</v>
+        <v>0.06781</v>
       </c>
     </row>
     <row r="388">
@@ -5466,11 +5466,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>('개발', '교육')</t>
+          <t>('스마트', '러닝')</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.06773999999999999</v>
       </c>
     </row>
     <row r="389">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>('초등', '프로그래밍')</t>
+          <t>('기술', '발전')</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.00087</v>
+        <v>0.06716</v>
       </c>
     </row>
     <row r="390">
@@ -5492,11 +5492,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>('학습자', '문제')</t>
+          <t>('프로그래밍', '프로토타입')</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.00086</v>
+        <v>0.06693</v>
       </c>
     </row>
     <row r="391">
@@ -5505,11 +5505,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>('영향', '연구')</t>
+          <t>('피드백', '제공')</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.00085</v>
+        <v>0.06645</v>
       </c>
     </row>
     <row r="392">
@@ -5518,11 +5518,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>('연구', '개발')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.00085</v>
+        <v>0.06641</v>
       </c>
     </row>
     <row r="393">
@@ -5531,11 +5531,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>('교수', '학습자')</t>
+          <t>('영재', '학급')</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.00082</v>
+        <v>0.06582</v>
       </c>
     </row>
     <row r="394">
@@ -5544,11 +5544,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>('알고리즘', '학습')</t>
+          <t>('지식', '습득')</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.0008</v>
+        <v>0.06557</v>
       </c>
     </row>
     <row r="395">
@@ -5557,11 +5557,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>('학습', '요소')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.00075</v>
+        <v>0.06390999999999999</v>
       </c>
     </row>
     <row r="396">
@@ -5570,11 +5570,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>('개발', '프로그램')</t>
+          <t>('과학', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.00075</v>
+        <v>0.06371</v>
       </c>
     </row>
     <row r="397">
@@ -5583,11 +5583,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>('적용', '연구')</t>
+          <t>('특성', '고려')</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.00075</v>
+        <v>0.06347</v>
       </c>
     </row>
     <row r="398">
@@ -5596,11 +5596,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>('결과', '초등')</t>
+          <t>('교수', '학습', '활동')</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.00075</v>
+        <v>0.06252000000000001</v>
       </c>
     </row>
     <row r="399">
@@ -5609,11 +5609,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>('제시', '연구')</t>
+          <t>('평가', '준거')</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.00075</v>
+        <v>0.06241</v>
       </c>
     </row>
     <row r="400">
@@ -5622,11 +5622,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '교육')</t>
+          <t>('콘텐츠', '제작')</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.00073</v>
+        <v>0.06211</v>
       </c>
     </row>
     <row r="401">
@@ -5635,11 +5635,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>('효과', '연구')</t>
+          <t>('유해', '정보')</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.0007</v>
+        <v>0.06184</v>
       </c>
     </row>
     <row r="402">
@@ -5648,11 +5648,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>('학습', '도구')</t>
+          <t>('영역', '구분')</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.0007</v>
+        <v>0.06148</v>
       </c>
     </row>
     <row r="403">
@@ -5661,11 +5661,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>('교육', '활용')</t>
+          <t>('수집', '데이터')</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.00069</v>
+        <v>0.06147</v>
       </c>
     </row>
     <row r="404">
@@ -5674,11 +5674,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>('학습', '프로그램')</t>
+          <t>('응용', '프로그램')</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.00066</v>
+        <v>0.06127</v>
       </c>
     </row>
     <row r="405">
@@ -5687,11 +5687,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>('초등', '학생')</t>
+          <t>('단계', '구분')</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.00066</v>
+        <v>0.06049</v>
       </c>
     </row>
     <row r="406">
@@ -5700,11 +5700,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>('학생', '교사')</t>
+          <t>('문제점', '해결')</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.00066</v>
+        <v>0.0604</v>
       </c>
     </row>
     <row r="407">
@@ -5713,11 +5713,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>('학생', '창의')</t>
+          <t>('해결력', '신장')</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.06024</v>
       </c>
     </row>
     <row r="408">
@@ -5726,11 +5726,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>('분석', '초등')</t>
+          <t>('소프트웨어', '교육', '교육')</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.00062</v>
+        <v>0.05794</v>
       </c>
     </row>
     <row r="409">
@@ -5739,11 +5739,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>('교육', '연구')</t>
+          <t>('교육', '교육', '과정')</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.00061</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="410">
@@ -5752,11 +5752,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>('교육', '소프트웨어')</t>
+          <t>('요소', '추출')</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.00061</v>
+        <v>0.05672</v>
       </c>
     </row>
     <row r="411">
@@ -5765,11 +5765,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>('연구', '제안')</t>
+          <t>('블록', '프로그래밍')</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.00061</v>
+        <v>0.05646</v>
       </c>
     </row>
     <row r="412">
@@ -5778,11 +5778,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>('기술', '교육')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.00061</v>
+        <v>0.05478</v>
       </c>
     </row>
     <row r="413">
@@ -5791,11 +5791,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨팅')</t>
+          <t>('제시', '의의')</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.00061</v>
+        <v>0.05411</v>
       </c>
     </row>
     <row r="414">
@@ -5804,11 +5804,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>('관련', '연구')</t>
+          <t>('시사점', '제공')</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.05403</v>
       </c>
     </row>
     <row r="415">
@@ -5817,11 +5817,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>('초등', '교육')</t>
+          <t>('초등', '정보', '통신')</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.00058</v>
+        <v>0.05399</v>
       </c>
     </row>
     <row r="416">
@@ -5830,11 +5830,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>('교사', '교육')</t>
+          <t>('방향', '제시')</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.00054</v>
+        <v>0.05337</v>
       </c>
     </row>
     <row r="417">
@@ -5843,11 +5843,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>('연구', '방법')</t>
+          <t>('능력', '신장')</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.00053</v>
+        <v>0.05329</v>
       </c>
     </row>
     <row r="418">
@@ -5856,11 +5856,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>('교수', '방법')</t>
+          <t>('중독', '실태')</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.00052</v>
+        <v>0.05295</v>
       </c>
     </row>
     <row r="419">
@@ -5869,11 +5869,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>('수업', '시간')</t>
+          <t>('로봇', '보조')</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.00052</v>
+        <v>0.05285</v>
       </c>
     </row>
     <row r="420">
@@ -5882,11 +5882,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>('관련', '교육')</t>
+          <t>('소양', '능력')</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.00051</v>
+        <v>0.05137</v>
       </c>
     </row>
     <row r="421">
@@ -5895,11 +5895,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨터')</t>
+          <t>('교육', '정보', '교육')</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.00051</v>
+        <v>0.05099</v>
       </c>
     </row>
     <row r="422">
@@ -5908,11 +5908,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>('학습', '가능')</t>
+          <t>('내용', '체계')</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.0005</v>
+        <v>0.05094</v>
       </c>
     </row>
     <row r="423">
@@ -5921,11 +5921,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>('교육', '활동')</t>
+          <t>('효과', '검증')</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.0005</v>
+        <v>0.04985</v>
       </c>
     </row>
     <row r="424">
@@ -5934,11 +5934,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>('활용', '가능')</t>
+          <t>('과서', '사용')</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.0005</v>
+        <v>0.0496</v>
       </c>
     </row>
     <row r="425">
@@ -5947,11 +5947,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>('대상', '실시')</t>
+          <t>('현직', '교사')</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.0005</v>
+        <v>0.04908</v>
       </c>
     </row>
     <row r="426">
@@ -5960,11 +5960,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>('교육', '학습자')</t>
+          <t>('교수', '실재감')</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.00048</v>
+        <v>0.04893</v>
       </c>
     </row>
     <row r="427">
@@ -5973,11 +5973,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>('활용', '학습')</t>
+          <t>('정보', '보호')</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.00047</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="428">
@@ -5986,11 +5986,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>('교육', '방안')</t>
+          <t>('학교', '홈페이지')</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.00046</v>
+        <v>0.04866</v>
       </c>
     </row>
     <row r="429">
@@ -5999,11 +5999,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>('교육', '교수')</t>
+          <t>('스마트폰', '사용')</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.00046</v>
+        <v>0.04846</v>
       </c>
     </row>
     <row r="430">
@@ -6012,11 +6012,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>('학습', '모델')</t>
+          <t>('내용', '선정')</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.00046</v>
+        <v>0.04844</v>
       </c>
     </row>
     <row r="431">
@@ -6025,11 +6025,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>('연구', '연구')</t>
+          <t>('연구', '초등', '정보')</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.00045</v>
+        <v>0.04839</v>
       </c>
     </row>
     <row r="432">
@@ -6038,11 +6038,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>('과정', '분석')</t>
+          <t>('성취', '목표')</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.00045</v>
+        <v>0.04785</v>
       </c>
     </row>
     <row r="433">
@@ -6051,11 +6051,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>('학생', '학습')</t>
+          <t>('프로그래밍', '교육', '실시')</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.00044</v>
+        <v>0.04777</v>
       </c>
     </row>
     <row r="434">
@@ -6064,11 +6064,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>('분석', '정보')</t>
+          <t>('실태', '조사')</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.00043</v>
+        <v>0.04759</v>
       </c>
     </row>
     <row r="435">
@@ -6077,11 +6077,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>('초등', '현장')</t>
+          <t>('교수', '학습', '시스템')</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.00043</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="436">
@@ -6090,11 +6090,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>('활용', '교수')</t>
+          <t>('영향', '요인')</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.00042</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="437">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>('연구', '대상')</t>
+          <t>('의식', '수준')</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.0004</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="438">
@@ -6116,11 +6116,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>('중심', '교육')</t>
+          <t>('기초', '자료')</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.00038</v>
+        <v>0.04588</v>
       </c>
     </row>
     <row r="439">
@@ -6129,11 +6129,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>('방법', '제시')</t>
+          <t>('언플러그드', '활동')</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.00037</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="440">
@@ -6142,11 +6142,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>('교육', '평가')</t>
+          <t>('동기', '학업')</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.00035</v>
+        <v>0.04567</v>
       </c>
     </row>
     <row r="441">
@@ -6155,11 +6155,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>('학습자', '수준')</t>
+          <t>('프로그래밍', '교육', '방법')</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.00032</v>
+        <v>0.04546</v>
       </c>
     </row>
     <row r="442">
@@ -6168,11 +6168,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>('교육', '관심')</t>
+          <t>('개념', '이해')</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.00032</v>
+        <v>0.04539</v>
       </c>
     </row>
     <row r="443">
@@ -6181,11 +6181,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>('교육', '교과')</t>
+          <t>('발달', '단계')</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.0003</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="444">
@@ -6194,11 +6194,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>('학습', '적용')</t>
+          <t>('플립러닝', '수업')</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.0003</v>
+        <v>0.04502</v>
       </c>
     </row>
     <row r="445">
@@ -6207,11 +6207,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>('연구', '진행')</t>
+          <t>('초등', '고학년')</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.0003</v>
+        <v>0.04492</v>
       </c>
     </row>
     <row r="446">
@@ -6220,11 +6220,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>('과정', '초등')</t>
+          <t>('수행', '평가')</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.00027</v>
+        <v>0.04472</v>
       </c>
     </row>
     <row r="447">
@@ -6233,11 +6233,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>('구현', '연구')</t>
+          <t>('소프트웨어', '교육', '실시')</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.00026</v>
+        <v>0.04457</v>
       </c>
     </row>
     <row r="448">
@@ -6246,11 +6246,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>('과정', '정보')</t>
+          <t>('자료', '공유')</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.00026</v>
+        <v>0.04446</v>
       </c>
     </row>
     <row r="449">
@@ -6259,11 +6259,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>('활용', '연구')</t>
+          <t>('만족도', '영향')</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.00025</v>
+        <v>0.04434</v>
       </c>
     </row>
     <row r="450">
@@ -6272,11 +6272,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>('교육', '학생')</t>
+          <t>('ict', '소양')</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.00025</v>
+        <v>0.04387</v>
       </c>
     </row>
     <row r="451">
@@ -6285,11 +6285,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>('교육', '교육')</t>
+          <t>('효과', '분석', '결과')</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.00024</v>
+        <v>0.04371</v>
       </c>
     </row>
     <row r="452">
@@ -6298,11 +6298,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>('내용', '분석')</t>
+          <t>('유의', '영향')</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.00024</v>
+        <v>0.04359</v>
       </c>
     </row>
     <row r="453">
@@ -6311,11 +6311,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>('컴퓨터', '시스템')</t>
+          <t>('웹기반', '프로젝트')</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.00024</v>
+        <v>0.04345</v>
       </c>
     </row>
     <row r="454">
@@ -6324,11 +6324,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>('인터넷', '활용')</t>
+          <t>('대학교', '학년')</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.00023</v>
+        <v>0.04209</v>
       </c>
     </row>
     <row r="455">
@@ -6337,11 +6337,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>('결과', '연구')</t>
+          <t>('의사소통', '능력')</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.00022</v>
+        <v>0.04153</v>
       </c>
     </row>
     <row r="456">
@@ -6350,11 +6350,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>('인식', '분석')</t>
+          <t>('sw', '교육', '실시')</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.00021</v>
+        <v>0.04145</v>
       </c>
     </row>
     <row r="457">
@@ -6363,11 +6363,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>('자료', '분석')</t>
+          <t>('연결망', '분석')</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.0002</v>
+        <v>0.04125</v>
       </c>
     </row>
     <row r="458">
@@ -6376,11 +6376,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>('학습', '문제')</t>
+          <t>('과학', '영재')</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.00018</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="459">
@@ -6389,11 +6389,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>('시스템', '연구')</t>
+          <t>('동료', '평가')</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.00016</v>
+        <v>0.04081</v>
       </c>
     </row>
     <row r="460">
@@ -6402,11 +6402,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>('교육', '수업')</t>
+          <t>('대상', '설문')</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.00015</v>
+        <v>0.04027</v>
       </c>
     </row>
     <row r="461">
@@ -6415,11 +6415,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>('학습', '학습')</t>
+          <t>('과학', '탐구')</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.00012</v>
+        <v>0.04003</v>
       </c>
     </row>
     <row r="462">
@@ -6428,11 +6428,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>('활용', '초등')</t>
+          <t>('과학', '교구')</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.00012</v>
+        <v>0.03982</v>
       </c>
     </row>
     <row r="463">
@@ -6441,11 +6441,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>('교육', '학습')</t>
+          <t>('운영', '실태')</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.00012</v>
+        <v>0.03943</v>
       </c>
     </row>
     <row r="464">
@@ -6454,11 +6454,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>('학습', '연구')</t>
+          <t>('언플러그드', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.00012</v>
+        <v>0.03893</v>
       </c>
     </row>
     <row r="465">
@@ -6467,11 +6467,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>('초등', 'sw')</t>
+          <t>('수학', '과학')</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.00012</v>
+        <v>0.03878</v>
       </c>
     </row>
     <row r="466">
@@ -6480,11 +6480,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>('초등', '로봇')</t>
+          <t>('보조', '로봇')</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.0001</v>
+        <v>0.03876</v>
       </c>
     </row>
     <row r="467">
@@ -6493,11 +6493,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>('결과', '교육')</t>
+          <t>('소프트웨어', '교육', '초등')</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.03869</v>
       </c>
     </row>
     <row r="468">
@@ -6506,11 +6506,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>('연구', '교육')</t>
+          <t>('측정', '도구')</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="469">
@@ -6519,11 +6519,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>('효과', '교육')</t>
+          <t>('초등', '중등')</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.03794</v>
       </c>
     </row>
     <row r="470">
@@ -6532,11 +6532,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>('교육', '교사')</t>
+          <t>('검사', '실시')</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.03786</v>
       </c>
     </row>
     <row r="471">
@@ -6545,11 +6545,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>('교육', '지원')</t>
+          <t>('집단', '상담')</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.03771</v>
       </c>
     </row>
     <row r="472">
@@ -6558,11 +6558,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>('수준', '학습')</t>
+          <t>('사고력', '신장')</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.03765</v>
       </c>
     </row>
     <row r="473">
@@ -6571,11 +6571,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>('연구', '로봇')</t>
+          <t>('비교', '집단')</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.03739</v>
       </c>
     </row>
     <row r="474">
@@ -6584,11 +6584,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>('교사', '정보')</t>
+          <t>('서비스', '제공')</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.03713</v>
       </c>
     </row>
     <row r="475">
@@ -6597,11 +6597,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>('분석', '교육')</t>
+          <t>('시사점', '제시')</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.03706</v>
       </c>
     </row>
     <row r="476">
@@ -6610,11 +6610,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>('교육', '게임')</t>
+          <t>('디지털', '환경')</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.03685</v>
       </c>
     </row>
     <row r="477">
@@ -6623,11 +6623,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>('학습', '초등')</t>
+          <t>('교수자', '학습자')</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>6e-05</v>
+        <v>0.03678</v>
       </c>
     </row>
     <row r="478">
@@ -6636,11 +6636,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>('학습', '교육')</t>
+          <t>('스크래치', '프로젝트')</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>4e-05</v>
+        <v>0.03674</v>
       </c>
     </row>
     <row r="479">
@@ -6649,11 +6649,297 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>('연구', '분석')</t>
+          <t>('정보', '교육', '과정')</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>3e-05</v>
+        <v>0.03673</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>('리터러시', '수준')</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>0.03644</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>('과제', '수행')</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>('창의', '신장')</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>0.03565</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>('검사', '도구')</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>0.03541</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>('연구', '초등', '학년')</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.03501</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>('컴퓨팅', '교구')</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.0349</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>('자료', '구조')</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>0.03488</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>('수집', '자료')</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0.03482</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>('수준', '측정')</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0.03467</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>('능력', '향상')</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0.03461</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>('인식', '조사')</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.03461</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>('형성', '평가')</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.0346</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>('선행', '연구')</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0.03401</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>('태도', '변화')</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0.03348</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>('가정', '학교')</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0.03323</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>('컴퓨터', '과학')</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0.03321</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>('창의', '문제')</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.03278</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>('초등', '학년')</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.03267</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>('기능', '게임')</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0.03234</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>('핵심', '요소')</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0.03225</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>('프로그래밍', '교육', '효과')</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0.03218</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>('전통', '수업')</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0.03213</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -448,11 +448,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.090909999999999</v>
+        <v>1.77778</v>
       </c>
     </row>
     <row r="3">
@@ -461,11 +461,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('스프', '스프레드시트')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.14286</v>
+        <v>1.53846</v>
       </c>
     </row>
     <row r="4">
@@ -474,11 +474,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('워드', '프로세서')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.99301</v>
+        <v>1.5083</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.66667</v>
+        <v>1.11111</v>
       </c>
     </row>
     <row r="6">
@@ -500,11 +500,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.66667</v>
+        <v>1.02975</v>
       </c>
     </row>
     <row r="7">
@@ -513,11 +513,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('대응', '표본', '검정')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.54762</v>
+        <v>0.9868400000000001</v>
       </c>
     </row>
     <row r="8">
@@ -526,11 +526,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('사회', '연결망', '분석')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.25</v>
+        <v>0.9539</v>
       </c>
     </row>
     <row r="9">
@@ -539,11 +539,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.22222</v>
+        <v>0.95109</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.12821</v>
+        <v>0.8547</v>
       </c>
     </row>
     <row r="11">
@@ -565,11 +565,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.58333</v>
+        <v>0.84056</v>
       </c>
     </row>
     <row r="12">
@@ -578,11 +578,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.54545</v>
+        <v>0.82645</v>
       </c>
     </row>
     <row r="13">
@@ -591,11 +591,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.45344</v>
+        <v>0.80087</v>
       </c>
     </row>
     <row r="14">
@@ -604,11 +604,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('잠재', '위험군')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.78788</v>
+        <v>0.7672600000000001</v>
       </c>
     </row>
     <row r="15">
@@ -617,11 +617,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('운영', '체제', '교육')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.4965</v>
+        <v>0.75758</v>
       </c>
     </row>
     <row r="16">
@@ -630,11 +630,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.32481</v>
+        <v>0.73099</v>
       </c>
     </row>
     <row r="17">
@@ -643,11 +643,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('융합', '활동', '영역')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.20856</v>
+        <v>0.68807</v>
       </c>
     </row>
     <row r="18">
@@ -656,11 +656,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('ict', '리터러시', '수준')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.94118</v>
+        <v>0.6651899999999999</v>
       </c>
     </row>
     <row r="19">
@@ -669,11 +669,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.71605</v>
+        <v>0.64103</v>
       </c>
     </row>
     <row r="20">
@@ -682,11 +682,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('정보', '보호', '교육')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.71493</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="21">
@@ -695,11 +695,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.54372</v>
+        <v>0.61538</v>
       </c>
     </row>
     <row r="22">
@@ -708,11 +708,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.50965</v>
+        <v>0.61047</v>
       </c>
     </row>
     <row r="23">
@@ -721,11 +721,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.19298</v>
+        <v>0.60494</v>
       </c>
     </row>
     <row r="24">
@@ -734,11 +734,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.17391</v>
+        <v>0.59524</v>
       </c>
     </row>
     <row r="25">
@@ -747,11 +747,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('대응', '표본', '검정')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.15385</v>
+        <v>0.59524</v>
       </c>
     </row>
     <row r="26">
@@ -760,11 +760,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '평가')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.08333</v>
+        <v>0.5791500000000001</v>
       </c>
     </row>
     <row r="27">
@@ -773,11 +773,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.92308</v>
+        <v>0.5711000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -786,11 +786,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.88537</v>
+        <v>0.56391</v>
       </c>
     </row>
     <row r="29">
@@ -799,11 +799,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.53846</v>
+        <v>0.55903</v>
       </c>
     </row>
     <row r="30">
@@ -812,11 +812,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('향상', '긍정', '영향')</t>
+          <t>('융합', '활동', '영역')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.44558</v>
+        <v>0.53476</v>
       </c>
     </row>
     <row r="31">
@@ -825,11 +825,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.40429</v>
+        <v>0.5291</v>
       </c>
     </row>
     <row r="32">
@@ -838,11 +838,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.40399</v>
+        <v>0.50561</v>
       </c>
     </row>
     <row r="33">
@@ -851,11 +851,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('인터넷', '중독', '잠재')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.36986</v>
+        <v>0.47795</v>
       </c>
     </row>
     <row r="34">
@@ -864,11 +864,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('학습', '만족도', '영향')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.3587</v>
+        <v>0.47293</v>
       </c>
     </row>
     <row r="35">
@@ -877,11 +877,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('정보', '보호', '교육')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.35266</v>
+        <v>0.45249</v>
       </c>
     </row>
     <row r="36">
@@ -890,11 +890,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('성취', '기준', '교수')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.35234</v>
+        <v>0.45045</v>
       </c>
     </row>
     <row r="37">
@@ -903,11 +903,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('웹기반', '프로젝트', '학습')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.35135</v>
+        <v>0.44379</v>
       </c>
     </row>
     <row r="38">
@@ -916,11 +916,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('성취', '기준', '교수')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.35135</v>
+        <v>0.43846</v>
       </c>
     </row>
     <row r="39">
@@ -929,11 +929,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('남학생', '여학생')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.27877</v>
+        <v>0.43492</v>
       </c>
     </row>
     <row r="40">
@@ -942,11 +942,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('활용', '실태', '분석')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.25</v>
+        <v>0.43048</v>
       </c>
     </row>
     <row r="41">
@@ -955,11 +955,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.22222</v>
+        <v>0.41667</v>
       </c>
     </row>
     <row r="42">
@@ -968,11 +968,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.21816</v>
+        <v>0.41098</v>
       </c>
     </row>
     <row r="43">
@@ -981,11 +981,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('학업', '성취도', '영향')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.20614</v>
+        <v>0.40486</v>
       </c>
     </row>
     <row r="44">
@@ -994,11 +994,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('음악', '감상')</t>
+          <t>('학년', '학생', '대상')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.20192</v>
+        <v>0.40404</v>
       </c>
     </row>
     <row r="45">
@@ -1007,11 +1007,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.19048</v>
+        <v>0.39753</v>
       </c>
     </row>
     <row r="46">
@@ -1020,11 +1020,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('선행', '연구', '분석')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.16144</v>
+        <v>0.38919</v>
       </c>
     </row>
     <row r="47">
@@ -1033,11 +1033,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.1324</v>
+        <v>0.38647</v>
       </c>
     </row>
     <row r="48">
@@ -1046,11 +1046,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('개인', '정보', '보호')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.13122</v>
+        <v>0.38373</v>
       </c>
     </row>
     <row r="49">
@@ -1059,11 +1059,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('교육', '자료', '개발')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.11288</v>
+        <v>0.37037</v>
       </c>
     </row>
     <row r="50">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.11111</v>
+        <v>0.37037</v>
       </c>
     </row>
     <row r="51">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('대상', '설문', '조사')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.10323</v>
+        <v>0.36376</v>
       </c>
     </row>
     <row r="52">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교과', '교육')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.10193</v>
+        <v>0.36126</v>
       </c>
     </row>
     <row r="53">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('결과', '연구', '개발')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.04762</v>
+        <v>0.35446</v>
       </c>
     </row>
     <row r="54">
@@ -1124,11 +1124,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('현직', '초등', '교사')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.04167</v>
+        <v>0.33436</v>
       </c>
     </row>
     <row r="55">
@@ -1137,11 +1137,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('학습', '동기', '학업')</t>
+          <t>('정보', '통신', '기술')</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.03093</v>
+        <v>0.32995</v>
       </c>
     </row>
     <row r="56">
@@ -1150,11 +1150,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('초등', '논리', '사고력')</t>
+          <t>('피지컬', '컴퓨팅', '교육')</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.9920600000000001</v>
+        <v>0.32895</v>
       </c>
     </row>
     <row r="57">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('문제', '해결력', '향상')</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.98289</v>
+        <v>0.32859</v>
       </c>
     </row>
     <row r="58">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('결과', '실험', '집단')</t>
+          <t>('초등', '학년', '학생')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.98039</v>
+        <v>0.3241</v>
       </c>
     </row>
     <row r="59">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.96831</v>
+        <v>0.32318</v>
       </c>
     </row>
     <row r="60">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('교육', '자료', '개발')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.94628</v>
+        <v>0.31797</v>
       </c>
     </row>
     <row r="61">
@@ -1215,11 +1215,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('학습', '동기', '학습')</t>
+          <t>('컴퓨터', '과학', '교육')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.94502</v>
+        <v>0.31612</v>
       </c>
     </row>
     <row r="62">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('초등', '중등', '교육')</t>
+          <t>('문제', '해결', '과정')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.94178</v>
+        <v>0.31093</v>
       </c>
     </row>
     <row r="63">
@@ -1241,11 +1241,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('교육', '지원', '시스템')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.93677</v>
+        <v>0.30928</v>
       </c>
     </row>
     <row r="64">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('입체', '도형')</t>
+          <t>('학습', '동기', '학업')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.93284</v>
+        <v>0.29455</v>
       </c>
     </row>
     <row r="65">
@@ -1267,11 +1267,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.92262</v>
+        <v>0.29424</v>
       </c>
     </row>
     <row r="66">
@@ -1280,11 +1280,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('교육', '실시', '학생')</t>
+          <t>('창의', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.87025</v>
+        <v>0.29284</v>
       </c>
     </row>
     <row r="67">
@@ -1293,11 +1293,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('학습', '모형', '개발')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8609599999999999</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="68">
@@ -1306,11 +1306,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('결과', '실험', '집단')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.85665</v>
+        <v>0.28011</v>
       </c>
     </row>
     <row r="69">
@@ -1319,11 +1319,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('학생', '인터넷', '중독')</t>
+          <t>('ict', '리터러시', '수준')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.85616</v>
+        <v>0.26738</v>
       </c>
     </row>
     <row r="70">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8519</v>
+        <v>0.26132</v>
       </c>
     </row>
     <row r="71">
@@ -1345,11 +1345,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('컴퓨터', '게임', '중독')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.81159</v>
+        <v>0.25685</v>
       </c>
     </row>
     <row r="72">
@@ -1358,11 +1358,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.78486</v>
+        <v>0.25641</v>
       </c>
     </row>
     <row r="73">
@@ -1371,11 +1371,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('교사', '대상', '설문')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.78265</v>
+        <v>0.25585</v>
       </c>
     </row>
     <row r="74">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('연구', '목적', '초등')</t>
+          <t>('초등', '학년', '대상')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.77959</v>
+        <v>0.25401</v>
       </c>
     </row>
     <row r="75">
@@ -1397,11 +1397,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('협력', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.77778</v>
+        <v>0.25365</v>
       </c>
     </row>
     <row r="76">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('컴퓨터', '과학', '언플러그드')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.76923</v>
+        <v>0.25231</v>
       </c>
     </row>
     <row r="77">
@@ -1423,11 +1423,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('초등', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.75581</v>
+        <v>0.25019</v>
       </c>
     </row>
     <row r="78">
@@ -1436,11 +1436,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.75164</v>
+        <v>0.24714</v>
       </c>
     </row>
     <row r="79">
@@ -1449,11 +1449,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어', '활용')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.75131</v>
+        <v>0.24691</v>
       </c>
     </row>
     <row r="80">
@@ -1462,11 +1462,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('평가', '도구', '개발')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.74557</v>
+        <v>0.24155</v>
       </c>
     </row>
     <row r="81">
@@ -1475,11 +1475,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('분석', '실시', '결과')</t>
+          <t>('학습자', '상호', '작용')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.74324</v>
+        <v>0.24064</v>
       </c>
     </row>
     <row r="82">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅', '교육')</t>
+          <t>('교육', '프로그램', '개발')</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.74013</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="83">
@@ -1501,11 +1501,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.7284</v>
+        <v>0.23742</v>
       </c>
     </row>
     <row r="84">
@@ -1514,11 +1514,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어', '교육')</t>
+          <t>('컴퓨터', '게임', '중독')</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.7162500000000001</v>
+        <v>0.23188</v>
       </c>
     </row>
     <row r="85">
@@ -1527,11 +1527,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('문제', '해결력', '신장')</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.71225</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="86">
@@ -1540,11 +1540,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('대상', '설문', '조사')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.6944399999999999</v>
+        <v>0.22222</v>
       </c>
     </row>
     <row r="87">
@@ -1553,11 +1553,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('문제', '해결', '능력')</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.68493</v>
+        <v>0.22124</v>
       </c>
     </row>
     <row r="88">
@@ -1566,11 +1566,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('통신', '기술', '발달')</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.68027</v>
+        <v>0.21923</v>
       </c>
     </row>
     <row r="89">
@@ -1579,11 +1579,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.6773400000000001</v>
+        <v>0.21684</v>
       </c>
     </row>
     <row r="90">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('창의', '문제', '해결능력')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.66425</v>
+        <v>0.21225</v>
       </c>
     </row>
     <row r="91">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('평가', '도구', '개발')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.64412</v>
+        <v>0.21008</v>
       </c>
     </row>
     <row r="92">
@@ -1618,11 +1618,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('초등', '교사', '대상')</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.63601</v>
+        <v>0.20559</v>
       </c>
     </row>
     <row r="93">
@@ -1631,11 +1631,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('초등', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.63492</v>
+        <v>0.19953</v>
       </c>
     </row>
     <row r="94">
@@ -1644,11 +1644,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('활용', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.63213</v>
+        <v>0.19408</v>
       </c>
     </row>
     <row r="95">
@@ -1657,11 +1657,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('교육', '내용', '선정')</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.62893</v>
+        <v>0.1919</v>
       </c>
     </row>
     <row r="96">
@@ -1670,11 +1670,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('교사', '대상', '설문')</t>
+          <t>('교육', '프로그램', '초등')</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.62135</v>
+        <v>0.18895</v>
       </c>
     </row>
     <row r="97">
@@ -1683,11 +1683,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.61813</v>
+        <v>0.18543</v>
       </c>
     </row>
     <row r="98">
@@ -1696,11 +1696,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('교육', '콘텐츠', '개발')</t>
+          <t>('컴퓨터', '교과', '교육')</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.60293</v>
+        <v>0.18365</v>
       </c>
     </row>
     <row r="99">
@@ -1709,11 +1709,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '신장')</t>
+          <t>('설계', '구현', '연구')</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.60241</v>
+        <v>0.18182</v>
       </c>
     </row>
     <row r="100">
@@ -1722,11 +1722,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('연구', '목적', '달성')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.60241</v>
+        <v>0.17942</v>
       </c>
     </row>
     <row r="101">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '향상')</t>
+          <t>('교육', '초등', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.60241</v>
+        <v>0.17724</v>
       </c>
     </row>
     <row r="102">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '영향')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.60241</v>
+        <v>0.17631</v>
       </c>
     </row>
     <row r="103">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.59583</v>
+        <v>0.17544</v>
       </c>
     </row>
     <row r="104">
@@ -1774,11 +1774,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('활용', '능력', '평가')</t>
+          <t>('교육', '콘텐츠', '개발')</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.59524</v>
+        <v>0.17227</v>
       </c>
     </row>
     <row r="105">
@@ -1787,11 +1787,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.59156</v>
+        <v>0.1708</v>
       </c>
     </row>
     <row r="106">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('교육', '학습자', '중심')</t>
+          <t>('로봇', '활용', '교육')</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.58761</v>
+        <v>0.16847</v>
       </c>
     </row>
     <row r="107">
@@ -1813,11 +1813,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('프로그래밍', '언어', '교육')</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.58704</v>
+        <v>0.16529</v>
       </c>
     </row>
     <row r="108">
@@ -1826,11 +1826,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.58055</v>
+        <v>0.16401</v>
       </c>
     </row>
     <row r="109">
@@ -1839,11 +1839,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('사이버', '정교사')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.57176</v>
+        <v>0.15983</v>
       </c>
     </row>
     <row r="110">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('협력', '문제', '해결력')</t>
+          <t>('교육', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.5707</v>
+        <v>0.15709</v>
       </c>
     </row>
     <row r="111">
@@ -1865,11 +1865,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('초등', '정보', '과학')</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.5430199999999999</v>
+        <v>0.15635</v>
       </c>
     </row>
     <row r="112">
@@ -1878,11 +1878,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('통신', '기술', '발달')</t>
+          <t>('교육', '지원', '시스템')</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.53241</v>
+        <v>0.15613</v>
       </c>
     </row>
     <row r="113">
@@ -1891,11 +1891,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('교육', '초등', '컴퓨팅')</t>
+          <t>('학습', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.53173</v>
+        <v>0.15398</v>
       </c>
     </row>
     <row r="114">
@@ -1904,11 +1904,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('학년', '학생', '대상')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.51627</v>
+        <v>0.15226</v>
       </c>
     </row>
     <row r="115">
@@ -1917,11 +1917,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('학습자', '상호', '작용')</t>
+          <t>('문제', '해결', '학습')</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.50802</v>
+        <v>0.14749</v>
       </c>
     </row>
     <row r="116">
@@ -1930,11 +1930,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.50214</v>
+        <v>0.1433</v>
       </c>
     </row>
     <row r="117">
@@ -1943,11 +1943,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.49452</v>
+        <v>0.14243</v>
       </c>
     </row>
     <row r="118">
@@ -1956,11 +1956,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('설계', '구현', '논문')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.4898</v>
+        <v>0.14129</v>
       </c>
     </row>
     <row r="119">
@@ -1969,11 +1969,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('활용', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.47847</v>
+        <v>0.13722</v>
       </c>
     </row>
     <row r="120">
@@ -1982,11 +1982,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('교육', '내용', '방법')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.46642</v>
+        <v>0.13707</v>
       </c>
     </row>
     <row r="121">
@@ -1995,11 +1995,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('학습', '모형', '개발')</t>
+          <t>('교육', '학습', '동기')</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.46091</v>
+        <v>0.13565</v>
       </c>
     </row>
     <row r="122">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('사고력', '문제', '해결력')</t>
+          <t>('분석', '연구', '결과')</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.45181</v>
+        <v>0.13437</v>
       </c>
     </row>
     <row r="123">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('문제', '해결', '수업')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.44248</v>
+        <v>0.13164</v>
       </c>
     </row>
     <row r="124">
@@ -2034,11 +2034,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('설계', '구현', '연구')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.44156</v>
+        <v>0.12751</v>
       </c>
     </row>
     <row r="125">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('교수', '학습', '방법')</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.4342</v>
+        <v>0.1261</v>
       </c>
     </row>
     <row r="126">
@@ -2060,11 +2060,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('학습', '모형', '적용')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.43317</v>
+        <v>0.12531</v>
       </c>
     </row>
     <row r="127">
@@ -2073,11 +2073,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('과학', '영재', '교육')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.4329</v>
+        <v>0.1245</v>
       </c>
     </row>
     <row r="128">
@@ -2086,11 +2086,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('문제', '해결', '과정')</t>
+          <t>('학습', '모형', '적용')</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.43052</v>
+        <v>0.12376</v>
       </c>
     </row>
     <row r="129">
@@ -2099,11 +2099,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.42544</v>
+        <v>0.12371</v>
       </c>
     </row>
     <row r="130">
@@ -2112,11 +2112,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('컴퓨터', '과학', '교육')</t>
+          <t>('교육', '과정', '개발')</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.4215</v>
+        <v>0.12327</v>
       </c>
     </row>
     <row r="131">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('논리', '사고력', '향상')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.4199</v>
+        <v>0.12304</v>
       </c>
     </row>
     <row r="132">
@@ -2138,11 +2138,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('교육', '학습', '동기')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.40695</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="133">
@@ -2151,11 +2151,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('활동', '중심', '학습')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.4065</v>
+        <v>0.1221</v>
       </c>
     </row>
     <row r="134">
@@ -2164,11 +2164,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('문제', '해결', '능력')</t>
+          <t>('학습', '시스템', '설계')</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.4056</v>
+        <v>0.12165</v>
       </c>
     </row>
     <row r="135">
@@ -2177,11 +2177,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('교육', '내용', '선정')</t>
+          <t>('초등', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.40512</v>
+        <v>0.11995</v>
       </c>
     </row>
     <row r="136">
@@ -2190,11 +2190,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('적용', '효과', '검증')</t>
+          <t>('교육', '로봇', '활용')</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.39939</v>
+        <v>0.11951</v>
       </c>
     </row>
     <row r="137">
@@ -2203,11 +2203,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.39933</v>
+        <v>0.11819</v>
       </c>
     </row>
     <row r="138">
@@ -2216,11 +2216,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('수행', '평가', '시스템')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.39773</v>
+        <v>0.11773</v>
       </c>
     </row>
     <row r="139">
@@ -2229,11 +2229,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('문제', '해결', '학습')</t>
+          <t>('개정', '교육', '과정')</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.39331</v>
+        <v>0.11694</v>
       </c>
     </row>
     <row r="140">
@@ -2242,11 +2242,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('초등', '컴퓨터', '교육')</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.39062</v>
+        <v>0.11691</v>
       </c>
     </row>
     <row r="141">
@@ -2255,11 +2255,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('정보', '통신', '기술교육')</t>
+          <t>('컴퓨터', '활용', '능력')</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.39062</v>
+        <v>0.11662</v>
       </c>
     </row>
     <row r="142">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('초등', '학년', '대상')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.3877</v>
+        <v>0.11464</v>
       </c>
     </row>
     <row r="143">
@@ -2281,11 +2281,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('초등', '학년', '학생')</t>
+          <t>('시스템', '개발', '적용')</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.37811</v>
+        <v>0.11422</v>
       </c>
     </row>
     <row r="144">
@@ -2294,11 +2294,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('창의', '문제', '해결력')</t>
+          <t>('ict', '활용', '교육')</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.37651</v>
+        <v>0.11416</v>
       </c>
     </row>
     <row r="145">
@@ -2307,11 +2307,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('정보', '통신', '기술')</t>
+          <t>('수행', '평가', '시스템')</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.36787</v>
+        <v>0.11364</v>
       </c>
     </row>
     <row r="146">
@@ -2320,11 +2320,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('초등', '로봇', '활용')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.3663</v>
+        <v>0.11364</v>
       </c>
     </row>
     <row r="147">
@@ -2333,11 +2333,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('교사', 'ict', '활용')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.36049</v>
+        <v>0.11338</v>
       </c>
     </row>
     <row r="148">
@@ -2346,11 +2346,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('독서', '교육', '시스템')</t>
+          <t>('교육', '내용', '체계')</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.35691</v>
+        <v>0.11264</v>
       </c>
     </row>
     <row r="149">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.35614</v>
+        <v>0.11111</v>
       </c>
     </row>
     <row r="150">
@@ -2372,11 +2372,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>('적용', '결과', '학생')</t>
+          <t>('프로그램', '개발', '적용')</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.35367</v>
+        <v>0.11102</v>
       </c>
     </row>
     <row r="151">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('ict', '활용', '능력')</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.35319</v>
+        <v>0.11089</v>
       </c>
     </row>
     <row r="152">
@@ -2398,11 +2398,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('학생', '컴퓨팅', '사고력')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.34364</v>
+        <v>0.11074</v>
       </c>
     </row>
     <row r="153">
@@ -2411,11 +2411,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력', '평가')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.34364</v>
+        <v>0.11042</v>
       </c>
     </row>
     <row r="154">
@@ -2424,11 +2424,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>('초등', '소프트웨어', '교육')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.34285</v>
+        <v>0.10975</v>
       </c>
     </row>
     <row r="155">
@@ -2437,11 +2437,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('초등', '교사', '대상')</t>
+          <t>('학업', '성취도', '영향')</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.34265</v>
+        <v>0.10965</v>
       </c>
     </row>
     <row r="156">
@@ -2450,11 +2450,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.3426</v>
+        <v>0.10893</v>
       </c>
     </row>
     <row r="157">
@@ -2463,11 +2463,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>('개발', '개발', '교육')</t>
+          <t>('초등', '교육', '현장')</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.33784</v>
+        <v>0.10695</v>
       </c>
     </row>
     <row r="158">
@@ -2476,11 +2476,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>('설계', '구현', '시스템')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.33613</v>
+        <v>0.10553</v>
       </c>
     </row>
     <row r="159">
@@ -2489,11 +2489,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '초등')</t>
+          <t>('정보', '과학', '교육')</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.3343</v>
+        <v>0.10537</v>
       </c>
     </row>
     <row r="160">
@@ -2502,11 +2502,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.3224</v>
+        <v>0.10314</v>
       </c>
     </row>
     <row r="161">
@@ -2515,11 +2515,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력', '창의')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.32073</v>
+        <v>0.10252</v>
       </c>
     </row>
     <row r="162">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.31788</v>
+        <v>0.10205</v>
       </c>
     </row>
     <row r="163">
@@ -2541,11 +2541,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>('분석', '컴퓨팅', '사고력')</t>
+          <t>('초등', '정보', '교육')</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.31721</v>
+        <v>0.10163</v>
       </c>
     </row>
     <row r="164">
@@ -2554,11 +2554,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>('통신', '기술교육')</t>
+          <t>('문제', '해결력', '영향')</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.31456</v>
+        <v>0.1004</v>
       </c>
     </row>
     <row r="165">
@@ -2567,11 +2567,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>('컴퓨터', '활용', '능력')</t>
+          <t>('교육', '효과', '분석')</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.31098</v>
+        <v>0.10003</v>
       </c>
     </row>
     <row r="166">
@@ -2580,11 +2580,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨팅', '사고력')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.31039</v>
+        <v>0.0993</v>
       </c>
     </row>
     <row r="167">
@@ -2593,11 +2593,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>('학습', '능력', '향상')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.30769</v>
+        <v>0.09921000000000001</v>
       </c>
     </row>
     <row r="168">
@@ -2606,11 +2606,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.30358</v>
+        <v>0.09878000000000001</v>
       </c>
     </row>
     <row r="169">
@@ -2619,11 +2619,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>('토론', '학습', '시스템')</t>
+          <t>('논리', '사고력', '향상')</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.30303</v>
+        <v>0.0969</v>
       </c>
     </row>
     <row r="170">
@@ -2632,11 +2632,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('실시', '연구', '결과')</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.2962</v>
+        <v>0.09683</v>
       </c>
     </row>
     <row r="171">
@@ -2645,11 +2645,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>('과정', '소프트웨어', '교육')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.29343</v>
+        <v>0.09676</v>
       </c>
     </row>
     <row r="172">
@@ -2658,11 +2658,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>('검증', '연구', '결과')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.29049</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="173">
@@ -2671,11 +2671,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.29049</v>
+        <v>0.09563000000000001</v>
       </c>
     </row>
     <row r="174">
@@ -2684,11 +2684,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('결과', '연구', '개발')</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.28805</v>
+        <v>0.09524000000000001</v>
       </c>
     </row>
     <row r="175">
@@ -2697,11 +2697,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>('초등', '교육', '현장')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.2852</v>
+        <v>0.09515999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -2710,11 +2710,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>('개발', '적용', '효과')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.28335</v>
+        <v>0.09497999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -2723,11 +2723,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('현직', '초등', '교사')</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.28245</v>
+        <v>0.09470000000000001</v>
       </c>
     </row>
     <row r="178">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '개발')</t>
+          <t>('지원', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.27421</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="179">
@@ -2749,11 +2749,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>('적용', '결과', '분석')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.27367</v>
+        <v>0.09276</v>
       </c>
     </row>
     <row r="180">
@@ -2762,11 +2762,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>('분석', '소프트웨어', '교육')</t>
+          <t>('적용', '효과', '검증')</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.27086</v>
+        <v>0.09217</v>
       </c>
     </row>
     <row r="181">
@@ -2775,11 +2775,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>('역량', '계발')</t>
+          <t>('컴퓨팅', '사고력', '창의')</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.2704</v>
+        <v>0.09164</v>
       </c>
     </row>
     <row r="182">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>('목표', '달성')</t>
+          <t>('교육', '교수', '학습')</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.26991</v>
+        <v>0.09027</v>
       </c>
     </row>
     <row r="183">
@@ -2801,11 +2801,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('예비', '교사', '대상')</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.26844</v>
+        <v>0.09012000000000001</v>
       </c>
     </row>
     <row r="184">
@@ -2814,11 +2814,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>('연구', '소프트웨어', '교육')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.26408</v>
+        <v>0.08841</v>
       </c>
     </row>
     <row r="185">
@@ -2827,11 +2827,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>('교육', '현장', '적용')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.26369</v>
+        <v>0.08803</v>
       </c>
     </row>
     <row r="186">
@@ -2840,11 +2840,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('교육', '과정', '모델')</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.26272</v>
+        <v>0.08741</v>
       </c>
     </row>
     <row r="187">
@@ -2853,11 +2853,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>('문제', '해결', '방법')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.26028</v>
+        <v>0.08731</v>
       </c>
     </row>
     <row r="188">
@@ -2866,11 +2866,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>('개발', '적용', '연구')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.25826</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="189">
@@ -2879,11 +2879,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>('교수', '학습', '과정안')</t>
+          <t>('학습', '동기', '학습')</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.25575</v>
+        <v>0.08591</v>
       </c>
     </row>
     <row r="190">
@@ -2892,11 +2892,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>('기준', '교수', '학습')</t>
+          <t>('초등', '중등', '교육')</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.25575</v>
+        <v>0.08562</v>
       </c>
     </row>
     <row r="191">
@@ -2905,11 +2905,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨팅', '사고력')</t>
+          <t>('기준', '교수', '학습')</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.25528</v>
+        <v>0.08525000000000001</v>
       </c>
     </row>
     <row r="192">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.25407</v>
+        <v>0.08469</v>
       </c>
     </row>
     <row r="193">
@@ -2931,11 +2931,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>('교육', '내용', '체계')</t>
+          <t>('교육', '프로그램', '적용')</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.25345</v>
+        <v>0.08457000000000001</v>
       </c>
     </row>
     <row r="194">
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.25253</v>
+        <v>0.08418</v>
       </c>
     </row>
     <row r="195">
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.25189</v>
+        <v>0.08396000000000001</v>
       </c>
     </row>
     <row r="196">
@@ -2970,11 +2970,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>('교사', 'sw', '교육')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.25189</v>
+        <v>0.08201</v>
       </c>
     </row>
     <row r="197">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.25172</v>
+        <v>0.08175</v>
       </c>
     </row>
     <row r="198">
@@ -2996,11 +2996,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('개발', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.2442</v>
+        <v>0.08171</v>
       </c>
     </row>
     <row r="199">
@@ -3009,11 +3009,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('설계', '구현', '논문')</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.24093</v>
+        <v>0.08162999999999999</v>
       </c>
     </row>
     <row r="200">
@@ -3022,11 +3022,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>('초등', 'sw', '교육')</t>
+          <t>('교수', '학습', '모형')</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.23989</v>
+        <v>0.08103</v>
       </c>
     </row>
     <row r="201">
@@ -3035,11 +3035,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.23975</v>
+        <v>0.08056000000000001</v>
       </c>
     </row>
     <row r="202">
@@ -3048,11 +3048,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>('정보', '과학', '교육')</t>
+          <t>('교육', '과정', '분석')</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.23709</v>
+        <v>0.08013000000000001</v>
       </c>
     </row>
     <row r="203">
@@ -3061,11 +3061,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>('활용', 'sw', '교육')</t>
+          <t>('컴퓨팅', '사고력', '향상')</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.23537</v>
+        <v>0.07992</v>
       </c>
     </row>
     <row r="204">
@@ -3074,11 +3074,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.2349</v>
+        <v>0.07974000000000001</v>
       </c>
     </row>
     <row r="205">
@@ -3087,11 +3087,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>('정보', '영재', '교육')</t>
+          <t>('교육', '실시', '학생')</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.23474</v>
+        <v>0.07911</v>
       </c>
     </row>
     <row r="206">
@@ -3100,11 +3100,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>('초등', '정보', '과학')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.23452</v>
+        <v>0.07906000000000001</v>
       </c>
     </row>
     <row r="207">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>('분석', '컴퓨터', '교육')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.23245</v>
+        <v>0.07729</v>
       </c>
     </row>
     <row r="208">
@@ -3126,11 +3126,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.23224</v>
+        <v>0.07668999999999999</v>
       </c>
     </row>
     <row r="209">
@@ -3139,11 +3139,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '개발')</t>
+          <t>('사고력', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.22941</v>
+        <v>0.07530000000000001</v>
       </c>
     </row>
     <row r="210">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>('개발', 'sw', '교육')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.22899</v>
+        <v>0.07391</v>
       </c>
     </row>
     <row r="211">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>('교육', '로봇', '활용')</t>
+          <t>('과학', '영재', '교육')</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.22816</v>
+        <v>0.07215000000000001</v>
       </c>
     </row>
     <row r="212">
@@ -3178,11 +3178,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.2268</v>
+        <v>0.07174999999999999</v>
       </c>
     </row>
     <row r="213">
@@ -3191,11 +3191,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>('지원', '시스템', '개발')</t>
+          <t>('교육', '과정', '내용')</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.22658</v>
+        <v>0.07123</v>
       </c>
     </row>
     <row r="214">
@@ -3204,11 +3204,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '적용')</t>
+          <t>('연구', '목적', '초등')</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.22551</v>
+        <v>0.07087</v>
       </c>
     </row>
     <row r="215">
@@ -3217,11 +3217,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>('예비', '교사', '교육')</t>
+          <t>('컴퓨터', '과학', '언플러그드')</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.223</v>
+        <v>0.06993000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -3230,11 +3230,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>('활용', '프로그래밍', '교육')</t>
+          <t>('교수', '학습', '전략')</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.22298</v>
+        <v>0.06793</v>
       </c>
     </row>
     <row r="217">
@@ -3243,11 +3243,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('활동', '중심', '학습')</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.2187</v>
+        <v>0.06775</v>
       </c>
     </row>
     <row r="218">
@@ -3256,11 +3256,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>('결과', 'sw', '교육')</t>
+          <t>('로봇', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.2183</v>
+        <v>0.06759</v>
       </c>
     </row>
     <row r="219">
@@ -3269,11 +3269,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>('현장', '적용', '결과')</t>
+          <t>('분석', '실시', '결과')</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.21799</v>
+        <v>0.06757000000000001</v>
       </c>
     </row>
     <row r="220">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>('실시', '연구', '결과')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.21786</v>
+        <v>0.06412</v>
       </c>
     </row>
     <row r="221">
@@ -3295,11 +3295,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>('학습', '시스템', '개발')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.21557</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="222">
@@ -3308,11 +3308,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.21524</v>
+        <v>0.06383999999999999</v>
       </c>
     </row>
     <row r="223">
@@ -3321,11 +3321,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>('사용', '자군')</t>
+          <t>('예비', '교사', '교육')</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.21368</v>
+        <v>0.06371</v>
       </c>
     </row>
     <row r="224">
@@ -3334,11 +3334,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>('분석', 'sw', '교육')</t>
+          <t>('연구', '결과', '초등')</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.21314</v>
+        <v>0.06235</v>
       </c>
     </row>
     <row r="225">
@@ -3347,11 +3347,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>('초등', '교사', '인식')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.21259</v>
+        <v>0.06221</v>
       </c>
     </row>
     <row r="226">
@@ -3360,11 +3360,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>('학습자', '문제', '해결')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.21239</v>
+        <v>0.06158</v>
       </c>
     </row>
     <row r="227">
@@ -3373,11 +3373,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('초등', '로봇', '활용')</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.21106</v>
+        <v>0.06105</v>
       </c>
     </row>
     <row r="228">
@@ -3386,11 +3386,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>('중독', '잠재')</t>
+          <t>('교육', '현장', '적용')</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.21044</v>
+        <v>0.06085</v>
       </c>
     </row>
     <row r="229">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('창의', '문제', '해결능력')</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.21026</v>
+        <v>0.06039</v>
       </c>
     </row>
     <row r="230">
@@ -3412,11 +3412,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>('적응', '코스웨어')</t>
+          <t>('교육', '과정', '교육')</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.20968</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="231">
@@ -3425,11 +3425,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>('로봇', '활용', '교육')</t>
+          <t>('교육', '과정', '정보')</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.20957</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="232">
@@ -3438,11 +3438,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('초등', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.20885</v>
+        <v>0.05896</v>
       </c>
     </row>
     <row r="233">
@@ -3451,11 +3451,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('적용', '결과', '학생')</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.20872</v>
+        <v>0.05894</v>
       </c>
     </row>
     <row r="234">
@@ -3464,11 +3464,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>('활용', '프로그래밍', '학습')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.20851</v>
+        <v>0.05727</v>
       </c>
     </row>
     <row r="235">
@@ -3477,11 +3477,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('학생', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.20786</v>
+        <v>0.05727</v>
       </c>
     </row>
     <row r="236">
@@ -3490,11 +3490,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>('효과', '분석', '분석')</t>
+          <t>('개발', '개발', '교육')</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.20393</v>
+        <v>0.05631</v>
       </c>
     </row>
     <row r="237">
@@ -3503,11 +3503,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('교육', '과정', '구성')</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.20386</v>
+        <v>0.05574</v>
       </c>
     </row>
     <row r="238">
@@ -3516,11 +3516,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.20282</v>
+        <v>0.05571</v>
       </c>
     </row>
     <row r="239">
@@ -3529,11 +3529,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>('연구', '컴퓨터', '과학')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.20243</v>
+        <v>0.05569</v>
       </c>
     </row>
     <row r="240">
@@ -3542,11 +3542,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>('전문가', '검토')</t>
+          <t>('교수', '학습', '모델')</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.20243</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="241">
@@ -3555,11 +3555,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.20243</v>
+        <v>0.05543</v>
       </c>
     </row>
     <row r="242">
@@ -3568,11 +3568,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.20121</v>
+        <v>0.05405</v>
       </c>
     </row>
     <row r="243">
@@ -3581,11 +3581,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('교육', '과정', '초등')</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.19773</v>
+        <v>0.05342</v>
       </c>
     </row>
     <row r="244">
@@ -3594,11 +3594,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('교육', '과정', '연구')</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.19757</v>
+        <v>0.05342</v>
       </c>
     </row>
     <row r="245">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '효과')</t>
+          <t>('교육', '학습자', '중심')</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.19678</v>
+        <v>0.05342</v>
       </c>
     </row>
     <row r="246">
@@ -3620,11 +3620,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('분석', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.18997</v>
+        <v>0.05287</v>
       </c>
     </row>
     <row r="247">
@@ -3633,11 +3633,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>('연구', '결과', '토대')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.18861</v>
+        <v>0.05264</v>
       </c>
     </row>
     <row r="248">
@@ -3646,11 +3646,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.18744</v>
+        <v>0.05252</v>
       </c>
     </row>
     <row r="249">
@@ -3659,11 +3659,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>('연구', '결과', '초등')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.18706</v>
+        <v>0.05241</v>
       </c>
     </row>
     <row r="250">
@@ -3672,11 +3672,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>('프로그램', '개발', '개발')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.18657</v>
+        <v>0.05206</v>
       </c>
     </row>
     <row r="251">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>('체계', '문헌')</t>
+          <t>('교수', '학습', '자료')</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.18519</v>
+        <v>0.05202</v>
       </c>
     </row>
     <row r="252">
@@ -3698,11 +3698,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>('교육', '효과', '분석')</t>
+          <t>('교육', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.18338</v>
+        <v>0.05178</v>
       </c>
     </row>
     <row r="253">
@@ -3711,11 +3711,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>('시스템', '개발', '적용')</t>
+          <t>('학습', '능력', '향상')</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.18142</v>
+        <v>0.05128</v>
       </c>
     </row>
     <row r="254">
@@ -3724,11 +3724,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>('연구', '결과', '다음')</t>
+          <t>('결과', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.18107</v>
+        <v>0.05038</v>
       </c>
     </row>
     <row r="255">
@@ -3737,11 +3737,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>('요구', '분석', '결과')</t>
+          <t>('연구', '정보', '교육')</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.18067</v>
+        <v>0.04914</v>
       </c>
     </row>
     <row r="256">
@@ -3750,11 +3750,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>('예비', '교사', '대상')</t>
+          <t>('검증', '연구', '결과')</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.18025</v>
+        <v>0.04841</v>
       </c>
     </row>
     <row r="257">
@@ -3763,11 +3763,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨터', '교육')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.17844</v>
+        <v>0.04753</v>
       </c>
     </row>
     <row r="258">
@@ -3776,11 +3776,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>('학습', '시스템', '설계')</t>
+          <t>('개발', '적용', '효과')</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.17695</v>
+        <v>0.04723</v>
       </c>
     </row>
     <row r="259">
@@ -3789,11 +3789,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>('초등', '프로그래밍', '교육')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.17689</v>
+        <v>0.04685</v>
       </c>
     </row>
     <row r="260">
@@ -3802,11 +3802,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>('분석', '연구', '결과')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.17637</v>
+        <v>0.04605</v>
       </c>
     </row>
     <row r="261">
@@ -3815,11 +3815,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>('ict', '활용', '능력')</t>
+          <t>('목표', '달성')</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.17613</v>
+        <v>0.04498</v>
       </c>
     </row>
     <row r="262">
@@ -3828,11 +3828,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>('운영', '지침')</t>
+          <t>('효과', '검증')</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.1746</v>
+        <v>0.04449</v>
       </c>
     </row>
     <row r="263">
@@ -3841,11 +3841,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>('프로그램', '개발', '적용')</t>
+          <t>('sw', '교육', '초등')</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.17269</v>
+        <v>0.04429</v>
       </c>
     </row>
     <row r="264">
@@ -3854,11 +3854,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('연구', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.17007</v>
+        <v>0.04401</v>
       </c>
     </row>
     <row r="265">
@@ -3867,11 +3867,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>('교수', '학습', '모델')</t>
+          <t>('미래', '사회')</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.1668</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="266">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('세부', '역량')</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.1666</v>
+        <v>0.04317</v>
       </c>
     </row>
     <row r="267">
@@ -3893,11 +3893,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>('교육', '교수', '학습')</t>
+          <t>('체계', '문헌')</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.16549</v>
+        <v>0.04274</v>
       </c>
     </row>
     <row r="268">
@@ -3906,11 +3906,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력', '신장')</t>
+          <t>('하위', '요소')</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.16495</v>
+        <v>0.04244</v>
       </c>
     </row>
     <row r="269">
@@ -3919,11 +3919,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>('컴퓨터', '프로그래밍', '교육')</t>
+          <t>('사이버', '상담')</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.16173</v>
+        <v>0.04233</v>
       </c>
     </row>
     <row r="270">
@@ -3932,11 +3932,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>('교육', '과정', '교육')</t>
+          <t>('교육', '효과', '검증')</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.16026</v>
+        <v>0.04168</v>
       </c>
     </row>
     <row r="271">
@@ -3945,11 +3945,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>('교육', '과정', '내용')</t>
+          <t>('내용', '체계')</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.16026</v>
+        <v>0.04133</v>
       </c>
     </row>
     <row r="272">
@@ -3958,11 +3958,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>('교육', '과정', '모델')</t>
+          <t>('능력', '신장')</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.16026</v>
+        <v>0.04118</v>
       </c>
     </row>
     <row r="273">
@@ -3971,11 +3971,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>('개정', '교육', '과정')</t>
+          <t>('교육', '과정', '설계')</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.16026</v>
+        <v>0.04006</v>
       </c>
     </row>
     <row r="274">
@@ -3984,11 +3984,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>('교육', '과정', '표준')</t>
+          <t>('창의', '인성')</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.16026</v>
+        <v>0.03995</v>
       </c>
     </row>
     <row r="275">
@@ -3997,11 +3997,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력', '향상')</t>
+          <t>('콘텐츠', '제작')</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.15983</v>
+        <v>0.03993</v>
       </c>
     </row>
     <row r="276">
@@ -4010,11 +4010,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>('ict', '활용', '교육')</t>
+          <t>('수행', '평가')</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.15806</v>
+        <v>0.03964</v>
       </c>
     </row>
     <row r="277">
@@ -4023,11 +4023,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>('교육', '시스템', '개발')</t>
+          <t>('ct', '역량')</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.15775</v>
+        <v>0.03848</v>
       </c>
     </row>
     <row r="278">
@@ -4036,11 +4036,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>('교육', '로봇', '교육')</t>
+          <t>('정의', '영역')</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.15667</v>
+        <v>0.03833</v>
       </c>
     </row>
     <row r="279">
@@ -4049,11 +4049,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('기술', '발전')</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.15665</v>
+        <v>0.03663</v>
       </c>
     </row>
     <row r="280">
@@ -4062,11 +4062,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('교육', '교육', '과정')</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.15603</v>
+        <v>0.03651</v>
       </c>
     </row>
     <row r="281">
@@ -4075,11 +4075,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>('교육', '소프트웨어', '교육')</t>
+          <t>('교육', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.15534</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="282">
@@ -4088,11 +4088,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>('교육', '과정', '개발')</t>
+          <t>('담당', '교사')</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.15409</v>
+        <v>0.03625</v>
       </c>
     </row>
     <row r="283">
@@ -4101,11 +4101,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('방향', '제시')</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.15295</v>
+        <v>0.03616</v>
       </c>
     </row>
     <row r="284">
@@ -4114,11 +4114,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>('활용', '능력', '향상')</t>
+          <t>('학습자', '문제', '해결')</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.15238</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="285">
@@ -4127,11 +4127,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>('세부', '역량')</t>
+          <t>('회귀', '분석')</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.15109</v>
+        <v>0.03506</v>
       </c>
     </row>
     <row r="286">
@@ -4140,11 +4140,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>('sw', '교육', '인식')</t>
+          <t>('내용', '선정')</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.14817</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="287">
@@ -4153,11 +4153,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('정보', '보호')</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.14798</v>
+        <v>0.03452</v>
       </c>
     </row>
     <row r="288">
@@ -4166,11 +4166,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>('교육', '과정', '제안')</t>
+          <t>('교수', '학습', '활동')</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.14793</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="289">
@@ -4179,11 +4179,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>('연구', '정보', '교육')</t>
+          <t>('교육', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.14741</v>
+        <v>0.03344</v>
       </c>
     </row>
     <row r="290">
@@ -4192,11 +4192,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>('비판', '사고')</t>
+          <t>('영향', '요인')</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.14697</v>
+        <v>0.03321</v>
       </c>
     </row>
     <row r="291">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>('교육', '과정', '개선')</t>
+          <t>('세기', '지식')</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.1469</v>
+        <v>0.03279</v>
       </c>
     </row>
     <row r="292">
@@ -4218,11 +4218,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('초등', '중등')</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.14458</v>
+        <v>0.03275</v>
       </c>
     </row>
     <row r="293">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>('개발', '교육', '프로그램')</t>
+          <t>('독서', '교육', '시스템')</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.14456</v>
+        <v>0.03245</v>
       </c>
     </row>
     <row r="294">
@@ -4244,11 +4244,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>('초등', '정보', '교육')</t>
+          <t>('과학', '영재')</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.14397</v>
+        <v>0.03131</v>
       </c>
     </row>
     <row r="295">
@@ -4257,11 +4257,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>('교수', '학습', '방법')</t>
+          <t>('프로그램', '개발', '개발')</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.14386</v>
+        <v>0.03109</v>
       </c>
     </row>
     <row r="296">
@@ -4270,11 +4270,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>('교육', '과정', '연구')</t>
+          <t>('초등', '학년')</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.14245</v>
+        <v>0.03092</v>
       </c>
     </row>
     <row r="297">
@@ -4283,11 +4283,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>('로봇', '교육', '로봇')</t>
+          <t>('창의', '문제', '해결')</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.14243</v>
+        <v>0.03073</v>
       </c>
     </row>
     <row r="298">
@@ -4296,11 +4296,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('컴퓨터', '과학')</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.14194</v>
+        <v>0.03066</v>
       </c>
     </row>
     <row r="299">
@@ -4309,11 +4309,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>('교육', '과정', '분석')</t>
+          <t>('요구', '분석', '결과')</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.14177</v>
+        <v>0.03011</v>
       </c>
     </row>
     <row r="300">
@@ -4322,11 +4322,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('능력', '향상')</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.14171</v>
+        <v>0.02999</v>
       </c>
     </row>
     <row r="301">
@@ -4335,11 +4335,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>('교육', 'sw', '교육')</t>
+          <t>('역량', '강화')</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.13994</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="302">
@@ -4348,11 +4348,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>('프로그래밍', '교육', '방안')</t>
+          <t>('블록', '프로그래밍')</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.13976</v>
+        <v>0.02957</v>
       </c>
     </row>
     <row r="303">
@@ -4361,11 +4361,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('연구', '정보', '통신')</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.1395</v>
+        <v>0.02948</v>
       </c>
     </row>
     <row r="304">
@@ -4374,11 +4374,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>('초등', '정보', '영재')</t>
+          <t>('대상', '설문')</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.13741</v>
+        <v>0.02909</v>
       </c>
     </row>
     <row r="305">
@@ -4387,11 +4387,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>('개발', '초등', '학년')</t>
+          <t>('핵심', '개념')</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.1368</v>
+        <v>0.02884</v>
       </c>
     </row>
     <row r="306">
@@ -4400,11 +4400,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('정보', '교육', '과정')</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.13569</v>
+        <v>0.02838</v>
       </c>
     </row>
     <row r="307">
@@ -4413,11 +4413,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('창의', '문제')</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.13569</v>
+        <v>0.02823</v>
       </c>
     </row>
     <row r="308">
@@ -4426,11 +4426,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>('교육', '과정', '컴퓨터')</t>
+          <t>('소양', '능력')</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.1356</v>
+        <v>0.02802</v>
       </c>
     </row>
     <row r="309">
@@ -4439,11 +4439,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>('적극', '참여')</t>
+          <t>('유해', '정보')</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.13369</v>
+        <v>0.02749</v>
       </c>
     </row>
     <row r="310">
@@ -4452,11 +4452,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>('교육', '과정', '소프트웨어')</t>
+          <t>('컴퓨팅', '사고력', '신장')</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.13355</v>
+        <v>0.02749</v>
       </c>
     </row>
     <row r="311">
@@ -4465,11 +4465,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('언플러그드', '활동')</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.13167</v>
+        <v>0.02742</v>
       </c>
     </row>
     <row r="312">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>('활용', '교수', '학습')</t>
+          <t>('교수', '학습', '과정')</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.12788</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="313">
@@ -4491,11 +4491,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>('교육', '과정', '정보')</t>
+          <t>('교수', '학습', '시스템')</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.12687</v>
+        <v>0.02713</v>
       </c>
     </row>
     <row r="314">
@@ -4504,11 +4504,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('컴퓨터', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.12674</v>
+        <v>0.02695</v>
       </c>
     </row>
     <row r="315">
@@ -4517,11 +4517,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>('교육', '과정', '구성')</t>
+          <t>('교육', '과정', '표준')</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.12542</v>
+        <v>0.02671</v>
       </c>
     </row>
     <row r="316">
@@ -4530,11 +4530,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('스마트폰', '사용')</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.12535</v>
+        <v>0.02643</v>
       </c>
     </row>
     <row r="317">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>('교육', '효과', '검증')</t>
+          <t>('활성', '방안')</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.12503</v>
+        <v>0.02614</v>
       </c>
     </row>
     <row r="318">
@@ -4556,11 +4556,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('선행', '연구')</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.12442</v>
+        <v>0.02571</v>
       </c>
     </row>
     <row r="319">
@@ -4569,11 +4569,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>('로봇', '프로그래밍', '교육')</t>
+          <t>('활용', '능력', '향상')</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.12391</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="320">
@@ -4582,11 +4582,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('인식', '조사')</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.12369</v>
+        <v>0.02526</v>
       </c>
     </row>
     <row r="321">
@@ -4595,11 +4595,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>('프로젝트', '학습', '시스템')</t>
+          <t>('검사', '실시')</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.12285</v>
+        <v>0.02524</v>
       </c>
     </row>
     <row r="322">
@@ -4608,11 +4608,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>('steam', '교육', '프로그램')</t>
+          <t>('sw', '교육', '관련')</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.12182</v>
+        <v>0.02519</v>
       </c>
     </row>
     <row r="323">
@@ -4621,11 +4621,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>('교육', '과정', '운영')</t>
+          <t>('만족도', '영향')</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.12019</v>
+        <v>0.02506</v>
       </c>
     </row>
     <row r="324">
@@ -4634,11 +4634,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>('교육', '과정', '초등')</t>
+          <t>('ict', '활용')</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.12019</v>
+        <v>0.02496</v>
       </c>
     </row>
     <row r="325">
@@ -4647,11 +4647,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>('교육', '과정', '설계')</t>
+          <t>('영재', '학급')</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.12019</v>
+        <v>0.02468</v>
       </c>
     </row>
     <row r="326">
@@ -4660,11 +4660,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>('창의', '인성')</t>
+          <t>('교육', '과정', '제안')</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.11985</v>
+        <v>0.02465</v>
       </c>
     </row>
     <row r="327">
@@ -4673,11 +4673,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>('교육', '시스템', '설계')</t>
+          <t>('역량', '계발')</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.11984</v>
+        <v>0.02458</v>
       </c>
     </row>
     <row r="328">
@@ -4686,11 +4686,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('시스템', '설계')</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.11934</v>
+        <v>0.02404</v>
       </c>
     </row>
     <row r="329">
@@ -4699,11 +4699,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>('관계', '규명')</t>
+          <t>('방안', '제시')</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.1175</v>
+        <v>0.02377</v>
       </c>
     </row>
     <row r="330">
@@ -4712,11 +4712,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨터', '교육')</t>
+          <t>('시간', '공간')</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.11677</v>
+        <v>0.02372</v>
       </c>
     </row>
     <row r="331">
@@ -4725,11 +4725,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>('세기', '지식')</t>
+          <t>('지원', '시스템')</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.11475</v>
+        <v>0.02355</v>
       </c>
     </row>
     <row r="332">
@@ -4738,11 +4738,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('학년', '학생')</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.11379</v>
+        <v>0.02348</v>
       </c>
     </row>
     <row r="333">
@@ -4751,11 +4751,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>('교원', '연수')</t>
+          <t>('평가', '준거')</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.11344</v>
+        <v>0.0234</v>
       </c>
     </row>
     <row r="334">
@@ -4764,11 +4764,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>('성별', '차이')</t>
+          <t>('관리', '시스템')</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.11211</v>
+        <v>0.02335</v>
       </c>
     </row>
     <row r="335">
@@ -4777,11 +4777,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('도형', '영역')</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.11184</v>
+        <v>0.02332</v>
       </c>
     </row>
     <row r="336">
@@ -4790,11 +4790,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('응용', '프로그램')</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.11088</v>
+        <v>0.02298</v>
       </c>
     </row>
     <row r="337">
@@ -4803,11 +4803,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('기초', '자료')</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.11065</v>
+        <v>0.02294</v>
       </c>
     </row>
     <row r="338">
@@ -4816,11 +4816,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>('연구', '컴퓨터', '교육')</t>
+          <t>('초등', '정보', '영재')</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.11011</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="339">
@@ -4829,11 +4829,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('교사', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.10934</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="340">
@@ -4842,11 +4842,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>('교수', '학습', '전략')</t>
+          <t>('관련', '교육', '과정')</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.1079</v>
+        <v>0.02289</v>
       </c>
     </row>
     <row r="341">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>('교수', '학습', '모형')</t>
+          <t>('개념', '이해')</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.10635</v>
+        <v>0.02269</v>
       </c>
     </row>
     <row r="342">
@@ -4868,11 +4868,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('문제점', '해결')</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.10582</v>
+        <v>0.02265</v>
       </c>
     </row>
     <row r="343">
@@ -4881,11 +4881,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>('연구', '정보', '통신')</t>
+          <t>('해결력', '신장')</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.10318</v>
+        <v>0.02259</v>
       </c>
     </row>
     <row r="344">
@@ -4894,11 +4894,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>('사이버', '상담')</t>
+          <t>('사고력', '신장')</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.10281</v>
+        <v>0.02259</v>
       </c>
     </row>
     <row r="345">
@@ -4907,11 +4907,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>('중독', '정도')</t>
+          <t>('실태', '조사')</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.10101</v>
+        <v>0.02254</v>
       </c>
     </row>
     <row r="346">
@@ -4920,11 +4920,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>('과학', '예술')</t>
+          <t>('적극', '참여')</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.10041</v>
+        <v>0.02228</v>
       </c>
     </row>
     <row r="347">
@@ -4933,11 +4933,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('시사점', '제공')</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.09956</v>
+        <v>0.02225</v>
       </c>
     </row>
     <row r="348">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('초등', '정보', '통신')</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.09791</v>
+        <v>0.02223</v>
       </c>
     </row>
     <row r="349">
@@ -4959,11 +4959,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>('하위', '요소')</t>
+          <t>('현장', '적용')</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.0955</v>
+        <v>0.02172</v>
       </c>
     </row>
     <row r="350">
@@ -4972,11 +4972,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('평가', '기준')</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.09544</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="351">
@@ -4985,11 +4985,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>('교수', '학습', '자료')</t>
+          <t>('조사', '실시')</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.09537</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="352">
@@ -4998,11 +4998,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>('교수', '학습', '적용')</t>
+          <t>('정보', '영재', '교육')</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.09472</v>
+        <v>0.02134</v>
       </c>
     </row>
     <row r="353">
@@ -5011,11 +5011,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('활용', '교수', '학습')</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.09463000000000001</v>
+        <v>0.02131</v>
       </c>
     </row>
     <row r="354">
@@ -5024,11 +5024,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>('창의', '문제', '해결')</t>
+          <t>('수학', '과학')</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.09218</v>
+        <v>0.02116</v>
       </c>
     </row>
     <row r="355">
@@ -5037,11 +5037,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>('미래', '사회')</t>
+          <t>('비교', '집단')</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.09163</v>
+        <v>0.02114</v>
       </c>
     </row>
     <row r="356">
@@ -5050,11 +5050,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>('역량', '강화')</t>
+          <t>('시스템', '설계', '개발')</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.08969000000000001</v>
+        <v>0.02086</v>
       </c>
     </row>
     <row r="357">
@@ -5063,11 +5063,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>('sw', '교육', '관련')</t>
+          <t>('프로젝트', '학습', '시스템')</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.08816</v>
+        <v>0.02048</v>
       </c>
     </row>
     <row r="358">
@@ -5076,11 +5076,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('방안', '제안')</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.08776</v>
+        <v>0.02037</v>
       </c>
     </row>
     <row r="359">
@@ -5089,11 +5089,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>('ct', '역량')</t>
+          <t>('교수', '학습')</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.08656999999999999</v>
+        <v>0.02025</v>
       </c>
     </row>
     <row r="360">
@@ -5102,11 +5102,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>('의도', '영향')</t>
+          <t>('하위', '영역')</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.08547</v>
+        <v>0.02016</v>
       </c>
     </row>
     <row r="361">
@@ -5115,11 +5115,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('교육', '과정', '운영')</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.0848</v>
+        <v>0.02003</v>
       </c>
     </row>
     <row r="362">
@@ -5128,11 +5128,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>('가상현실', '콘텐츠')</t>
+          <t>('현장', '적용', '결과')</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.08402999999999999</v>
+        <v>0.01982</v>
       </c>
     </row>
     <row r="363">
@@ -5141,11 +5141,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('교육', '컴퓨터', '교육')</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.08384999999999999</v>
+        <v>0.01946</v>
       </c>
     </row>
     <row r="364">
@@ -5154,11 +5154,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>('시간', '공간')</t>
+          <t>('언플러그드', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.08302</v>
+        <v>0.01946</v>
       </c>
     </row>
     <row r="365">
@@ -5167,11 +5167,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>('교구', '관리')</t>
+          <t>('컴퓨터', '교육', '과정')</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.08289000000000001</v>
+        <v>0.01945</v>
       </c>
     </row>
     <row r="366">
@@ -5180,11 +5180,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '교육')</t>
+          <t>('사용', '자군')</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.01943</v>
       </c>
     </row>
     <row r="367">
@@ -5193,11 +5193,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>('관련', '교육', '과정')</t>
+          <t>('분석', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.08013000000000001</v>
+        <v>0.01938</v>
       </c>
     </row>
     <row r="368">
@@ -5206,11 +5206,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>('기술', '수용')</t>
+          <t>('검사', '도구')</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.07849</v>
+        <v>0.01931</v>
       </c>
     </row>
     <row r="369">
@@ -5219,11 +5219,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>('핵심', '개념')</t>
+          <t>('수업', '진행')</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.07689</v>
+        <v>0.01924</v>
       </c>
     </row>
     <row r="370">
@@ -5232,11 +5232,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>('데이터', '수집')</t>
+          <t>('적응', '코스웨어')</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.07376000000000001</v>
+        <v>0.01906</v>
       </c>
     </row>
     <row r="371">
@@ -5245,11 +5245,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>('교수', '학습', '과정')</t>
+          <t>('사고력', '향상')</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.07307</v>
+        <v>0.01893</v>
       </c>
     </row>
     <row r="372">
@@ -5258,11 +5258,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>('사전', '검사')</t>
+          <t>('교원', '연수')</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.07278999999999999</v>
+        <v>0.01891</v>
       </c>
     </row>
     <row r="373">
@@ -5271,11 +5271,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>('담당', '교사')</t>
+          <t>('성별', '차이')</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.07251000000000001</v>
+        <v>0.01868</v>
       </c>
     </row>
     <row r="374">
@@ -5284,11 +5284,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>('협업', '능력')</t>
+          <t>('결과', '다음')</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.07198</v>
+        <v>0.01861</v>
       </c>
     </row>
     <row r="375">
@@ -5297,11 +5297,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>('sw', '교육', '초등')</t>
+          <t>('프로그램', '개발')</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.07197000000000001</v>
+        <v>0.01856</v>
       </c>
     </row>
     <row r="376">
@@ -5310,11 +5310,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>('교육', '연구', '초등')</t>
+          <t>('효과', '분석', '분석')</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.07086000000000001</v>
+        <v>0.01854</v>
       </c>
     </row>
     <row r="377">
@@ -5323,11 +5323,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>('하위', '영역')</t>
+          <t>('교수', '실재감')</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.07056</v>
+        <v>0.01835</v>
       </c>
     </row>
     <row r="378">
@@ -5336,11 +5336,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>('교육', '초등', '학년')</t>
+          <t>('협동', '학습')</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.07052</v>
+        <v>0.01833</v>
       </c>
     </row>
     <row r="379">
@@ -5349,11 +5349,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>('회귀', '분석')</t>
+          <t>('교재', '개발')</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.07013</v>
+        <v>0.01819</v>
       </c>
     </row>
     <row r="380">
@@ -5362,11 +5362,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>('비교', '분석', '결과')</t>
+          <t>('학습', '동기')</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.07009</v>
+        <v>0.01805</v>
       </c>
     </row>
     <row r="381">
@@ -5375,11 +5375,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>('도형', '영역')</t>
+          <t>('문제', '중심')</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.06995999999999999</v>
+        <v>0.01803</v>
       </c>
     </row>
     <row r="382">
@@ -5388,11 +5388,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>('활성', '방안')</t>
+          <t>('향상', '긍정')</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.06972</v>
+        <v>0.01802</v>
       </c>
     </row>
     <row r="383">
@@ -5401,11 +5401,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>('제공', '의의')</t>
+          <t>('유의', '영향')</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.06962</v>
+        <v>0.01795</v>
       </c>
     </row>
     <row r="384">
@@ -5414,11 +5414,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('교육', '프로그램', '효과')</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.06959</v>
+        <v>0.01789</v>
       </c>
     </row>
     <row r="385">
@@ -5427,11 +5427,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>('원리', '이해')</t>
+          <t>('결과', '토대')</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.06839000000000001</v>
+        <v>0.01786</v>
       </c>
     </row>
     <row r="386">
@@ -5440,11 +5440,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('스크래치', '프로그래밍')</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.06791</v>
+        <v>0.01784</v>
       </c>
     </row>
     <row r="387">
@@ -5453,11 +5453,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>('정의', '영역')</t>
+          <t>('로봇', '보조')</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.06781</v>
+        <v>0.01762</v>
       </c>
     </row>
     <row r="388">
@@ -5466,11 +5466,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>('스마트', '러닝')</t>
+          <t>('학년', '대상')</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.06773999999999999</v>
+        <v>0.01743</v>
       </c>
     </row>
     <row r="389">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>('기술', '발전')</t>
+          <t>('융합', '활동')</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.06716</v>
+        <v>0.01728</v>
       </c>
     </row>
     <row r="390">
@@ -5492,11 +5492,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>('프로그래밍', '프로토타입')</t>
+          <t>('해결력', '향상')</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.06693</v>
+        <v>0.01721</v>
       </c>
     </row>
     <row r="391">
@@ -5505,11 +5505,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>('피드백', '제공')</t>
+          <t>('연구', '결과', '토대')</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.06645</v>
+        <v>0.01715</v>
       </c>
     </row>
     <row r="392">
@@ -5518,11 +5518,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('주도', '학습')</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.06641</v>
+        <v>0.01707</v>
       </c>
     </row>
     <row r="393">
@@ -5531,11 +5531,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>('영재', '학급')</t>
+          <t>('중독', '정도')</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.06582</v>
+        <v>0.01684</v>
       </c>
     </row>
     <row r="394">
@@ -5544,11 +5544,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>('지식', '습득')</t>
+          <t>('사전', '검사')</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.06557</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="395">
@@ -5557,11 +5557,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('비교', '분석')</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.06390999999999999</v>
+        <v>0.01675</v>
       </c>
     </row>
     <row r="396">
@@ -5570,11 +5570,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>('과학', '교육', '프로그램')</t>
+          <t>('협업', '능력')</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.06371</v>
+        <v>0.01661</v>
       </c>
     </row>
     <row r="397">
@@ -5583,11 +5583,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>('특성', '고려')</t>
+          <t>('연구', '결과', '다음')</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.06347</v>
+        <v>0.01646</v>
       </c>
     </row>
     <row r="398">
@@ -5596,11 +5596,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>('교수', '학습', '활동')</t>
+          <t>('연수', '프로그램')</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.06252000000000001</v>
+        <v>0.01644</v>
       </c>
     </row>
     <row r="399">
@@ -5609,11 +5609,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>('평가', '준거')</t>
+          <t>('연구', '목적')</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.06241</v>
+        <v>0.01644</v>
       </c>
     </row>
     <row r="400">
@@ -5622,11 +5622,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>('콘텐츠', '제작')</t>
+          <t>('디지털', '환경')</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.06211</v>
+        <v>0.01638</v>
       </c>
     </row>
     <row r="401">
@@ -5635,11 +5635,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>('유해', '정보')</t>
+          <t>('인터넷', '사용')</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.06184</v>
+        <v>0.01603</v>
       </c>
     </row>
     <row r="402">
@@ -5648,11 +5648,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>('영역', '구분')</t>
+          <t>('교사', '연수')</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.06148</v>
+        <v>0.01603</v>
       </c>
     </row>
     <row r="403">
@@ -5661,11 +5661,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>('수집', '데이터')</t>
+          <t>('교사', '대상')</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.06147</v>
+        <v>0.01602</v>
       </c>
     </row>
     <row r="404">
@@ -5674,11 +5674,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>('응용', '프로그램')</t>
+          <t>('정보', '영재')</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.06127</v>
+        <v>0.01598</v>
       </c>
     </row>
     <row r="405">
@@ -5687,11 +5687,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>('단계', '구분')</t>
+          <t>('학생', '대상')</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.06049</v>
+        <v>0.01589</v>
       </c>
     </row>
     <row r="406">
@@ -5700,11 +5700,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>('문제점', '해결')</t>
+          <t>('운영', '지침')</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.0604</v>
+        <v>0.01587</v>
       </c>
     </row>
     <row r="407">
@@ -5713,11 +5713,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>('해결력', '신장')</t>
+          <t>('원리', '이해')</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.06024</v>
+        <v>0.01578</v>
       </c>
     </row>
     <row r="408">
@@ -5726,11 +5726,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>('소프트웨어', '교육', '교육')</t>
+          <t>('스마트', '러닝')</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.05794</v>
+        <v>0.01563</v>
       </c>
     </row>
     <row r="409">
@@ -5739,11 +5739,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>('교육', '교육', '과정')</t>
+          <t>('로봇', '활용')</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.0568</v>
+        <v>0.01551</v>
       </c>
     </row>
     <row r="410">
@@ -5752,11 +5752,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>('요소', '추출')</t>
+          <t>('전통', '수업')</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.05672</v>
+        <v>0.01522</v>
       </c>
     </row>
     <row r="411">
@@ -5765,11 +5765,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>('블록', '프로그래밍')</t>
+          <t>('분석', '결과')</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.05646</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="412">
@@ -5778,11 +5778,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('실정', '연구')</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.05478</v>
+        <v>0.01508</v>
       </c>
     </row>
     <row r="413">
@@ -5791,11 +5791,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>('제시', '의의')</t>
+          <t>('플립러닝', '수업')</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.05411</v>
+        <v>0.01501</v>
       </c>
     </row>
     <row r="414">
@@ -5804,11 +5804,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>('시사점', '제공')</t>
+          <t>('학습', '부진아')</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.05403</v>
+        <v>0.01475</v>
       </c>
     </row>
     <row r="415">
@@ -5817,11 +5817,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>('초등', '정보', '통신')</t>
+          <t>('sw', '교육')</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.05399</v>
+        <v>0.01475</v>
       </c>
     </row>
     <row r="416">
@@ -5830,11 +5830,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>('방향', '제시')</t>
+          <t>('정보', '사회')</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.05337</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="417">
@@ -5843,11 +5843,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>('능력', '신장')</t>
+          <t>('창의', '신장')</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.05329</v>
+        <v>0.01468</v>
       </c>
     </row>
     <row r="418">
@@ -5856,11 +5856,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>('중독', '실태')</t>
+          <t>('특성', '고려')</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.05295</v>
+        <v>0.01465</v>
       </c>
     </row>
     <row r="419">
@@ -5869,11 +5869,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>('로봇', '보조')</t>
+          <t>('평가', '도구')</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.05285</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="420">
@@ -5882,11 +5882,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>('소양', '능력')</t>
+          <t>('교육', '정보', '교육')</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.05137</v>
+        <v>0.01457</v>
       </c>
     </row>
     <row r="421">
@@ -5895,11 +5895,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>('교육', '정보', '교육')</t>
+          <t>('교육', '로봇', '교육')</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.05099</v>
+        <v>0.01424</v>
       </c>
     </row>
     <row r="422">
@@ -5908,11 +5908,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>('내용', '체계')</t>
+          <t>('긍정', '효과')</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.05094</v>
+        <v>0.01413</v>
       </c>
     </row>
     <row r="423">
@@ -5921,11 +5921,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>('효과', '검증')</t>
+          <t>('가상현실', '콘텐츠')</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.04985</v>
+        <v>0.01401</v>
       </c>
     </row>
     <row r="424">
@@ -5934,11 +5934,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>('과서', '사용')</t>
+          <t>('서비스', '제공')</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.0496</v>
+        <v>0.01392</v>
       </c>
     </row>
     <row r="425">
@@ -5947,11 +5947,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>('현직', '교사')</t>
+          <t>('의사소통', '능력')</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.04908</v>
+        <v>0.01384</v>
       </c>
     </row>
     <row r="426">
@@ -5960,11 +5960,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>('교수', '실재감')</t>
+          <t>('상담', '시스템')</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.04893</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="427">
@@ -5973,11 +5973,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>('정보', '보호')</t>
+          <t>('교사', '인식')</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.0489</v>
+        <v>0.01363</v>
       </c>
     </row>
     <row r="428">
@@ -5986,11 +5986,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>('학교', '홈페이지')</t>
+          <t>('학습', '스타일')</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.04866</v>
+        <v>0.01357</v>
       </c>
     </row>
     <row r="429">
@@ -5999,11 +5999,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>('스마트폰', '사용')</t>
+          <t>('로봇', '교육', '과정')</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.04846</v>
+        <v>0.01347</v>
       </c>
     </row>
     <row r="430">
@@ -6012,11 +6012,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>('내용', '선정')</t>
+          <t>('정보', '과학')</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.04844</v>
+        <v>0.01343</v>
       </c>
     </row>
     <row r="431">
@@ -6025,11 +6025,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>('연구', '초등', '정보')</t>
+          <t>('소프트웨어', '교육', '교육')</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.04839</v>
+        <v>0.01337</v>
       </c>
     </row>
     <row r="432">
@@ -6038,11 +6038,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>('성취', '목표')</t>
+          <t>('교육', '과정', '개선')</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.04785</v>
+        <v>0.01335</v>
       </c>
     </row>
     <row r="433">
@@ -6051,11 +6051,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>('프로그래밍', '교육', '실시')</t>
+          <t>('컴퓨터', '소양')</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.04777</v>
+        <v>0.01333</v>
       </c>
     </row>
     <row r="434">
@@ -6064,11 +6064,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>('실태', '조사')</t>
+          <t>('기능', '게임')</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.04759</v>
+        <v>0.01332</v>
       </c>
     </row>
     <row r="435">
@@ -6077,11 +6077,11 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>('교수', '학습', '시스템')</t>
+          <t>('교육', '과정')</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.0465</v>
+        <v>0.01319</v>
       </c>
     </row>
     <row r="436">
@@ -6090,11 +6090,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>('영향', '요인')</t>
+          <t>('정보', '윤리')</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.0465</v>
+        <v>0.01309</v>
       </c>
     </row>
     <row r="437">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>('의식', '수준')</t>
+          <t>('동기', '학업')</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.046</v>
+        <v>0.01305</v>
       </c>
     </row>
     <row r="438">
@@ -6116,11 +6116,11 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>('기초', '자료')</t>
+          <t>('유의미', '향상')</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.04588</v>
+        <v>0.01292</v>
       </c>
     </row>
     <row r="439">
@@ -6129,11 +6129,11 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>('언플러그드', '활동')</t>
+          <t>('환경', '제공')</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.0457</v>
+        <v>0.01275</v>
       </c>
     </row>
     <row r="440">
@@ -6142,11 +6142,11 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>('동기', '학업')</t>
+          <t>('프로젝트', '학습')</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.04567</v>
+        <v>0.01249</v>
       </c>
     </row>
     <row r="441">
@@ -6155,11 +6155,11 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>('프로그래밍', '교육', '방법')</t>
+          <t>('실태', '분석')</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.04546</v>
+        <v>0.01244</v>
       </c>
     </row>
     <row r="442">
@@ -6168,11 +6168,11 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>('개념', '이해')</t>
+          <t>('개발', '초등', '학년')</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.04539</v>
+        <v>0.01244</v>
       </c>
     </row>
     <row r="443">
@@ -6181,11 +6181,11 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>('발달', '단계')</t>
+          <t>('시사점', '제시')</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.0451</v>
+        <v>0.01235</v>
       </c>
     </row>
     <row r="444">
@@ -6194,11 +6194,11 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>('플립러닝', '수업')</t>
+          <t>('교육', '과정', '컴퓨터')</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.04502</v>
+        <v>0.01233</v>
       </c>
     </row>
     <row r="445">
@@ -6207,11 +6207,11 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>('초등', '고학년')</t>
+          <t>('데이터', '수집')</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.04492</v>
+        <v>0.01229</v>
       </c>
     </row>
     <row r="446">
@@ -6220,11 +6220,11 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>('수행', '평가')</t>
+          <t>('중독', '실태')</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.04472</v>
+        <v>0.01222</v>
       </c>
     </row>
     <row r="447">
@@ -6233,11 +6233,11 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>('소프트웨어', '교육', '실시')</t>
+          <t>('활용', '능력')</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.04457</v>
+        <v>0.01206</v>
       </c>
     </row>
     <row r="448">
@@ -6246,11 +6246,11 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>('자료', '공유')</t>
+          <t>('개발', '적용')</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.04446</v>
+        <v>0.01194</v>
       </c>
     </row>
     <row r="449">
@@ -6259,11 +6259,11 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>('만족도', '영향')</t>
+          <t>('소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.04434</v>
+        <v>0.01193</v>
       </c>
     </row>
     <row r="450">
@@ -6272,11 +6272,11 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>('ict', '소양')</t>
+          <t>('교육', '초등', '학년')</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.04387</v>
+        <v>0.01175</v>
       </c>
     </row>
     <row r="451">
@@ -6285,11 +6285,11 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>('효과', '분석', '결과')</t>
+          <t>('검사', '결과')</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.04371</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="452">
@@ -6298,11 +6298,11 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>('유의', '영향')</t>
+          <t>('활동', '중심')</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.04359</v>
+        <v>0.01152</v>
       </c>
     </row>
     <row r="453">
@@ -6311,11 +6311,11 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>('웹기반', '프로젝트')</t>
+          <t>('컴퓨터', '교과서')</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.04345</v>
+        <v>0.01152</v>
       </c>
     </row>
     <row r="454">
@@ -6324,11 +6324,11 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>('대학교', '학년')</t>
+          <t>('과서', '사용')</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.04209</v>
+        <v>0.01145</v>
       </c>
     </row>
     <row r="455">
@@ -6337,11 +6337,11 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>('의사소통', '능력')</t>
+          <t>('연구', '동향')</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.04153</v>
+        <v>0.01141</v>
       </c>
     </row>
     <row r="456">
@@ -6350,11 +6350,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>('sw', '교육', '실시')</t>
+          <t>('학습자', '중심')</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.04145</v>
+        <v>0.01117</v>
       </c>
     </row>
     <row r="457">
@@ -6363,11 +6363,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>('연결망', '분석')</t>
+          <t>('steam', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.04125</v>
+        <v>0.01107</v>
       </c>
     </row>
     <row r="458">
@@ -6376,11 +6376,11 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>('과학', '영재')</t>
+          <t>('온라인', '게임')</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.0411</v>
+        <v>0.01105</v>
       </c>
     </row>
     <row r="459">
@@ -6389,11 +6389,11 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>('동료', '평가')</t>
+          <t>('교육', '대학교')</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.04081</v>
+        <v>0.01099</v>
       </c>
     </row>
     <row r="460">
@@ -6402,11 +6402,11 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>('대상', '설문')</t>
+          <t>('도구', '개발')</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.04027</v>
+        <v>0.01096</v>
       </c>
     </row>
     <row r="461">
@@ -6415,11 +6415,11 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>('과학', '탐구')</t>
+          <t>('구성', '요소')</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.04003</v>
+        <v>0.01096</v>
       </c>
     </row>
     <row r="462">
@@ -6428,11 +6428,11 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>('과학', '교구')</t>
+          <t>('학습', '성과')</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.03982</v>
+        <v>0.01093</v>
       </c>
     </row>
     <row r="463">
@@ -6441,11 +6441,11 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>('운영', '실태')</t>
+          <t>('교육', '시스템', '설계')</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.03943</v>
+        <v>0.01089</v>
       </c>
     </row>
     <row r="464">
@@ -6454,11 +6454,11 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>('언플러그드', '컴퓨팅')</t>
+          <t>('정보', '기기')</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.03893</v>
+        <v>0.01082</v>
       </c>
     </row>
     <row r="465">
@@ -6467,11 +6467,11 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>('수학', '과학')</t>
+          <t>('중요', '인식')</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.03878</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="466">
@@ -6480,11 +6480,11 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>('보조', '로봇')</t>
+          <t>('로봇', '프로그래밍')</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.03876</v>
+        <v>0.01068</v>
       </c>
     </row>
     <row r="467">
@@ -6493,11 +6493,11 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>('소프트웨어', '교육', '초등')</t>
+          <t>('관계', '규명')</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0.03869</v>
+        <v>0.01068</v>
       </c>
     </row>
     <row r="468">
@@ -6506,11 +6506,11 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>('측정', '도구')</t>
+          <t>('학습', '몰입')</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.0386</v>
+        <v>0.01066</v>
       </c>
     </row>
     <row r="469">
@@ -6519,11 +6519,11 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>('초등', '중등')</t>
+          <t>('교사', '학부모')</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.03794</v>
+        <v>0.01064</v>
       </c>
     </row>
     <row r="470">
@@ -6532,11 +6532,11 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>('검사', '실시')</t>
+          <t>('모형', '개발')</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.03786</v>
+        <v>0.01059</v>
       </c>
     </row>
     <row r="471">
@@ -6545,11 +6545,11 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>('집단', '상담')</t>
+          <t>('협력', '문제')</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.03771</v>
+        <v>0.01053</v>
       </c>
     </row>
     <row r="472">
@@ -6558,11 +6558,11 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>('사고력', '신장')</t>
+          <t>('교수자', '학습자')</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.03765</v>
+        <v>0.01051</v>
       </c>
     </row>
     <row r="473">
@@ -6571,11 +6571,11 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>('비교', '집단')</t>
+          <t>('적용', '가능')</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.03739</v>
+        <v>0.01051</v>
       </c>
     </row>
     <row r="474">
@@ -6584,11 +6584,11 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>('서비스', '제공')</t>
+          <t>('초등', '예비')</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.03713</v>
+        <v>0.01043</v>
       </c>
     </row>
     <row r="475">
@@ -6597,11 +6597,11 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>('시사점', '제시')</t>
+          <t>('과제', '수행')</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.03706</v>
+        <v>0.01029</v>
       </c>
     </row>
     <row r="476">
@@ -6610,11 +6610,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>('디지털', '환경')</t>
+          <t>('설문', '실시')</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.03685</v>
+        <v>0.01026</v>
       </c>
     </row>
     <row r="477">
@@ -6623,11 +6623,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>('교수자', '학습자')</t>
+          <t>('영역', '구분')</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.03678</v>
+        <v>0.01025</v>
       </c>
     </row>
     <row r="478">
@@ -6636,11 +6636,11 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>('스크래치', '프로젝트')</t>
+          <t>('시스템', '개발')</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.03674</v>
+        <v>0.01016</v>
       </c>
     </row>
     <row r="479">
@@ -6649,11 +6649,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>('정보', '교육', '과정')</t>
+          <t>('지식', '사회')</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0.03673</v>
+        <v>0.01012</v>
       </c>
     </row>
     <row r="480">
@@ -6662,11 +6662,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>('리터러시', '수준')</t>
+          <t>('연구', '결과')</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.03644</v>
+        <v>0.01012</v>
       </c>
     </row>
     <row r="481">
@@ -6675,11 +6675,11 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>('과제', '수행')</t>
+          <t>('ict', '소양')</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.036</v>
+        <v>0.01012</v>
       </c>
     </row>
     <row r="482">
@@ -6688,11 +6688,11 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>('창의', '신장')</t>
+          <t>('시스템', '구축')</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0.03565</v>
+        <v>0.01003</v>
       </c>
     </row>
     <row r="483">
@@ -6701,11 +6701,11 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>('검사', '도구')</t>
+          <t>('코스웨어', '설계')</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.03541</v>
+        <v>0.00997</v>
       </c>
     </row>
     <row r="484">
@@ -6714,11 +6714,11 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>('연구', '초등', '학년')</t>
+          <t>('자료', '구조')</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0.03501</v>
+        <v>0.00997</v>
       </c>
     </row>
     <row r="485">
@@ -6727,11 +6727,11 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '교구')</t>
+          <t>('수준', '측정')</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0.0349</v>
+        <v>0.00991</v>
       </c>
     </row>
     <row r="486">
@@ -6740,11 +6740,11 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>('자료', '구조')</t>
+          <t>('단계', '구성')</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0.03488</v>
+        <v>0.00984</v>
       </c>
     </row>
     <row r="487">
@@ -6753,11 +6753,11 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>('수집', '자료')</t>
+          <t>('수업', '모형')</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0.03482</v>
+        <v>0.00976</v>
       </c>
     </row>
     <row r="488">
@@ -6766,11 +6766,11 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>('수준', '측정')</t>
+          <t>('콘텐츠', '개발')</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0.03467</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="489">
@@ -6779,11 +6779,11 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>('능력', '향상')</t>
+          <t>('sw', '교육', '실시')</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0.03461</v>
+        <v>0.00957</v>
       </c>
     </row>
     <row r="490">
@@ -6792,11 +6792,11 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>('인식', '조사')</t>
+          <t>('제안', '제안')</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0.03461</v>
+        <v>0.00945</v>
       </c>
     </row>
     <row r="491">
@@ -6805,11 +6805,11 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>('형성', '평가')</t>
+          <t>('sw', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0.0346</v>
+        <v>0.00937</v>
       </c>
     </row>
     <row r="492">
@@ -6818,11 +6818,11 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>('선행', '연구')</t>
+          <t>('컴퓨터', '교과')</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0.03401</v>
+        <v>0.009350000000000001</v>
       </c>
     </row>
     <row r="493">
@@ -6831,11 +6831,11 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>('태도', '변화')</t>
+          <t>('해결', '과정')</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0.03348</v>
+        <v>0.009350000000000001</v>
       </c>
     </row>
     <row r="494">
@@ -6844,11 +6844,11 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>('가정', '학교')</t>
+          <t>('적용', '결과')</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0.03323</v>
+        <v>0.009339999999999999</v>
       </c>
     </row>
     <row r="495">
@@ -6857,11 +6857,11 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>('컴퓨터', '과학')</t>
+          <t>('과학', '탐구')</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0.03321</v>
+        <v>0.00924</v>
       </c>
     </row>
     <row r="496">
@@ -6870,11 +6870,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>('창의', '문제')</t>
+          <t>('학습', '장애')</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0.03278</v>
+        <v>0.00911</v>
       </c>
     </row>
     <row r="497">
@@ -6883,11 +6883,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>('초등', '학년')</t>
+          <t>('개인', '정보')</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0.03267</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="498">
@@ -6896,11 +6896,11 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>('기능', '게임')</t>
+          <t>('메이커', '교육')</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0.03234</v>
+        <v>0.008920000000000001</v>
       </c>
     </row>
     <row r="499">
@@ -6909,11 +6909,11 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>('핵심', '요소')</t>
+          <t>('측정', '도구')</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0.03225</v>
+        <v>0.00891</v>
       </c>
     </row>
     <row r="500">
@@ -6922,11 +6922,11 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>('프로그래밍', '교육', '효과')</t>
+          <t>('조사', '결과')</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.03218</v>
+        <v>0.008840000000000001</v>
       </c>
     </row>
     <row r="501">
@@ -6935,11 +6935,11 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>('전통', '수업')</t>
+          <t>('해결', '능력')</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0.03213</v>
+        <v>0.00881</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -451,8 +451,10 @@
           <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1.77778</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>(1.77778, 14)</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -464,8 +466,10 @@
           <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1.53846</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(1.53846, 13)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -477,8 +481,10 @@
           <t>('computational', 'thinking')</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1.5083</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(1.5083, 50)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -490,8 +496,10 @@
           <t>('중도', '탈락')</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1.11111</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>(1.11111, 12)</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -503,8 +511,10 @@
           <t>('집단', '통제', '집단')</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1.02975</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>(1.02975, 19)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -516,8 +526,10 @@
           <t>('산업', '혁명')</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0.9868400000000001</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(0.98684, 37)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -529,8 +541,10 @@
           <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.9539</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(0.9539, 16)</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -542,8 +556,10 @@
           <t>('의사', '결정')</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0.95109</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(0.95109, 31)</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -555,8 +571,10 @@
           <t>('학습', '지속', '의향')</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>0.8547</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(0.8547, 12)</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -568,8 +586,10 @@
           <t>('증강', '현실')</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.84056</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(0.84056, 42)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -581,8 +601,10 @@
           <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0.82645</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(0.82645, 11)</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -594,8 +616,10 @@
           <t>('문제', '중심', '학습')</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.80087</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(0.80087, 54)</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -607,8 +631,10 @@
           <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>0.7672600000000001</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>(0.76726, 13)</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -620,8 +646,10 @@
           <t>('과정', '표준', '모델')</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0.75758</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(0.75758, 12)</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -633,8 +661,10 @@
           <t>('자기', '조절', '학습')</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0.73099</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>(0.73099, 15)</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -646,8 +676,10 @@
           <t>('디지털교과서', '과서')</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0.68807</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>(0.68807, 52)</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -659,8 +691,10 @@
           <t>('사전', '사후', '검사')</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>0.6651899999999999</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>(0.66519, 19)</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -672,8 +706,10 @@
           <t>('설문', '조사', '실시')</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>0.64103</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>(0.64103, 31)</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -685,8 +721,10 @@
           <t>('인재', '양성')</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>0.625</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>(0.625, 31)</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -698,8 +736,10 @@
           <t>('대응', '표본')</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0.61538</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(0.61538, 14)</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -711,8 +751,10 @@
           <t>('자기', '주도', '학습')</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>0.61047</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(0.61047, 52)</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -724,8 +766,10 @@
           <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>0.60494</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(0.60494, 59)</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -737,8 +781,10 @@
           <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>0.59524</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(0.59524, 17)</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -750,8 +796,10 @@
           <t>('대응', '표본', '검정')</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>0.59524</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(0.59524, 11)</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -763,8 +811,10 @@
           <t>('세기', '지식', '정보')</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>0.5791500000000001</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(0.57915, 13)</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -776,8 +826,10 @@
           <t>('학급', '경영')</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>0.5711000000000001</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>(0.5711, 30)</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -789,8 +841,10 @@
           <t>('실험', '집단', '통제')</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>0.56391</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(0.56391, 19)</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -802,8 +856,10 @@
           <t>('주도', '학습', '능력')</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0.55903</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(0.55903, 35)</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -815,8 +871,10 @@
           <t>('융합', '활동', '영역')</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>0.53476</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>(0.53476, 12)</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -828,8 +886,10 @@
           <t>('정보', '활용', '능력')</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>0.5291</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>(0.5291, 45)</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -841,8 +901,10 @@
           <t>('사이버', '정학습')</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>0.50561</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>(0.50561, 51)</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -854,8 +916,10 @@
           <t>('사전', '사후')</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0.47795</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(0.47795, 41)</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -867,8 +931,10 @@
           <t>('초등', '예비', '교사')</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>0.47293</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>(0.47293, 39)</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -880,8 +946,10 @@
           <t>('정보', '보호', '교육')</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>0.45249</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>(0.45249, 12)</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -893,8 +961,10 @@
           <t>('성취', '기준', '교수')</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>0.45045</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(0.45045, 15)</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -906,8 +976,10 @@
           <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>0.44379</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>(0.44379, 13)</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -919,8 +991,10 @@
           <t>('통신', '기술', '교육')</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>0.43846</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>(0.43846, 24)</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -932,8 +1006,10 @@
           <t>('지식', '정보', '사회')</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>0.43492</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>(0.43492, 24)</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -945,8 +1021,10 @@
           <t>('플립', '러닝')</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>0.43048</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>(0.43048, 20)</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -958,8 +1036,10 @@
           <t>('재량', '활동', '시간')</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>0.41667</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>(0.41667, 11)</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -971,8 +1051,10 @@
           <t>('상호', '작용')</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>0.41098</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>(0.41098, 187)</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -984,8 +1066,10 @@
           <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>0.40486</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>(0.40486, 11)</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -997,8 +1081,10 @@
           <t>('학년', '학생', '대상')</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>0.40404</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>(0.40404, 46)</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1010,8 +1096,10 @@
           <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>0.39753</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>(0.39753, 48)</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1023,8 +1111,10 @@
           <t>('정보', '과학', '영재')</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>0.38919</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>(0.38919, 27)</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1036,8 +1126,10 @@
           <t>('게임', '중독', '치료')</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>0.38647</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>(0.38647, 14)</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1049,8 +1141,10 @@
           <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>0.38373</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>(0.38373, 102)</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1062,8 +1156,10 @@
           <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>0.37037</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>(0.37037, 24)</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1075,8 +1171,10 @@
           <t>('방법', '평가', '방법')</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>0.37037</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>(0.37037, 15)</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1088,8 +1186,10 @@
           <t>('대상', '설문', '조사')</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>0.36376</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>(0.36376, 21)</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1101,8 +1201,10 @@
           <t>('통신', '기술', '활용')</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>0.36126</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>(0.36126, 26)</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1114,8 +1216,10 @@
           <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>0.35446</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>(0.35446, 108)</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1127,8 +1231,10 @@
           <t>('학습', '방법', '평가')</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>0.33436</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>(0.33436, 23)</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1140,8 +1246,10 @@
           <t>('정보', '통신', '기술')</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>0.32995</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>(0.32995, 97)</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1153,8 +1261,10 @@
           <t>('피지컬', '컴퓨팅', '교육')</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>0.32895</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>(0.32895, 18)</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1166,8 +1276,10 @@
           <t>('문제', '해결력', '향상')</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>0.32859</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>(0.32859, 22)</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1179,8 +1291,10 @@
           <t>('초등', '학년', '학생')</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>0.3241</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>(0.3241, 70)</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1192,8 +1306,10 @@
           <t>('혁명', '시대')</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>0.32318</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>(0.32318, 17)</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1205,8 +1321,10 @@
           <t>('교육', '자료', '개발')</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>0.31797</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>(0.31797, 14)</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1218,8 +1336,10 @@
           <t>('컴퓨터', '과학', '교육')</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>0.31612</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>(0.31612, 40)</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1231,8 +1351,10 @@
           <t>('문제', '해결', '과정')</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>0.31093</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>(0.31093, 36)</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1244,8 +1366,10 @@
           <t>('학업', '성취도')</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>0.30928</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>(0.30928, 76)</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1257,8 +1381,10 @@
           <t>('학습', '동기', '학업')</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>0.29455</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>(0.29455, 14)</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1270,8 +1396,10 @@
           <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>0.29424</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>(0.29424, 38)</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1283,8 +1411,10 @@
           <t>('창의', '문제', '해결력')</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>0.29284</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>(0.29284, 45)</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -1296,8 +1426,10 @@
           <t>('학습', '모형', '개발')</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>0.2902</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>(0.2902, 27)</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1309,8 +1441,10 @@
           <t>('결과', '실험', '집단')</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>0.28011</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>(0.28011, 14)</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -1322,8 +1456,10 @@
           <t>('ict', '리터러시', '수준')</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>0.26738</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>(0.26738, 11)</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -1335,8 +1471,10 @@
           <t>('지속', '의향')</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>0.26132</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>(0.26132, 13)</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -1348,8 +1486,10 @@
           <t>('주도', '학습력')</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>0.25685</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>(0.25685, 16)</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1361,8 +1501,10 @@
           <t>('표본', '검정')</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>0.25641</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>(0.25641, 12)</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -1374,8 +1516,10 @@
           <t>('교사', '대상', '설문')</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>0.25585</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>(0.25585, 17)</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -1387,8 +1531,10 @@
           <t>('초등', '학년', '대상')</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>0.25401</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>(0.25401, 29)</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -1400,8 +1546,10 @@
           <t>('협력', '문제', '해결력')</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>0.25365</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>(0.25365, 18)</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -1413,8 +1561,10 @@
           <t>('분석', '분석', '결과')</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>0.25231</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>(0.25231, 46)</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -1426,8 +1576,10 @@
           <t>('초등', '소프트웨어', '교육')</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>0.25019</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>(0.25019, 37)</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1439,8 +1591,10 @@
           <t>('자기', '주도')</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>0.24714</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>(0.24714, 80)</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -1452,8 +1606,10 @@
           <t>('프레임', '임워크')</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>0.24691</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>(0.24691, 11)</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -1465,8 +1621,10 @@
           <t>('평가', '도구', '개발')</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>0.24155</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>(0.24155, 16)</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -1478,8 +1636,10 @@
           <t>('학습자', '상호', '작용')</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>0.24064</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>(0.24064, 19)</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -1491,8 +1651,10 @@
           <t>('교육', '프로그램', '개발')</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>0.2395</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>(0.2395, 79)</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -1504,8 +1666,10 @@
           <t>('문헌', '고찰')</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>0.23742</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>(0.23742, 15)</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -1517,8 +1681,10 @@
           <t>('컴퓨터', '게임', '중독')</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>0.23188</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>(0.23188, 14)</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -1530,8 +1696,10 @@
           <t>('문제', '해결력', '신장')</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>0.2259</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>(0.2259, 16)</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -1543,8 +1711,10 @@
           <t>('다중', '지능')</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>0.22222</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>(0.22222, 14)</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -1556,8 +1726,10 @@
           <t>('문제', '해결', '능력')</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>0.22124</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>(0.22124, 22)</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -1569,8 +1741,10 @@
           <t>('통신', '기술', '발달')</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>0.21923</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>(0.21923, 17)</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -1582,8 +1756,10 @@
           <t>('윤리', '의식')</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>0.21684</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>(0.21684, 35)</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -1595,8 +1771,10 @@
           <t>('자기', '조절')</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>0.21225</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>(0.21225, 38)</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -1608,8 +1786,10 @@
           <t>('통제', '집단')</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>0.21008</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>(0.21008, 46)</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -1621,8 +1801,10 @@
           <t>('초등', '교사', '대상')</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>0.20559</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>(0.20559, 25)</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -1634,8 +1816,10 @@
           <t>('초등', '컴퓨팅', '사고력')</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>0.19953</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>(0.19953, 28)</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -1647,8 +1831,10 @@
           <t>('활용', 'sw', '교육')</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>0.19408</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>(0.19408, 57)</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -1660,8 +1846,10 @@
           <t>('교육', '내용', '선정')</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>0.1919</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>(0.1919, 19)</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -1673,8 +1861,10 @@
           <t>('교육', '프로그램', '초등')</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>0.18895</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>(0.18895, 23)</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -1686,8 +1876,10 @@
           <t>('상관', '관계')</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>0.18543</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>(0.18543, 24)</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -1699,8 +1891,10 @@
           <t>('컴퓨터', '교과', '교육')</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>0.18365</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>(0.18365, 12)</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -1712,8 +1906,10 @@
           <t>('설계', '구현', '연구')</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>0.18182</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>(0.18182, 17)</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -1725,8 +1921,10 @@
           <t>('통신', '윤리')</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>0.17942</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>(0.17942, 108)</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -1738,8 +1936,10 @@
           <t>('교육', '초등', '컴퓨팅')</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>0.17724</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>(0.17724, 15)</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -1751,8 +1951,10 @@
           <t>('성취', '기준')</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>0.17631</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>(0.17631, 74)</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -1764,8 +1966,10 @@
           <t>('사후', '검사')</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>0.17544</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>(0.17544, 33)</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -1777,8 +1981,10 @@
           <t>('교육', '콘텐츠', '개발')</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>0.17227</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>(0.17227, 14)</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -1790,8 +1996,10 @@
           <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>0.1708</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>(0.1708, 64)</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -1803,8 +2011,10 @@
           <t>('로봇', '활용', '교육')</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>0.16847</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>(0.16847, 51)</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -1816,8 +2026,10 @@
           <t>('프로그래밍', '언어', '교육')</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>0.16529</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>(0.16529, 13)</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -1829,8 +2041,10 @@
           <t>('학업', '성취')</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>0.16401</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>(0.16401, 80)</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -1842,8 +2056,10 @@
           <t>('통계', '유의미')</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>0.15983</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>(0.15983, 30)</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -1855,8 +2071,10 @@
           <t>('교육', '컴퓨팅', '사고력')</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>0.15709</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>(0.15709, 26)</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -1868,8 +2086,10 @@
           <t>('초등', '정보', '과학')</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>0.15635</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>(0.15635, 30)</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -1881,8 +2101,10 @@
           <t>('교육', '지원', '시스템')</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>0.15613</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>(0.15613, 12)</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -1894,8 +2116,10 @@
           <t>('학습', '시스템', '개발')</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>0.15398</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>(0.15398, 35)</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -1907,8 +2131,10 @@
           <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>0.15226</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>(0.15226, 18)</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -1920,8 +2146,10 @@
           <t>('문제', '해결', '학습')</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>0.14749</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>(0.14749, 16)</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -1933,8 +2161,10 @@
           <t>('동기', '유발')</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>0.1433</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>(0.1433, 22)</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -1946,8 +2176,10 @@
           <t>('자기', '효능감')</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>0.14243</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>(0.14243, 31)</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -1959,8 +2191,10 @@
           <t>('과제', '표절')</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>0.14129</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>(0.14129, 14)</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -1972,8 +2206,10 @@
           <t>('활용', '프로그래밍', '교육')</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>0.13722</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>(0.13722, 26)</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -1985,8 +2221,10 @@
           <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>0.13707</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>(0.13707, 291)</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -1998,8 +2236,10 @@
           <t>('교육', '학습', '동기')</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>0.13565</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>(0.13565, 15)</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -2011,8 +2251,10 @@
           <t>('분석', '연구', '결과')</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>0.13437</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>(0.13437, 42)</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -2024,8 +2266,10 @@
           <t>('학급', '홈페이지')</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>0.13164</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>(0.13164, 18)</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -2037,8 +2281,10 @@
           <t>('문제', '해결력')</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>0.12751</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>(0.12751, 166)</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -2050,8 +2296,10 @@
           <t>('교수', '학습', '방법')</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>0.1261</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>(0.1261, 81)</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -2063,8 +2311,10 @@
           <t>('공공', '서비스')</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>0.12531</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>(0.12531, 13)</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -2076,8 +2326,10 @@
           <t>('논리', '사고력')</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>0.1245</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>(0.1245, 72)</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -2089,8 +2341,10 @@
           <t>('학습', '모형', '적용')</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>0.12376</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>(0.12376, 14)</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -2102,8 +2356,10 @@
           <t>('통계', '유의')</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>0.12371</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>(0.12371, 22)</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -2115,8 +2371,10 @@
           <t>('교육', '과정', '개발')</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>0.12327</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>(0.12327, 50)</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -2128,8 +2386,10 @@
           <t>('과제', '가치')</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>0.12304</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>(0.12304, 21)</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -2141,8 +2401,10 @@
           <t>('설문', '조사')</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>0.1229</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>(0.1229, 84)</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -2154,8 +2416,10 @@
           <t>('목적', '달성')</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>0.1221</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>(0.1221, 20)</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -2167,8 +2431,10 @@
           <t>('학습', '시스템', '설계')</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>0.12165</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>(0.12165, 32)</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -2180,8 +2446,10 @@
           <t>('초등', 'sw', '교육')</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>0.11995</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>(0.11995, 20)</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -2193,8 +2461,10 @@
           <t>('교육', '로봇', '활용')</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>0.11951</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>(0.11951, 21)</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -2206,8 +2476,10 @@
           <t>('유의미', '차이')</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>0.11819</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>(0.11819, 44)</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -2219,8 +2491,10 @@
           <t>('성격', '유형')</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>0.11773</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>(0.11773, 15)</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -2232,8 +2506,10 @@
           <t>('개정', '교육', '과정')</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>0.11694</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>(0.11694, 37)</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -2245,8 +2521,10 @@
           <t>('초등', '컴퓨터', '교육')</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>0.11691</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>(0.11691, 29)</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -2258,8 +2536,10 @@
           <t>('컴퓨터', '활용', '능력')</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>0.11662</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>(0.11662, 16)</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -2271,8 +2551,10 @@
           <t>('디자인', '사고')</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>0.11464</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>(0.11464, 23)</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -2284,8 +2566,10 @@
           <t>('시스템', '개발', '적용')</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>0.11422</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>(0.11422, 27)</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -2297,8 +2581,10 @@
           <t>('ict', '활용', '교육')</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>0.11416</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>(0.11416, 36)</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -2307,11 +2593,13 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('수행', '평가', '시스템')</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>0.11364</v>
+          <t>('인터넷', '중독')</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>(0.11364, 73)</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -2320,11 +2608,13 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>0.11364</v>
+          <t>('수행', '평가', '시스템')</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>(0.11364, 14)</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -2336,8 +2626,10 @@
           <t>('표준', '모델')</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>0.11338</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>(0.11338, 22)</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -2349,8 +2641,10 @@
           <t>('교육', '내용', '체계')</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>0.11264</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>(0.11264, 18)</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -2362,8 +2656,10 @@
           <t>('한계', '극복')</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>0.11111</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>(0.11111, 11)</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -2375,8 +2671,10 @@
           <t>('프로그램', '개발', '적용')</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>0.11102</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>(0.11102, 28)</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -2388,8 +2686,10 @@
           <t>('ict', '활용', '능력')</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>0.11089</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>(0.11089, 27)</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -2401,8 +2701,10 @@
           <t>('주의', '집중')</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>0.11074</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>(0.11074, 11)</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -2414,8 +2716,10 @@
           <t>('실험', '집단')</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>0.11042</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>(0.11042, 84)</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -2427,8 +2731,10 @@
           <t>('디지털', '리터러시')</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>0.10975</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>(0.10975, 22)</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -2440,8 +2746,10 @@
           <t>('학업', '성취도', '영향')</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>0.10965</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>(0.10965, 11)</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -2453,8 +2761,10 @@
           <t>('사회', '연결망')</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>0.10893</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>(0.10893, 16)</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -2466,8 +2776,10 @@
           <t>('초등', '교육', '현장')</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>0.10695</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>(0.10695, 16)</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -2479,8 +2791,10 @@
           <t>('시사점', '도출')</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>0.10553</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>(0.10553, 20)</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -2492,8 +2806,10 @@
           <t>('정보', '과학', '교육')</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>0.10537</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>(0.10537, 18)</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -2505,8 +2821,10 @@
           <t>('유의', '차이')</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>0.10314</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>(0.10314, 33)</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -2518,8 +2836,10 @@
           <t>('방안', '모색')</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>0.10252</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>(0.10252, 26)</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -2531,8 +2851,10 @@
           <t>('게임', '중독')</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>0.10205</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>(0.10205, 69)</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -2544,8 +2866,10 @@
           <t>('초등', '정보', '교육')</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>0.10163</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>(0.10163, 34)</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -2557,8 +2881,10 @@
           <t>('문제', '해결력', '영향')</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>0.1004</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>(0.1004, 12)</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -2570,8 +2896,10 @@
           <t>('교육', '효과', '분석')</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>0.10003</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>(0.10003, 22)</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -2583,8 +2911,10 @@
           <t>('학기', '동안')</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>0.0993</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>(0.0993, 12)</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -2596,8 +2926,10 @@
           <t>('기여', '기대')</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>0.09921000000000001</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>(0.09921, 17)</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -2609,8 +2941,10 @@
           <t>('흥미', '유발')</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>0.09878000000000001</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>(0.09878, 20)</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -2622,8 +2956,10 @@
           <t>('논리', '사고력', '향상')</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>0.0969</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>(0.0969, 13)</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -2635,8 +2971,10 @@
           <t>('실시', '연구', '결과')</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>0.09683</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>(0.09683, 18)</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -2648,8 +2986,10 @@
           <t>('사이버', '상담실')</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>0.09676</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>(0.09676, 12)</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -2661,8 +3001,10 @@
           <t>('예비', '교원')</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>0.0964</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>(0.0964, 26)</t>
+        </is>
       </c>
     </row>
     <row r="173">
@@ -2674,8 +3016,10 @@
           <t>('지식', '창출')</t>
         </is>
       </c>
-      <c r="C173" t="n">
-        <v>0.09563000000000001</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>(0.09563, 17)</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -2687,8 +3031,10 @@
           <t>('결과', '연구', '개발')</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>0.09524000000000001</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>(0.09524, 11)</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -2700,8 +3046,10 @@
           <t>('문제', '해결')</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>0.09515999999999999</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>(0.09516, 226)</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -2713,8 +3061,10 @@
           <t>('정렬', '알고리즘')</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v>0.09497999999999999</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>(0.09498, 20)</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -2726,8 +3076,10 @@
           <t>('현직', '초등', '교사')</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>0.09470000000000001</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>(0.0947, 11)</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -2739,8 +3091,10 @@
           <t>('지원', '시스템', '개발')</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>0.09329999999999999</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>(0.0933, 17)</t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -2752,8 +3106,10 @@
           <t>('요구', '사항')</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>0.09276</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>(0.09276, 18)</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -2765,8 +3121,10 @@
           <t>('적용', '효과', '검증')</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>0.09217</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>(0.09217, 13)</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -2778,8 +3136,10 @@
           <t>('컴퓨팅', '사고력', '창의')</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>0.09164</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>(0.09164, 14)</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -2791,8 +3151,10 @@
           <t>('교육', '교수', '학습')</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>0.09027</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>(0.09027, 22)</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -2804,8 +3166,10 @@
           <t>('예비', '교사', '대상')</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>0.09012000000000001</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>(0.09012, 20)</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -2817,8 +3181,10 @@
           <t>('통신', '기술')</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>0.08841</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>(0.08841, 103)</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -2830,8 +3196,10 @@
           <t>('코딩', '강사')</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v>0.08803</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>(0.08803, 11)</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -2843,8 +3211,10 @@
           <t>('교육', '과정', '모델')</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>0.08741</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>(0.08741, 22)</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -2856,8 +3226,10 @@
           <t>('ict', '리터러시')</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>0.08731</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>(0.08731, 34)</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -2869,8 +3241,10 @@
           <t>('긍정', '반응')</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>0.08599999999999999</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>(0.086, 17)</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -2882,8 +3256,10 @@
           <t>('학습', '동기', '학습')</t>
         </is>
       </c>
-      <c r="C189" t="n">
-        <v>0.08591</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>(0.08591, 11)</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -2895,8 +3271,10 @@
           <t>('초등', '중등', '교육')</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>0.08562</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>(0.08562, 11)</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -2908,8 +3286,10 @@
           <t>('기준', '교수', '학습')</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>0.08525000000000001</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>(0.08525, 15)</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -2921,8 +3301,10 @@
           <t>('addie', '모형')</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>0.08469</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>(0.08469, 15)</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -2934,8 +3316,10 @@
           <t>('교육', '프로그램', '적용')</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>0.08457000000000001</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>(0.08457, 16)</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -2947,8 +3331,10 @@
           <t>('중독', '치료')</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>0.08418</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>(0.08418, 15)</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -2960,8 +3346,10 @@
           <t>('적용', 'sw', '교육')</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>0.08396000000000001</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>(0.08396, 15)</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -2973,8 +3361,10 @@
           <t>('영재', '판별')</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v>0.08201</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>(0.08201, 16)</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -2986,8 +3376,10 @@
           <t>('예비', '교사')</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v>0.08175</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>(0.08175, 146)</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -2999,8 +3391,10 @@
           <t>('개발', '교육', '프로그램')</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>0.08171</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>(0.08171, 23)</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -3012,8 +3406,10 @@
           <t>('설계', '구현', '논문')</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>0.08162999999999999</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>(0.08163, 12)</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -3025,8 +3421,10 @@
           <t>('교수', '학습', '모형')</t>
         </is>
       </c>
-      <c r="C200" t="n">
-        <v>0.08103</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>(0.08103, 42)</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -3038,8 +3436,10 @@
           <t>('데이터', '시각')</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>0.08056000000000001</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>(0.08056, 19)</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -3051,8 +3451,10 @@
           <t>('교육', '과정', '분석')</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>0.08013000000000001</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>(0.08013, 23)</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -3064,8 +3466,10 @@
           <t>('컴퓨팅', '사고력', '향상')</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v>0.07992</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>(0.07992, 20)</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -3077,8 +3481,10 @@
           <t>('수정', '보완')</t>
         </is>
       </c>
-      <c r="C204" t="n">
-        <v>0.07974000000000001</v>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>(0.07974, 12)</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -3090,8 +3496,10 @@
           <t>('교육', '실시', '학생')</t>
         </is>
       </c>
-      <c r="C205" t="n">
-        <v>0.07911</v>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>(0.07911, 11)</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -3103,8 +3511,10 @@
           <t>('설계', '구현')</t>
         </is>
       </c>
-      <c r="C206" t="n">
-        <v>0.07906000000000001</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>(0.07906, 175)</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -3116,8 +3526,10 @@
           <t>('운영', '체제')</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v>0.07729</v>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>(0.07729, 22)</t>
+        </is>
       </c>
     </row>
     <row r="208">
@@ -3129,8 +3541,10 @@
           <t>('문제', '해결능력')</t>
         </is>
       </c>
-      <c r="C208" t="n">
-        <v>0.07668999999999999</v>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>(0.07669, 23)</t>
+        </is>
       </c>
     </row>
     <row r="209">
@@ -3142,8 +3556,10 @@
           <t>('사고력', '문제', '해결력')</t>
         </is>
       </c>
-      <c r="C209" t="n">
-        <v>0.07530000000000001</v>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>(0.0753, 12)</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -3155,8 +3571,10 @@
           <t>('원격', '연수')</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>0.07391</v>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>(0.07391, 19)</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -3168,8 +3586,10 @@
           <t>('과학', '영재', '교육')</t>
         </is>
       </c>
-      <c r="C211" t="n">
-        <v>0.07215000000000001</v>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>(0.07215, 12)</t>
+        </is>
       </c>
     </row>
     <row r="212">
@@ -3181,8 +3601,10 @@
           <t>('부족', '실정')</t>
         </is>
       </c>
-      <c r="C212" t="n">
-        <v>0.07174999999999999</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>(0.07175, 15)</t>
+        </is>
       </c>
     </row>
     <row r="213">
@@ -3194,8 +3616,10 @@
           <t>('교육', '과정', '내용')</t>
         </is>
       </c>
-      <c r="C213" t="n">
-        <v>0.07123</v>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>(0.07123, 18)</t>
+        </is>
       </c>
     </row>
     <row r="214">
@@ -3207,8 +3631,10 @@
           <t>('연구', '목적', '초등')</t>
         </is>
       </c>
-      <c r="C214" t="n">
-        <v>0.07087</v>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>(0.07087, 11)</t>
+        </is>
       </c>
     </row>
     <row r="215">
@@ -3220,8 +3646,10 @@
           <t>('컴퓨터', '과학', '언플러그드')</t>
         </is>
       </c>
-      <c r="C215" t="n">
-        <v>0.06993000000000001</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>(0.06993, 11)</t>
+        </is>
       </c>
     </row>
     <row r="216">
@@ -3233,8 +3661,10 @@
           <t>('교수', '학습', '전략')</t>
         </is>
       </c>
-      <c r="C216" t="n">
-        <v>0.06793</v>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>(0.06793, 27)</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -3246,8 +3676,10 @@
           <t>('활동', '중심', '학습')</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>0.06775</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>(0.06775, 12)</t>
+        </is>
       </c>
     </row>
     <row r="218">
@@ -3259,8 +3691,10 @@
           <t>('로봇', '프로그래밍', '교육')</t>
         </is>
       </c>
-      <c r="C218" t="n">
-        <v>0.06759</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>(0.06759, 22)</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -3272,8 +3706,10 @@
           <t>('분석', '실시', '결과')</t>
         </is>
       </c>
-      <c r="C219" t="n">
-        <v>0.06757000000000001</v>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>(0.06757, 11)</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -3285,8 +3721,10 @@
           <t>('개선', '방안')</t>
         </is>
       </c>
-      <c r="C220" t="n">
-        <v>0.06412</v>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>(0.06412, 41)</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -3298,8 +3736,10 @@
           <t>('기술', '발달')</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v>0.0641</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>(0.0641, 31)</t>
+        </is>
       </c>
     </row>
     <row r="222">
@@ -3311,8 +3751,10 @@
           <t>('프로그래밍', '언어')</t>
         </is>
       </c>
-      <c r="C222" t="n">
-        <v>0.06383999999999999</v>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>(0.06384, 121)</t>
+        </is>
       </c>
     </row>
     <row r="223">
@@ -3324,8 +3766,10 @@
           <t>('예비', '교사', '교육')</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v>0.06371</v>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>(0.06371, 14)</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -3337,8 +3781,10 @@
           <t>('연구', '결과', '초등')</t>
         </is>
       </c>
-      <c r="C224" t="n">
-        <v>0.06235</v>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>(0.06235, 15)</t>
+        </is>
       </c>
     </row>
     <row r="225">
@@ -3350,8 +3796,10 @@
           <t>('기회', '제공')</t>
         </is>
       </c>
-      <c r="C225" t="n">
-        <v>0.06221</v>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>(0.06221, 20)</t>
+        </is>
       </c>
     </row>
     <row r="226">
@@ -3363,8 +3811,10 @@
           <t>('iptv', '유아')</t>
         </is>
       </c>
-      <c r="C226" t="n">
-        <v>0.06158</v>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>(0.06158, 11)</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -3376,8 +3826,10 @@
           <t>('초등', '로봇', '활용')</t>
         </is>
       </c>
-      <c r="C227" t="n">
-        <v>0.06105</v>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>(0.06105, 12)</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -3389,8 +3841,10 @@
           <t>('교육', '현장', '적용')</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v>0.06085</v>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>(0.06085, 13)</t>
+        </is>
       </c>
     </row>
     <row r="229">
@@ -3402,8 +3856,10 @@
           <t>('창의', '문제', '해결능력')</t>
         </is>
       </c>
-      <c r="C229" t="n">
-        <v>0.06039</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>(0.06039, 11)</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -3412,11 +3868,13 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>('교육', '과정', '교육')</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>0.0601</v>
+          <t>('교육', '과정', '정보')</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>(0.0601, 19)</t>
+        </is>
       </c>
     </row>
     <row r="231">
@@ -3425,11 +3883,13 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>('교육', '과정', '정보')</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>0.0601</v>
+          <t>('교육', '과정', '교육')</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>(0.0601, 16)</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -3441,8 +3901,10 @@
           <t>('초등', '프로그래밍', '교육')</t>
         </is>
       </c>
-      <c r="C232" t="n">
-        <v>0.05896</v>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>(0.05896, 15)</t>
+        </is>
       </c>
     </row>
     <row r="233">
@@ -3454,8 +3916,10 @@
           <t>('적용', '결과', '학생')</t>
         </is>
       </c>
-      <c r="C233" t="n">
-        <v>0.05894</v>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>(0.05894, 12)</t>
+        </is>
       </c>
     </row>
     <row r="234">
@@ -3467,8 +3931,10 @@
           <t>('스마트폰', '중독')</t>
         </is>
       </c>
-      <c r="C234" t="n">
-        <v>0.05727</v>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>(0.05727, 21)</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -3480,8 +3946,10 @@
           <t>('학생', '컴퓨팅', '사고력')</t>
         </is>
       </c>
-      <c r="C235" t="n">
-        <v>0.05727</v>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>(0.05727, 12)</t>
+        </is>
       </c>
     </row>
     <row r="236">
@@ -3493,8 +3961,10 @@
           <t>('개발', '개발', '교육')</t>
         </is>
       </c>
-      <c r="C236" t="n">
-        <v>0.05631</v>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>(0.05631, 12)</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -3506,8 +3976,10 @@
           <t>('교육', '과정', '구성')</t>
         </is>
       </c>
-      <c r="C237" t="n">
-        <v>0.05574</v>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>(0.05574, 18)</t>
+        </is>
       </c>
     </row>
     <row r="238">
@@ -3519,8 +3991,10 @@
           <t>('학교', '현장')</t>
         </is>
       </c>
-      <c r="C238" t="n">
-        <v>0.05571</v>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>(0.05571, 78)</t>
+        </is>
       </c>
     </row>
     <row r="239">
@@ -3532,8 +4006,10 @@
           <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
-      <c r="C239" t="n">
-        <v>0.05569</v>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>(0.05569, 62)</t>
+        </is>
       </c>
     </row>
     <row r="240">
@@ -3545,8 +4021,10 @@
           <t>('교수', '학습', '모델')</t>
         </is>
       </c>
-      <c r="C240" t="n">
-        <v>0.0556</v>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>(0.0556, 15)</t>
+        </is>
       </c>
     </row>
     <row r="241">
@@ -3558,8 +4036,10 @@
           <t>('도움', '기대')</t>
         </is>
       </c>
-      <c r="C241" t="n">
-        <v>0.05543</v>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>(0.05543, 21)</t>
+        </is>
       </c>
     </row>
     <row r="242">
@@ -3571,8 +4051,10 @@
           <t>('긍정', '영향')</t>
         </is>
       </c>
-      <c r="C242" t="n">
-        <v>0.05405</v>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>(0.05405, 49)</t>
+        </is>
       </c>
     </row>
     <row r="243">
@@ -3584,8 +4066,10 @@
           <t>('교육', '과정', '초등')</t>
         </is>
       </c>
-      <c r="C243" t="n">
-        <v>0.05342</v>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>(0.05342, 18)</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -3597,8 +4081,10 @@
           <t>('교육', '과정', '연구')</t>
         </is>
       </c>
-      <c r="C244" t="n">
-        <v>0.05342</v>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>(0.05342, 16)</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -3610,8 +4096,10 @@
           <t>('교육', '학습자', '중심')</t>
         </is>
       </c>
-      <c r="C245" t="n">
-        <v>0.05342</v>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>(0.05342, 11)</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -3623,8 +4111,10 @@
           <t>('분석', '컴퓨팅', '사고력')</t>
         </is>
       </c>
-      <c r="C246" t="n">
-        <v>0.05287</v>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>(0.05287, 12)</t>
+        </is>
       </c>
     </row>
     <row r="247">
@@ -3636,8 +4126,10 @@
           <t>('정보', '통신')</t>
         </is>
       </c>
-      <c r="C247" t="n">
-        <v>0.05264</v>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>(0.05264, 256)</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -3649,8 +4141,10 @@
           <t>('집단', '통제')</t>
         </is>
       </c>
-      <c r="C248" t="n">
-        <v>0.05252</v>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>(0.05252, 19)</t>
+        </is>
       </c>
     </row>
     <row r="249">
@@ -3662,8 +4156,10 @@
           <t>('사회', '실재감')</t>
         </is>
       </c>
-      <c r="C249" t="n">
-        <v>0.05241</v>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>(0.05241, 19)</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -3675,8 +4171,10 @@
           <t>('핵심', '역량')</t>
         </is>
       </c>
-      <c r="C250" t="n">
-        <v>0.05206</v>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>(0.05206, 22)</t>
+        </is>
       </c>
     </row>
     <row r="251">
@@ -3688,8 +4186,10 @@
           <t>('교수', '학습', '자료')</t>
         </is>
       </c>
-      <c r="C251" t="n">
-        <v>0.05202</v>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>(0.05202, 22)</t>
+        </is>
       </c>
     </row>
     <row r="252">
@@ -3701,8 +4201,10 @@
           <t>('교육', '소프트웨어', '교육')</t>
         </is>
       </c>
-      <c r="C252" t="n">
-        <v>0.05178</v>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>(0.05178, 15)</t>
+        </is>
       </c>
     </row>
     <row r="253">
@@ -3714,8 +4216,10 @@
           <t>('학습', '능력', '향상')</t>
         </is>
       </c>
-      <c r="C253" t="n">
-        <v>0.05128</v>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>(0.05128, 12)</t>
+        </is>
       </c>
     </row>
     <row r="254">
@@ -3727,8 +4231,10 @@
           <t>('결과', 'sw', '교육')</t>
         </is>
       </c>
-      <c r="C254" t="n">
-        <v>0.05038</v>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>(0.05038, 13)</t>
+        </is>
       </c>
     </row>
     <row r="255">
@@ -3740,8 +4246,10 @@
           <t>('연구', '정보', '교육')</t>
         </is>
       </c>
-      <c r="C255" t="n">
-        <v>0.04914</v>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>(0.04914, 15)</t>
+        </is>
       </c>
     </row>
     <row r="256">
@@ -3753,8 +4261,10 @@
           <t>('검증', '연구', '결과')</t>
         </is>
       </c>
-      <c r="C256" t="n">
-        <v>0.04841</v>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>(0.04841, 12)</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -3766,8 +4276,10 @@
           <t>('재량', '활동')</t>
         </is>
       </c>
-      <c r="C257" t="n">
-        <v>0.04753</v>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>(0.04753, 16)</t>
+        </is>
       </c>
     </row>
     <row r="258">
@@ -3779,8 +4291,10 @@
           <t>('개발', '적용', '효과')</t>
         </is>
       </c>
-      <c r="C258" t="n">
-        <v>0.04723</v>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>(0.04723, 12)</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -3792,8 +4306,10 @@
           <t>('비판', '사고력')</t>
         </is>
       </c>
-      <c r="C259" t="n">
-        <v>0.04685</v>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>(0.04685, 17)</t>
+        </is>
       </c>
     </row>
     <row r="260">
@@ -3805,8 +4321,10 @@
           <t>('스마트', '기기')</t>
         </is>
       </c>
-      <c r="C260" t="n">
-        <v>0.04605</v>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>(0.04605, 17)</t>
+        </is>
       </c>
     </row>
     <row r="261">
@@ -3818,8 +4336,10 @@
           <t>('목표', '달성')</t>
         </is>
       </c>
-      <c r="C261" t="n">
-        <v>0.04498</v>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>(0.04498, 12)</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -3831,8 +4351,10 @@
           <t>('효과', '검증')</t>
         </is>
       </c>
-      <c r="C262" t="n">
-        <v>0.04449</v>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>(0.04449, 93)</t>
+        </is>
       </c>
     </row>
     <row r="263">
@@ -3844,8 +4366,10 @@
           <t>('sw', '교육', '초등')</t>
         </is>
       </c>
-      <c r="C263" t="n">
-        <v>0.04429</v>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>(0.04429, 26)</t>
+        </is>
       </c>
     </row>
     <row r="264">
@@ -3857,8 +4381,10 @@
           <t>('연구', '소프트웨어', '교육')</t>
         </is>
       </c>
-      <c r="C264" t="n">
-        <v>0.04401</v>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>(0.04401, 12)</t>
+        </is>
       </c>
     </row>
     <row r="265">
@@ -3870,8 +4396,10 @@
           <t>('미래', '사회')</t>
         </is>
       </c>
-      <c r="C265" t="n">
-        <v>0.0434</v>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>(0.0434, 19)</t>
+        </is>
       </c>
     </row>
     <row r="266">
@@ -3883,8 +4411,10 @@
           <t>('세부', '역량')</t>
         </is>
       </c>
-      <c r="C266" t="n">
-        <v>0.04317</v>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>(0.04317, 14)</t>
+        </is>
       </c>
     </row>
     <row r="267">
@@ -3896,8 +4426,10 @@
           <t>('체계', '문헌')</t>
         </is>
       </c>
-      <c r="C267" t="n">
-        <v>0.04274</v>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>(0.04274, 13)</t>
+        </is>
       </c>
     </row>
     <row r="268">
@@ -3909,8 +4441,10 @@
           <t>('하위', '요소')</t>
         </is>
       </c>
-      <c r="C268" t="n">
-        <v>0.04244</v>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>(0.04244, 18)</t>
+        </is>
       </c>
     </row>
     <row r="269">
@@ -3922,8 +4456,10 @@
           <t>('사이버', '상담')</t>
         </is>
       </c>
-      <c r="C269" t="n">
-        <v>0.04233</v>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>(0.04233, 17)</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -3935,8 +4471,10 @@
           <t>('교육', '효과', '검증')</t>
         </is>
       </c>
-      <c r="C270" t="n">
-        <v>0.04168</v>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>(0.04168, 15)</t>
+        </is>
       </c>
     </row>
     <row r="271">
@@ -3948,8 +4486,10 @@
           <t>('내용', '체계')</t>
         </is>
       </c>
-      <c r="C271" t="n">
-        <v>0.04133</v>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>(0.04133, 53)</t>
+        </is>
       </c>
     </row>
     <row r="272">
@@ -3961,8 +4501,10 @@
           <t>('능력', '신장')</t>
         </is>
       </c>
-      <c r="C272" t="n">
-        <v>0.04118</v>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>(0.04118, 44)</t>
+        </is>
       </c>
     </row>
     <row r="273">
@@ -3974,8 +4516,10 @@
           <t>('교육', '과정', '설계')</t>
         </is>
       </c>
-      <c r="C273" t="n">
-        <v>0.04006</v>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>(0.04006, 15)</t>
+        </is>
       </c>
     </row>
     <row r="274">
@@ -3987,8 +4531,10 @@
           <t>('창의', '인성')</t>
         </is>
       </c>
-      <c r="C274" t="n">
-        <v>0.03995</v>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>(0.03995, 15)</t>
+        </is>
       </c>
     </row>
     <row r="275">
@@ -4000,8 +4546,10 @@
           <t>('콘텐츠', '제작')</t>
         </is>
       </c>
-      <c r="C275" t="n">
-        <v>0.03993</v>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>(0.03993, 28)</t>
+        </is>
       </c>
     </row>
     <row r="276">
@@ -4013,8 +4561,10 @@
           <t>('수행', '평가')</t>
         </is>
       </c>
-      <c r="C276" t="n">
-        <v>0.03964</v>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>(0.03964, 88)</t>
+        </is>
       </c>
     </row>
     <row r="277">
@@ -4026,8 +4576,10 @@
           <t>('ct', '역량')</t>
         </is>
       </c>
-      <c r="C277" t="n">
-        <v>0.03848</v>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>(0.03848, 18)</t>
+        </is>
       </c>
     </row>
     <row r="278">
@@ -4039,8 +4591,10 @@
           <t>('정의', '영역')</t>
         </is>
       </c>
-      <c r="C278" t="n">
-        <v>0.03833</v>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>(0.03833, 23)</t>
+        </is>
       </c>
     </row>
     <row r="279">
@@ -4052,8 +4606,10 @@
           <t>('기술', '발전')</t>
         </is>
       </c>
-      <c r="C279" t="n">
-        <v>0.03663</v>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>(0.03663, 22)</t>
+        </is>
       </c>
     </row>
     <row r="280">
@@ -4065,8 +4621,10 @@
           <t>('교육', '교육', '과정')</t>
         </is>
       </c>
-      <c r="C280" t="n">
-        <v>0.03651</v>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>(0.03651, 28)</t>
+        </is>
       </c>
     </row>
     <row r="281">
@@ -4078,8 +4636,10 @@
           <t>('교육', '시스템', '개발')</t>
         </is>
       </c>
-      <c r="C281" t="n">
-        <v>0.0364</v>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>(0.0364, 13)</t>
+        </is>
       </c>
     </row>
     <row r="282">
@@ -4091,8 +4651,10 @@
           <t>('담당', '교사')</t>
         </is>
       </c>
-      <c r="C282" t="n">
-        <v>0.03625</v>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>(0.03625, 20)</t>
+        </is>
       </c>
     </row>
     <row r="283">
@@ -4104,8 +4666,10 @@
           <t>('방향', '제시')</t>
         </is>
       </c>
-      <c r="C283" t="n">
-        <v>0.03616</v>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>(0.03616, 31)</t>
+        </is>
       </c>
     </row>
     <row r="284">
@@ -4117,8 +4681,10 @@
           <t>('학습자', '문제', '해결')</t>
         </is>
       </c>
-      <c r="C284" t="n">
-        <v>0.0354</v>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>(0.0354, 12)</t>
+        </is>
       </c>
     </row>
     <row r="285">
@@ -4130,8 +4696,10 @@
           <t>('회귀', '분석')</t>
         </is>
       </c>
-      <c r="C285" t="n">
-        <v>0.03506</v>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>(0.03506, 20)</t>
+        </is>
       </c>
     </row>
     <row r="286">
@@ -4143,8 +4711,10 @@
           <t>('내용', '선정')</t>
         </is>
       </c>
-      <c r="C286" t="n">
-        <v>0.0346</v>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>(0.0346, 35)</t>
+        </is>
       </c>
     </row>
     <row r="287">
@@ -4156,8 +4726,10 @@
           <t>('정보', '보호')</t>
         </is>
       </c>
-      <c r="C287" t="n">
-        <v>0.03452</v>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>(0.03452, 34)</t>
+        </is>
       </c>
     </row>
     <row r="288">
@@ -4169,8 +4741,10 @@
           <t>('교수', '학습', '활동')</t>
         </is>
       </c>
-      <c r="C288" t="n">
-        <v>0.0341</v>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>(0.0341, 22)</t>
+        </is>
       </c>
     </row>
     <row r="289">
@@ -4182,8 +4756,10 @@
           <t>('교육', '프로그래밍', '교육')</t>
         </is>
       </c>
-      <c r="C289" t="n">
-        <v>0.03344</v>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>(0.03344, 17)</t>
+        </is>
       </c>
     </row>
     <row r="290">
@@ -4195,8 +4771,10 @@
           <t>('영향', '요인')</t>
         </is>
       </c>
-      <c r="C290" t="n">
-        <v>0.03321</v>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>(0.03321, 35)</t>
+        </is>
       </c>
     </row>
     <row r="291">
@@ -4208,8 +4786,10 @@
           <t>('세기', '지식')</t>
         </is>
       </c>
-      <c r="C291" t="n">
-        <v>0.03279</v>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>(0.03279, 14)</t>
+        </is>
       </c>
     </row>
     <row r="292">
@@ -4221,8 +4801,10 @@
           <t>('초등', '중등')</t>
         </is>
       </c>
-      <c r="C292" t="n">
-        <v>0.03275</v>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>(0.03275, 73)</t>
+        </is>
       </c>
     </row>
     <row r="293">
@@ -4234,8 +4816,10 @@
           <t>('독서', '교육', '시스템')</t>
         </is>
       </c>
-      <c r="C293" t="n">
-        <v>0.03245</v>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>(0.03245, 11)</t>
+        </is>
       </c>
     </row>
     <row r="294">
@@ -4247,8 +4831,10 @@
           <t>('과학', '영재')</t>
         </is>
       </c>
-      <c r="C294" t="n">
-        <v>0.03131</v>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>(0.03131, 42)</t>
+        </is>
       </c>
     </row>
     <row r="295">
@@ -4260,8 +4846,10 @@
           <t>('프로그램', '개발', '개발')</t>
         </is>
       </c>
-      <c r="C295" t="n">
-        <v>0.03109</v>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>(0.03109, 12)</t>
+        </is>
       </c>
     </row>
     <row r="296">
@@ -4273,8 +4861,10 @@
           <t>('초등', '학년')</t>
         </is>
       </c>
-      <c r="C296" t="n">
-        <v>0.03092</v>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>(0.03092, 187)</t>
+        </is>
       </c>
     </row>
     <row r="297">
@@ -4286,8 +4876,10 @@
           <t>('창의', '문제', '해결')</t>
         </is>
       </c>
-      <c r="C297" t="n">
-        <v>0.03073</v>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>(0.03073, 15)</t>
+        </is>
       </c>
     </row>
     <row r="298">
@@ -4299,8 +4891,10 @@
           <t>('컴퓨터', '과학')</t>
         </is>
       </c>
-      <c r="C298" t="n">
-        <v>0.03066</v>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>(0.03066, 130)</t>
+        </is>
       </c>
     </row>
     <row r="299">
@@ -4312,8 +4906,10 @@
           <t>('요구', '분석', '결과')</t>
         </is>
       </c>
-      <c r="C299" t="n">
-        <v>0.03011</v>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>(0.03011, 12)</t>
+        </is>
       </c>
     </row>
     <row r="300">
@@ -4325,8 +4921,10 @@
           <t>('능력', '향상')</t>
         </is>
       </c>
-      <c r="C300" t="n">
-        <v>0.02999</v>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>(0.02999, 75)</t>
+        </is>
       </c>
     </row>
     <row r="301">
@@ -4338,8 +4936,10 @@
           <t>('역량', '강화')</t>
         </is>
       </c>
-      <c r="C301" t="n">
-        <v>0.0299</v>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>(0.0299, 15)</t>
+        </is>
       </c>
     </row>
     <row r="302">
@@ -4351,8 +4951,10 @@
           <t>('블록', '프로그래밍')</t>
         </is>
       </c>
-      <c r="C302" t="n">
-        <v>0.02957</v>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>(0.02957, 21)</t>
+        </is>
       </c>
     </row>
     <row r="303">
@@ -4364,8 +4966,10 @@
           <t>('연구', '정보', '통신')</t>
         </is>
       </c>
-      <c r="C303" t="n">
-        <v>0.02948</v>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>(0.02948, 14)</t>
+        </is>
       </c>
     </row>
     <row r="304">
@@ -4377,8 +4981,10 @@
           <t>('대상', '설문')</t>
         </is>
       </c>
-      <c r="C304" t="n">
-        <v>0.02909</v>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>(0.02909, 36)</t>
+        </is>
       </c>
     </row>
     <row r="305">
@@ -4390,8 +4996,10 @@
           <t>('핵심', '개념')</t>
         </is>
       </c>
-      <c r="C305" t="n">
-        <v>0.02884</v>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>(0.02884, 16)</t>
+        </is>
       </c>
     </row>
     <row r="306">
@@ -4403,8 +5011,10 @@
           <t>('정보', '교육', '과정')</t>
         </is>
       </c>
-      <c r="C306" t="n">
-        <v>0.02838</v>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>(0.02838, 44)</t>
+        </is>
       </c>
     </row>
     <row r="307">
@@ -4416,8 +5026,10 @@
           <t>('창의', '문제')</t>
         </is>
       </c>
-      <c r="C307" t="n">
-        <v>0.02823</v>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>(0.02823, 72)</t>
+        </is>
       </c>
     </row>
     <row r="308">
@@ -4429,8 +5041,10 @@
           <t>('소양', '능력')</t>
         </is>
       </c>
-      <c r="C308" t="n">
-        <v>0.02802</v>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>(0.02802, 22)</t>
+        </is>
       </c>
     </row>
     <row r="309">
@@ -4442,8 +5056,10 @@
           <t>('유해', '정보')</t>
         </is>
       </c>
-      <c r="C309" t="n">
-        <v>0.02749</v>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>(0.02749, 18)</t>
+        </is>
       </c>
     </row>
     <row r="310">
@@ -4455,8 +5071,10 @@
           <t>('컴퓨팅', '사고력', '신장')</t>
         </is>
       </c>
-      <c r="C310" t="n">
-        <v>0.02749</v>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>(0.02749, 12)</t>
+        </is>
       </c>
     </row>
     <row r="311">
@@ -4468,8 +5086,10 @@
           <t>('언플러그드', '활동')</t>
         </is>
       </c>
-      <c r="C311" t="n">
-        <v>0.02742</v>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>(0.02742, 25)</t>
+        </is>
       </c>
     </row>
     <row r="312">
@@ -4481,8 +5101,10 @@
           <t>('교수', '학습', '과정')</t>
         </is>
       </c>
-      <c r="C312" t="n">
-        <v>0.0274</v>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>(0.0274, 16)</t>
+        </is>
       </c>
     </row>
     <row r="313">
@@ -4494,8 +5116,10 @@
           <t>('교수', '학습', '시스템')</t>
         </is>
       </c>
-      <c r="C313" t="n">
-        <v>0.02713</v>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>(0.02713, 24)</t>
+        </is>
       </c>
     </row>
     <row r="314">
@@ -4507,8 +5131,10 @@
           <t>('컴퓨터', '프로그래밍', '교육')</t>
         </is>
       </c>
-      <c r="C314" t="n">
-        <v>0.02695</v>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>(0.02695, 12)</t>
+        </is>
       </c>
     </row>
     <row r="315">
@@ -4520,8 +5146,10 @@
           <t>('교육', '과정', '표준')</t>
         </is>
       </c>
-      <c r="C315" t="n">
-        <v>0.02671</v>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>(0.02671, 12)</t>
+        </is>
       </c>
     </row>
     <row r="316">
@@ -4533,8 +5161,10 @@
           <t>('스마트폰', '사용')</t>
         </is>
       </c>
-      <c r="C316" t="n">
-        <v>0.02643</v>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>(0.02643, 22)</t>
+        </is>
       </c>
     </row>
     <row r="317">
@@ -4546,8 +5176,10 @@
           <t>('활성', '방안')</t>
         </is>
       </c>
-      <c r="C317" t="n">
-        <v>0.02614</v>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>(0.02614, 16)</t>
+        </is>
       </c>
     </row>
     <row r="318">
@@ -4559,8 +5191,10 @@
           <t>('선행', '연구')</t>
         </is>
       </c>
-      <c r="C318" t="n">
-        <v>0.02571</v>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>(0.02571, 41)</t>
+        </is>
       </c>
     </row>
     <row r="319">
@@ -4572,8 +5206,10 @@
           <t>('활용', '능력', '향상')</t>
         </is>
       </c>
-      <c r="C319" t="n">
-        <v>0.0254</v>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>(0.0254, 12)</t>
+        </is>
       </c>
     </row>
     <row r="320">
@@ -4585,8 +5221,10 @@
           <t>('인식', '조사')</t>
         </is>
       </c>
-      <c r="C320" t="n">
-        <v>0.02526</v>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>(0.02526, 37)</t>
+        </is>
       </c>
     </row>
     <row r="321">
@@ -4598,8 +5236,10 @@
           <t>('검사', '실시')</t>
         </is>
       </c>
-      <c r="C321" t="n">
-        <v>0.02524</v>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>(0.02524, 30)</t>
+        </is>
       </c>
     </row>
     <row r="322">
@@ -4611,8 +5251,10 @@
           <t>('sw', '교육', '관련')</t>
         </is>
       </c>
-      <c r="C322" t="n">
-        <v>0.02519</v>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>(0.02519, 14)</t>
+        </is>
       </c>
     </row>
     <row r="323">
@@ -4624,8 +5266,10 @@
           <t>('만족도', '영향')</t>
         </is>
       </c>
-      <c r="C323" t="n">
-        <v>0.02506</v>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>(0.02506, 23)</t>
+        </is>
       </c>
     </row>
     <row r="324">
@@ -4637,8 +5281,10 @@
           <t>('ict', '활용')</t>
         </is>
       </c>
-      <c r="C324" t="n">
-        <v>0.02496</v>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>(0.02496, 146)</t>
+        </is>
       </c>
     </row>
     <row r="325">
@@ -4650,8 +5296,10 @@
           <t>('영재', '학급')</t>
         </is>
       </c>
-      <c r="C325" t="n">
-        <v>0.02468</v>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>(0.02468, 16)</t>
+        </is>
       </c>
     </row>
     <row r="326">
@@ -4663,8 +5311,10 @@
           <t>('교육', '과정', '제안')</t>
         </is>
       </c>
-      <c r="C326" t="n">
-        <v>0.02465</v>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>(0.02465, 12)</t>
+        </is>
       </c>
     </row>
     <row r="327">
@@ -4676,8 +5326,10 @@
           <t>('역량', '계발')</t>
         </is>
       </c>
-      <c r="C327" t="n">
-        <v>0.02458</v>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>(0.02458, 11)</t>
+        </is>
       </c>
     </row>
     <row r="328">
@@ -4689,8 +5341,10 @@
           <t>('시스템', '설계')</t>
         </is>
       </c>
-      <c r="C328" t="n">
-        <v>0.02404</v>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>(0.02404, 137)</t>
+        </is>
       </c>
     </row>
     <row r="329">
@@ -4702,8 +5356,10 @@
           <t>('방안', '제시')</t>
         </is>
       </c>
-      <c r="C329" t="n">
-        <v>0.02377</v>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>(0.02377, 42)</t>
+        </is>
       </c>
     </row>
     <row r="330">
@@ -4715,8 +5371,10 @@
           <t>('시간', '공간')</t>
         </is>
       </c>
-      <c r="C330" t="n">
-        <v>0.02372</v>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>(0.02372, 14)</t>
+        </is>
       </c>
     </row>
     <row r="331">
@@ -4728,8 +5386,10 @@
           <t>('지원', '시스템')</t>
         </is>
       </c>
-      <c r="C331" t="n">
-        <v>0.02355</v>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>(0.02355, 61)</t>
+        </is>
       </c>
     </row>
     <row r="332">
@@ -4741,8 +5401,10 @@
           <t>('학년', '학생')</t>
         </is>
       </c>
-      <c r="C332" t="n">
-        <v>0.02348</v>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>(0.02348, 99)</t>
+        </is>
       </c>
     </row>
     <row r="333">
@@ -4754,8 +5416,10 @@
           <t>('평가', '준거')</t>
         </is>
       </c>
-      <c r="C333" t="n">
-        <v>0.0234</v>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>(0.0234, 16)</t>
+        </is>
       </c>
     </row>
     <row r="334">
@@ -4767,8 +5431,10 @@
           <t>('관리', '시스템')</t>
         </is>
       </c>
-      <c r="C334" t="n">
-        <v>0.02335</v>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>(0.02335, 54)</t>
+        </is>
       </c>
     </row>
     <row r="335">
@@ -4780,8 +5446,10 @@
           <t>('도형', '영역')</t>
         </is>
       </c>
-      <c r="C335" t="n">
-        <v>0.02332</v>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>(0.02332, 15)</t>
+        </is>
       </c>
     </row>
     <row r="336">
@@ -4793,8 +5461,10 @@
           <t>('응용', '프로그램')</t>
         </is>
       </c>
-      <c r="C336" t="n">
-        <v>0.02298</v>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>(0.02298, 16)</t>
+        </is>
       </c>
     </row>
     <row r="337">
@@ -4806,8 +5476,10 @@
           <t>('기초', '자료')</t>
         </is>
       </c>
-      <c r="C337" t="n">
-        <v>0.02294</v>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>(0.02294, 20)</t>
+        </is>
       </c>
     </row>
     <row r="338">
@@ -4819,8 +5491,10 @@
           <t>('초등', '정보', '영재')</t>
         </is>
       </c>
-      <c r="C338" t="n">
-        <v>0.0229</v>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>(0.0229, 12)</t>
+        </is>
       </c>
     </row>
     <row r="339">
@@ -4832,8 +5506,10 @@
           <t>('교사', 'sw', '교육')</t>
         </is>
       </c>
-      <c r="C339" t="n">
-        <v>0.0229</v>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>(0.0229, 11)</t>
+        </is>
       </c>
     </row>
     <row r="340">
@@ -4845,8 +5521,10 @@
           <t>('관련', '교육', '과정')</t>
         </is>
       </c>
-      <c r="C340" t="n">
-        <v>0.02289</v>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>(0.02289, 14)</t>
+        </is>
       </c>
     </row>
     <row r="341">
@@ -4858,8 +5536,10 @@
           <t>('개념', '이해')</t>
         </is>
       </c>
-      <c r="C341" t="n">
-        <v>0.02269</v>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>(0.02269, 20)</t>
+        </is>
       </c>
     </row>
     <row r="342">
@@ -4871,8 +5551,10 @@
           <t>('문제점', '해결')</t>
         </is>
       </c>
-      <c r="C342" t="n">
-        <v>0.02265</v>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>(0.02265, 16)</t>
+        </is>
       </c>
     </row>
     <row r="343">
@@ -4881,11 +5563,13 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>('해결력', '신장')</t>
-        </is>
-      </c>
-      <c r="C343" t="n">
-        <v>0.02259</v>
+          <t>('사고력', '신장')</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>(0.02259, 25)</t>
+        </is>
       </c>
     </row>
     <row r="344">
@@ -4894,11 +5578,13 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>('사고력', '신장')</t>
-        </is>
-      </c>
-      <c r="C344" t="n">
-        <v>0.02259</v>
+          <t>('해결력', '신장')</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>(0.02259, 16)</t>
+        </is>
       </c>
     </row>
     <row r="345">
@@ -4910,8 +5596,10 @@
           <t>('실태', '조사')</t>
         </is>
       </c>
-      <c r="C345" t="n">
-        <v>0.02254</v>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>(0.02254, 19)</t>
+        </is>
       </c>
     </row>
     <row r="346">
@@ -4923,8 +5611,10 @@
           <t>('적극', '참여')</t>
         </is>
       </c>
-      <c r="C346" t="n">
-        <v>0.02228</v>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>(0.02228, 12)</t>
+        </is>
       </c>
     </row>
     <row r="347">
@@ -4936,8 +5626,10 @@
           <t>('시사점', '제공')</t>
         </is>
       </c>
-      <c r="C347" t="n">
-        <v>0.02225</v>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>(0.02225, 17)</t>
+        </is>
       </c>
     </row>
     <row r="348">
@@ -4949,8 +5641,10 @@
           <t>('초등', '정보', '통신')</t>
         </is>
       </c>
-      <c r="C348" t="n">
-        <v>0.02223</v>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>(0.02223, 17)</t>
+        </is>
       </c>
     </row>
     <row r="349">
@@ -4962,8 +5656,10 @@
           <t>('현장', '적용')</t>
         </is>
       </c>
-      <c r="C349" t="n">
-        <v>0.02172</v>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>(0.02172, 58)</t>
+        </is>
       </c>
     </row>
     <row r="350">
@@ -4975,8 +5671,10 @@
           <t>('평가', '기준')</t>
         </is>
       </c>
-      <c r="C350" t="n">
-        <v>0.0217</v>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>(0.0217, 37)</t>
+        </is>
       </c>
     </row>
     <row r="351">
@@ -4988,8 +5686,10 @@
           <t>('조사', '실시')</t>
         </is>
       </c>
-      <c r="C351" t="n">
-        <v>0.0216</v>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>(0.0216, 39)</t>
+        </is>
       </c>
     </row>
     <row r="352">
@@ -5001,8 +5701,10 @@
           <t>('정보', '영재', '교육')</t>
         </is>
       </c>
-      <c r="C352" t="n">
-        <v>0.02134</v>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>(0.02134, 11)</t>
+        </is>
       </c>
     </row>
     <row r="353">
@@ -5014,8 +5716,10 @@
           <t>('활용', '교수', '학습')</t>
         </is>
       </c>
-      <c r="C353" t="n">
-        <v>0.02131</v>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>(0.02131, 12)</t>
+        </is>
       </c>
     </row>
     <row r="354">
@@ -5027,8 +5731,10 @@
           <t>('수학', '과학')</t>
         </is>
       </c>
-      <c r="C354" t="n">
-        <v>0.02116</v>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>(0.02116, 22)</t>
+        </is>
       </c>
     </row>
     <row r="355">
@@ -5040,8 +5746,10 @@
           <t>('비교', '집단')</t>
         </is>
       </c>
-      <c r="C355" t="n">
-        <v>0.02114</v>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>(0.02114, 23)</t>
+        </is>
       </c>
     </row>
     <row r="356">
@@ -5053,8 +5761,10 @@
           <t>('시스템', '설계', '개발')</t>
         </is>
       </c>
-      <c r="C356" t="n">
-        <v>0.02086</v>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>(0.02086, 11)</t>
+        </is>
       </c>
     </row>
     <row r="357">
@@ -5066,8 +5776,10 @@
           <t>('프로젝트', '학습', '시스템')</t>
         </is>
       </c>
-      <c r="C357" t="n">
-        <v>0.02048</v>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>(0.02048, 12)</t>
+        </is>
       </c>
     </row>
     <row r="358">
@@ -5079,8 +5791,10 @@
           <t>('방안', '제안')</t>
         </is>
       </c>
-      <c r="C358" t="n">
-        <v>0.02037</v>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>(0.02037, 34)</t>
+        </is>
       </c>
     </row>
     <row r="359">
@@ -5092,8 +5806,10 @@
           <t>('교수', '학습')</t>
         </is>
       </c>
-      <c r="C359" t="n">
-        <v>0.02025</v>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>(0.02025, 391)</t>
+        </is>
       </c>
     </row>
     <row r="360">
@@ -5105,8 +5821,10 @@
           <t>('하위', '영역')</t>
         </is>
       </c>
-      <c r="C360" t="n">
-        <v>0.02016</v>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>(0.02016, 14)</t>
+        </is>
       </c>
     </row>
     <row r="361">
@@ -5118,8 +5836,10 @@
           <t>('교육', '과정', '운영')</t>
         </is>
       </c>
-      <c r="C361" t="n">
-        <v>0.02003</v>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>(0.02003, 12)</t>
+        </is>
       </c>
     </row>
     <row r="362">
@@ -5131,8 +5851,10 @@
           <t>('현장', '적용', '결과')</t>
         </is>
       </c>
-      <c r="C362" t="n">
-        <v>0.01982</v>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>(0.01982, 11)</t>
+        </is>
       </c>
     </row>
     <row r="363">
@@ -5141,11 +5863,13 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨터', '교육')</t>
-        </is>
-      </c>
-      <c r="C363" t="n">
-        <v>0.01946</v>
+          <t>('언플러그드', '컴퓨팅')</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>(0.01946, 20)</t>
+        </is>
       </c>
     </row>
     <row r="364">
@@ -5154,11 +5878,13 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>('언플러그드', '컴퓨팅')</t>
-        </is>
-      </c>
-      <c r="C364" t="n">
-        <v>0.01946</v>
+          <t>('교육', '컴퓨터', '교육')</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>(0.01946, 12)</t>
+        </is>
       </c>
     </row>
     <row r="365">
@@ -5170,8 +5896,10 @@
           <t>('컴퓨터', '교육', '과정')</t>
         </is>
       </c>
-      <c r="C365" t="n">
-        <v>0.01945</v>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>(0.01945, 39)</t>
+        </is>
       </c>
     </row>
     <row r="366">
@@ -5183,8 +5911,10 @@
           <t>('사용', '자군')</t>
         </is>
       </c>
-      <c r="C366" t="n">
-        <v>0.01943</v>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>(0.01943, 11)</t>
+        </is>
       </c>
     </row>
     <row r="367">
@@ -5196,8 +5926,10 @@
           <t>('분석', 'sw', '교육')</t>
         </is>
       </c>
-      <c r="C367" t="n">
-        <v>0.01938</v>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>(0.01938, 11)</t>
+        </is>
       </c>
     </row>
     <row r="368">
@@ -5209,8 +5941,10 @@
           <t>('검사', '도구')</t>
         </is>
       </c>
-      <c r="C368" t="n">
-        <v>0.01931</v>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>(0.01931, 22)</t>
+        </is>
       </c>
     </row>
     <row r="369">
@@ -5222,8 +5956,10 @@
           <t>('수업', '진행')</t>
         </is>
       </c>
-      <c r="C369" t="n">
-        <v>0.01924</v>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>(0.01924, 35)</t>
+        </is>
       </c>
     </row>
     <row r="370">
@@ -5235,8 +5971,10 @@
           <t>('적응', '코스웨어')</t>
         </is>
       </c>
-      <c r="C370" t="n">
-        <v>0.01906</v>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>(0.01906, 11)</t>
+        </is>
       </c>
     </row>
     <row r="371">
@@ -5248,8 +5986,10 @@
           <t>('사고력', '향상')</t>
         </is>
       </c>
-      <c r="C371" t="n">
-        <v>0.01893</v>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>(0.01893, 43)</t>
+        </is>
       </c>
     </row>
     <row r="372">
@@ -5261,8 +6001,10 @@
           <t>('교원', '연수')</t>
         </is>
       </c>
-      <c r="C372" t="n">
-        <v>0.01891</v>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>(0.01891, 12)</t>
+        </is>
       </c>
     </row>
     <row r="373">
@@ -5274,8 +6016,10 @@
           <t>('성별', '차이')</t>
         </is>
       </c>
-      <c r="C373" t="n">
-        <v>0.01868</v>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>(0.01868, 12)</t>
+        </is>
       </c>
     </row>
     <row r="374">
@@ -5287,8 +6031,10 @@
           <t>('결과', '다음')</t>
         </is>
       </c>
-      <c r="C374" t="n">
-        <v>0.01861</v>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>(0.01861, 25)</t>
+        </is>
       </c>
     </row>
     <row r="375">
@@ -5300,8 +6046,10 @@
           <t>('프로그램', '개발')</t>
         </is>
       </c>
-      <c r="C375" t="n">
-        <v>0.01856</v>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>(0.01856, 134)</t>
+        </is>
       </c>
     </row>
     <row r="376">
@@ -5313,8 +6061,10 @@
           <t>('효과', '분석', '분석')</t>
         </is>
       </c>
-      <c r="C376" t="n">
-        <v>0.01854</v>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>(0.01854, 11)</t>
+        </is>
       </c>
     </row>
     <row r="377">
@@ -5326,8 +6076,10 @@
           <t>('교수', '실재감')</t>
         </is>
       </c>
-      <c r="C377" t="n">
-        <v>0.01835</v>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>(0.01835, 16)</t>
+        </is>
       </c>
     </row>
     <row r="378">
@@ -5339,8 +6091,10 @@
           <t>('협동', '학습')</t>
         </is>
       </c>
-      <c r="C378" t="n">
-        <v>0.01833</v>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>(0.01833, 62)</t>
+        </is>
       </c>
     </row>
     <row r="379">
@@ -5352,8 +6106,10 @@
           <t>('교재', '개발')</t>
         </is>
       </c>
-      <c r="C379" t="n">
-        <v>0.01819</v>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>(0.01819, 31)</t>
+        </is>
       </c>
     </row>
     <row r="380">
@@ -5365,8 +6121,10 @@
           <t>('학습', '동기')</t>
         </is>
       </c>
-      <c r="C380" t="n">
-        <v>0.01805</v>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>(0.01805, 97)</t>
+        </is>
       </c>
     </row>
     <row r="381">
@@ -5378,8 +6136,10 @@
           <t>('문제', '중심')</t>
         </is>
       </c>
-      <c r="C381" t="n">
-        <v>0.01803</v>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>(0.01803, 67)</t>
+        </is>
       </c>
     </row>
     <row r="382">
@@ -5391,8 +6151,10 @@
           <t>('향상', '긍정')</t>
         </is>
       </c>
-      <c r="C382" t="n">
-        <v>0.01802</v>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>(0.01802, 24)</t>
+        </is>
       </c>
     </row>
     <row r="383">
@@ -5404,8 +6166,10 @@
           <t>('유의', '영향')</t>
         </is>
       </c>
-      <c r="C383" t="n">
-        <v>0.01795</v>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>(0.01795, 17)</t>
+        </is>
       </c>
     </row>
     <row r="384">
@@ -5417,8 +6181,10 @@
           <t>('교육', '프로그램', '효과')</t>
         </is>
       </c>
-      <c r="C384" t="n">
-        <v>0.01789</v>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>(0.01789, 11)</t>
+        </is>
       </c>
     </row>
     <row r="385">
@@ -5430,8 +6196,10 @@
           <t>('결과', '토대')</t>
         </is>
       </c>
-      <c r="C385" t="n">
-        <v>0.01786</v>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>(0.01786, 24)</t>
+        </is>
       </c>
     </row>
     <row r="386">
@@ -5443,8 +6211,10 @@
           <t>('스크래치', '프로그래밍')</t>
         </is>
       </c>
-      <c r="C386" t="n">
-        <v>0.01784</v>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>(0.01784, 35)</t>
+        </is>
       </c>
     </row>
     <row r="387">
@@ -5456,8 +6226,10 @@
           <t>('로봇', '보조')</t>
         </is>
       </c>
-      <c r="C387" t="n">
-        <v>0.01762</v>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>(0.01762, 15)</t>
+        </is>
       </c>
     </row>
     <row r="388">
@@ -5469,8 +6241,10 @@
           <t>('학년', '대상')</t>
         </is>
       </c>
-      <c r="C388" t="n">
-        <v>0.01743</v>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>(0.01743, 40)</t>
+        </is>
       </c>
     </row>
     <row r="389">
@@ -5482,8 +6256,10 @@
           <t>('융합', '활동')</t>
         </is>
       </c>
-      <c r="C389" t="n">
-        <v>0.01728</v>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>(0.01728, 22)</t>
+        </is>
       </c>
     </row>
     <row r="390">
@@ -5495,8 +6271,10 @@
           <t>('해결력', '향상')</t>
         </is>
       </c>
-      <c r="C390" t="n">
-        <v>0.01721</v>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>(0.01721, 22)</t>
+        </is>
       </c>
     </row>
     <row r="391">
@@ -5508,8 +6286,10 @@
           <t>('연구', '결과', '토대')</t>
         </is>
       </c>
-      <c r="C391" t="n">
-        <v>0.01715</v>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>(0.01715, 11)</t>
+        </is>
       </c>
     </row>
     <row r="392">
@@ -5521,8 +6301,10 @@
           <t>('주도', '학습')</t>
         </is>
       </c>
-      <c r="C392" t="n">
-        <v>0.01707</v>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>(0.01707, 86)</t>
+        </is>
       </c>
     </row>
     <row r="393">
@@ -5534,8 +6316,10 @@
           <t>('중독', '정도')</t>
         </is>
       </c>
-      <c r="C393" t="n">
-        <v>0.01684</v>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>(0.01684, 12)</t>
+        </is>
       </c>
     </row>
     <row r="394">
@@ -5547,8 +6331,10 @@
           <t>('사전', '검사')</t>
         </is>
       </c>
-      <c r="C394" t="n">
-        <v>0.0168</v>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>(0.0168, 13)</t>
+        </is>
       </c>
     </row>
     <row r="395">
@@ -5560,8 +6346,10 @@
           <t>('비교', '분석')</t>
         </is>
       </c>
-      <c r="C395" t="n">
-        <v>0.01675</v>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>(0.01675, 58)</t>
+        </is>
       </c>
     </row>
     <row r="396">
@@ -5573,8 +6361,10 @@
           <t>('협업', '능력')</t>
         </is>
       </c>
-      <c r="C396" t="n">
-        <v>0.01661</v>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>(0.01661, 13)</t>
+        </is>
       </c>
     </row>
     <row r="397">
@@ -5586,8 +6376,10 @@
           <t>('연구', '결과', '다음')</t>
         </is>
       </c>
-      <c r="C397" t="n">
-        <v>0.01646</v>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>(0.01646, 11)</t>
+        </is>
       </c>
     </row>
     <row r="398">
@@ -5596,11 +6388,13 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>('연수', '프로그램')</t>
-        </is>
-      </c>
-      <c r="C398" t="n">
-        <v>0.01644</v>
+          <t>('연구', '목적')</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>(0.01644, 83)</t>
+        </is>
       </c>
     </row>
     <row r="399">
@@ -5609,11 +6403,13 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>('연구', '목적')</t>
-        </is>
-      </c>
-      <c r="C399" t="n">
-        <v>0.01644</v>
+          <t>('연수', '프로그램')</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>(0.01644, 21)</t>
+        </is>
       </c>
     </row>
     <row r="400">
@@ -5625,8 +6421,10 @@
           <t>('디지털', '환경')</t>
         </is>
       </c>
-      <c r="C400" t="n">
-        <v>0.01638</v>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>(0.01638, 18)</t>
+        </is>
       </c>
     </row>
     <row r="401">
@@ -5638,8 +6436,10 @@
           <t>('인터넷', '사용')</t>
         </is>
       </c>
-      <c r="C401" t="n">
-        <v>0.01603</v>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>(0.01603, 31)</t>
+        </is>
       </c>
     </row>
     <row r="402">
@@ -5651,8 +6451,10 @@
           <t>('교사', '연수')</t>
         </is>
       </c>
-      <c r="C402" t="n">
-        <v>0.01603</v>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>(0.01603, 27)</t>
+        </is>
       </c>
     </row>
     <row r="403">
@@ -5664,8 +6466,10 @@
           <t>('교사', '대상')</t>
         </is>
       </c>
-      <c r="C403" t="n">
-        <v>0.01602</v>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>(0.01602, 76)</t>
+        </is>
       </c>
     </row>
     <row r="404">
@@ -5677,8 +6481,10 @@
           <t>('정보', '영재')</t>
         </is>
       </c>
-      <c r="C404" t="n">
-        <v>0.01598</v>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>(0.01598, 71)</t>
+        </is>
       </c>
     </row>
     <row r="405">
@@ -5690,8 +6496,10 @@
           <t>('학생', '대상')</t>
         </is>
       </c>
-      <c r="C405" t="n">
-        <v>0.01589</v>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>(0.01589, 90)</t>
+        </is>
       </c>
     </row>
     <row r="406">
@@ -5703,8 +6511,10 @@
           <t>('운영', '지침')</t>
         </is>
       </c>
-      <c r="C406" t="n">
-        <v>0.01587</v>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>(0.01587, 11)</t>
+        </is>
       </c>
     </row>
     <row r="407">
@@ -5716,8 +6526,10 @@
           <t>('원리', '이해')</t>
         </is>
       </c>
-      <c r="C407" t="n">
-        <v>0.01578</v>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>(0.01578, 13)</t>
+        </is>
       </c>
     </row>
     <row r="408">
@@ -5729,8 +6541,10 @@
           <t>('스마트', '러닝')</t>
         </is>
       </c>
-      <c r="C408" t="n">
-        <v>0.01563</v>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>(0.01563, 13)</t>
+        </is>
       </c>
     </row>
     <row r="409">
@@ -5742,8 +6556,10 @@
           <t>('로봇', '활용')</t>
         </is>
       </c>
-      <c r="C409" t="n">
-        <v>0.01551</v>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>(0.01551, 156)</t>
+        </is>
       </c>
     </row>
     <row r="410">
@@ -5755,8 +6571,10 @@
           <t>('전통', '수업')</t>
         </is>
       </c>
-      <c r="C410" t="n">
-        <v>0.01522</v>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>(0.01522, 19)</t>
+        </is>
       </c>
     </row>
     <row r="411">
@@ -5768,8 +6586,10 @@
           <t>('분석', '결과')</t>
         </is>
       </c>
-      <c r="C411" t="n">
-        <v>0.0152</v>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>(0.0152, 246)</t>
+        </is>
       </c>
     </row>
     <row r="412">
@@ -5781,8 +6601,10 @@
           <t>('실정', '연구')</t>
         </is>
       </c>
-      <c r="C412" t="n">
-        <v>0.01508</v>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>(0.01508, 32)</t>
+        </is>
       </c>
     </row>
     <row r="413">
@@ -5794,8 +6616,10 @@
           <t>('플립러닝', '수업')</t>
         </is>
       </c>
-      <c r="C413" t="n">
-        <v>0.01501</v>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>(0.01501, 15)</t>
+        </is>
       </c>
     </row>
     <row r="414">
@@ -5804,11 +6628,13 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>('학습', '부진아')</t>
-        </is>
-      </c>
-      <c r="C414" t="n">
-        <v>0.01475</v>
+          <t>('sw', '교육')</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>(0.01475, 397)</t>
+        </is>
       </c>
     </row>
     <row r="415">
@@ -5817,11 +6643,13 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>('sw', '교육')</t>
-        </is>
-      </c>
-      <c r="C415" t="n">
-        <v>0.01475</v>
+          <t>('학습', '부진아')</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>(0.01475, 28)</t>
+        </is>
       </c>
     </row>
     <row r="416">
@@ -5833,8 +6661,10 @@
           <t>('정보', '사회')</t>
         </is>
       </c>
-      <c r="C416" t="n">
-        <v>0.0147</v>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>(0.0147, 87)</t>
+        </is>
       </c>
     </row>
     <row r="417">
@@ -5846,8 +6676,10 @@
           <t>('창의', '신장')</t>
         </is>
       </c>
-      <c r="C417" t="n">
-        <v>0.01468</v>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>(0.01468, 17)</t>
+        </is>
       </c>
     </row>
     <row r="418">
@@ -5859,8 +6691,10 @@
           <t>('특성', '고려')</t>
         </is>
       </c>
-      <c r="C418" t="n">
-        <v>0.01465</v>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>(0.01465, 13)</t>
+        </is>
       </c>
     </row>
     <row r="419">
@@ -5872,8 +6706,10 @@
           <t>('평가', '도구')</t>
         </is>
       </c>
-      <c r="C419" t="n">
-        <v>0.0146</v>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>(0.0146, 46)</t>
+        </is>
       </c>
     </row>
     <row r="420">
@@ -5885,8 +6721,10 @@
           <t>('교육', '정보', '교육')</t>
         </is>
       </c>
-      <c r="C420" t="n">
-        <v>0.01457</v>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>(0.01457, 14)</t>
+        </is>
       </c>
     </row>
     <row r="421">
@@ -5898,8 +6736,10 @@
           <t>('교육', '로봇', '교육')</t>
         </is>
       </c>
-      <c r="C421" t="n">
-        <v>0.01424</v>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>(0.01424, 11)</t>
+        </is>
       </c>
     </row>
     <row r="422">
@@ -5911,8 +6751,10 @@
           <t>('긍정', '효과')</t>
         </is>
       </c>
-      <c r="C422" t="n">
-        <v>0.01413</v>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>(0.01413, 33)</t>
+        </is>
       </c>
     </row>
     <row r="423">
@@ -5924,8 +6766,10 @@
           <t>('가상현실', '콘텐츠')</t>
         </is>
       </c>
-      <c r="C423" t="n">
-        <v>0.01401</v>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>(0.01401, 12)</t>
+        </is>
       </c>
     </row>
     <row r="424">
@@ -5937,8 +6781,10 @@
           <t>('서비스', '제공')</t>
         </is>
       </c>
-      <c r="C424" t="n">
-        <v>0.01392</v>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>(0.01392, 16)</t>
+        </is>
       </c>
     </row>
     <row r="425">
@@ -5950,8 +6796,10 @@
           <t>('의사소통', '능력')</t>
         </is>
       </c>
-      <c r="C425" t="n">
-        <v>0.01384</v>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>(0.01384, 15)</t>
+        </is>
       </c>
     </row>
     <row r="426">
@@ -5963,8 +6811,10 @@
           <t>('상담', '시스템')</t>
         </is>
       </c>
-      <c r="C426" t="n">
-        <v>0.0138</v>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>(0.0138, 23)</t>
+        </is>
       </c>
     </row>
     <row r="427">
@@ -5976,8 +6826,10 @@
           <t>('교사', '인식')</t>
         </is>
       </c>
-      <c r="C427" t="n">
-        <v>0.01363</v>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>(0.01363, 49)</t>
+        </is>
       </c>
     </row>
     <row r="428">
@@ -5989,8 +6841,10 @@
           <t>('학습', '스타일')</t>
         </is>
       </c>
-      <c r="C428" t="n">
-        <v>0.01357</v>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>(0.01357, 22)</t>
+        </is>
       </c>
     </row>
     <row r="429">
@@ -6002,8 +6856,10 @@
           <t>('로봇', '교육', '과정')</t>
         </is>
       </c>
-      <c r="C429" t="n">
-        <v>0.01347</v>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>(0.01347, 20)</t>
+        </is>
       </c>
     </row>
     <row r="430">
@@ -6015,8 +6871,10 @@
           <t>('정보', '과학')</t>
         </is>
       </c>
-      <c r="C430" t="n">
-        <v>0.01343</v>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>(0.01343, 104)</t>
+        </is>
       </c>
     </row>
     <row r="431">
@@ -6028,8 +6886,10 @@
           <t>('소프트웨어', '교육', '교육')</t>
         </is>
       </c>
-      <c r="C431" t="n">
-        <v>0.01337</v>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>(0.01337, 13)</t>
+        </is>
       </c>
     </row>
     <row r="432">
@@ -6041,8 +6901,10 @@
           <t>('교육', '과정', '개선')</t>
         </is>
       </c>
-      <c r="C432" t="n">
-        <v>0.01335</v>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>(0.01335, 11)</t>
+        </is>
       </c>
     </row>
     <row r="433">
@@ -6054,8 +6916,10 @@
           <t>('컴퓨터', '소양')</t>
         </is>
       </c>
-      <c r="C433" t="n">
-        <v>0.01333</v>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>(0.01333, 20)</t>
+        </is>
       </c>
     </row>
     <row r="434">
@@ -6067,8 +6931,10 @@
           <t>('기능', '게임')</t>
         </is>
       </c>
-      <c r="C434" t="n">
-        <v>0.01332</v>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>(0.01332, 17)</t>
+        </is>
       </c>
     </row>
     <row r="435">
@@ -6080,8 +6946,10 @@
           <t>('교육', '과정')</t>
         </is>
       </c>
-      <c r="C435" t="n">
-        <v>0.01319</v>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>(0.01319, 624)</t>
+        </is>
       </c>
     </row>
     <row r="436">
@@ -6093,8 +6961,10 @@
           <t>('정보', '윤리')</t>
         </is>
       </c>
-      <c r="C436" t="n">
-        <v>0.01309</v>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>(0.01309, 50)</t>
+        </is>
       </c>
     </row>
     <row r="437">
@@ -6106,8 +6976,10 @@
           <t>('동기', '학업')</t>
         </is>
       </c>
-      <c r="C437" t="n">
-        <v>0.01305</v>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>(0.01305, 14)</t>
+        </is>
       </c>
     </row>
     <row r="438">
@@ -6119,8 +6991,10 @@
           <t>('유의미', '향상')</t>
         </is>
       </c>
-      <c r="C438" t="n">
-        <v>0.01292</v>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>(0.01292, 17)</t>
+        </is>
       </c>
     </row>
     <row r="439">
@@ -6132,8 +7006,10 @@
           <t>('환경', '제공')</t>
         </is>
       </c>
-      <c r="C439" t="n">
-        <v>0.01275</v>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>(0.01275, 25)</t>
+        </is>
       </c>
     </row>
     <row r="440">
@@ -6145,8 +7021,10 @@
           <t>('프로젝트', '학습')</t>
         </is>
       </c>
-      <c r="C440" t="n">
-        <v>0.01249</v>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>(0.01249, 74)</t>
+        </is>
       </c>
     </row>
     <row r="441">
@@ -6158,8 +7036,10 @@
           <t>('실태', '분석')</t>
         </is>
       </c>
-      <c r="C441" t="n">
-        <v>0.01244</v>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>(0.01244, 32)</t>
+        </is>
       </c>
     </row>
     <row r="442">
@@ -6171,8 +7051,10 @@
           <t>('개발', '초등', '학년')</t>
         </is>
       </c>
-      <c r="C442" t="n">
-        <v>0.01244</v>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>(0.01244, 11)</t>
+        </is>
       </c>
     </row>
     <row r="443">
@@ -6184,8 +7066,10 @@
           <t>('시사점', '제시')</t>
         </is>
       </c>
-      <c r="C443" t="n">
-        <v>0.01235</v>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>(0.01235, 15)</t>
+        </is>
       </c>
     </row>
     <row r="444">
@@ -6197,8 +7081,10 @@
           <t>('교육', '과정', '컴퓨터')</t>
         </is>
       </c>
-      <c r="C444" t="n">
-        <v>0.01233</v>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>(0.01233, 11)</t>
+        </is>
       </c>
     </row>
     <row r="445">
@@ -6210,8 +7096,10 @@
           <t>('데이터', '수집')</t>
         </is>
       </c>
-      <c r="C445" t="n">
-        <v>0.01229</v>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>(0.01229, 12)</t>
+        </is>
       </c>
     </row>
     <row r="446">
@@ -6223,8 +7111,10 @@
           <t>('중독', '실태')</t>
         </is>
       </c>
-      <c r="C446" t="n">
-        <v>0.01222</v>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>(0.01222, 13)</t>
+        </is>
       </c>
     </row>
     <row r="447">
@@ -6236,8 +7126,10 @@
           <t>('활용', '능력')</t>
         </is>
       </c>
-      <c r="C447" t="n">
-        <v>0.01206</v>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>(0.01206, 105)</t>
+        </is>
       </c>
     </row>
     <row r="448">
@@ -6249,8 +7141,10 @@
           <t>('개발', '적용')</t>
         </is>
       </c>
-      <c r="C448" t="n">
-        <v>0.01194</v>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>(0.01194, 121)</t>
+        </is>
       </c>
     </row>
     <row r="449">
@@ -6262,8 +7156,10 @@
           <t>('소프트웨어', '교육')</t>
         </is>
       </c>
-      <c r="C449" t="n">
-        <v>0.01193</v>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>(0.01193, 284)</t>
+        </is>
       </c>
     </row>
     <row r="450">
@@ -6275,8 +7171,10 @@
           <t>('교육', '초등', '학년')</t>
         </is>
       </c>
-      <c r="C450" t="n">
-        <v>0.01175</v>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>(0.01175, 12)</t>
+        </is>
       </c>
     </row>
     <row r="451">
@@ -6288,8 +7186,10 @@
           <t>('검사', '결과')</t>
         </is>
       </c>
-      <c r="C451" t="n">
-        <v>0.0116</v>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>(0.0116, 34)</t>
+        </is>
       </c>
     </row>
     <row r="452">
@@ -6301,8 +7201,10 @@
           <t>('활동', '중심')</t>
         </is>
       </c>
-      <c r="C452" t="n">
-        <v>0.01152</v>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>(0.01152, 36)</t>
+        </is>
       </c>
     </row>
     <row r="453">
@@ -6314,8 +7216,10 @@
           <t>('컴퓨터', '교과서')</t>
         </is>
       </c>
-      <c r="C453" t="n">
-        <v>0.01152</v>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>(0.01152, 25)</t>
+        </is>
       </c>
     </row>
     <row r="454">
@@ -6327,8 +7231,10 @@
           <t>('과서', '사용')</t>
         </is>
       </c>
-      <c r="C454" t="n">
-        <v>0.01145</v>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>(0.01145, 13)</t>
+        </is>
       </c>
     </row>
     <row r="455">
@@ -6340,8 +7246,10 @@
           <t>('연구', '동향')</t>
         </is>
       </c>
-      <c r="C455" t="n">
-        <v>0.01141</v>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>(0.01141, 17)</t>
+        </is>
       </c>
     </row>
     <row r="456">
@@ -6353,8 +7261,10 @@
           <t>('학습자', '중심')</t>
         </is>
       </c>
-      <c r="C456" t="n">
-        <v>0.01117</v>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>(0.01117, 48)</t>
+        </is>
       </c>
     </row>
     <row r="457">
@@ -6366,8 +7276,10 @@
           <t>('steam', '교육', '프로그램')</t>
         </is>
       </c>
-      <c r="C457" t="n">
-        <v>0.01107</v>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>(0.01107, 11)</t>
+        </is>
       </c>
     </row>
     <row r="458">
@@ -6379,8 +7291,10 @@
           <t>('온라인', '게임')</t>
         </is>
       </c>
-      <c r="C458" t="n">
-        <v>0.01105</v>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>(0.01105, 16)</t>
+        </is>
       </c>
     </row>
     <row r="459">
@@ -6392,8 +7306,10 @@
           <t>('교육', '대학교')</t>
         </is>
       </c>
-      <c r="C459" t="n">
-        <v>0.01099</v>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>(0.01099, 46)</t>
+        </is>
       </c>
     </row>
     <row r="460">
@@ -6405,8 +7321,10 @@
           <t>('도구', '개발')</t>
         </is>
       </c>
-      <c r="C460" t="n">
-        <v>0.01096</v>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>(0.01096, 54)</t>
+        </is>
       </c>
     </row>
     <row r="461">
@@ -6418,8 +7336,10 @@
           <t>('구성', '요소')</t>
         </is>
       </c>
-      <c r="C461" t="n">
-        <v>0.01096</v>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>(0.01096, 20)</t>
+        </is>
       </c>
     </row>
     <row r="462">
@@ -6431,8 +7351,10 @@
           <t>('학습', '성과')</t>
         </is>
       </c>
-      <c r="C462" t="n">
-        <v>0.01093</v>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>(0.01093, 27)</t>
+        </is>
       </c>
     </row>
     <row r="463">
@@ -6444,8 +7366,10 @@
           <t>('교육', '시스템', '설계')</t>
         </is>
       </c>
-      <c r="C463" t="n">
-        <v>0.01089</v>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>(0.01089, 11)</t>
+        </is>
       </c>
     </row>
     <row r="464">
@@ -6457,8 +7381,10 @@
           <t>('정보', '기기')</t>
         </is>
       </c>
-      <c r="C464" t="n">
-        <v>0.01082</v>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>(0.01082, 24)</t>
+        </is>
       </c>
     </row>
     <row r="465">
@@ -6470,8 +7396,10 @@
           <t>('중요', '인식')</t>
         </is>
       </c>
-      <c r="C465" t="n">
-        <v>0.0107</v>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>(0.0107, 17)</t>
+        </is>
       </c>
     </row>
     <row r="466">
@@ -6483,8 +7411,10 @@
           <t>('로봇', '프로그래밍')</t>
         </is>
       </c>
-      <c r="C466" t="n">
-        <v>0.01068</v>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>(0.01068, 67)</t>
+        </is>
       </c>
     </row>
     <row r="467">
@@ -6496,8 +7426,10 @@
           <t>('관계', '규명')</t>
         </is>
       </c>
-      <c r="C467" t="n">
-        <v>0.01068</v>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>(0.01068, 11)</t>
+        </is>
       </c>
     </row>
     <row r="468">
@@ -6509,8 +7441,10 @@
           <t>('학습', '몰입')</t>
         </is>
       </c>
-      <c r="C468" t="n">
-        <v>0.01066</v>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>(0.01066, 36)</t>
+        </is>
       </c>
     </row>
     <row r="469">
@@ -6522,8 +7456,10 @@
           <t>('교사', '학부모')</t>
         </is>
       </c>
-      <c r="C469" t="n">
-        <v>0.01064</v>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>(0.01064, 20)</t>
+        </is>
       </c>
     </row>
     <row r="470">
@@ -6535,8 +7471,10 @@
           <t>('모형', '개발')</t>
         </is>
       </c>
-      <c r="C470" t="n">
-        <v>0.01059</v>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>(0.01059, 58)</t>
+        </is>
       </c>
     </row>
     <row r="471">
@@ -6548,8 +7486,10 @@
           <t>('협력', '문제')</t>
         </is>
       </c>
-      <c r="C471" t="n">
-        <v>0.01053</v>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>(0.01053, 19)</t>
+        </is>
       </c>
     </row>
     <row r="472">
@@ -6558,11 +7498,13 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>('교수자', '학습자')</t>
-        </is>
-      </c>
-      <c r="C472" t="n">
-        <v>0.01051</v>
+          <t>('적용', '가능')</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>(0.01051, 31)</t>
+        </is>
       </c>
     </row>
     <row r="473">
@@ -6571,11 +7513,13 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>('적용', '가능')</t>
-        </is>
-      </c>
-      <c r="C473" t="n">
-        <v>0.01051</v>
+          <t>('교수자', '학습자')</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>(0.01051, 14)</t>
+        </is>
       </c>
     </row>
     <row r="474">
@@ -6587,8 +7531,10 @@
           <t>('초등', '예비')</t>
         </is>
       </c>
-      <c r="C474" t="n">
-        <v>0.01043</v>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>(0.01043, 42)</t>
+        </is>
       </c>
     </row>
     <row r="475">
@@ -6600,8 +7546,10 @@
           <t>('과제', '수행')</t>
         </is>
       </c>
-      <c r="C475" t="n">
-        <v>0.01029</v>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>(0.01029, 14)</t>
+        </is>
       </c>
     </row>
     <row r="476">
@@ -6613,8 +7561,10 @@
           <t>('설문', '실시')</t>
         </is>
       </c>
-      <c r="C476" t="n">
-        <v>0.01026</v>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>(0.01026, 18)</t>
+        </is>
       </c>
     </row>
     <row r="477">
@@ -6626,8 +7576,10 @@
           <t>('영역', '구분')</t>
         </is>
       </c>
-      <c r="C477" t="n">
-        <v>0.01025</v>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>(0.01025, 12)</t>
+        </is>
       </c>
     </row>
     <row r="478">
@@ -6639,8 +7591,10 @@
           <t>('시스템', '개발')</t>
         </is>
       </c>
-      <c r="C478" t="n">
-        <v>0.01016</v>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>(0.01016, 123)</t>
+        </is>
       </c>
     </row>
     <row r="479">
@@ -6649,11 +7603,13 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>('지식', '사회')</t>
-        </is>
-      </c>
-      <c r="C479" t="n">
-        <v>0.01012</v>
+          <t>('연구', '결과')</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>(0.01012, 243)</t>
+        </is>
       </c>
     </row>
     <row r="480">
@@ -6662,11 +7618,13 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>('연구', '결과')</t>
-        </is>
-      </c>
-      <c r="C480" t="n">
-        <v>0.01012</v>
+          <t>('지식', '사회')</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>(0.01012, 20)</t>
+        </is>
       </c>
     </row>
     <row r="481">
@@ -6678,8 +7636,10 @@
           <t>('ict', '소양')</t>
         </is>
       </c>
-      <c r="C481" t="n">
-        <v>0.01012</v>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>(0.01012, 13)</t>
+        </is>
       </c>
     </row>
     <row r="482">
@@ -6691,8 +7651,10 @@
           <t>('시스템', '구축')</t>
         </is>
       </c>
-      <c r="C482" t="n">
-        <v>0.01003</v>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>(0.01003, 20)</t>
+        </is>
       </c>
     </row>
     <row r="483">
@@ -6704,8 +7666,10 @@
           <t>('코스웨어', '설계')</t>
         </is>
       </c>
-      <c r="C483" t="n">
-        <v>0.00997</v>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>(0.00997, 15)</t>
+        </is>
       </c>
     </row>
     <row r="484">
@@ -6717,8 +7681,10 @@
           <t>('자료', '구조')</t>
         </is>
       </c>
-      <c r="C484" t="n">
-        <v>0.00997</v>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>(0.00997, 14)</t>
+        </is>
       </c>
     </row>
     <row r="485">
@@ -6730,8 +7696,10 @@
           <t>('수준', '측정')</t>
         </is>
       </c>
-      <c r="C485" t="n">
-        <v>0.00991</v>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>(0.00991, 14)</t>
+        </is>
       </c>
     </row>
     <row r="486">
@@ -6743,8 +7711,10 @@
           <t>('단계', '구성')</t>
         </is>
       </c>
-      <c r="C486" t="n">
-        <v>0.00984</v>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>(0.00984, 18)</t>
+        </is>
       </c>
     </row>
     <row r="487">
@@ -6756,8 +7726,10 @@
           <t>('수업', '모형')</t>
         </is>
       </c>
-      <c r="C487" t="n">
-        <v>0.00976</v>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>(0.00976, 40)</t>
+        </is>
       </c>
     </row>
     <row r="488">
@@ -6769,8 +7741,10 @@
           <t>('콘텐츠', '개발')</t>
         </is>
       </c>
-      <c r="C488" t="n">
-        <v>0.009599999999999999</v>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>(0.0096, 43)</t>
+        </is>
       </c>
     </row>
     <row r="489">
@@ -6782,8 +7756,10 @@
           <t>('sw', '교육', '실시')</t>
         </is>
       </c>
-      <c r="C489" t="n">
-        <v>0.00957</v>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>(0.00957, 13)</t>
+        </is>
       </c>
     </row>
     <row r="490">
@@ -6795,8 +7771,10 @@
           <t>('제안', '제안')</t>
         </is>
       </c>
-      <c r="C490" t="n">
-        <v>0.00945</v>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>(0.00945, 24)</t>
+        </is>
       </c>
     </row>
     <row r="491">
@@ -6808,8 +7786,10 @@
           <t>('sw', '교육', '프로그램')</t>
         </is>
       </c>
-      <c r="C491" t="n">
-        <v>0.00937</v>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>(0.00937, 18)</t>
+        </is>
       </c>
     </row>
     <row r="492">
@@ -6818,11 +7798,13 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교과')</t>
-        </is>
-      </c>
-      <c r="C492" t="n">
-        <v>0.009350000000000001</v>
+          <t>('해결', '과정')</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>(0.00935, 37)</t>
+        </is>
       </c>
     </row>
     <row r="493">
@@ -6831,11 +7813,13 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>('해결', '과정')</t>
-        </is>
-      </c>
-      <c r="C493" t="n">
-        <v>0.009350000000000001</v>
+          <t>('컴퓨터', '교과')</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>(0.00935, 33)</t>
+        </is>
       </c>
     </row>
     <row r="494">
@@ -6847,8 +7831,10 @@
           <t>('적용', '결과')</t>
         </is>
       </c>
-      <c r="C494" t="n">
-        <v>0.009339999999999999</v>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>(0.00934, 87)</t>
+        </is>
       </c>
     </row>
     <row r="495">
@@ -6860,8 +7846,10 @@
           <t>('과학', '탐구')</t>
         </is>
       </c>
-      <c r="C495" t="n">
-        <v>0.00924</v>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>(0.00924, 13)</t>
+        </is>
       </c>
     </row>
     <row r="496">
@@ -6873,8 +7861,10 @@
           <t>('학습', '장애')</t>
         </is>
       </c>
-      <c r="C496" t="n">
-        <v>0.00911</v>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>(0.00911, 20)</t>
+        </is>
       </c>
     </row>
     <row r="497">
@@ -6886,8 +7876,10 @@
           <t>('개인', '정보')</t>
         </is>
       </c>
-      <c r="C497" t="n">
-        <v>0.008999999999999999</v>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>(0.009, 26)</t>
+        </is>
       </c>
     </row>
     <row r="498">
@@ -6899,8 +7891,10 @@
           <t>('메이커', '교육')</t>
         </is>
       </c>
-      <c r="C498" t="n">
-        <v>0.008920000000000001</v>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>(0.00892, 37)</t>
+        </is>
       </c>
     </row>
     <row r="499">
@@ -6912,8 +7906,10 @@
           <t>('측정', '도구')</t>
         </is>
       </c>
-      <c r="C499" t="n">
-        <v>0.00891</v>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>(0.00891, 13)</t>
+        </is>
       </c>
     </row>
     <row r="500">
@@ -6925,8 +7921,10 @@
           <t>('조사', '결과')</t>
         </is>
       </c>
-      <c r="C500" t="n">
-        <v>0.008840000000000001</v>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>(0.00884, 41)</t>
+        </is>
       </c>
     </row>
     <row r="501">
@@ -6938,8 +7936,10 @@
           <t>('해결', '능력')</t>
         </is>
       </c>
-      <c r="C501" t="n">
-        <v>0.00881</v>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>(0.00881, 24)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -453,79 +453,79 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('원격', '교육')</t>
+          <t>('학습', '정보')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.00753</v>
+        <v>2e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('교육', '연구')</t>
+          <t>('적용', '교육')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.00071</v>
+        <v>3e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>278</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('코스웨어', '설계')</t>
+          <t>('학습', '결과')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.00997</v>
+        <v>3e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('프로그램', '교육')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07906000000000001</v>
+        <v>4e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('환경', '구축')</t>
+          <t>('학습', '평가')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.00264</v>
+        <v>4e-05</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
@@ -533,111 +533,111 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>384</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('방안', '연구')</t>
+          <t>('교육', '적용')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.00448</v>
+        <v>5e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>446</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('정보', '시대')</t>
+          <t>('학생', '교육')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.00542</v>
+        <v>6e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>386</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('방법', '교육')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.16401</v>
+        <v>6e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>699</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('초등', '교육')</t>
+          <t>('교육', '도구')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.00071</v>
+        <v>6e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>728</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('교육', '자료')</t>
+          <t>('교육', 'ict')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.00157</v>
+        <v>6e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('활용', '방안')</t>
+          <t>('환경', '교육')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.00514</v>
+        <v>6e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('지식', '습득')</t>
+          <t>('교육', '창의')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.00596</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="D13" t="n">
         <v>11</v>
@@ -645,47 +645,47 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>451</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('실정', '연구')</t>
+          <t>('교육', '지식')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01508</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>598</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('서비스', '제공')</t>
+          <t>('시스템', '활용')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01392</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('자료', '공유')</t>
+          <t>('내용', '교육')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.00741</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="D16" t="n">
         <v>12</v>
@@ -693,271 +693,271 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>885</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('시스템', '구축')</t>
+          <t>('연구', '내용')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01003</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>467</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('방안', '제시')</t>
+          <t>('분석', '학습')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02377</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>786</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('교수', '시스템')</t>
+          <t>('분석', '평가')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.00143</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>621</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('시스템', '설계')</t>
+          <t>('연구', '학습')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02404</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>681</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('지능', '정보')</t>
+          <t>('교육', '학교')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.00344</v>
+        <v>0.0001</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>789</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('정보', '제공')</t>
+          <t>('필요', '교육')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.00362</v>
+        <v>0.0001</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>812</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('응용', '프로그램')</t>
+          <t>('분석', '로봇')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.02298</v>
+        <v>0.00011</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>473</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('설계', '연구')</t>
+          <t>('시스템', '교육')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.00032</v>
+        <v>0.00011</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>1176</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('교육', '정보')</t>
+          <t>('사고력', '연구')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.00166</v>
+        <v>0.00011</v>
       </c>
       <c r="D25" t="n">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>735</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('교육', '환경')</t>
+          <t>('방법', '학습')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.00182</v>
+        <v>0.00011</v>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>594</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('변화', '교육')</t>
+          <t>('개발', '학습')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.00022</v>
+        <v>0.00011</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>('학습', '교육')</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="D28" t="n">
         <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>('교육', '소프트웨어')</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.00104</v>
-      </c>
-      <c r="D28" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>932</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('교육', '시스템')</t>
+          <t>('교육', '변화')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.00127</v>
+        <v>0.00011</v>
       </c>
       <c r="D29" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>662</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('시스템', '개발')</t>
+          <t>('프로그램', '활용')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01016</v>
+        <v>0.00012</v>
       </c>
       <c r="D30" t="n">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>661</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('교육', '시스템', '개발')</t>
+          <t>('교과', '학습')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0364</v>
+        <v>0.00012</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>518</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('지원', '시스템')</t>
+          <t>('대상', '정보')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02355</v>
+        <v>0.00013</v>
       </c>
       <c r="D32" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>608</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('중등', '컴퓨터')</t>
+          <t>('개발', '교수')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.00091</v>
+        <v>0.00013</v>
       </c>
       <c r="D33" t="n">
         <v>11</v>
@@ -965,735 +965,735 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('컴퓨터', '활용')</t>
+          <t>('과정', '교육')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.00283</v>
+        <v>0.00013</v>
       </c>
       <c r="D34" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>380</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('활용', '능력')</t>
+          <t>('능력', '학습')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01206</v>
+        <v>0.00013</v>
       </c>
       <c r="D35" t="n">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>726</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('능력', '신장')</t>
+          <t>('초등', '사용')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04118</v>
+        <v>0.00013</v>
       </c>
       <c r="D36" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('모델', '개발')</t>
+          <t>('교육', '개선')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.00829</v>
+        <v>0.00013</v>
       </c>
       <c r="D37" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>713</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('컴퓨터', '활용', '능력')</t>
+          <t>('초등', '학습')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.11662</v>
+        <v>0.00014</v>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>626</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('구현', '초등')</t>
+          <t>('인식', '연구')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0007</v>
+        <v>0.00014</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('시스템', '학습')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.00014</v>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>577</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('개발', '연구')</t>
+          <t>('수준', '교육')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.00169</v>
+        <v>0.00015</v>
       </c>
       <c r="D41" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('관리', '시스템')</t>
+          <t>('교육', '가능')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02335</v>
+        <v>0.00015</v>
       </c>
       <c r="D42" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>657</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('컴퓨터', '사용')</t>
+          <t>('적용', '프로그래밍')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.00213</v>
+        <v>0.00015</v>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>1189</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교육')</t>
+          <t>('개발', 'sw')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00511</v>
+        <v>0.00015</v>
       </c>
       <c r="D44" t="n">
-        <v>239</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>1089</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('정보', '사회')</t>
+          <t>('실시', '교육')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0147</v>
+        <v>0.00015</v>
       </c>
       <c r="D45" t="n">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('정보', '교육')</t>
+          <t>('학습', '컴퓨터')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.00227</v>
+        <v>0.00015</v>
       </c>
       <c r="D46" t="n">
-        <v>192</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>772</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('관련', '교육')</t>
+          <t>('제안', '초등')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.00116</v>
+        <v>0.00016</v>
       </c>
       <c r="D47" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>1014</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('교육', '교육')</t>
+          <t>('영향', '초등')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.00028</v>
+        <v>0.00016</v>
       </c>
       <c r="D48" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>609</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('교육', '과정')</t>
+          <t>('수업', '활용')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01319</v>
+        <v>0.00016</v>
       </c>
       <c r="D49" t="n">
-        <v>624</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>961</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('내용', '분석')</t>
+          <t>('적용', '정보')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.00146</v>
+        <v>0.00016</v>
       </c>
       <c r="D50" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>663</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('교사', '학부모')</t>
+          <t>('교육', '문제')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01064</v>
+        <v>0.00016</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>763</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('조사', '결과')</t>
+          <t>('대상', '교육')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.008840000000000001</v>
+        <v>0.00017</v>
       </c>
       <c r="D52" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>740</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('교육', '교육', '과정')</t>
+          <t>('적용', '학습자')</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.03651</v>
+        <v>0.00017</v>
       </c>
       <c r="D53" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('논문', '제안')</t>
+          <t>('내용', '학습')</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.00818</v>
+        <v>0.00017</v>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('단계', '구성')</t>
+          <t>('적용', '학습')</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.00984</v>
+        <v>0.00017</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('학습', '활용')</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.38373</v>
+        <v>0.00017</v>
       </c>
       <c r="D56" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('효과', '연구')</t>
+          <t>('연구', '교육')</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.00124</v>
+        <v>0.00018</v>
       </c>
       <c r="D57" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>854</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('연구', '제안')</t>
+          <t>('효과', '로봇')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.00184</v>
+        <v>0.00018</v>
       </c>
       <c r="D58" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>356</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('평가', '방법')</t>
+          <t>('개발', '컴퓨터')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.008529999999999999</v>
+        <v>0.00018</v>
       </c>
       <c r="D59" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>749</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('분석', '연구')</t>
+          <t>('학습', '학생')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.00292</v>
+        <v>0.00019</v>
       </c>
       <c r="D60" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>991</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('탐색', '알고리즘')</t>
+          <t>('초등', '알고리즘')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.00724</v>
+        <v>0.00019</v>
       </c>
       <c r="D61" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('실험', '결과')</t>
+          <t>('다양', '정보')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.00545</v>
+        <v>0.00019</v>
       </c>
       <c r="D62" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('구현', '논문')</t>
+          <t>('적용', '분석')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.00271</v>
+        <v>0.00019</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('효과', '학습')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.06383999999999999</v>
+        <v>0.00019</v>
       </c>
       <c r="D64" t="n">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>942</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('분석', '결과')</t>
+          <t>('교육', '언플러그드')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0152</v>
+        <v>0.00019</v>
       </c>
       <c r="D65" t="n">
-        <v>246</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>547</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('설계', '구현', '논문')</t>
+          <t>('교육', '학습')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.08162999999999999</v>
+        <v>0.00019</v>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>893</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('다양', '형태')</t>
+          <t>('영역', '교육')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.0025</v>
+        <v>0.00019</v>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('자료', '제공')</t>
+          <t>('연구', '문제')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.00592</v>
+        <v>0.00019</v>
       </c>
       <c r="D68" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>633</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('내용', '학습')</t>
+          <t>('활용', '다양')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.00017</v>
+        <v>0.0002</v>
       </c>
       <c r="D69" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>1098</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('학습', '학습자')</t>
+          <t>('교육', '핵심')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.00141</v>
+        <v>0.0002</v>
       </c>
       <c r="D70" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('평가', '평가')</t>
+          <t>('개발', '정보')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.00106</v>
+        <v>0.0002</v>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>881</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('시스템', '연구')</t>
+          <t>('수업', '내용')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.00068</v>
+        <v>0.00021</v>
       </c>
       <c r="D72" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>422</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('교육', '지원')</t>
+          <t>('분석', '교육')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00021</v>
       </c>
       <c r="D73" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('학습자', '다양')</t>
+          <t>('사이버', '학습')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.00195</v>
+        <v>0.00021</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>573</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('교수자', '학습자')</t>
+          <t>('결과', '학습')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.01051</v>
+        <v>0.00021</v>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>1184</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('학습자', '학습')</t>
+          <t>('교사', 'sw')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0024</v>
+        <v>0.00022</v>
       </c>
       <c r="D76" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('교사', '학생')</t>
+          <t>('교육', '체계')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.00419</v>
+        <v>0.00022</v>
       </c>
       <c r="D77" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>1015</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('학습', '가능')</t>
+          <t>('학생', '프로그래밍')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.00174</v>
+        <v>0.00022</v>
       </c>
       <c r="D78" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('학습', '수준')</t>
+          <t>('효과', '활용')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.00025</v>
+        <v>0.00022</v>
       </c>
       <c r="D79" t="n">
         <v>13</v>
@@ -1701,1135 +1701,1135 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>1063</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('프로그래밍', '능력')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.41098</v>
+        <v>0.00022</v>
       </c>
       <c r="D80" t="n">
-        <v>187</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>889</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('교실', '수업')</t>
+          <t>('학습', '구성')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.00235</v>
+        <v>0.00022</v>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('학습', '시스템')</t>
+          <t>('교육', '발전')</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.00442</v>
+        <v>0.00022</v>
       </c>
       <c r="D82" t="n">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('교수', '방법')</t>
+          <t>('변화', '교육')</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.00313</v>
+        <v>0.00022</v>
       </c>
       <c r="D83" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('교육', '활용')</t>
+          <t>('학습', '학습')</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.00082</v>
+        <v>0.00023</v>
       </c>
       <c r="D84" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>886</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('활용', '학생')</t>
+          <t>('학생', '수업')</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.00031</v>
+        <v>0.00023</v>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>1053</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('학생', '흥미')</t>
+          <t>('교육', '과학')</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.00298</v>
+        <v>0.00023</v>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>814</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('디지털', '학습')</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.09878000000000001</v>
+        <v>0.00023</v>
       </c>
       <c r="D87" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('최근', '교육')</t>
+          <t>('능력', '정보')</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.00063</v>
+        <v>0.00024</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('교육', '기관')</t>
+          <t>('과정', '제시')</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.00504</v>
+        <v>0.00024</v>
       </c>
       <c r="D89" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('활용', '연구')</t>
+          <t>('논문', '교육')</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.00056</v>
+        <v>0.00024</v>
       </c>
       <c r="D90" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>1075</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('자료', '활용')</t>
+          <t>('교육', '스크래치')</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.00322</v>
+        <v>0.00025</v>
       </c>
       <c r="D91" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>807</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('교과', '교육')</t>
+          <t>('평가', '연구')</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0017</v>
+        <v>0.00025</v>
       </c>
       <c r="D92" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('교육', '창의')</t>
+          <t>('학습', '수준')</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00025</v>
       </c>
       <c r="D93" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>960</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('교수', '학습')</t>
+          <t>('학생', '적용')</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.02025</v>
+        <v>0.00025</v>
       </c>
       <c r="D94" t="n">
-        <v>391</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>850</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('학습', '방법')</t>
+          <t>('활동', '학습')</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.00706</v>
+        <v>0.00025</v>
       </c>
       <c r="D95" t="n">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>470</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('방법', '제공')</t>
+          <t>('활용', '학습자')</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.00188</v>
+        <v>0.00025</v>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>916</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('학습자', '수준')</t>
+          <t>('학습자', '대상')</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.00354</v>
+        <v>0.00026</v>
       </c>
       <c r="D97" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('학습', '지원')</t>
+          <t>('학교', '컴퓨터')</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.00302</v>
+        <v>0.00026</v>
       </c>
       <c r="D98" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('활용', '학습')</t>
+          <t>('중심', '컴퓨터')</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.00069</v>
+        <v>0.00026</v>
       </c>
       <c r="D99" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('수준', '학습')</t>
+          <t>('과정', '학습자')</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.00092</v>
+        <v>0.00027</v>
       </c>
       <c r="D100" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>746</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('시스템', '제안')</t>
+          <t>('학습', '초등')</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.00057</v>
+        <v>0.00027</v>
       </c>
       <c r="D101" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>946</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('교수', '학습', '방법')</t>
+          <t>('프로그래밍', '프로그래밍')</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.1261</v>
+        <v>0.00027</v>
       </c>
       <c r="D102" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>897</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('모형', '제안')</t>
+          <t>('학습', '기술')</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.00141</v>
+        <v>0.00027</v>
       </c>
       <c r="D103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>739</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('제안', '연구')</t>
+          <t>('사용', '학습자')</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.00086</v>
+        <v>0.00027</v>
       </c>
       <c r="D104" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('연구', '기존')</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.09276</v>
+        <v>0.00027</v>
       </c>
       <c r="D105" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('컴퓨터', '관련')</t>
+          <t>('개발', '활용')</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.00352</v>
+        <v>0.00027</v>
       </c>
       <c r="D106" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>105</v>
+        <v>569</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('교육', '내용')</t>
+          <t>('학습', '연구')</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.00432</v>
+        <v>0.00028</v>
       </c>
       <c r="D107" t="n">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('결과', '교육')</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.1221</v>
+        <v>0.00028</v>
       </c>
       <c r="D108" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('환경', '제공')</t>
+          <t>('교육', '교육')</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.01275</v>
+        <v>0.00028</v>
       </c>
       <c r="D109" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>108</v>
+        <v>565</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('제시', '초등')</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.07729</v>
+        <v>0.00029</v>
       </c>
       <c r="D110" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('가상', '학습')</t>
+          <t>('시스템', '적용')</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.00062</v>
+        <v>0.00029</v>
       </c>
       <c r="D111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>110</v>
+        <v>921</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('시스템', '학습자')</t>
+          <t>('결과', '개발')</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.00139</v>
+        <v>0.0003</v>
       </c>
       <c r="D112" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>111</v>
+        <v>640</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('연구', '학습자')</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.24714</v>
+        <v>0.0003</v>
       </c>
       <c r="D113" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('주도', '학습')</t>
+          <t>('학습', '성취도')</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.01707</v>
+        <v>0.0003</v>
       </c>
       <c r="D114" t="n">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('초등', '수학')</t>
+          <t>('교육', 'sw')</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.00576</v>
+        <v>0.0003</v>
       </c>
       <c r="D115" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('정보', '관리')</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.61047</v>
+        <v>0.0003</v>
       </c>
       <c r="D116" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('능력', '향상')</t>
+          <t>('사용', '연구')</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.02999</v>
+        <v>0.0003</v>
       </c>
       <c r="D117" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>406</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('중심', '교수')</t>
+          <t>('다양', '교육')</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.00227</v>
+        <v>0.00031</v>
       </c>
       <c r="D118" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('학습자', '중심')</t>
+          <t>('활용', '학생')</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.01117</v>
+        <v>0.00031</v>
       </c>
       <c r="D119" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>118</v>
+        <v>295</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('중심', '학습')</t>
+          <t>('영역', '학습')</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0055</v>
+        <v>0.00031</v>
       </c>
       <c r="D120" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('초등', '학년')</t>
+          <t>('필요', '정보')</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.03092</v>
+        <v>0.00031</v>
       </c>
       <c r="D121" t="n">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>120</v>
+        <v>712</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('학습', '요소')</t>
+          <t>('결과', '교사')</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.00183</v>
+        <v>0.00032</v>
       </c>
       <c r="D122" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>121</v>
+        <v>436</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('학습', '모형')</t>
+          <t>('효과', '교육')</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.00809</v>
+        <v>0.00032</v>
       </c>
       <c r="D123" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('교수', '학습', '모형')</t>
+          <t>('설계', '연구')</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.08103</v>
+        <v>0.00032</v>
       </c>
       <c r="D124" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>123</v>
+        <v>1020</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('구현', '시스템')</t>
+          <t>('연구', '프로그래밍')</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.00216</v>
+        <v>0.00033</v>
       </c>
       <c r="D125" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>124</v>
+        <v>999</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('시스템', '정보')</t>
+          <t>('언어', '활용')</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.00034</v>
+        <v>0.00033</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>125</v>
+        <v>753</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('과정', '제시')</t>
+          <t>('교육', '교사')</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.00024</v>
+        <v>0.00033</v>
       </c>
       <c r="D127" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>126</v>
+        <v>550</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('정보', '수집')</t>
+          <t>('연구', '논문')</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.00522</v>
+        <v>0.00034</v>
       </c>
       <c r="D128" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('정보', '활용')</t>
+          <t>('컴퓨터', '정보')</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.00215</v>
+        <v>0.00034</v>
       </c>
       <c r="D129" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('중등', '교육')</t>
+          <t>('시스템', '정보')</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.001</v>
+        <v>0.00034</v>
       </c>
       <c r="D130" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>129</v>
+        <v>996</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('기법', '적용')</t>
+          <t>('통합', '교육')</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.00483</v>
+        <v>0.00035</v>
       </c>
       <c r="D131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('방법', '제시')</t>
+          <t>('과정', '컴퓨터')</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.00402</v>
+        <v>0.00035</v>
       </c>
       <c r="D132" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>131</v>
+        <v>984</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('교육', '현장')</t>
+          <t>('프로그래밍', '도구')</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.00518</v>
+        <v>0.00035</v>
       </c>
       <c r="D133" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>132</v>
+        <v>1029</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('저작', '교육')</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.09515999999999999</v>
+        <v>0.00035</v>
       </c>
       <c r="D134" t="n">
-        <v>226</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>133</v>
+        <v>1188</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('방안', '제안')</t>
+          <t>('교육', '역량')</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.02037</v>
+        <v>0.00036</v>
       </c>
       <c r="D135" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>134</v>
+        <v>395</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('인터넷', '환경')</t>
+          <t>('연구', '분석')</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.00208</v>
+        <v>0.00036</v>
       </c>
       <c r="D136" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('영어', '학습')</t>
+          <t>('활동', '학생')</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.00565</v>
+        <v>0.00036</v>
       </c>
       <c r="D137" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('학습', '컴퓨터')</t>
+          <t>('제공', '학습자')</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.00015</v>
+        <v>0.00037</v>
       </c>
       <c r="D138" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>137</v>
+        <v>914</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('프로그래밍', '과정')</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.08841</v>
+        <v>0.00037</v>
       </c>
       <c r="D139" t="n">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>138</v>
+        <v>1022</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('epl', '교육')</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.0641</v>
+        <v>0.00037</v>
       </c>
       <c r="D140" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>139</v>
+        <v>580</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('정보', '검색')</t>
+          <t>('설문', '분석')</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.00788</v>
+        <v>0.00038</v>
       </c>
       <c r="D141" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>140</v>
+        <v>1170</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('학습', '활용')</t>
+          <t>('학생', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.00017</v>
+        <v>0.00038</v>
       </c>
       <c r="D142" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>141</v>
+        <v>979</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('도구', '개발')</t>
+          <t>('수업', '초등')</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.01096</v>
+        <v>0.00038</v>
       </c>
       <c r="D143" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>142</v>
+        <v>442</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('이용', '학습')</t>
+          <t>('활용', '교사')</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.00071</v>
+        <v>0.00038</v>
       </c>
       <c r="D144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>143</v>
+        <v>447</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('인터넷', '활용')</t>
+          <t>('교육', '수업')</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.00257</v>
+        <v>0.00039</v>
       </c>
       <c r="D145" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>144</v>
+        <v>526</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('효과', '학습')</t>
+          <t>('개발', '목적')</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.00019</v>
+        <v>0.00039</v>
       </c>
       <c r="D146" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>145</v>
+        <v>1069</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('학습', '도구')</t>
+          <t>('개발', '수업')</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.0017</v>
+        <v>0.00039</v>
       </c>
       <c r="D147" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>146</v>
+        <v>1156</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('통신', '기술', '발달')</t>
+          <t>('분석', 'sw')</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.21923</v>
+        <v>0.0004</v>
       </c>
       <c r="D148" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>147</v>
+        <v>869</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('교육', '실시')</t>
+          <t>('과정', '연구')</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.00334</v>
+        <v>0.0004</v>
       </c>
       <c r="D149" t="n">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>148</v>
+        <v>501</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>('체제', '교육')</t>
+          <t>('연구', '자료')</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.00088</v>
+        <v>0.00041</v>
       </c>
       <c r="D150" t="n">
         <v>13</v>
@@ -2837,591 +2837,591 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>149</v>
+        <v>957</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>('과정', '제안')</t>
+          <t>('제시', '교육')</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.00083</v>
+        <v>0.00041</v>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>150</v>
+        <v>423</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('교육', '과정', '제안')</t>
+          <t>('다양', '학습')</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.02465</v>
+        <v>0.00041</v>
       </c>
       <c r="D152" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('학습자', '지식')</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.25685</v>
+        <v>0.00041</v>
       </c>
       <c r="D153" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>('콘텐츠', '설계')</t>
+          <t>('활용', '정보')</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.00061</v>
+        <v>0.00041</v>
       </c>
       <c r="D154" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>153</v>
+        <v>596</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('시스템', '구현')</t>
+          <t>('제안', '교육')</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.00678</v>
+        <v>0.00042</v>
       </c>
       <c r="D155" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>154</v>
+        <v>792</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>('설계', '전략')</t>
+          <t>('방법', '활용')</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.00564</v>
+        <v>0.00042</v>
       </c>
       <c r="D156" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>155</v>
+        <v>528</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>('학습', '과정')</t>
+          <t>('동기', '학습')</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.00161</v>
+        <v>0.00042</v>
       </c>
       <c r="D157" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>156</v>
+        <v>837</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>('학습', '환경')</t>
+          <t>('수업', '분석')</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.00448</v>
+        <v>0.00042</v>
       </c>
       <c r="D158" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>('과정', '학습자')</t>
+          <t>('시스템', '학생')</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.00027</v>
+        <v>0.00042</v>
       </c>
       <c r="D159" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>158</v>
+        <v>894</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>('적용', '학습')</t>
+          <t>('교육', '인식')</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.00017</v>
+        <v>0.00043</v>
       </c>
       <c r="D160" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>159</v>
+        <v>562</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>('학습', '목표')</t>
+          <t>('실험', '연구')</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.00431</v>
+        <v>0.00043</v>
       </c>
       <c r="D161" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>160</v>
+        <v>1190</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>('학습', '내용')</t>
+          <t>('분석', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.00465</v>
+        <v>0.00043</v>
       </c>
       <c r="D162" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>('학습자', '특성')</t>
+          <t>('모델', '연구')</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.00655</v>
+        <v>0.00044</v>
       </c>
       <c r="D163" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>162</v>
+        <v>512</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>('교수', '학습', '과정')</t>
+          <t>('교육', '학생')</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.0274</v>
+        <v>0.00044</v>
       </c>
       <c r="D164" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>('활용', '정보')</t>
+          <t>('분석', '개선')</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.00041</v>
+        <v>0.00044</v>
       </c>
       <c r="D165" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>164</v>
+        <v>733</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>('검색', '시스템')</t>
+          <t>('향상', '결과')</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.00325</v>
+        <v>0.00044</v>
       </c>
       <c r="D166" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>165</v>
+        <v>494</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>('제안', '제안')</t>
+          <t>('연구', '학생')</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.00945</v>
+        <v>0.00045</v>
       </c>
       <c r="D167" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>166</v>
+        <v>507</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>('제안', '방법')</t>
+          <t>('학교', '학생')</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.00167</v>
+        <v>0.00045</v>
       </c>
       <c r="D168" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>167</v>
+        <v>671</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>('프로그래밍', '프로토타입')</t>
+          <t>('실시', '초등')</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.00608</v>
+        <v>0.00045</v>
       </c>
       <c r="D169" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>168</v>
+        <v>396</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>('교원', '정보')</t>
+          <t>('분석', '소프트웨어')</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.00072</v>
+        <v>0.00045</v>
       </c>
       <c r="D170" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>169</v>
+        <v>1101</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>('개발', '정보')</t>
+          <t>('과정', '소프트웨어')</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.0002</v>
+        <v>0.00046</v>
       </c>
       <c r="D171" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>170</v>
+        <v>332</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('비교', '결과')</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.05264</v>
+        <v>0.00046</v>
       </c>
       <c r="D172" t="n">
-        <v>256</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>171</v>
+        <v>486</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>('정보', '처리')</t>
+          <t>('학습자', '정보')</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.00687</v>
+        <v>0.00047</v>
       </c>
       <c r="D173" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>('학습', '활동')</t>
+          <t>('인성', '교육')</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.00499</v>
+        <v>0.00048</v>
       </c>
       <c r="D174" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>173</v>
+        <v>1051</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>('활동', '학생')</t>
+          <t>('개념', '학습')</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.00036</v>
+        <v>0.00048</v>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>174</v>
+        <v>799</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>('교육', '활동')</t>
+          <t>('결과', '예비')</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.00088</v>
+        <v>0.00048</v>
       </c>
       <c r="D176" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>175</v>
+        <v>639</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>('효과', '활용')</t>
+          <t>('중요', '연구')</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.00022</v>
+        <v>0.00048</v>
       </c>
       <c r="D177" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>176</v>
+        <v>516</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>('필요', '정보')</t>
+          <t>('설문', '결과')</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.00031</v>
+        <v>0.00049</v>
       </c>
       <c r="D178" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>177</v>
+        <v>798</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>('정보', '기술')</t>
+          <t>('만족도', '학습')</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.00272</v>
+        <v>0.00049</v>
       </c>
       <c r="D179" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>178</v>
+        <v>654</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>('내용', '선정')</t>
+          <t>('언어', '교육')</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.0346</v>
+        <v>0.0005</v>
       </c>
       <c r="D180" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>179</v>
+        <v>1091</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('제작', '교육')</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.07391</v>
+        <v>0.0005</v>
       </c>
       <c r="D181" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>180</v>
+        <v>618</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>('자료', '개발')</t>
+          <t>('개발', '도구')</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.00565</v>
+        <v>0.0005</v>
       </c>
       <c r="D182" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>181</v>
+        <v>560</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>('능력', '측정')</t>
+          <t>('개발', '과정')</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.00376</v>
+        <v>0.00052</v>
       </c>
       <c r="D183" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>182</v>
+        <v>1086</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>('평가', '도구')</t>
+          <t>('연구', '주제')</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.0146</v>
+        <v>0.00054</v>
       </c>
       <c r="D184" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>183</v>
+        <v>376</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>('교수', '학습', '활동')</t>
+          <t>('활용', '초등')</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.0341</v>
+        <v>0.00054</v>
       </c>
       <c r="D185" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>184</v>
+        <v>704</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('향상', '학습')</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.5291</v>
+        <v>0.00055</v>
       </c>
       <c r="D186" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>185</v>
+        <v>828</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>('활용', '능력', '향상')</t>
+          <t>('과학', '수업')</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.0254</v>
+        <v>0.00055</v>
       </c>
       <c r="D187" t="n">
         <v>12</v>
@@ -3429,31 +3429,31 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>186</v>
+        <v>666</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>('교육', '내용', '선정')</t>
+          <t>('교육', '모델')</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.1919</v>
+        <v>0.00056</v>
       </c>
       <c r="D188" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>187</v>
+        <v>708</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>('평가', '도구', '개발')</t>
+          <t>('개발', '효과')</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.24155</v>
+        <v>0.00056</v>
       </c>
       <c r="D189" t="n">
         <v>16</v>
@@ -3461,527 +3461,527 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>('컴퓨터', '소양')</t>
+          <t>('활용', '연구')</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.01333</v>
+        <v>0.00056</v>
       </c>
       <c r="D190" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>189</v>
+        <v>1139</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>('중심', '컴퓨터')</t>
+          <t>('코딩', '교육')</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.00026</v>
+        <v>0.00057</v>
       </c>
       <c r="D191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>('교육', '방법')</t>
+          <t>('시스템', '제안')</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.00237</v>
+        <v>0.00057</v>
       </c>
       <c r="D192" t="n">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>191</v>
+        <v>610</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>('방향', '제시')</t>
+          <t>('정보', '접근')</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.03616</v>
+        <v>0.00058</v>
       </c>
       <c r="D193" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>192</v>
+        <v>966</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>('독서', '교육')</t>
+          <t>('활용', '역량')</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.00756</v>
+        <v>0.00058</v>
       </c>
       <c r="D194" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>193</v>
+        <v>1153</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>('교육', '교과')</t>
+          <t>('역량', '평가')</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.00104</v>
+        <v>0.00059</v>
       </c>
       <c r="D195" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>194</v>
+        <v>648</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>('인성', '교육')</t>
+          <t>('대상', '연구')</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.00048</v>
+        <v>0.00059</v>
       </c>
       <c r="D196" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>('컴퓨터', '정보')</t>
+          <t>('실험', '적용')</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.00034</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="D197" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>196</v>
+        <v>1125</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>('학습자', '상호')</t>
+          <t>('연구', '소프트웨어')</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.00568</v>
+        <v>0.00061</v>
       </c>
       <c r="D198" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>197</v>
+        <v>706</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('과학', '학습')</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.06221</v>
+        <v>0.00061</v>
       </c>
       <c r="D199" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>('독서', '교육', '시스템')</t>
+          <t>('상황', '학습')</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.03245</v>
+        <v>0.00061</v>
       </c>
       <c r="D200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>('정보', '통신', '기술')</t>
+          <t>('콘텐츠', '설계')</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.32995</v>
+        <v>0.00061</v>
       </c>
       <c r="D201" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>200</v>
+        <v>481</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>('학습자', '상호', '작용')</t>
+          <t>('학습', '상황')</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.24064</v>
+        <v>0.00061</v>
       </c>
       <c r="D202" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>201</v>
+        <v>591</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>('교육', '시스템', '설계')</t>
+          <t>('교육', '평가')</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.01089</v>
+        <v>0.00061</v>
       </c>
       <c r="D203" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>('수업', '설계')</t>
+          <t>('가상', '학습')</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.00762</v>
+        <v>0.00062</v>
       </c>
       <c r="D204" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>('개별', '학습')</t>
+          <t>('학습', '문제')</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.00376</v>
+        <v>0.00062</v>
       </c>
       <c r="D205" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>204</v>
+        <v>725</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>('논문', '교육')</t>
+          <t>('분석', '컴퓨터')</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.00024</v>
+        <v>0.00062</v>
       </c>
       <c r="D206" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>205</v>
+        <v>478</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>('시스템', '적용')</t>
+          <t>('적용', '학생')</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.00029</v>
+        <v>0.00063</v>
       </c>
       <c r="D207" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>206</v>
+        <v>1019</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>('교육', '대학')</t>
+          <t>('어려움', '연구')</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.0028</v>
+        <v>0.00063</v>
       </c>
       <c r="D208" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>('교육', '발전')</t>
+          <t>('최근', '교육')</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.00022</v>
+        <v>0.00063</v>
       </c>
       <c r="D209" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>208</v>
+        <v>537</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('모형', '연구')</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.08175</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="D210" t="n">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>209</v>
+        <v>1077</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>('교사', '정보')</t>
+          <t>('교육', '강조')</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.00079</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="D211" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>210</v>
+        <v>1090</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>('교육', '중요')</t>
+          <t>('초등', '스마트폰')</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.00399</v>
+        <v>0.00065</v>
       </c>
       <c r="D212" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>211</v>
+        <v>620</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>('과정', '교육')</t>
+          <t>('결과', '연구')</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.00013</v>
+        <v>0.00065</v>
       </c>
       <c r="D213" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>212</v>
+        <v>755</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>('대학', '교육')</t>
+          <t>('학습자', '학업')</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.0008</v>
+        <v>0.00065</v>
       </c>
       <c r="D214" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>('실태', '분석')</t>
+          <t>('자료', '제시')</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.01244</v>
+        <v>0.00066</v>
       </c>
       <c r="D215" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>214</v>
+        <v>880</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>('결과', '교육')</t>
+          <t>('적용', '초등')</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.00028</v>
+        <v>0.00066</v>
       </c>
       <c r="D216" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>215</v>
+        <v>692</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>('교육', '과정', '교육')</t>
+          <t>('학교', 'ict')</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.0601</v>
+        <v>0.00067</v>
       </c>
       <c r="D217" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>('협력', '학습')</t>
+          <t>('연구', '연구')</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.00594</v>
+        <v>0.00067</v>
       </c>
       <c r="D218" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>('연구', '연구')</t>
+          <t>('시스템', '연구')</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.00067</v>
+        <v>0.00068</v>
       </c>
       <c r="D219" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>('학습', '시스템', '설계')</t>
+          <t>('활용', '학습')</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.12165</v>
+        <v>0.00069</v>
       </c>
       <c r="D220" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>('기능', '제공')</t>
+          <t>('구현', '초등')</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.00162</v>
+        <v>0.0007</v>
       </c>
       <c r="D221" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>220</v>
+        <v>572</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>('환경', '교육')</t>
+          <t>('온라인', '평가')</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>6e-05</v>
+        <v>0.00071</v>
       </c>
       <c r="D222" t="n">
         <v>11</v>
@@ -3989,783 +3989,783 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>221</v>
+        <v>729</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('시스템', '사용')</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.13164</v>
+        <v>0.00071</v>
       </c>
       <c r="D223" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>('활동', '중심')</t>
+          <t>('이용', '학습')</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.01152</v>
+        <v>0.00071</v>
       </c>
       <c r="D224" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>223</v>
+        <v>360</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교과')</t>
+          <t>('연구', '필요')</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.009350000000000001</v>
+        <v>0.00071</v>
       </c>
       <c r="D225" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>('구성', '요소')</t>
+          <t>('초등', '교육')</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.01096</v>
+        <v>0.00071</v>
       </c>
       <c r="D226" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>('교육', '목표')</t>
+          <t>('교육', '연구')</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.00283</v>
+        <v>0.00071</v>
       </c>
       <c r="D227" t="n">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>226</v>
+        <v>561</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>('학교', '컴퓨터')</t>
+          <t>('개발', '운영')</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.00026</v>
+        <v>0.00072</v>
       </c>
       <c r="D228" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>('연구', '교육')</t>
+          <t>('교원', '정보')</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.00018</v>
+        <v>0.00072</v>
       </c>
       <c r="D229" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>228</v>
+        <v>762</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>('과정', '개발')</t>
+          <t>('연구', '수행')</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.00365</v>
+        <v>0.00072</v>
       </c>
       <c r="D230" t="n">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>229</v>
+        <v>743</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교육', '과정')</t>
+          <t>('우리나라', '초등')</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.01945</v>
+        <v>0.00073</v>
       </c>
       <c r="D231" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>('교육', '과정', '개발')</t>
+          <t>('교육', '학습자')</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.12327</v>
+        <v>0.00074</v>
       </c>
       <c r="D232" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>('사용', '연구')</t>
+          <t>('교육', '컴퓨터')</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.0003</v>
+        <v>0.00074</v>
       </c>
       <c r="D233" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>232</v>
+        <v>399</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>('초등', '영어')</t>
+          <t>('학습', '적용')</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.00506</v>
+        <v>0.00074</v>
       </c>
       <c r="D234" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>('중심', '교육')</t>
+          <t>('정보', '소양')</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.00085</v>
+        <v>0.00075</v>
       </c>
       <c r="D235" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>('학교', '교육')</t>
+          <t>('학생', '학습')</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.00198</v>
+        <v>0.00075</v>
       </c>
       <c r="D236" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>235</v>
+        <v>1154</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>('콘텐츠', '제작')</t>
+          <t>('필요', '인식')</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.03993</v>
+        <v>0.00075</v>
       </c>
       <c r="D237" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>236</v>
+        <v>602</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>('처리', '시스템')</t>
+          <t>('교육', '참여')</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.00153</v>
+        <v>0.00075</v>
       </c>
       <c r="D238" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>237</v>
+        <v>649</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>('활용', '교육')</t>
+          <t>('지역', '초등')</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.00193</v>
+        <v>0.00076</v>
       </c>
       <c r="D239" t="n">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>238</v>
+        <v>461</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>('개발', '시스템')</t>
+          <t>('교육', '게임')</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.00207</v>
+        <v>0.00076</v>
       </c>
       <c r="D240" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>239</v>
+        <v>604</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>('교원', '연수')</t>
+          <t>('교사', '교육')</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.01891</v>
+        <v>0.00077</v>
       </c>
       <c r="D241" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>('연수', '프로그램')</t>
+          <t>('수학', '교육')</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.01644</v>
+        <v>0.00077</v>
       </c>
       <c r="D242" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>241</v>
+        <v>623</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>('분석', '개선')</t>
+          <t>('학생', '문제')</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.00044</v>
+        <v>0.00077</v>
       </c>
       <c r="D243" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>242</v>
+        <v>977</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('교육', '진행')</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.06412</v>
+        <v>0.00078</v>
       </c>
       <c r="D244" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>243</v>
+        <v>838</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>('비교', '분석')</t>
+          <t>('향상', '방안')</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.01675</v>
+        <v>0.00078</v>
       </c>
       <c r="D245" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>244</v>
+        <v>533</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>('문제점', '해결')</t>
+          <t>('교육', '교수')</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.02265</v>
+        <v>0.00078</v>
       </c>
       <c r="D246" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('정보', '공유')</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.10252</v>
+        <v>0.00079</v>
       </c>
       <c r="D247" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>('기술', '활용')</t>
+          <t>('교사', '정보')</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.00594</v>
+        <v>0.00079</v>
       </c>
       <c r="D248" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>247</v>
+        <v>994</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>('연구', '초등')</t>
+          <t>('적용', '수업')</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.0047</v>
+        <v>0.00079</v>
       </c>
       <c r="D249" t="n">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>248</v>
+        <v>794</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>('분석', '정보')</t>
+          <t>('초등', '수준')</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.00087</v>
+        <v>0.0008</v>
       </c>
       <c r="D250" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>('실시', '설문')</t>
+          <t>('대학', '교육')</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.00641</v>
+        <v>0.0008</v>
       </c>
       <c r="D251" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>250</v>
+        <v>727</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('컴퓨터', '수업')</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.1229</v>
+        <v>0.0008</v>
       </c>
       <c r="D252" t="n">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>251</v>
+        <v>829</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>('담당', '교사')</t>
+          <t>('몰입', '학습')</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.03625</v>
+        <v>0.00082</v>
       </c>
       <c r="D253" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>('학습', '경험')</t>
+          <t>('교육', '활용')</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.00331</v>
+        <v>0.00082</v>
       </c>
       <c r="D254" t="n">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>253</v>
+        <v>586</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('영역', '평가')</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.36126</v>
+        <v>0.00083</v>
       </c>
       <c r="D255" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>254</v>
+        <v>898</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>('초등', '교육', '현장')</t>
+          <t>('대상', '적용')</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.10695</v>
+        <v>0.00083</v>
       </c>
       <c r="D256" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>('교육', '교재')</t>
+          <t>('과정', '제안')</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.00107</v>
+        <v>0.00083</v>
       </c>
       <c r="D257" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>256</v>
+        <v>538</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>('교재', '개발')</t>
+          <t>('교사', '수업')</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.01819</v>
+        <v>0.00084</v>
       </c>
       <c r="D258" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>('지식', '사회')</t>
+          <t>('수집', '분석')</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.01012</v>
+        <v>0.00084</v>
       </c>
       <c r="D259" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>('교육', '관심')</t>
+          <t>('지식', '수준')</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.00194</v>
+        <v>0.00084</v>
       </c>
       <c r="D260" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>259</v>
+        <v>864</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('연구', '로봇')</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.05571</v>
+        <v>0.00084</v>
       </c>
       <c r="D261" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>260</v>
+        <v>767</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨터')</t>
+          <t>('유비쿼터스', '학습')</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.00074</v>
+        <v>0.00084</v>
       </c>
       <c r="D262" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>('과정', '컴퓨터')</t>
+          <t>('중심', '교육')</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.00035</v>
+        <v>0.00085</v>
       </c>
       <c r="D263" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>('필요', '논문')</t>
+          <t>('해결', '학습')</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.00423</v>
+        <v>0.00085</v>
       </c>
       <c r="D264" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>('정보', '소양')</t>
+          <t>('제안', '연구')</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.00075</v>
+        <v>0.00086</v>
       </c>
       <c r="D265" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>264</v>
+        <v>888</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>('소양', '능력')</t>
+          <t>('탐구', '학습')</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.02802</v>
+        <v>0.00087</v>
       </c>
       <c r="D266" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨터', '교육')</t>
+          <t>('분석', '정보')</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.01946</v>
+        <v>0.00087</v>
       </c>
       <c r="D267" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>266</v>
+        <v>1143</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>('교육', '과정', '컴퓨터')</t>
+          <t>('결과', 'sw')</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.01233</v>
+        <v>0.00087</v>
       </c>
       <c r="D268" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>('웹기반', '학습')</t>
+          <t>('체제', '교육')</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.00144</v>
+        <v>0.00088</v>
       </c>
       <c r="D269" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>('학습', '자료')</t>
+          <t>('교육', '활동')</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.00464</v>
+        <v>0.00088</v>
       </c>
       <c r="D270" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>269</v>
+        <v>595</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>('개발', '활용')</t>
+          <t>('학습', '참여')</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.00027</v>
+        <v>0.00088</v>
       </c>
       <c r="D271" t="n">
         <v>15</v>
@@ -4773,15 +4773,15 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>270</v>
+        <v>863</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>('학교', '홈페이지')</t>
+          <t>('로봇', '기술')</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.008109999999999999</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="D272" t="n">
         <v>12</v>
@@ -4789,79 +4789,79 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>271</v>
+        <v>890</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>('학습', '능력')</t>
+          <t>('활용', '기대')</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.00267</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="D273" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>272</v>
+        <v>567</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>('해결', '능력')</t>
+          <t>('현장', '활용')</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.00881</v>
+        <v>0.0009</v>
       </c>
       <c r="D274" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>273</v>
+        <v>455</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('설계', '적용')</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.55903</v>
+        <v>0.00091</v>
       </c>
       <c r="D275" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>274</v>
+        <v>445</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>('문제', '해결', '능력')</t>
+          <t>('수업', '학생')</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.22124</v>
+        <v>0.00091</v>
       </c>
       <c r="D276" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>('학습', '평가')</t>
+          <t>('중등', '컴퓨터')</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>4e-05</v>
+        <v>0.00091</v>
       </c>
       <c r="D277" t="n">
         <v>11</v>
@@ -4869,95 +4869,95 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>276</v>
+        <v>770</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>('평가', '시스템')</t>
+          <t>('수행', '연구')</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.00439</v>
+        <v>0.00091</v>
       </c>
       <c r="D278" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>277</v>
+        <v>813</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>('학습', '학습')</t>
+          <t>('개발', '로봇')</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.00023</v>
+        <v>0.00092</v>
       </c>
       <c r="D279" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>('학습', '결과')</t>
+          <t>('수준', '학습')</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>3e-05</v>
+        <v>0.00092</v>
       </c>
       <c r="D280" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>('평가', '결과')</t>
+          <t>('과정', '정보')</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.00451</v>
+        <v>0.00092</v>
       </c>
       <c r="D281" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>('제공', '학습자')</t>
+          <t>('교육', '지원')</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.00037</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="D282" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>281</v>
+        <v>843</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>('학습', '문제')</t>
+          <t>('과정', '초등')</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.00062</v>
+        <v>0.00094</v>
       </c>
       <c r="D283" t="n">
         <v>24</v>
@@ -4965,527 +4965,527 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>282</v>
+        <v>826</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>('학습', '동기')</t>
+          <t>('교육', '경험')</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.01805</v>
+        <v>0.00096</v>
       </c>
       <c r="D284" t="n">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>283</v>
+        <v>920</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('연구', '제시')</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.1433</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="D285" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>284</v>
+        <v>574</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>('과정', '내용')</t>
+          <t>('학생', '수준')</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.00148</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="D286" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>285</v>
+        <v>953</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>('학습', '교육')</t>
+          <t>('교육', '태도')</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.00011</v>
+        <v>0.00098</v>
       </c>
       <c r="D287" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>286</v>
+        <v>909</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>('이해', '수준')</t>
+          <t>('온라인', '교육')</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.00118</v>
+        <v>0.00098</v>
       </c>
       <c r="D288" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>('시스템', '학습')</t>
+          <t>('학습', '시간')</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.00014</v>
+        <v>0.00099</v>
       </c>
       <c r="D289" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>288</v>
+        <v>128</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>('학습', '성취도')</t>
+          <t>('중등', '교육')</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.0003</v>
+        <v>0.001</v>
       </c>
       <c r="D290" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>289</v>
+        <v>810</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>('교육', '과정', '내용')</t>
+          <t>('게임', '학습')</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.07123</v>
+        <v>0.00101</v>
       </c>
       <c r="D291" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>290</v>
+        <v>673</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>('구현', '연구')</t>
+          <t>('초등', '과학')</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.00158</v>
+        <v>0.00102</v>
       </c>
       <c r="D292" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>291</v>
+        <v>1134</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>('설계', '구현', '연구')</t>
+          <t>('교육', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.18182</v>
+        <v>0.00102</v>
       </c>
       <c r="D293" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>292</v>
+        <v>582</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>('교수', '설계')</t>
+          <t>('교육', '초등')</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.00278</v>
+        <v>0.00103</v>
       </c>
       <c r="D294" t="n">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>293</v>
+        <v>973</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>('교육', '학습자')</t>
+          <t>('결과', '로봇')</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.00074</v>
+        <v>0.00104</v>
       </c>
       <c r="D295" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>('연구', '기존')</t>
+          <t>('교육', '교과')</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.00027</v>
+        <v>0.00104</v>
       </c>
       <c r="D296" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>295</v>
+        <v>26</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>('영역', '학습')</t>
+          <t>('교육', '소프트웨어')</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.00031</v>
+        <v>0.00104</v>
       </c>
       <c r="D297" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>296</v>
+        <v>592</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>('수행', '평가')</t>
+          <t>('결과', '학습자')</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.03964</v>
+        <v>0.00104</v>
       </c>
       <c r="D298" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>('모델', '연구')</t>
+          <t>('개발', '교육')</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.00044</v>
+        <v>0.00105</v>
       </c>
       <c r="D299" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>298</v>
+        <v>1085</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>('웹기반', '교육')</t>
+          <t>('시각', '교육')</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.00147</v>
+        <v>0.00106</v>
       </c>
       <c r="D300" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>299</v>
+        <v>1082</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>('방법', '연구')</t>
+          <t>('교수', '지식')</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.00167</v>
+        <v>0.00106</v>
       </c>
       <c r="D301" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>300</v>
+        <v>696</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>('방법', '제안')</t>
+          <t>('분석', '초등')</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.00668</v>
+        <v>0.00106</v>
       </c>
       <c r="D302" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>301</v>
+        <v>69</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>('현장', '적용')</t>
+          <t>('평가', '평가')</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.02172</v>
+        <v>0.00106</v>
       </c>
       <c r="D303" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>('적용', '분석')</t>
+          <t>('초등', 'ict')</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.00019</v>
+        <v>0.00106</v>
       </c>
       <c r="D304" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>('교육', '효과')</t>
+          <t>('교육', '교재')</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.00273</v>
+        <v>0.00107</v>
       </c>
       <c r="D305" t="n">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>304</v>
+        <v>678</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>('시스템', '학생')</t>
+          <t>('수준', '분석')</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.00042</v>
+        <v>0.00107</v>
       </c>
       <c r="D306" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>305</v>
+        <v>377</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>('학생', '학습')</t>
+          <t>('학습', '단계')</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.00075</v>
+        <v>0.00109</v>
       </c>
       <c r="D307" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>306</v>
+        <v>599</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>('결과', '분석')</t>
+          <t>('수업', '효과')</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.00206</v>
+        <v>0.00109</v>
       </c>
       <c r="D308" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>307</v>
+        <v>1071</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>('시간', '공간')</t>
+          <t>('구성', '연구')</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.02372</v>
+        <v>0.0011</v>
       </c>
       <c r="D309" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>308</v>
+        <v>1121</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>('프로젝트', '학습')</t>
+          <t>('학습자', '역량')</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.01249</v>
+        <v>0.00112</v>
       </c>
       <c r="D310" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>309</v>
+        <v>902</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>('해결', '학습')</t>
+          <t>('초등', '로봇')</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.00085</v>
+        <v>0.00112</v>
       </c>
       <c r="D311" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>310</v>
+        <v>655</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>('학습자', '문제')</t>
+          <t>('대부분', '학생')</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.00257</v>
+        <v>0.00112</v>
       </c>
       <c r="D312" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>311</v>
+        <v>505</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('교육', '방안')</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.12751</v>
+        <v>0.00112</v>
       </c>
       <c r="D313" t="n">
-        <v>166</v>
+        <v>27</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>312</v>
+        <v>532</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>('해결력', '신장')</t>
+          <t>('효과', '비교')</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.02259</v>
+        <v>0.00113</v>
       </c>
       <c r="D314" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>313</v>
+        <v>615</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>('문제', '해결', '학습')</t>
+          <t>('연구', '학교')</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.14749</v>
+        <v>0.00113</v>
       </c>
       <c r="D315" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '신장')</t>
+          <t>('교사', '교수')</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.2259</v>
+        <v>0.00113</v>
       </c>
       <c r="D316" t="n">
         <v>16</v>
@@ -5493,719 +5493,719 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>315</v>
+        <v>534</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>('프로젝트', '학습', '시스템')</t>
+          <t>('목적', '연구')</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.02048</v>
+        <v>0.00113</v>
       </c>
       <c r="D317" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>316</v>
+        <v>1059</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>('교과', '내용')</t>
+          <t>('컴퓨팅', '교육')</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.00509</v>
+        <v>0.00114</v>
       </c>
       <c r="D318" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>317</v>
+        <v>775</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>('협동', '학습')</t>
+          <t>('논문', '목적')</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.01833</v>
+        <v>0.00115</v>
       </c>
       <c r="D319" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>318</v>
+        <v>603</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>('개발', '적용')</t>
+          <t>('전략', '개발')</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.01194</v>
+        <v>0.00115</v>
       </c>
       <c r="D320" t="n">
-        <v>121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>('적용', '교육')</t>
+          <t>('기술', '교육')</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3e-05</v>
+        <v>0.00116</v>
       </c>
       <c r="D321" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>('문제', '상황')</t>
+          <t>('관련', '교육')</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.00377</v>
+        <v>0.00116</v>
       </c>
       <c r="D322" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>321</v>
+        <v>650</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>('해결', '과정')</t>
+          <t>('이용', '시간')</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.009350000000000001</v>
+        <v>0.00117</v>
       </c>
       <c r="D323" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>322</v>
+        <v>674</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>('학년', '대상')</t>
+          <t>('조사', '연구')</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.01743</v>
+        <v>0.00117</v>
       </c>
       <c r="D324" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>323</v>
+        <v>541</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>('실험', '적용')</t>
+          <t>('활용', '수준')</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00117</v>
       </c>
       <c r="D325" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>324</v>
+        <v>972</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>('학습', '시스템', '개발')</t>
+          <t>('제작', '활동')</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.15398</v>
+        <v>0.00118</v>
       </c>
       <c r="D326" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>('시스템', '개발', '적용')</t>
+          <t>('이해', '수준')</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.11422</v>
+        <v>0.00118</v>
       </c>
       <c r="D327" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>326</v>
+        <v>1137</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>('학습자', '문제', '해결')</t>
+          <t>('대상', 'sw')</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.0354</v>
+        <v>0.00119</v>
       </c>
       <c r="D328" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>327</v>
+        <v>468</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>('문제', '해결', '과정')</t>
+          <t>('학습', '흥미')</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.31093</v>
+        <v>0.0012</v>
       </c>
       <c r="D329" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>328</v>
+        <v>720</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>('초등', '학년', '대상')</t>
+          <t>('과정', '분석')</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.25401</v>
+        <v>0.0012</v>
       </c>
       <c r="D330" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>329</v>
+        <v>444</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>('자료', '제시')</t>
+          <t>('연구', '개발')</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.00066</v>
+        <v>0.00123</v>
       </c>
       <c r="D331" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>('학생', '컴퓨터')</t>
+          <t>('효과', '연구')</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.002</v>
+        <v>0.00124</v>
       </c>
       <c r="D332" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>('능력', '정보')</t>
+          <t>('초등', '학생')</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.00024</v>
+        <v>0.00125</v>
       </c>
       <c r="D333" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>332</v>
+        <v>1177</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>('비교', '결과')</t>
+          <t>('적용', 'sw')</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.00046</v>
+        <v>0.00125</v>
       </c>
       <c r="D334" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>333</v>
+        <v>1084</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>('수집', '분석')</t>
+          <t>('대상', '수업')</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.00084</v>
+        <v>0.00126</v>
       </c>
       <c r="D335" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>334</v>
+        <v>968</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>('교육', '대학교')</t>
+          <t>('중심', '모형')</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.01099</v>
+        <v>0.00126</v>
       </c>
       <c r="D336" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>335</v>
+        <v>506</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>('교사', '대상')</t>
+          <t>('연구', '정보')</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.01602</v>
+        <v>0.00126</v>
       </c>
       <c r="D337" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>336</v>
+        <v>27</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>('예비', '교사', '대상')</t>
+          <t>('교육', '시스템')</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.09012000000000001</v>
+        <v>0.00127</v>
       </c>
       <c r="D338" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>('설계', '개발')</t>
+          <t>('학습', '프로그램')</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.00349</v>
+        <v>0.00127</v>
       </c>
       <c r="D339" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>338</v>
+        <v>1096</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>('개발', '교육')</t>
+          <t>('초등', '창의')</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.00105</v>
+        <v>0.00127</v>
       </c>
       <c r="D340" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>339</v>
+        <v>570</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>('다양', '정보')</t>
+          <t>('연구', '방법')</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.00019</v>
+        <v>0.00129</v>
       </c>
       <c r="D341" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>340</v>
+        <v>1148</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>('정보', '공유')</t>
+          <t>('초등', 'sw')</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.00079</v>
+        <v>0.00131</v>
       </c>
       <c r="D342" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>341</v>
+        <v>619</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>('정보', '관리')</t>
+          <t>('도구', '사용')</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.0003</v>
+        <v>0.00131</v>
       </c>
       <c r="D343" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>342</v>
+        <v>732</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '개발')</t>
+          <t>('결과', '초등')</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.02086</v>
+        <v>0.00133</v>
       </c>
       <c r="D344" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>343</v>
+        <v>872</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨터')</t>
+          <t>('과정', '개선')</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.00404</v>
+        <v>0.00135</v>
       </c>
       <c r="D345" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>344</v>
+        <v>571</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>('상황', '학습')</t>
+          <t>('수준', '평가')</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.00061</v>
+        <v>0.00135</v>
       </c>
       <c r="D346" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>345</v>
+        <v>613</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>('연구', '목적')</t>
+          <t>('교육', '강화')</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.01644</v>
+        <v>0.00136</v>
       </c>
       <c r="D347" t="n">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>('학습', '시간')</t>
+          <t>('적용', '연구')</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.00099</v>
+        <v>0.00137</v>
       </c>
       <c r="D348" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>347</v>
+        <v>747</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>('학습', '태도')</t>
+          <t>('실시', '학생')</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.00596</v>
+        <v>0.00137</v>
       </c>
       <c r="D349" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>348</v>
+        <v>976</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>('향상', '효과')</t>
+          <t>('연구', '대상')</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.00731</v>
+        <v>0.00138</v>
       </c>
       <c r="D350" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>349</v>
+        <v>544</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>('효과', '검증')</t>
+          <t>('모형', '설계')</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.04449</v>
+        <v>0.00139</v>
       </c>
       <c r="D351" t="n">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>('검증', '연구')</t>
+          <t>('시스템', '학습자')</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.00156</v>
+        <v>0.00139</v>
       </c>
       <c r="D352" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>351</v>
+        <v>811</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>('연구', '결과')</t>
+          <t>('체험', '학습')</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.01012</v>
+        <v>0.0014</v>
       </c>
       <c r="D353" t="n">
-        <v>243</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>352</v>
+        <v>68</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>('결과', '다음')</t>
+          <t>('학습', '학습자')</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.01861</v>
+        <v>0.00141</v>
       </c>
       <c r="D354" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>353</v>
+        <v>101</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨터', '교육')</t>
+          <t>('모형', '제안')</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.11691</v>
+        <v>0.00141</v>
       </c>
       <c r="D355" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>354</v>
+        <v>1192</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>('학습', '능력', '향상')</t>
+          <t>('초등', '인공지능')</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.05128</v>
+        <v>0.00141</v>
       </c>
       <c r="D356" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>355</v>
+        <v>831</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>('검증', '연구', '결과')</t>
+          <t>('보호', '교육')</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.04841</v>
+        <v>0.00141</v>
       </c>
       <c r="D357" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>356</v>
+        <v>601</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>('개발', '컴퓨터')</t>
+          <t>('학생', '인식')</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.00018</v>
+        <v>0.00143</v>
       </c>
       <c r="D358" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>('프로그래밍', '학습')</t>
+          <t>('교수', '시스템')</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.00375</v>
+        <v>0.00143</v>
       </c>
       <c r="D359" t="n">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>358</v>
+        <v>1149</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>('과정', '운영')</t>
+          <t>('sw', '융합')</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.00284</v>
+        <v>0.00143</v>
       </c>
       <c r="D360" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>('활성', '방안')</t>
+          <t>('웹기반', '학습')</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.02614</v>
+        <v>0.00144</v>
       </c>
       <c r="D361" t="n">
         <v>16</v>
@@ -6213,511 +6213,511 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>360</v>
+        <v>495</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>('연구', '필요')</t>
+          <t>('연구', '컴퓨터')</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.00071</v>
+        <v>0.00146</v>
       </c>
       <c r="D362" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>361</v>
+        <v>700</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>('독서', '능력')</t>
+          <t>('교과서', '분석')</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.00404</v>
+        <v>0.00146</v>
       </c>
       <c r="D363" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>362</v>
+        <v>48</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>('학부모', '교사')</t>
+          <t>('내용', '분석')</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.00319</v>
+        <v>0.00146</v>
       </c>
       <c r="D364" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>('수학', '교육')</t>
+          <t>('웹기반', '교육')</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.00077</v>
+        <v>0.00147</v>
       </c>
       <c r="D365" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>364</v>
+        <v>760</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>('활용', '실태')</t>
+          <t>('컴퓨터', '시스템')</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.00793</v>
+        <v>0.00147</v>
       </c>
       <c r="D366" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>('기술', '교육')</t>
+          <t>('과정', '내용')</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.00116</v>
+        <v>0.00148</v>
       </c>
       <c r="D367" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>366</v>
+        <v>529</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>('교사', '교수')</t>
+          <t>('방법', '적용')</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.00113</v>
+        <v>0.00149</v>
       </c>
       <c r="D368" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>367</v>
+        <v>557</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>('실태', '조사')</t>
+          <t>('활용', '교수')</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.02254</v>
+        <v>0.00149</v>
       </c>
       <c r="D369" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>368</v>
+        <v>820</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>('교수', '학습', '자료')</t>
+          <t>('능력', '영향')</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.05202</v>
+        <v>0.00149</v>
       </c>
       <c r="D370" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>369</v>
+        <v>687</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>('교수', '학습', '시스템')</t>
+          <t>('교수', '전략')</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.02713</v>
+        <v>0.00152</v>
       </c>
       <c r="D371" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>370</v>
+        <v>236</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>('영향', '연구')</t>
+          <t>('처리', '시스템')</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.00206</v>
+        <v>0.00153</v>
       </c>
       <c r="D372" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>371</v>
+        <v>693</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>('사회', '변화')</t>
+          <t>('능력', '평가')</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.008529999999999999</v>
+        <v>0.00154</v>
       </c>
       <c r="D373" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>('도형', '영역')</t>
+          <t>('검증', '연구')</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.02332</v>
+        <v>0.00156</v>
       </c>
       <c r="D374" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>373</v>
+        <v>656</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>('교육', '가능')</t>
+          <t>('이용', '프로그래밍')</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.00015</v>
+        <v>0.00156</v>
       </c>
       <c r="D375" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>('지식', '정보')</t>
+          <t>('게임', '활용')</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.00547</v>
+        <v>0.00157</v>
       </c>
       <c r="D376" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>375</v>
+        <v>9</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>('학습', '프로그램')</t>
+          <t>('교육', '자료')</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.00127</v>
+        <v>0.00157</v>
       </c>
       <c r="D377" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>376</v>
+        <v>290</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>('활용', '초등')</t>
+          <t>('구현', '연구')</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.00054</v>
+        <v>0.00158</v>
       </c>
       <c r="D378" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>377</v>
+        <v>583</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>('학습', '단계')</t>
+          <t>('프로그램', '설계')</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.00109</v>
+        <v>0.00158</v>
       </c>
       <c r="D379" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>378</v>
+        <v>1013</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>('도형', '학습')</t>
+          <t>('게임', '프로그래밍')</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.00245</v>
+        <v>0.00158</v>
       </c>
       <c r="D380" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>379</v>
+        <v>970</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>('개발', '프로그램')</t>
+          <t>('초등', '프로그래밍')</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.00225</v>
+        <v>0.0016</v>
       </c>
       <c r="D381" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>380</v>
+        <v>862</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>('능력', '학습')</t>
+          <t>('교육', '로봇')</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.00013</v>
+        <v>0.0016</v>
       </c>
       <c r="D382" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>381</v>
+        <v>155</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>('조절', '학습')</t>
+          <t>('학습', '과정')</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.00386</v>
+        <v>0.00161</v>
       </c>
       <c r="D383" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>382</v>
+        <v>842</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>('결과', '학생')</t>
+          <t>('교육', '프로그래밍')</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.00253</v>
+        <v>0.00161</v>
       </c>
       <c r="D384" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>('교육', '분야')</t>
+          <t>('기능', '제공')</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.00163</v>
+        <v>0.00162</v>
       </c>
       <c r="D385" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>('교육', '적용')</t>
+          <t>('교육', '분야')</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>5e-05</v>
+        <v>0.00163</v>
       </c>
       <c r="D386" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>385</v>
+        <v>611</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>('초등', '학생')</t>
+          <t>('콘텐츠', '활용')</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.00125</v>
+        <v>0.00164</v>
       </c>
       <c r="D387" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>386</v>
+        <v>857</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>('방법', '교육')</t>
+          <t>('블렌디드', '학습')</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>6e-05</v>
+        <v>0.00164</v>
       </c>
       <c r="D388" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>387</v>
+        <v>938</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>('내용', '교육')</t>
+          <t>('교사', '양성')</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00166</v>
       </c>
       <c r="D389" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>388</v>
+        <v>23</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>('과정', '구성')</t>
+          <t>('교육', '정보')</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.00462</v>
+        <v>0.00166</v>
       </c>
       <c r="D390" t="n">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>389</v>
+        <v>519</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>('평가', '기준')</t>
+          <t>('내용', '방법')</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.0217</v>
+        <v>0.00167</v>
       </c>
       <c r="D391" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>('교육', 'sw')</t>
+          <t>('게임', '개발')</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.0003</v>
+        <v>0.00167</v>
       </c>
       <c r="D392" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>391</v>
+        <v>166</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>('평가', '방안')</t>
+          <t>('제안', '방법')</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.00173</v>
+        <v>0.00167</v>
       </c>
       <c r="D393" t="n">
         <v>14</v>
@@ -6725,159 +6725,159 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>('연구', '문제')</t>
+          <t>('방법', '연구')</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.00019</v>
+        <v>0.00167</v>
       </c>
       <c r="D394" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>393</v>
+        <v>491</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>('평가', '준거')</t>
+          <t>('개발', '초등')</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.0234</v>
+        <v>0.00169</v>
       </c>
       <c r="D395" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>394</v>
+        <v>39</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>('관련', '연구')</t>
+          <t>('개발', '연구')</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.00211</v>
+        <v>0.00169</v>
       </c>
       <c r="D396" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>395</v>
+        <v>90</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>('연구', '분석')</t>
+          <t>('교과', '교육')</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.00036</v>
+        <v>0.0017</v>
       </c>
       <c r="D397" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>('분석', '소프트웨어')</t>
+          <t>('학생', '정보')</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.00045</v>
+        <v>0.0017</v>
       </c>
       <c r="D398" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>397</v>
+        <v>145</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('학습', '도구')</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.43846</v>
+        <v>0.0017</v>
       </c>
       <c r="D399" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>398</v>
+        <v>575</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>('교육', '콘텐츠')</t>
+          <t>('진단', '평가')</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.00317</v>
+        <v>0.00172</v>
       </c>
       <c r="D400" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>('학습', '적용')</t>
+          <t>('사용', '실태')</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.00074</v>
+        <v>0.00172</v>
       </c>
       <c r="D401" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>('학습자', '지식')</t>
+          <t>('평가', '방안')</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.00041</v>
+        <v>0.00173</v>
       </c>
       <c r="D402" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>401</v>
+        <v>983</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>('지식', '수준')</t>
+          <t>('중등', '대상')</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.00084</v>
+        <v>0.00173</v>
       </c>
       <c r="D403" t="n">
         <v>11</v>
@@ -6885,15 +6885,15 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>('결과', '토대')</t>
+          <t>('학습', '가능')</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.01786</v>
+        <v>0.00174</v>
       </c>
       <c r="D404" t="n">
         <v>24</v>
@@ -6901,527 +6901,527 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>403</v>
+        <v>513</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>('적용', '연구')</t>
+          <t>('학생', '교사')</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.00137</v>
+        <v>0.00176</v>
       </c>
       <c r="D405" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>404</v>
+        <v>617</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>('기존', '연구')</t>
+          <t>('학습', '객체')</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.00273</v>
+        <v>0.00177</v>
       </c>
       <c r="D406" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>405</v>
+        <v>1165</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>('코스웨어', '개발')</t>
+          <t>('교육', '플랫폼')</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.00473</v>
+        <v>0.00178</v>
       </c>
       <c r="D407" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>406</v>
+        <v>908</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>('다양', '교육')</t>
+          <t>('알고리즘', '학습')</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.00031</v>
+        <v>0.00179</v>
       </c>
       <c r="D408" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>407</v>
+        <v>870</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>('교육', '패러다임')</t>
+          <t>('발견', '학습')</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.00403</v>
+        <v>0.00182</v>
       </c>
       <c r="D409" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>408</v>
+        <v>24</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>('문제', '중심')</t>
+          <t>('교육', '환경')</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.01803</v>
+        <v>0.00182</v>
       </c>
       <c r="D410" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>409</v>
+        <v>939</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>('특성', '고려')</t>
+          <t>('과정', '설계')</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.01465</v>
+        <v>0.00183</v>
       </c>
       <c r="D411" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>410</v>
+        <v>785</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>('ict', '교육')</t>
+          <t>('제시', '연구')</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.00209</v>
+        <v>0.00183</v>
       </c>
       <c r="D412" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>411</v>
+        <v>120</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>('프로그래밍', '교육')</t>
+          <t>('학습', '요소')</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.00594</v>
+        <v>0.00183</v>
       </c>
       <c r="D413" t="n">
-        <v>265</v>
+        <v>27</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>412</v>
+        <v>56</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('연구', '제안')</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.1245</v>
+        <v>0.00184</v>
       </c>
       <c r="D414" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>413</v>
+        <v>1035</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>('컴퓨터', '프로그래밍')</t>
+          <t>('실재감', '학습')</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.0023</v>
+        <v>0.00186</v>
       </c>
       <c r="D415" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>414</v>
+        <v>859</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>('제안', '시스템')</t>
+          <t>('확인', '연구')</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.00229</v>
+        <v>0.00187</v>
       </c>
       <c r="D416" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>415</v>
+        <v>94</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>('학습', '효과')</t>
+          <t>('방법', '제공')</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.00306</v>
+        <v>0.00188</v>
       </c>
       <c r="D417" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>416</v>
+        <v>237</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>('효과', '기대')</t>
+          <t>('활용', '교육')</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.00387</v>
+        <v>0.00193</v>
       </c>
       <c r="D418" t="n">
-        <v>15</v>
+        <v>156</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>('프로그램', '개발')</t>
+          <t>('교육', '관련')</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.01856</v>
+        <v>0.00193</v>
       </c>
       <c r="D419" t="n">
-        <v>134</v>
+        <v>40</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>('이론', '적용')</t>
+          <t>('교육', '관심')</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.0023</v>
+        <v>0.00194</v>
       </c>
       <c r="D420" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>('소양', '교육')</t>
+          <t>('학습자', '다양')</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.0034</v>
+        <v>0.00195</v>
       </c>
       <c r="D421" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>('과정', '정보')</t>
+          <t>('사고력', '문제')</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.00092</v>
+        <v>0.00196</v>
       </c>
       <c r="D422" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>421</v>
+        <v>1036</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>('교육', '체계')</t>
+          <t>('학습', '모델')</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.00022</v>
+        <v>0.00197</v>
       </c>
       <c r="D423" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>422</v>
+        <v>779</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>('분석', '교육')</t>
+          <t>('능력', '수준')</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.00021</v>
+        <v>0.00198</v>
       </c>
       <c r="D424" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>423</v>
+        <v>234</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>('다양', '학습')</t>
+          <t>('학교', '교육')</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.00041</v>
+        <v>0.00198</v>
       </c>
       <c r="D425" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>424</v>
+        <v>858</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>('교육', '과정', '정보')</t>
+          <t>('유의미', '영향')</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.0601</v>
+        <v>0.00199</v>
       </c>
       <c r="D426" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>425</v>
+        <v>788</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>('학습자', '흥미')</t>
+          <t>('교사', '전문')</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.0066</v>
+        <v>0.002</v>
       </c>
       <c r="D427" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>('ict', '활용')</t>
+          <t>('학생', '컴퓨터')</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.02496</v>
+        <v>0.002</v>
       </c>
       <c r="D428" t="n">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>427</v>
+        <v>913</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>('도구', '활용')</t>
+          <t>('로봇', '제작')</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.00701</v>
+        <v>0.00201</v>
       </c>
       <c r="D429" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>('목표', '달성')</t>
+          <t>('학생', '인터넷')</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.04498</v>
+        <v>0.00204</v>
       </c>
       <c r="D430" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>429</v>
+        <v>306</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>('ict', '활용', '교육')</t>
+          <t>('결과', '분석')</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.11416</v>
+        <v>0.00206</v>
       </c>
       <c r="D431" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>('콘텐츠', '개발')</t>
+          <t>('영향', '연구')</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.00206</v>
       </c>
       <c r="D432" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>431</v>
+        <v>238</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>('교육', '콘텐츠', '개발')</t>
+          <t>('개발', '시스템')</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.17227</v>
+        <v>0.00207</v>
       </c>
       <c r="D433" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>432</v>
+        <v>134</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>('교육', '자료', '개발')</t>
+          <t>('인터넷', '환경')</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.31797</v>
+        <v>0.00208</v>
       </c>
       <c r="D434" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('ict', '교육')</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.95109</v>
+        <v>0.00209</v>
       </c>
       <c r="D435" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>434</v>
+        <v>839</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>('인터넷', '게임')</t>
+          <t>('초등', '논리')</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.00367</v>
+        <v>0.0021</v>
       </c>
       <c r="D436" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>435</v>
+        <v>628</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>('게임', '활용')</t>
+          <t>('목적', '초등')</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.00157</v>
+        <v>0.0021</v>
       </c>
       <c r="D437" t="n">
         <v>17</v>
@@ -7429,15 +7429,15 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>('효과', '교육')</t>
+          <t>('관련', '연구')</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.00032</v>
+        <v>0.00211</v>
       </c>
       <c r="D438" t="n">
         <v>24</v>
@@ -7445,367 +7445,367 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>437</v>
+        <v>742</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>('사용', '실태')</t>
+          <t>('비교', '연구')</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.00172</v>
+        <v>0.00212</v>
       </c>
       <c r="D439" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>438</v>
+        <v>41</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>('게임', '개발')</t>
+          <t>('컴퓨터', '사용')</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.00167</v>
+        <v>0.00213</v>
       </c>
       <c r="D440" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>439</v>
+        <v>549</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>('초등', 'ict')</t>
+          <t>('학생', 'ict')</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.00106</v>
+        <v>0.00213</v>
       </c>
       <c r="D441" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>('창의', '문제')</t>
+          <t>('정보', '활용')</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.02823</v>
+        <v>0.00215</v>
       </c>
       <c r="D442" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>441</v>
+        <v>123</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>('수업', '시간')</t>
+          <t>('구현', '시스템')</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.00572</v>
+        <v>0.00216</v>
       </c>
       <c r="D443" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>442</v>
+        <v>884</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>('활용', '교사')</t>
+          <t>('ict', '능력')</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.00038</v>
+        <v>0.00217</v>
       </c>
       <c r="D444" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>443</v>
+        <v>924</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>('창의', '문제', '해결력')</t>
+          <t>('대학', '컴퓨터')</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.29284</v>
+        <v>0.0022</v>
       </c>
       <c r="D445" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>444</v>
+        <v>941</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>('연구', '개발')</t>
+          <t>('과학', '언플러그드')</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.00123</v>
+        <v>0.00222</v>
       </c>
       <c r="D446" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>('수업', '학생')</t>
+          <t>('자료', '분석')</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.00091</v>
+        <v>0.00223</v>
       </c>
       <c r="D447" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>446</v>
+        <v>705</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>('학생', '교육')</t>
+          <t>('원리', '학습')</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>6e-05</v>
+        <v>0.00224</v>
       </c>
       <c r="D448" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>('교육', '수업')</t>
+          <t>('개발', '프로그램')</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.00039</v>
+        <v>0.00225</v>
       </c>
       <c r="D449" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>('논문', '초등')</t>
+          <t>('정보', '교육')</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.00426</v>
+        <v>0.00227</v>
       </c>
       <c r="D450" t="n">
-        <v>38</v>
+        <v>192</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>449</v>
+        <v>116</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>('초등', '중등')</t>
+          <t>('중심', '교수')</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.03275</v>
+        <v>0.00227</v>
       </c>
       <c r="D451" t="n">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>('교육', '개선')</t>
+          <t>('제안', '시스템')</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.00013</v>
+        <v>0.00229</v>
       </c>
       <c r="D452" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>451</v>
+        <v>748</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>('교육', '지식')</t>
+          <t>('사례', '연구')</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0023</v>
       </c>
       <c r="D453" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>('교육', '필요')</t>
+          <t>('이론', '적용')</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.00287</v>
+        <v>0.0023</v>
       </c>
       <c r="D454" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>453</v>
+        <v>686</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('도출', '연구')</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.43492</v>
+        <v>0.0023</v>
       </c>
       <c r="D455" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>('상담', '시스템')</t>
+          <t>('컴퓨터', '프로그래밍')</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.0138</v>
+        <v>0.0023</v>
       </c>
       <c r="D456" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>455</v>
+        <v>806</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>('설계', '적용')</t>
+          <t>('인식', '분석')</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.00091</v>
+        <v>0.00232</v>
       </c>
       <c r="D457" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>('사이버', '상담')</t>
+          <t>('교실', '수업')</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.04233</v>
+        <v>0.00235</v>
       </c>
       <c r="D458" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>457</v>
+        <v>689</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('분석', '분석')</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.09676</v>
+        <v>0.00236</v>
       </c>
       <c r="D459" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>458</v>
+        <v>190</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>('적용', '결과')</t>
+          <t>('교육', '방법')</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.00237</v>
       </c>
       <c r="D460" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>459</v>
+        <v>597</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('활동', '지원')</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.7672600000000001</v>
+        <v>0.00239</v>
       </c>
       <c r="D461" t="n">
         <v>13</v>
@@ -7813,367 +7813,367 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>460</v>
+        <v>1206</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>('온라인', '학습')</t>
+          <t>('sw', '영재')</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.00405</v>
+        <v>0.0024</v>
       </c>
       <c r="D462" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>461</v>
+        <v>74</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>('교육', '게임')</t>
+          <t>('학습자', '학습')</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.00076</v>
+        <v>0.0024</v>
       </c>
       <c r="D463" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>462</v>
+        <v>1078</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>('향상', '도움')</t>
+          <t>('현직', '초등')</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.00705</v>
+        <v>0.00242</v>
       </c>
       <c r="D464" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>463</v>
+        <v>660</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>('온라인', '게임')</t>
+          <t>('프로그래밍', '교육', '과정')</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.01105</v>
+        <v>0.00242</v>
       </c>
       <c r="D465" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>464</v>
+        <v>378</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('도형', '학습')</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.21225</v>
+        <v>0.00245</v>
       </c>
       <c r="D466" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>465</v>
+        <v>65</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>('신장', '효과')</t>
+          <t>('다양', '형태')</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0.00568</v>
+        <v>0.0025</v>
       </c>
       <c r="D467" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>('사이버', '학습')</t>
+          <t>('알고리즘', '교육')</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.00021</v>
+        <v>0.00251</v>
       </c>
       <c r="D468" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>467</v>
+        <v>635</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>('분석', '학습')</t>
+          <t>('개발', '개발')</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00252</v>
       </c>
       <c r="D469" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>468</v>
+        <v>851</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>('학습', '흥미')</t>
+          <t>('교사', '보조')</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.0012</v>
+        <v>0.00252</v>
       </c>
       <c r="D470" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('결과', '학생')</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.09563000000000001</v>
+        <v>0.00253</v>
       </c>
       <c r="D471" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>470</v>
+        <v>899</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>('활용', '학습자')</t>
+          <t>('프로그램', '초등')</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.00025</v>
+        <v>0.00254</v>
       </c>
       <c r="D472" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>471</v>
+        <v>310</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>('자료', '분석')</t>
+          <t>('학습자', '문제')</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.00223</v>
+        <v>0.00257</v>
       </c>
       <c r="D473" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>472</v>
+        <v>143</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>('교육', '프로그램')</t>
+          <t>('인터넷', '활용')</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.0076</v>
+        <v>0.00257</v>
       </c>
       <c r="D474" t="n">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>('시스템', '교육')</t>
+          <t>('활용', '프로그래밍')</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.00011</v>
+        <v>0.00258</v>
       </c>
       <c r="D475" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>('교육', '활성')</t>
+          <t>('초등', '현장')</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.00564</v>
+        <v>0.00258</v>
       </c>
       <c r="D476" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>475</v>
+        <v>4</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>('교육', '관련')</t>
+          <t>('환경', '구축')</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.00193</v>
+        <v>0.00264</v>
       </c>
       <c r="D477" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>476</v>
+        <v>271</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>('교육', '지원', '시스템')</t>
+          <t>('학습', '능력')</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.15613</v>
+        <v>0.00267</v>
       </c>
       <c r="D478" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>477</v>
+        <v>1178</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '개발')</t>
+          <t>('초등', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0.2395</v>
+        <v>0.00267</v>
       </c>
       <c r="D479" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>478</v>
+        <v>61</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>('적용', '학생')</t>
+          <t>('구현', '논문')</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.00063</v>
+        <v>0.00271</v>
       </c>
       <c r="D480" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>479</v>
+        <v>832</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>('적극', '참여')</t>
+          <t>('사례', '분석')</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.02228</v>
+        <v>0.00272</v>
       </c>
       <c r="D481" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>480</v>
+        <v>676</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>('적용', '효과')</t>
+          <t>('실시', '연구')</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0.00375</v>
+        <v>0.00272</v>
       </c>
       <c r="D482" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>481</v>
+        <v>177</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>('학습', '상황')</t>
+          <t>('정보', '기술')</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.00061</v>
+        <v>0.00272</v>
       </c>
       <c r="D483" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>482</v>
+        <v>404</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>('개념', '이해')</t>
+          <t>('기존', '연구')</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0.02269</v>
+        <v>0.00273</v>
       </c>
       <c r="D484" t="n">
         <v>20</v>
@@ -8181,274 +8181,274 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>483</v>
+        <v>303</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>('적용', '가능')</t>
+          <t>('교육', '효과')</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0.01051</v>
+        <v>0.00273</v>
       </c>
       <c r="D485" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>484</v>
+        <v>721</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>('프로젝트', '수행')</t>
+          <t>('교육', '방향')</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0.00456</v>
+        <v>0.00275</v>
       </c>
       <c r="D486" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>485</v>
+        <v>292</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>('전통', '수업')</t>
+          <t>('교수', '설계')</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0.01522</v>
+        <v>0.00278</v>
       </c>
       <c r="D487" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>486</v>
+        <v>206</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>('학습자', '정보')</t>
+          <t>('교육', '대학')</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0.00047</v>
+        <v>0.0028</v>
       </c>
       <c r="D488" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>487</v>
+        <v>32</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('컴퓨터', '활용')</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0.30928</v>
+        <v>0.00283</v>
       </c>
       <c r="D489" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>488</v>
+        <v>225</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>('긍정', '효과')</t>
+          <t>('교육', '목표')</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0.01413</v>
+        <v>0.00283</v>
       </c>
       <c r="D490" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>489</v>
+        <v>358</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>('감상', '학습')</t>
+          <t>('과정', '운영')</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0.0041</v>
+        <v>0.00284</v>
       </c>
       <c r="D491" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>490</v>
+        <v>1104</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('영역', '성취')</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0.07174999999999999</v>
+        <v>0.00284</v>
       </c>
       <c r="D492" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>491</v>
+        <v>711</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>('개발', '초등')</t>
+          <t>('교수', '학습자')</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0.00169</v>
+        <v>0.00286</v>
       </c>
       <c r="D493" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>492</v>
+        <v>871</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>('개발', '적용', '효과')</t>
+          <t>('사고', '문제')</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0.04723</v>
+        <v>0.00287</v>
       </c>
       <c r="D494" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>('학생', '정보')</t>
+          <t>('교육', '필요')</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0.0017</v>
+        <v>0.00287</v>
       </c>
       <c r="D495" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>('연구', '학생')</t>
+          <t>('정보', '역기능')</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0.00045</v>
+        <v>0.00288</v>
       </c>
       <c r="D496" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>495</v>
+        <v>58</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>('연구', '컴퓨터')</t>
+          <t>('분석', '연구')</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0.00146</v>
+        <v>0.00292</v>
       </c>
       <c r="D497" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>496</v>
+        <v>691</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>('학습', '전략')</t>
+          <t>('교사', 'ict')</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0.00831</v>
+        <v>0.00292</v>
       </c>
       <c r="D498" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>497</v>
+        <v>703</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>('알고리즘', '교육')</t>
+          <t>('과학', '교육')</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0.00251</v>
+        <v>0.00293</v>
       </c>
       <c r="D499" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>498</v>
+        <v>1001</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>('자료', '구조')</t>
+          <t>('프로그래밍', '교육', '효과')</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.00997</v>
+        <v>0.00293</v>
       </c>
       <c r="D500" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>499</v>
+        <v>754</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>('활용', '프로그래밍')</t>
+          <t>('학생', '학업')</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0.00258</v>
+        <v>0.00294</v>
       </c>
       <c r="D501" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -453,175 +453,175 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>736</v>
+        <v>1012</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('학습', '정보')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2e-05</v>
+        <v>1.77778</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>319</v>
+        <v>1093</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('적용', '교육')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3e-05</v>
+        <v>1.53846</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>278</v>
+        <v>1088</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('학습', '결과')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3e-05</v>
+        <v>1.5083</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>759</v>
+        <v>917</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('프로그램', '교육')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4e-05</v>
+        <v>1.11111</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>275</v>
+        <v>719</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('학습', '평가')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4e-05</v>
+        <v>1.02975</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>384</v>
+        <v>1187</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('교육', '적용')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5e-05</v>
+        <v>0.9868400000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>446</v>
+        <v>1195</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('학생', '교육')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6e-05</v>
+        <v>0.9539</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('방법', '교육')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6e-05</v>
+        <v>0.95109</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>699</v>
+        <v>1044</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('교육', '도구')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6e-05</v>
+        <v>0.8547</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>728</v>
+        <v>998</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('교육', 'ict')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6e-05</v>
+        <v>0.84056</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>220</v>
+        <v>856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('환경', '교육')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6e-05</v>
+        <v>0.82645</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
@@ -629,207 +629,207 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>91</v>
+        <v>527</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('교육', '창의')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.80087</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('교육', '지식')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.7672600000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>598</v>
+        <v>1164</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('시스템', '활용')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.75758</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>387</v>
+        <v>1047</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('내용', '교육')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.73099</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>885</v>
+        <v>1004</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('연구', '내용')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.68807</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>467</v>
+        <v>956</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('분석', '학습')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.6651899999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>786</v>
+        <v>525</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('분석', '평가')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.64103</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>621</v>
+        <v>556</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('연구', '학습')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.625</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>681</v>
+        <v>1048</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('교육', '학교')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001</v>
+        <v>0.61538</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>789</v>
+        <v>114</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('필요', '교육')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001</v>
+        <v>0.61047</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>812</v>
+        <v>522</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('분석', '로봇')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.00011</v>
+        <v>0.60494</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>473</v>
+        <v>954</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('시스템', '교육')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.00011</v>
+        <v>0.59524</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1176</v>
+        <v>1203</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('사고력', '연구')</t>
+          <t>('대응', '표본', '검정')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.00011</v>
+        <v>0.59524</v>
       </c>
       <c r="D25" t="n">
         <v>11</v>
@@ -837,159 +837,159 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>735</v>
+        <v>614</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('방법', '학습')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.00011</v>
+        <v>0.5791500000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>594</v>
+        <v>38</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('개발', '학습')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.00011</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>285</v>
+        <v>718</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('학습', '교육')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.00011</v>
+        <v>0.56391</v>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>932</v>
+        <v>273</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('교육', '변화')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.00011</v>
+        <v>0.55903</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>662</v>
+        <v>1111</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('프로그램', '활용')</t>
+          <t>('융합', '활동', '영역')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.00012</v>
+        <v>0.53476</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>661</v>
+        <v>184</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('교과', '학습')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.00012</v>
+        <v>0.5291</v>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>518</v>
+        <v>931</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('대상', '정보')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00013</v>
+        <v>0.50561</v>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>608</v>
+        <v>804</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('개발', '교수')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.00013</v>
+        <v>0.47795</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>211</v>
+        <v>1120</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('과정', '교육')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.00013</v>
+        <v>0.47293</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>380</v>
+        <v>833</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('능력', '학습')</t>
+          <t>('정보', '보호', '교육')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.00013</v>
+        <v>0.45249</v>
       </c>
       <c r="D35" t="n">
         <v>12</v>
@@ -997,127 +997,127 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>726</v>
+        <v>1112</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('초등', '사용')</t>
+          <t>('성취', '기준', '교수')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.00013</v>
+        <v>0.45045</v>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>450</v>
+        <v>1009</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('교육', '개선')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.00013</v>
+        <v>0.44379</v>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>713</v>
+        <v>397</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('초등', '학습')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.00014</v>
+        <v>0.43846</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>626</v>
+        <v>453</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('인식', '연구')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.00014</v>
+        <v>0.43492</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>287</v>
+        <v>1205</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('시스템', '학습')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.00014</v>
+        <v>0.43048</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>577</v>
+        <v>672</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('수준', '교육')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.00015</v>
+        <v>0.41667</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('교육', '가능')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.00015</v>
+        <v>0.41098</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>657</v>
+        <v>1211</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('적용', '프로그래밍')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.00015</v>
+        <v>0.40486</v>
       </c>
       <c r="D43" t="n">
         <v>11</v>
@@ -1125,207 +1125,207 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1189</v>
+        <v>652</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('개발', 'sw')</t>
+          <t>('학년', '학생', '대상')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00015</v>
+        <v>0.40404</v>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1089</v>
+        <v>955</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('실시', '교육')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.00015</v>
+        <v>0.39753</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>136</v>
+        <v>658</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('학습', '컴퓨터')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.00015</v>
+        <v>0.38919</v>
       </c>
       <c r="D46" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>772</v>
+        <v>1023</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('제안', '초등')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.00016</v>
+        <v>0.38647</v>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1014</v>
+        <v>54</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('영향', '초등')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.00016</v>
+        <v>0.38373</v>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>609</v>
+        <v>1106</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('수업', '활용')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.00016</v>
+        <v>0.37037</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>961</v>
+        <v>683</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('적용', '정보')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.00016</v>
+        <v>0.37037</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>663</v>
+        <v>524</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('교육', '문제')</t>
+          <t>('대상', '설문', '조사')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.00016</v>
+        <v>0.36376</v>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>763</v>
+        <v>253</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('대상', '교육')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.00017</v>
+        <v>0.36126</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>740</v>
+        <v>521</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('적용', '학습자')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.00017</v>
+        <v>0.35446</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>67</v>
+        <v>1105</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('내용', '학습')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.00017</v>
+        <v>0.33436</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('적용', '학습')</t>
+          <t>('정보', '통신', '기술')</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.00017</v>
+        <v>0.32995</v>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>140</v>
+        <v>1172</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('학습', '활용')</t>
+          <t>('피지컬', '컴퓨팅', '교육')</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.00017</v>
+        <v>0.32895</v>
       </c>
       <c r="D56" t="n">
         <v>18</v>
@@ -1333,207 +1333,207 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>227</v>
+        <v>903</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('연구', '교육')</t>
+          <t>('문제', '해결력', '향상')</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.00018</v>
+        <v>0.32859</v>
       </c>
       <c r="D57" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>854</v>
+        <v>651</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('효과', '로봇')</t>
+          <t>('초등', '학년', '학생')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.00018</v>
+        <v>0.3241</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>356</v>
+        <v>1194</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('개발', '컴퓨터')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.00018</v>
+        <v>0.32318</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>749</v>
+        <v>432</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('학습', '학생')</t>
+          <t>('교육', '자료', '개발')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.00019</v>
+        <v>0.31797</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>991</v>
+        <v>895</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('초등', '알고리즘')</t>
+          <t>('컴퓨터', '과학', '교육')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.00019</v>
+        <v>0.31612</v>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('다양', '정보')</t>
+          <t>('문제', '해결', '과정')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.00019</v>
+        <v>0.31093</v>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>302</v>
+        <v>487</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('적용', '분석')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.00019</v>
+        <v>0.30928</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>144</v>
+        <v>986</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('효과', '학습')</t>
+          <t>('학습', '동기', '학업')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.00019</v>
+        <v>0.29455</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>942</v>
+        <v>1201</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('교육', '언플러그드')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.00019</v>
+        <v>0.29424</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>547</v>
+        <v>443</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('교육', '학습')</t>
+          <t>('창의', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.00019</v>
+        <v>0.29284</v>
       </c>
       <c r="D66" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>893</v>
+        <v>545</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('영역', '교육')</t>
+          <t>('학습', '모형', '개발')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.00019</v>
+        <v>0.2902</v>
       </c>
       <c r="D67" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>392</v>
+        <v>1018</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('연구', '문제')</t>
+          <t>('결과', '실험', '집단')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.00019</v>
+        <v>0.28011</v>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>633</v>
+        <v>1175</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('활용', '다양')</t>
+          <t>('ict', '리터러시', '수준')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.0002</v>
+        <v>0.26738</v>
       </c>
       <c r="D69" t="n">
         <v>11</v>
@@ -1541,1071 +1541,1071 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1098</v>
+        <v>1042</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('교육', '핵심')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0002</v>
+        <v>0.26132</v>
       </c>
       <c r="D70" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('개발', '정보')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0002</v>
+        <v>0.25685</v>
       </c>
       <c r="D71" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>881</v>
+        <v>1200</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('수업', '내용')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.00021</v>
+        <v>0.25641</v>
       </c>
       <c r="D72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>422</v>
+        <v>910</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('분석', '교육')</t>
+          <t>('교사', '대상', '설문')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.00021</v>
+        <v>0.25585</v>
       </c>
       <c r="D73" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>466</v>
+        <v>328</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('사이버', '학습')</t>
+          <t>('초등', '학년', '대상')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.00021</v>
+        <v>0.25401</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>573</v>
+        <v>1207</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('결과', '학습')</t>
+          <t>('협력', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.00021</v>
+        <v>0.25365</v>
       </c>
       <c r="D75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1184</v>
+        <v>690</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('교사', 'sw')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.00022</v>
+        <v>0.25231</v>
       </c>
       <c r="D76" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>421</v>
+        <v>1128</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('교육', '체계')</t>
+          <t>('초등', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.00022</v>
+        <v>0.25019</v>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1015</v>
+        <v>111</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('학생', '프로그래밍')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.00022</v>
+        <v>0.24714</v>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>175</v>
+        <v>934</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('효과', '활용')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.00022</v>
+        <v>0.24691</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1063</v>
+        <v>187</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('프로그래밍', '능력')</t>
+          <t>('평가', '도구', '개발')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.00022</v>
+        <v>0.24155</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>889</v>
+        <v>200</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('학습', '구성')</t>
+          <t>('학습자', '상호', '작용')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.00022</v>
+        <v>0.24064</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('교육', '발전')</t>
+          <t>('교육', '프로그램', '개발')</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.00022</v>
+        <v>0.2395</v>
       </c>
       <c r="D82" t="n">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>25</v>
+        <v>860</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('변화', '교육')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.00022</v>
+        <v>0.23742</v>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>277</v>
+        <v>819</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('학습', '학습')</t>
+          <t>('컴퓨터', '게임', '중독')</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.00023</v>
+        <v>0.23188</v>
       </c>
       <c r="D84" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>886</v>
+        <v>314</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('학생', '수업')</t>
+          <t>('문제', '해결력', '신장')</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.00023</v>
+        <v>0.2259</v>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1053</v>
+        <v>882</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('교육', '과학')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.00023</v>
+        <v>0.22222</v>
       </c>
       <c r="D86" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>814</v>
+        <v>274</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('디지털', '학습')</t>
+          <t>('문제', '해결', '능력')</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.00023</v>
+        <v>0.22124</v>
       </c>
       <c r="D87" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('능력', '정보')</t>
+          <t>('통신', '기술', '발달')</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.00024</v>
+        <v>0.21923</v>
       </c>
       <c r="D88" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>125</v>
+        <v>682</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('과정', '제시')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.00024</v>
+        <v>0.21684</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('논문', '교육')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.00024</v>
+        <v>0.21225</v>
       </c>
       <c r="D90" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1075</v>
+        <v>531</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('교육', '스크래치')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.00025</v>
+        <v>0.21008</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('평가', '연구')</t>
+          <t>('초등', '교사', '대상')</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.00025</v>
+        <v>0.20559</v>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>77</v>
+        <v>1182</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('학습', '수준')</t>
+          <t>('초등', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.00025</v>
+        <v>0.19953</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>960</v>
+        <v>1144</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('학생', '적용')</t>
+          <t>('활용', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.00025</v>
+        <v>0.19408</v>
       </c>
       <c r="D94" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>850</v>
+        <v>186</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('활동', '학습')</t>
+          <t>('교육', '내용', '선정')</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.00025</v>
+        <v>0.1919</v>
       </c>
       <c r="D95" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>470</v>
+        <v>1097</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('활용', '학습자')</t>
+          <t>('교육', '프로그램', '초등')</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.00025</v>
+        <v>0.18895</v>
       </c>
       <c r="D96" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('학습자', '대상')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.00026</v>
+        <v>0.18543</v>
       </c>
       <c r="D97" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>226</v>
+        <v>722</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('학교', '컴퓨터')</t>
+          <t>('컴퓨터', '교과', '교육')</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.00026</v>
+        <v>0.18365</v>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('중심', '컴퓨터')</t>
+          <t>('설계', '구현', '연구')</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.00026</v>
+        <v>0.18182</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>157</v>
+        <v>503</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('과정', '학습자')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.00027</v>
+        <v>0.17942</v>
       </c>
       <c r="D100" t="n">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>746</v>
+        <v>1181</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('학습', '초등')</t>
+          <t>('교육', '초등', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.00027</v>
+        <v>0.17724</v>
       </c>
       <c r="D101" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>946</v>
+        <v>1108</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('프로그래밍', '프로그래밍')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.00027</v>
+        <v>0.17631</v>
       </c>
       <c r="D102" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>897</v>
+        <v>801</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('학습', '기술')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.00027</v>
+        <v>0.17544</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>739</v>
+        <v>431</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('사용', '학습자')</t>
+          <t>('교육', '콘텐츠', '개발')</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.00027</v>
+        <v>0.17227</v>
       </c>
       <c r="D104" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>294</v>
+        <v>1169</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('연구', '기존')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.00027</v>
+        <v>0.1708</v>
       </c>
       <c r="D105" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>269</v>
+        <v>1026</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('개발', '활용')</t>
+          <t>('로봇', '활용', '교육')</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.00027</v>
+        <v>0.16847</v>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>569</v>
+        <v>659</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('학습', '연구')</t>
+          <t>('프로그래밍', '언어', '교육')</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.00028</v>
+        <v>0.16529</v>
       </c>
       <c r="D107" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('결과', '교육')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.00028</v>
+        <v>0.16401</v>
       </c>
       <c r="D108" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>46</v>
+        <v>867</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('교육', '교육')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.00028</v>
+        <v>0.15983</v>
       </c>
       <c r="D109" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>565</v>
+        <v>1155</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('제시', '초등')</t>
+          <t>('교육', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.00029</v>
+        <v>0.15709</v>
       </c>
       <c r="D110" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>205</v>
+        <v>697</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('시스템', '적용')</t>
+          <t>('초등', '정보', '과학')</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.00029</v>
+        <v>0.15635</v>
       </c>
       <c r="D111" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>921</v>
+        <v>476</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('결과', '개발')</t>
+          <t>('교육', '지원', '시스템')</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0003</v>
+        <v>0.15613</v>
       </c>
       <c r="D112" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>640</v>
+        <v>324</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('연구', '학습자')</t>
+          <t>('학습', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.0003</v>
+        <v>0.15398</v>
       </c>
       <c r="D113" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>288</v>
+        <v>978</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('학습', '성취도')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0003</v>
+        <v>0.15226</v>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('교육', 'sw')</t>
+          <t>('문제', '해결', '학습')</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.0003</v>
+        <v>0.14749</v>
       </c>
       <c r="D115" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('정보', '관리')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0003</v>
+        <v>0.1433</v>
       </c>
       <c r="D116" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>231</v>
+        <v>982</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('사용', '연구')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0003</v>
+        <v>0.14243</v>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>406</v>
+        <v>965</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('다양', '교육')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.00031</v>
+        <v>0.14129</v>
       </c>
       <c r="D118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>83</v>
+        <v>975</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('활용', '학생')</t>
+          <t>('활용', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.00031</v>
+        <v>0.13722</v>
       </c>
       <c r="D119" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>295</v>
+        <v>1152</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('영역', '학습')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.00031</v>
+        <v>0.13707</v>
       </c>
       <c r="D120" t="n">
-        <v>13</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>176</v>
+        <v>1050</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('필요', '정보')</t>
+          <t>('교육', '학습', '동기')</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.00031</v>
+        <v>0.13565</v>
       </c>
       <c r="D121" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('결과', '교사')</t>
+          <t>('분석', '연구', '결과')</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.00032</v>
+        <v>0.13437</v>
       </c>
       <c r="D122" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>436</v>
+        <v>221</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('효과', '교육')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.00032</v>
+        <v>0.13164</v>
       </c>
       <c r="D123" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('설계', '연구')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.00032</v>
+        <v>0.12751</v>
       </c>
       <c r="D124" t="n">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>1020</v>
+        <v>100</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('연구', '프로그래밍')</t>
+          <t>('교수', '학습', '방법')</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.00033</v>
+        <v>0.1261</v>
       </c>
       <c r="D125" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('언어', '활용')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.00033</v>
+        <v>0.12531</v>
       </c>
       <c r="D126" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>753</v>
+        <v>412</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('교육', '교사')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.00033</v>
+        <v>0.1245</v>
       </c>
       <c r="D127" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>550</v>
+        <v>793</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('연구', '논문')</t>
+          <t>('학습', '모형', '적용')</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.00034</v>
+        <v>0.12376</v>
       </c>
       <c r="D128" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>195</v>
+        <v>778</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('컴퓨터', '정보')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.00034</v>
+        <v>0.12371</v>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('시스템', '정보')</t>
+          <t>('교육', '과정', '개발')</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.00034</v>
+        <v>0.12327</v>
       </c>
       <c r="D130" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>996</v>
+        <v>1040</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('통합', '교육')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.00035</v>
+        <v>0.12304</v>
       </c>
       <c r="D131" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('과정', '컴퓨터')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.00035</v>
+        <v>0.1229</v>
       </c>
       <c r="D132" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>984</v>
+        <v>106</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('프로그래밍', '도구')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.00035</v>
+        <v>0.1221</v>
       </c>
       <c r="D133" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>1029</v>
+        <v>218</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('저작', '교육')</t>
+          <t>('학습', '시스템', '설계')</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.00035</v>
+        <v>0.12165</v>
       </c>
       <c r="D134" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>1188</v>
+        <v>1150</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('교육', '역량')</t>
+          <t>('초등', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.00036</v>
+        <v>0.11995</v>
       </c>
       <c r="D135" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>395</v>
+        <v>959</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('연구', '분석')</t>
+          <t>('교육', '로봇', '활용')</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.00036</v>
+        <v>0.11951</v>
       </c>
       <c r="D136" t="n">
         <v>21</v>
@@ -2613,479 +2613,479 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>173</v>
+        <v>827</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('활동', '학생')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.00036</v>
+        <v>0.11819</v>
       </c>
       <c r="D137" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>280</v>
+        <v>940</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('제공', '학습자')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.00037</v>
+        <v>0.11773</v>
       </c>
       <c r="D138" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>914</v>
+        <v>1008</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('프로그래밍', '과정')</t>
+          <t>('개정', '교육', '과정')</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.00037</v>
+        <v>0.11694</v>
       </c>
       <c r="D139" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>1022</v>
+        <v>353</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('epl', '교육')</t>
+          <t>('초등', '컴퓨터', '교육')</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.00037</v>
+        <v>0.11691</v>
       </c>
       <c r="D140" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('설문', '분석')</t>
+          <t>('컴퓨터', '활용', '능력')</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.00038</v>
+        <v>0.11662</v>
       </c>
       <c r="D141" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>1170</v>
+        <v>1197</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('학생', '컴퓨팅')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.00038</v>
+        <v>0.11464</v>
       </c>
       <c r="D142" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>979</v>
+        <v>325</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('수업', '초등')</t>
+          <t>('시스템', '개발', '적용')</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.00038</v>
+        <v>0.11422</v>
       </c>
       <c r="D143" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('활용', '교사')</t>
+          <t>('ict', '활용', '교육')</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.00038</v>
+        <v>0.11416</v>
       </c>
       <c r="D144" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>447</v>
+        <v>645</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('교육', '수업')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.00039</v>
+        <v>0.11364</v>
       </c>
       <c r="D145" t="n">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('개발', '목적')</t>
+          <t>('수행', '평가', '시스템')</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.00039</v>
+        <v>0.11364</v>
       </c>
       <c r="D146" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>1069</v>
+        <v>1159</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('개발', '수업')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.00039</v>
+        <v>0.11338</v>
       </c>
       <c r="D147" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>1156</v>
+        <v>990</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('분석', 'sw')</t>
+          <t>('교육', '내용', '체계')</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.0004</v>
+        <v>0.11264</v>
       </c>
       <c r="D148" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>869</v>
+        <v>548</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('과정', '연구')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.0004</v>
+        <v>0.11111</v>
       </c>
       <c r="D149" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>501</v>
+        <v>861</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>('연구', '자료')</t>
+          <t>('프로그램', '개발', '적용')</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.00041</v>
+        <v>0.11102</v>
       </c>
       <c r="D150" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>957</v>
+        <v>551</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>('제시', '교육')</t>
+          <t>('ict', '활용', '능력')</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.00041</v>
+        <v>0.11089</v>
       </c>
       <c r="D151" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>423</v>
+        <v>993</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('다양', '학습')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.00041</v>
+        <v>0.11074</v>
       </c>
       <c r="D152" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>('학습자', '지식')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.00041</v>
+        <v>0.11042</v>
       </c>
       <c r="D153" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>163</v>
+        <v>967</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>('활용', '정보')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.00041</v>
+        <v>0.10975</v>
       </c>
       <c r="D154" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>596</v>
+        <v>757</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('제안', '교육')</t>
+          <t>('학업', '성취도', '영향')</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.00042</v>
+        <v>0.10965</v>
       </c>
       <c r="D155" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>792</v>
+        <v>927</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>('방법', '활용')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.00042</v>
+        <v>0.10893</v>
       </c>
       <c r="D156" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>528</v>
+        <v>254</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>('동기', '학습')</t>
+          <t>('초등', '교육', '현장')</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.00042</v>
+        <v>0.10695</v>
       </c>
       <c r="D157" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>837</v>
+        <v>781</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>('수업', '분석')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.00042</v>
+        <v>0.10553</v>
       </c>
       <c r="D158" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>304</v>
+        <v>764</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>('시스템', '학생')</t>
+          <t>('정보', '과학', '교육')</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.00042</v>
+        <v>0.10537</v>
       </c>
       <c r="D159" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>894</v>
+        <v>777</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>('교육', '인식')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.00043</v>
+        <v>0.10314</v>
       </c>
       <c r="D160" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>562</v>
+        <v>245</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>('실험', '연구')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.00043</v>
+        <v>0.10252</v>
       </c>
       <c r="D161" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>1190</v>
+        <v>816</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>('분석', '컴퓨팅')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.00043</v>
+        <v>0.10205</v>
       </c>
       <c r="D162" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>297</v>
+        <v>945</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>('모델', '연구')</t>
+          <t>('초등', '정보', '교육')</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.00044</v>
+        <v>0.10163</v>
       </c>
       <c r="D163" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>512</v>
+        <v>964</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>('교육', '학생')</t>
+          <t>('문제', '해결력', '영향')</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.00044</v>
+        <v>0.1004</v>
       </c>
       <c r="D164" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>241</v>
+        <v>989</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>('분석', '개선')</t>
+          <t>('교육', '효과', '분석')</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.00044</v>
+        <v>0.10003</v>
       </c>
       <c r="D165" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>('향상', '결과')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.00044</v>
+        <v>0.0993</v>
       </c>
       <c r="D166" t="n">
         <v>12</v>
@@ -3093,47 +3093,47 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>('연구', '학생')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.00045</v>
+        <v>0.09921000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>507</v>
+        <v>85</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>('학교', '학생')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.00045</v>
+        <v>0.09878000000000001</v>
       </c>
       <c r="D168" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>671</v>
+        <v>849</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>('실시', '초등')</t>
+          <t>('논리', '사고력', '향상')</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.00045</v>
+        <v>0.0969</v>
       </c>
       <c r="D169" t="n">
         <v>13</v>
@@ -3141,31 +3141,31 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>396</v>
+        <v>928</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>('분석', '소프트웨어')</t>
+          <t>('실시', '연구', '결과')</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.00045</v>
+        <v>0.09683</v>
       </c>
       <c r="D170" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>1101</v>
+        <v>457</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>('과정', '소프트웨어')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.00046</v>
+        <v>0.09676</v>
       </c>
       <c r="D171" t="n">
         <v>12</v>
@@ -3173,47 +3173,47 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>332</v>
+        <v>1095</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>('비교', '결과')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.00046</v>
+        <v>0.0964</v>
       </c>
       <c r="D172" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>('학습자', '정보')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.00047</v>
+        <v>0.09563000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>194</v>
+        <v>1038</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>('인성', '교육')</t>
+          <t>('결과', '연구', '개발')</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.00048</v>
+        <v>0.09524000000000001</v>
       </c>
       <c r="D174" t="n">
         <v>11</v>
@@ -3221,111 +3221,111 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>1051</v>
+        <v>132</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>('개념', '학습')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.00048</v>
+        <v>0.09515999999999999</v>
       </c>
       <c r="D175" t="n">
-        <v>13</v>
+        <v>226</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>799</v>
+        <v>907</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>('결과', '예비')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.00048</v>
+        <v>0.09497999999999999</v>
       </c>
       <c r="D176" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>639</v>
+        <v>1079</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>('중요', '연구')</t>
+          <t>('현직', '초등', '교사')</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.00048</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>516</v>
+        <v>795</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>('설문', '결과')</t>
+          <t>('지원', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.00049</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="D178" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>798</v>
+        <v>103</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>('만족도', '학습')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.00049</v>
+        <v>0.09276</v>
       </c>
       <c r="D179" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>654</v>
+        <v>552</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>('언어', '교육')</t>
+          <t>('적용', '효과', '검증')</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.0005</v>
+        <v>0.09217</v>
       </c>
       <c r="D180" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>1091</v>
+        <v>1179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>('제작', '교육')</t>
+          <t>('컴퓨팅', '사고력', '창의')</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.0005</v>
+        <v>0.09164</v>
       </c>
       <c r="D181" t="n">
         <v>14</v>
@@ -3333,239 +3333,239 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>618</v>
+        <v>1124</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>('개발', '도구')</t>
+          <t>('교육', '교수', '학습')</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.0005</v>
+        <v>0.09027</v>
       </c>
       <c r="D182" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>560</v>
+        <v>336</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>('개발', '과정')</t>
+          <t>('예비', '교사', '대상')</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.00052</v>
+        <v>0.09012000000000001</v>
       </c>
       <c r="D183" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>1086</v>
+        <v>137</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>('연구', '주제')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.00054</v>
+        <v>0.08841</v>
       </c>
       <c r="D184" t="n">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>376</v>
+        <v>1199</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>('활용', '초등')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.00054</v>
+        <v>0.08803</v>
       </c>
       <c r="D185" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>704</v>
+        <v>846</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>('향상', '학습')</t>
+          <t>('교육', '과정', '모델')</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.00055</v>
+        <v>0.08741</v>
       </c>
       <c r="D186" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>828</v>
+        <v>1100</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>('과학', '수업')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.00055</v>
+        <v>0.08731</v>
       </c>
       <c r="D187" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>666</v>
+        <v>717</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>('교육', '모델')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.00056</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D188" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>708</v>
+        <v>536</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>('개발', '효과')</t>
+          <t>('학습', '동기', '학습')</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.00056</v>
+        <v>0.08591</v>
       </c>
       <c r="D189" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>88</v>
+        <v>948</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>('활용', '연구')</t>
+          <t>('초등', '중등', '교육')</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.00056</v>
+        <v>0.08562</v>
       </c>
       <c r="D190" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>1139</v>
+        <v>1113</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>('코딩', '교육')</t>
+          <t>('기준', '교수', '학습')</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.00057</v>
+        <v>0.08525000000000001</v>
       </c>
       <c r="D191" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>99</v>
+        <v>1052</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>('시스템', '제안')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.00057</v>
+        <v>0.08469</v>
       </c>
       <c r="D192" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>('정보', '접근')</t>
+          <t>('교육', '프로그램', '적용')</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.00058</v>
+        <v>0.08457000000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>966</v>
+        <v>1021</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>('활용', '역량')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.00058</v>
+        <v>0.08418</v>
       </c>
       <c r="D194" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>1153</v>
+        <v>1180</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>('역량', '평가')</t>
+          <t>('적용', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.00059</v>
+        <v>0.08396000000000001</v>
       </c>
       <c r="D195" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>648</v>
+        <v>769</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>('대상', '연구')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.00059</v>
+        <v>0.08201</v>
       </c>
       <c r="D196" t="n">
         <v>16</v>
@@ -3573,239 +3573,239 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>('실험', '적용')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.08175</v>
       </c>
       <c r="D197" t="n">
-        <v>11</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>('연구', '소프트웨어')</t>
+          <t>('개발', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.00061</v>
+        <v>0.08171</v>
       </c>
       <c r="D198" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>706</v>
+        <v>64</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>('과학', '학습')</t>
+          <t>('설계', '구현', '논문')</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.00061</v>
+        <v>0.08162999999999999</v>
       </c>
       <c r="D199" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>344</v>
+        <v>122</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>('상황', '학습')</t>
+          <t>('교수', '학습', '모형')</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.00061</v>
+        <v>0.08103</v>
       </c>
       <c r="D200" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>152</v>
+        <v>1198</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>('콘텐츠', '설계')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.00061</v>
+        <v>0.08056000000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>481</v>
+        <v>723</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>('학습', '상황')</t>
+          <t>('교육', '과정', '분석')</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.00061</v>
+        <v>0.08013000000000001</v>
       </c>
       <c r="D202" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>591</v>
+        <v>1171</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>('교육', '평가')</t>
+          <t>('컴퓨팅', '사고력', '향상')</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.00061</v>
+        <v>0.07992</v>
       </c>
       <c r="D203" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>109</v>
+        <v>873</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>('가상', '학습')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.00062</v>
+        <v>0.07974000000000001</v>
       </c>
       <c r="D204" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>281</v>
+        <v>1055</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>('학습', '문제')</t>
+          <t>('교육', '실시', '학생')</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.00062</v>
+        <v>0.07911</v>
       </c>
       <c r="D205" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>725</v>
+        <v>3</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>('분석', '컴퓨터')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.00062</v>
+        <v>0.07906000000000001</v>
       </c>
       <c r="D206" t="n">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>478</v>
+        <v>108</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>('적용', '학생')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.00063</v>
+        <v>0.07729</v>
       </c>
       <c r="D207" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>1019</v>
+        <v>698</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>('어려움', '연구')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.00063</v>
+        <v>0.07668999999999999</v>
       </c>
       <c r="D208" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>86</v>
+        <v>1076</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>('최근', '교육')</t>
+          <t>('사고력', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.00063</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="D209" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>537</v>
+        <v>179</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>('모형', '연구')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.07391</v>
       </c>
       <c r="D210" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>1077</v>
+        <v>766</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>('교육', '강조')</t>
+          <t>('과학', '영재', '교육')</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.07215000000000001</v>
       </c>
       <c r="D211" t="n">
         <v>12</v>
@@ -3813,47 +3813,47 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>1090</v>
+        <v>490</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>('초등', '스마트폰')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.00065</v>
+        <v>0.07174999999999999</v>
       </c>
       <c r="D212" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>620</v>
+        <v>289</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>('결과', '연구')</t>
+          <t>('교육', '과정', '내용')</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.00065</v>
+        <v>0.07123</v>
       </c>
       <c r="D213" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>755</v>
+        <v>632</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>('학습자', '학업')</t>
+          <t>('연구', '목적', '초등')</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.00065</v>
+        <v>0.07087</v>
       </c>
       <c r="D214" t="n">
         <v>11</v>
@@ -3861,15 +3861,15 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>329</v>
+        <v>943</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>('자료', '제시')</t>
+          <t>('컴퓨터', '과학', '언플러그드')</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.00066</v>
+        <v>0.06993000000000001</v>
       </c>
       <c r="D215" t="n">
         <v>11</v>
@@ -3877,223 +3877,223 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>('적용', '초등')</t>
+          <t>('교수', '학습', '전략')</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.00066</v>
+        <v>0.06793</v>
       </c>
       <c r="D216" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>692</v>
+        <v>787</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>('학교', 'ict')</t>
+          <t>('활동', '중심', '학습')</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.00067</v>
+        <v>0.06775</v>
       </c>
       <c r="D217" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>217</v>
+        <v>922</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>('연구', '연구')</t>
+          <t>('로봇', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.00067</v>
+        <v>0.06759</v>
       </c>
       <c r="D218" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>70</v>
+        <v>929</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>('시스템', '연구')</t>
+          <t>('분석', '실시', '결과')</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.00068</v>
+        <v>0.06757000000000001</v>
       </c>
       <c r="D219" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>('활용', '학습')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.00069</v>
+        <v>0.06412</v>
       </c>
       <c r="D220" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>('구현', '초등')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.0007</v>
+        <v>0.0641</v>
       </c>
       <c r="D221" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>572</v>
+        <v>62</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>('온라인', '평가')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.00071</v>
+        <v>0.06383999999999999</v>
       </c>
       <c r="D222" t="n">
-        <v>11</v>
+        <v>121</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>729</v>
+        <v>962</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>('시스템', '사용')</t>
+          <t>('예비', '교사', '교육')</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.00071</v>
+        <v>0.06371</v>
       </c>
       <c r="D223" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>142</v>
+        <v>980</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>('이용', '학습')</t>
+          <t>('연구', '결과', '초등')</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.00071</v>
+        <v>0.06235</v>
       </c>
       <c r="D224" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>360</v>
+        <v>197</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>('연구', '필요')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.00071</v>
+        <v>0.06221</v>
       </c>
       <c r="D225" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>8</v>
+        <v>1166</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>('초등', '교육')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.00071</v>
+        <v>0.06158</v>
       </c>
       <c r="D226" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>1</v>
+        <v>1065</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>('교육', '연구')</t>
+          <t>('초등', '로봇', '활용')</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.00071</v>
+        <v>0.06105</v>
       </c>
       <c r="D227" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>561</v>
+        <v>774</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>('개발', '운영')</t>
+          <t>('교육', '현장', '적용')</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.00072</v>
+        <v>0.06085</v>
       </c>
       <c r="D228" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>168</v>
+        <v>1027</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>('교원', '정보')</t>
+          <t>('창의', '문제', '해결능력')</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.00072</v>
+        <v>0.06039</v>
       </c>
       <c r="D229" t="n">
         <v>11</v>
@@ -4101,223 +4101,223 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>762</v>
+        <v>215</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>('연구', '수행')</t>
+          <t>('교육', '과정', '교육')</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.00072</v>
+        <v>0.0601</v>
       </c>
       <c r="D230" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>743</v>
+        <v>424</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>('우리나라', '초등')</t>
+          <t>('교육', '과정', '정보')</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.00073</v>
+        <v>0.0601</v>
       </c>
       <c r="D231" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>293</v>
+        <v>974</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>('교육', '학습자')</t>
+          <t>('초등', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.00074</v>
+        <v>0.05896</v>
       </c>
       <c r="D232" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>260</v>
+        <v>709</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨터')</t>
+          <t>('적용', '결과', '학생')</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.00074</v>
+        <v>0.05894</v>
       </c>
       <c r="D233" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>399</v>
+        <v>1130</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>('학습', '적용')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.00074</v>
+        <v>0.05727</v>
       </c>
       <c r="D234" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>263</v>
+        <v>1173</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>('정보', '소양')</t>
+          <t>('학생', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.00075</v>
+        <v>0.05727</v>
       </c>
       <c r="D235" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>305</v>
+        <v>1147</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>('학생', '학습')</t>
+          <t>('개발', '개발', '교육')</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.00075</v>
+        <v>0.05631</v>
       </c>
       <c r="D236" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>1154</v>
+        <v>891</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>('필요', '인식')</t>
+          <t>('교육', '과정', '구성')</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.00075</v>
+        <v>0.05574</v>
       </c>
       <c r="D237" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>602</v>
+        <v>259</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>('교육', '참여')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.00075</v>
+        <v>0.05571</v>
       </c>
       <c r="D238" t="n">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>649</v>
+        <v>1133</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>('지역', '초등')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.00076</v>
+        <v>0.05569</v>
       </c>
       <c r="D239" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>461</v>
+        <v>1037</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>('교육', '게임')</t>
+          <t>('교수', '학습', '모델')</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.00076</v>
+        <v>0.0556</v>
       </c>
       <c r="D240" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>('교사', '교육')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.00077</v>
+        <v>0.05543</v>
       </c>
       <c r="D241" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>363</v>
+        <v>642</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>('수학', '교육')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.00077</v>
+        <v>0.05405</v>
       </c>
       <c r="D242" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>623</v>
+        <v>875</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>('학생', '문제')</t>
+          <t>('교육', '과정', '연구')</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.00077</v>
+        <v>0.05342</v>
       </c>
       <c r="D243" t="n">
         <v>16</v>
@@ -4325,159 +4325,159 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>977</v>
+        <v>892</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>('교육', '진행')</t>
+          <t>('교육', '학습자', '중심')</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.00078</v>
+        <v>0.05342</v>
       </c>
       <c r="D244" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>('향상', '방안')</t>
+          <t>('교육', '과정', '초등')</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.00078</v>
+        <v>0.05342</v>
       </c>
       <c r="D245" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>533</v>
+        <v>1191</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>('교육', '교수')</t>
+          <t>('분석', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.00078</v>
+        <v>0.05287</v>
       </c>
       <c r="D246" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>('정보', '공유')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.00079</v>
+        <v>0.05264</v>
       </c>
       <c r="D247" t="n">
-        <v>11</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>209</v>
+        <v>715</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>('교사', '정보')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.00079</v>
+        <v>0.05252</v>
       </c>
       <c r="D248" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>994</v>
+        <v>1034</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>('적용', '수업')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.00079</v>
+        <v>0.05241</v>
       </c>
       <c r="D249" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>794</v>
+        <v>1005</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>('초등', '수준')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.0008</v>
+        <v>0.05206</v>
       </c>
       <c r="D250" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>212</v>
+        <v>368</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>('대학', '교육')</t>
+          <t>('교수', '학습', '자료')</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.0008</v>
+        <v>0.05202</v>
       </c>
       <c r="D251" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>727</v>
+        <v>1151</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>('컴퓨터', '수업')</t>
+          <t>('교육', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.0008</v>
+        <v>0.05178</v>
       </c>
       <c r="D252" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>829</v>
+        <v>354</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>('몰입', '학습')</t>
+          <t>('학습', '능력', '향상')</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.00082</v>
+        <v>0.05128</v>
       </c>
       <c r="D253" t="n">
         <v>12</v>
@@ -4485,575 +4485,575 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>82</v>
+        <v>1146</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>('교육', '활용')</t>
+          <t>('결과', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.00082</v>
+        <v>0.05038</v>
       </c>
       <c r="D254" t="n">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>586</v>
+        <v>944</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>('영역', '평가')</t>
+          <t>('연구', '정보', '교육')</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.00083</v>
+        <v>0.04914</v>
       </c>
       <c r="D255" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>898</v>
+        <v>355</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>('대상', '적용')</t>
+          <t>('검증', '연구', '결과')</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.00083</v>
+        <v>0.04841</v>
       </c>
       <c r="D256" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>149</v>
+        <v>669</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>('과정', '제안')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.00083</v>
+        <v>0.04753</v>
       </c>
       <c r="D257" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>538</v>
+        <v>492</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>('교사', '수업')</t>
+          <t>('개발', '적용', '효과')</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.00084</v>
+        <v>0.04723</v>
       </c>
       <c r="D258" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>333</v>
+        <v>1058</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>('수집', '분석')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.00084</v>
+        <v>0.04685</v>
       </c>
       <c r="D259" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>401</v>
+        <v>1057</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>('지식', '수준')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.00084</v>
+        <v>0.04605</v>
       </c>
       <c r="D260" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>864</v>
+        <v>428</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>('연구', '로봇')</t>
+          <t>('목표', '달성')</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.00084</v>
+        <v>0.04498</v>
       </c>
       <c r="D261" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>767</v>
+        <v>349</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>('유비쿼터스', '학습')</t>
+          <t>('효과', '검증')</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.00084</v>
+        <v>0.04449</v>
       </c>
       <c r="D262" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>233</v>
+        <v>1138</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>('중심', '교육')</t>
+          <t>('sw', '교육', '초등')</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.00085</v>
+        <v>0.04429</v>
       </c>
       <c r="D263" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>309</v>
+        <v>1127</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>('해결', '학습')</t>
+          <t>('연구', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.00085</v>
+        <v>0.04401</v>
       </c>
       <c r="D264" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>102</v>
+        <v>741</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>('제안', '연구')</t>
+          <t>('미래', '사회')</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.00086</v>
+        <v>0.0434</v>
       </c>
       <c r="D265" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>888</v>
+        <v>1117</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>('탐구', '학습')</t>
+          <t>('세부', '역량')</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.00087</v>
+        <v>0.04317</v>
       </c>
       <c r="D266" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>248</v>
+        <v>1092</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>('분석', '정보')</t>
+          <t>('체계', '문헌')</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.00087</v>
+        <v>0.04274</v>
       </c>
       <c r="D267" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>1143</v>
+        <v>1045</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>('결과', 'sw')</t>
+          <t>('하위', '요소')</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.00087</v>
+        <v>0.04244</v>
       </c>
       <c r="D268" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>148</v>
+        <v>456</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>('체제', '교육')</t>
+          <t>('사이버', '상담')</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.00088</v>
+        <v>0.04233</v>
       </c>
       <c r="D269" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>174</v>
+        <v>1017</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>('교육', '활동')</t>
+          <t>('교육', '효과', '검증')</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.00088</v>
+        <v>0.04168</v>
       </c>
       <c r="D270" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>595</v>
+        <v>737</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>('학습', '참여')</t>
+          <t>('내용', '체계')</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.00088</v>
+        <v>0.04133</v>
       </c>
       <c r="D271" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>863</v>
+        <v>34</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>('로봇', '기술')</t>
+          <t>('능력', '신장')</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.04118</v>
       </c>
       <c r="D272" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>890</v>
+        <v>1054</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>('활용', '기대')</t>
+          <t>('교육', '과정', '설계')</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.04006</v>
       </c>
       <c r="D273" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>567</v>
+        <v>1070</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>('현장', '활용')</t>
+          <t>('창의', '인성')</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.0009</v>
+        <v>0.03995</v>
       </c>
       <c r="D274" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>455</v>
+        <v>235</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>('설계', '적용')</t>
+          <t>('콘텐츠', '제작')</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.00091</v>
+        <v>0.03993</v>
       </c>
       <c r="D275" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>445</v>
+        <v>296</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>('수업', '학생')</t>
+          <t>('수행', '평가')</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.00091</v>
+        <v>0.03964</v>
       </c>
       <c r="D276" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>31</v>
+        <v>1118</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>('중등', '컴퓨터')</t>
+          <t>('ct', '역량')</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0.00091</v>
+        <v>0.03848</v>
       </c>
       <c r="D277" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>770</v>
+        <v>585</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>('수행', '연구')</t>
+          <t>('정의', '영역')</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.00091</v>
+        <v>0.03833</v>
       </c>
       <c r="D278" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>813</v>
+        <v>555</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>('개발', '로봇')</t>
+          <t>('기술', '발전')</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.00092</v>
+        <v>0.03663</v>
       </c>
       <c r="D279" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>('수준', '학습')</t>
+          <t>('교육', '교육', '과정')</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.00092</v>
+        <v>0.03651</v>
       </c>
       <c r="D280" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>420</v>
+        <v>29</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>('과정', '정보')</t>
+          <t>('교육', '시스템', '개발')</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.00092</v>
+        <v>0.0364</v>
       </c>
       <c r="D281" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>('교육', '지원')</t>
+          <t>('담당', '교사')</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.03625</v>
       </c>
       <c r="D282" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>843</v>
+        <v>191</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>('과정', '초등')</t>
+          <t>('방향', '제시')</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.00094</v>
+        <v>0.03616</v>
       </c>
       <c r="D283" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>826</v>
+        <v>326</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>('교육', '경험')</t>
+          <t>('학습자', '문제', '해결')</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.00096</v>
+        <v>0.0354</v>
       </c>
       <c r="D284" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>920</v>
+        <v>836</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>('연구', '제시')</t>
+          <t>('회귀', '분석')</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.03506</v>
       </c>
       <c r="D285" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>574</v>
+        <v>178</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>('학생', '수준')</t>
+          <t>('내용', '선정')</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.0346</v>
       </c>
       <c r="D286" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>953</v>
+        <v>830</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>('교육', '태도')</t>
+          <t>('정보', '보호')</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.00098</v>
+        <v>0.03452</v>
       </c>
       <c r="D287" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>909</v>
+        <v>183</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>('온라인', '교육')</t>
+          <t>('교수', '학습', '활동')</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.00098</v>
+        <v>0.0341</v>
       </c>
       <c r="D288" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>346</v>
+        <v>847</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>('학습', '시간')</t>
+          <t>('교육', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.00099</v>
+        <v>0.03344</v>
       </c>
       <c r="D289" t="n">
         <v>17</v>
@@ -5061,399 +5061,399 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>128</v>
+        <v>564</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>('중등', '교육')</t>
+          <t>('영향', '요인')</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.001</v>
+        <v>0.03321</v>
       </c>
       <c r="D290" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>810</v>
+        <v>612</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>('게임', '학습')</t>
+          <t>('세기', '지식')</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.00101</v>
+        <v>0.03279</v>
       </c>
       <c r="D291" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>673</v>
+        <v>449</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>('초등', '과학')</t>
+          <t>('초등', '중등')</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.00102</v>
+        <v>0.03275</v>
       </c>
       <c r="D292" t="n">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>1134</v>
+        <v>198</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>('교육', '컴퓨팅')</t>
+          <t>('독서', '교육', '시스템')</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.00102</v>
+        <v>0.03245</v>
       </c>
       <c r="D293" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>('교육', '초등')</t>
+          <t>('과학', '영재')</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.00103</v>
+        <v>0.03131</v>
       </c>
       <c r="D294" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>973</v>
+        <v>1056</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>('결과', '로봇')</t>
+          <t>('프로그램', '개발', '개발')</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.00104</v>
+        <v>0.03109</v>
       </c>
       <c r="D295" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>('교육', '교과')</t>
+          <t>('초등', '학년')</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.00104</v>
+        <v>0.03092</v>
       </c>
       <c r="D296" t="n">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>26</v>
+        <v>879</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>('교육', '소프트웨어')</t>
+          <t>('창의', '문제', '해결')</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.00104</v>
+        <v>0.03073</v>
       </c>
       <c r="D297" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>592</v>
+        <v>868</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>('결과', '학습자')</t>
+          <t>('컴퓨터', '과학')</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.00104</v>
+        <v>0.03066</v>
       </c>
       <c r="D298" t="n">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>338</v>
+        <v>1196</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>('개발', '교육')</t>
+          <t>('요구', '분석', '결과')</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.00105</v>
+        <v>0.03011</v>
       </c>
       <c r="D299" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>1085</v>
+        <v>115</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>('시각', '교육')</t>
+          <t>('능력', '향상')</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.00106</v>
+        <v>0.02999</v>
       </c>
       <c r="D300" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>1082</v>
+        <v>950</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>('교수', '지식')</t>
+          <t>('역량', '강화')</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.00106</v>
+        <v>0.0299</v>
       </c>
       <c r="D301" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>696</v>
+        <v>1064</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>('분석', '초등')</t>
+          <t>('블록', '프로그래밍')</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.00106</v>
+        <v>0.02957</v>
       </c>
       <c r="D302" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>69</v>
+        <v>523</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>('평가', '평가')</t>
+          <t>('연구', '정보', '통신')</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.00106</v>
+        <v>0.02948</v>
       </c>
       <c r="D303" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>439</v>
+        <v>514</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>('초등', 'ict')</t>
+          <t>('대상', '설문')</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.00106</v>
+        <v>0.02909</v>
       </c>
       <c r="D304" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>255</v>
+        <v>1131</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>('교육', '교재')</t>
+          <t>('핵심', '개념')</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.00107</v>
+        <v>0.02884</v>
       </c>
       <c r="D305" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>678</v>
+        <v>1032</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>('수준', '분석')</t>
+          <t>('정보', '교육', '과정')</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.00107</v>
+        <v>0.02838</v>
       </c>
       <c r="D306" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>('학습', '단계')</t>
+          <t>('창의', '문제')</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.00109</v>
+        <v>0.02823</v>
       </c>
       <c r="D307" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>599</v>
+        <v>264</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>('수업', '효과')</t>
+          <t>('소양', '능력')</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.00109</v>
+        <v>0.02802</v>
       </c>
       <c r="D308" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>1071</v>
+        <v>1167</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>('구성', '연구')</t>
+          <t>('컴퓨팅', '사고력', '신장')</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.0011</v>
+        <v>0.02749</v>
       </c>
       <c r="D309" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>1121</v>
+        <v>933</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>('학습자', '역량')</t>
+          <t>('유해', '정보')</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.00112</v>
+        <v>0.02749</v>
       </c>
       <c r="D310" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>902</v>
+        <v>1160</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>('초등', '로봇')</t>
+          <t>('언플러그드', '활동')</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.00112</v>
+        <v>0.02742</v>
       </c>
       <c r="D311" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>655</v>
+        <v>162</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>('대부분', '학생')</t>
+          <t>('교수', '학습', '과정')</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.00112</v>
+        <v>0.0274</v>
       </c>
       <c r="D312" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>505</v>
+        <v>369</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>('교육', '방안')</t>
+          <t>('교수', '학습', '시스템')</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.00112</v>
+        <v>0.02713</v>
       </c>
       <c r="D313" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>532</v>
+        <v>500</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>('효과', '비교')</t>
+          <t>('컴퓨터', '프로그래밍', '교육')</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.00113</v>
+        <v>0.02695</v>
       </c>
       <c r="D314" t="n">
         <v>12</v>
@@ -5461,207 +5461,207 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>615</v>
+        <v>1163</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>('연구', '학교')</t>
+          <t>('교육', '과정', '표준')</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.00113</v>
+        <v>0.02671</v>
       </c>
       <c r="D315" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>366</v>
+        <v>1099</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>('교사', '교수')</t>
+          <t>('스마트폰', '사용')</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.00113</v>
+        <v>0.02643</v>
       </c>
       <c r="D316" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>534</v>
+        <v>359</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>('목적', '연구')</t>
+          <t>('활성', '방안')</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.00113</v>
+        <v>0.02614</v>
       </c>
       <c r="D317" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>1059</v>
+        <v>578</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '교육')</t>
+          <t>('선행', '연구')</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.00114</v>
+        <v>0.02571</v>
       </c>
       <c r="D318" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>775</v>
+        <v>185</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>('논문', '목적')</t>
+          <t>('활용', '능력', '향상')</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.00115</v>
+        <v>0.0254</v>
       </c>
       <c r="D319" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>('전략', '개발')</t>
+          <t>('인식', '조사')</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.00115</v>
+        <v>0.02526</v>
       </c>
       <c r="D320" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>365</v>
+        <v>835</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>('기술', '교육')</t>
+          <t>('검사', '실시')</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.00116</v>
+        <v>0.02524</v>
       </c>
       <c r="D321" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>45</v>
+        <v>1158</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>('관련', '교육')</t>
+          <t>('sw', '교육', '관련')</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.00116</v>
+        <v>0.02519</v>
       </c>
       <c r="D322" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>('이용', '시간')</t>
+          <t>('만족도', '영향')</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.00117</v>
+        <v>0.02506</v>
       </c>
       <c r="D323" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>674</v>
+        <v>426</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>('조사', '연구')</t>
+          <t>('ict', '활용')</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.00117</v>
+        <v>0.02496</v>
       </c>
       <c r="D324" t="n">
-        <v>18</v>
+        <v>146</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>541</v>
+        <v>710</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>('활용', '수준')</t>
+          <t>('영재', '학급')</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.00117</v>
+        <v>0.02468</v>
       </c>
       <c r="D325" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>972</v>
+        <v>150</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>('제작', '활동')</t>
+          <t>('교육', '과정', '제안')</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.00118</v>
+        <v>0.02465</v>
       </c>
       <c r="D326" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>286</v>
+        <v>1116</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>('이해', '수준')</t>
+          <t>('역량', '계발')</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.00118</v>
+        <v>0.02458</v>
       </c>
       <c r="D327" t="n">
         <v>11</v>
@@ -5669,127 +5669,127 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>1137</v>
+        <v>18</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>('대상', 'sw')</t>
+          <t>('시스템', '설계')</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.00119</v>
+        <v>0.02404</v>
       </c>
       <c r="D328" t="n">
-        <v>13</v>
+        <v>137</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>('학습', '흥미')</t>
+          <t>('방안', '제시')</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.0012</v>
+        <v>0.02377</v>
       </c>
       <c r="D329" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>720</v>
+        <v>307</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>('과정', '분석')</t>
+          <t>('시간', '공간')</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.0012</v>
+        <v>0.02372</v>
       </c>
       <c r="D330" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>444</v>
+        <v>30</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>('연구', '개발')</t>
+          <t>('지원', '시스템')</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.00123</v>
+        <v>0.02355</v>
       </c>
       <c r="D331" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>55</v>
+        <v>644</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>('효과', '연구')</t>
+          <t>('학년', '학생')</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.00124</v>
+        <v>0.02348</v>
       </c>
       <c r="D332" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>('초등', '학생')</t>
+          <t>('평가', '준거')</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.00125</v>
+        <v>0.0234</v>
       </c>
       <c r="D333" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>1177</v>
+        <v>40</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>('적용', 'sw')</t>
+          <t>('관리', '시스템')</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.00125</v>
+        <v>0.02335</v>
       </c>
       <c r="D334" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>1084</v>
+        <v>372</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>('대상', '수업')</t>
+          <t>('도형', '영역')</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.00126</v>
+        <v>0.02332</v>
       </c>
       <c r="D335" t="n">
         <v>15</v>
@@ -5797,287 +5797,287 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>968</v>
+        <v>21</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>('중심', '모형')</t>
+          <t>('응용', '프로그램')</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.00126</v>
+        <v>0.02298</v>
       </c>
       <c r="D336" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>506</v>
+        <v>701</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>('연구', '정보')</t>
+          <t>('기초', '자료')</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.00126</v>
+        <v>0.02294</v>
       </c>
       <c r="D337" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>27</v>
+        <v>823</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>('교육', '시스템')</t>
+          <t>('초등', '정보', '영재')</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.00127</v>
+        <v>0.0229</v>
       </c>
       <c r="D338" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>375</v>
+        <v>1185</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>('학습', '프로그램')</t>
+          <t>('교사', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.00127</v>
+        <v>0.0229</v>
       </c>
       <c r="D339" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>1096</v>
+        <v>1028</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>('초등', '창의')</t>
+          <t>('관련', '교육', '과정')</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.00127</v>
+        <v>0.02289</v>
       </c>
       <c r="D340" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>570</v>
+        <v>482</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>('연구', '방법')</t>
+          <t>('개념', '이해')</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.00129</v>
+        <v>0.02269</v>
       </c>
       <c r="D341" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>1148</v>
+        <v>244</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>('초등', 'sw')</t>
+          <t>('문제점', '해결')</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.00131</v>
+        <v>0.02265</v>
       </c>
       <c r="D342" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>619</v>
+        <v>312</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>('도구', '사용')</t>
+          <t>('해결력', '신장')</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.00131</v>
+        <v>0.02259</v>
       </c>
       <c r="D343" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>732</v>
+        <v>636</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>('결과', '초등')</t>
+          <t>('사고력', '신장')</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.00133</v>
+        <v>0.02259</v>
       </c>
       <c r="D344" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>872</v>
+        <v>367</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>('과정', '개선')</t>
+          <t>('실태', '조사')</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.00135</v>
+        <v>0.02254</v>
       </c>
       <c r="D345" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>571</v>
+        <v>479</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>('수준', '평가')</t>
+          <t>('적극', '참여')</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.00135</v>
+        <v>0.02228</v>
       </c>
       <c r="D346" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>613</v>
+        <v>1068</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>('교육', '강화')</t>
+          <t>('시사점', '제공')</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.00136</v>
+        <v>0.02225</v>
       </c>
       <c r="D347" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>403</v>
+        <v>520</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>('적용', '연구')</t>
+          <t>('초등', '정보', '통신')</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.00137</v>
+        <v>0.02223</v>
       </c>
       <c r="D348" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>747</v>
+        <v>301</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>('실시', '학생')</t>
+          <t>('현장', '적용')</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.00137</v>
+        <v>0.02172</v>
       </c>
       <c r="D349" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>976</v>
+        <v>389</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>('연구', '대상')</t>
+          <t>('평가', '기준')</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.00138</v>
+        <v>0.0217</v>
       </c>
       <c r="D350" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>('모형', '설계')</t>
+          <t>('조사', '실시')</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.00139</v>
+        <v>0.0216</v>
       </c>
       <c r="D351" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>110</v>
+        <v>824</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>('시스템', '학습자')</t>
+          <t>('정보', '영재', '교육')</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.00139</v>
+        <v>0.02134</v>
       </c>
       <c r="D352" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>811</v>
+        <v>559</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>('체험', '학습')</t>
+          <t>('활용', '교수', '학습')</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.0014</v>
+        <v>0.02131</v>
       </c>
       <c r="D353" t="n">
         <v>12</v>
@@ -6085,863 +6085,863 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>68</v>
+        <v>771</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>('학습', '학습자')</t>
+          <t>('수학', '과학')</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.00141</v>
+        <v>0.02116</v>
       </c>
       <c r="D354" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>101</v>
+        <v>803</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>('모형', '제안')</t>
+          <t>('비교', '집단')</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.00141</v>
+        <v>0.02114</v>
       </c>
       <c r="D355" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>1192</v>
+        <v>342</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>('초등', '인공지능')</t>
+          <t>('시스템', '설계', '개발')</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.00141</v>
+        <v>0.02086</v>
       </c>
       <c r="D356" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>831</v>
+        <v>315</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>('보호', '교육')</t>
+          <t>('프로젝트', '학습', '시스템')</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.00141</v>
+        <v>0.02048</v>
       </c>
       <c r="D357" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>601</v>
+        <v>133</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>('학생', '인식')</t>
+          <t>('방안', '제안')</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.00143</v>
+        <v>0.02037</v>
       </c>
       <c r="D358" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>('교수', '시스템')</t>
+          <t>('교수', '학습')</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.00143</v>
+        <v>0.02025</v>
       </c>
       <c r="D359" t="n">
-        <v>18</v>
+        <v>391</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>1149</v>
+        <v>1049</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>('sw', '융합')</t>
+          <t>('하위', '영역')</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.00143</v>
+        <v>0.02016</v>
       </c>
       <c r="D360" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>267</v>
+        <v>540</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>('웹기반', '학습')</t>
+          <t>('교육', '과정', '운영')</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.00144</v>
+        <v>0.02003</v>
       </c>
       <c r="D361" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>495</v>
+        <v>624</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>('연구', '컴퓨터')</t>
+          <t>('현장', '적용', '결과')</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.00146</v>
+        <v>0.01982</v>
       </c>
       <c r="D362" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>700</v>
+        <v>987</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>('교과서', '분석')</t>
+          <t>('언플러그드', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.00146</v>
+        <v>0.01946</v>
       </c>
       <c r="D363" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>('내용', '분석')</t>
+          <t>('교육', '컴퓨터', '교육')</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.00146</v>
+        <v>0.01946</v>
       </c>
       <c r="D364" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>('웹기반', '교육')</t>
+          <t>('컴퓨터', '교육', '과정')</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.00147</v>
+        <v>0.01945</v>
       </c>
       <c r="D365" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>760</v>
+        <v>866</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>('컴퓨터', '시스템')</t>
+          <t>('사용', '자군')</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.00147</v>
+        <v>0.01943</v>
       </c>
       <c r="D366" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>284</v>
+        <v>1157</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>('과정', '내용')</t>
+          <t>('분석', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.00148</v>
+        <v>0.01938</v>
       </c>
       <c r="D367" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>('방법', '적용')</t>
+          <t>('검사', '도구')</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.00149</v>
+        <v>0.01931</v>
       </c>
       <c r="D368" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>557</v>
+        <v>731</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>('활용', '교수')</t>
+          <t>('수업', '진행')</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.00149</v>
+        <v>0.01924</v>
       </c>
       <c r="D369" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>820</v>
+        <v>1087</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>('능력', '영향')</t>
+          <t>('적응', '코스웨어')</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.00149</v>
+        <v>0.01906</v>
       </c>
       <c r="D370" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>687</v>
+        <v>844</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>('교수', '전략')</t>
+          <t>('사고력', '향상')</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.00152</v>
+        <v>0.01893</v>
       </c>
       <c r="D371" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>('처리', '시스템')</t>
+          <t>('교원', '연수')</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.00153</v>
+        <v>0.01891</v>
       </c>
       <c r="D372" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>693</v>
+        <v>947</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>('능력', '평가')</t>
+          <t>('성별', '차이')</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.00154</v>
+        <v>0.01868</v>
       </c>
       <c r="D373" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>('검증', '연구')</t>
+          <t>('결과', '다음')</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0.00156</v>
+        <v>0.01861</v>
       </c>
       <c r="D374" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>656</v>
+        <v>417</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>('이용', '프로그래밍')</t>
+          <t>('프로그램', '개발')</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.00156</v>
+        <v>0.01856</v>
       </c>
       <c r="D375" t="n">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>435</v>
+        <v>1168</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>('게임', '활용')</t>
+          <t>('효과', '분석', '분석')</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.00157</v>
+        <v>0.01854</v>
       </c>
       <c r="D376" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>9</v>
+        <v>1033</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>('교육', '자료')</t>
+          <t>('교수', '실재감')</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.00157</v>
+        <v>0.01835</v>
       </c>
       <c r="D377" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>('구현', '연구')</t>
+          <t>('협동', '학습')</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0.00158</v>
+        <v>0.01833</v>
       </c>
       <c r="D378" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>583</v>
+        <v>256</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>('프로그램', '설계')</t>
+          <t>('교재', '개발')</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.00158</v>
+        <v>0.01819</v>
       </c>
       <c r="D379" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>1013</v>
+        <v>282</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>('게임', '프로그래밍')</t>
+          <t>('학습', '동기')</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.00158</v>
+        <v>0.01805</v>
       </c>
       <c r="D380" t="n">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>970</v>
+        <v>408</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>('초등', '프로그래밍')</t>
+          <t>('문제', '중심')</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.0016</v>
+        <v>0.01803</v>
       </c>
       <c r="D381" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>862</v>
+        <v>716</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>('교육', '로봇')</t>
+          <t>('향상', '긍정')</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.0016</v>
+        <v>0.01802</v>
       </c>
       <c r="D382" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>155</v>
+        <v>563</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>('학습', '과정')</t>
+          <t>('유의', '영향')</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0.00161</v>
+        <v>0.01795</v>
       </c>
       <c r="D383" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>842</v>
+        <v>1060</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍')</t>
+          <t>('교육', '프로그램', '효과')</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0.00161</v>
+        <v>0.01789</v>
       </c>
       <c r="D384" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>219</v>
+        <v>402</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>('기능', '제공')</t>
+          <t>('결과', '토대')</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.00162</v>
+        <v>0.01786</v>
       </c>
       <c r="D385" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>383</v>
+        <v>969</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>('교육', '분야')</t>
+          <t>('스크래치', '프로그래밍')</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.00163</v>
+        <v>0.01784</v>
       </c>
       <c r="D386" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>611</v>
+        <v>1010</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>('콘텐츠', '활용')</t>
+          <t>('로봇', '보조')</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.00164</v>
+        <v>0.01762</v>
       </c>
       <c r="D387" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>857</v>
+        <v>322</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>('블렌디드', '학습')</t>
+          <t>('학년', '대상')</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.00164</v>
+        <v>0.01743</v>
       </c>
       <c r="D388" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>938</v>
+        <v>1107</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>('교사', '양성')</t>
+          <t>('융합', '활동')</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.00166</v>
+        <v>0.01728</v>
       </c>
       <c r="D389" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>23</v>
+        <v>901</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>('교육', '정보')</t>
+          <t>('해결력', '향상')</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.00166</v>
+        <v>0.01721</v>
       </c>
       <c r="D390" t="n">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>519</v>
+        <v>1002</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>('내용', '방법')</t>
+          <t>('연구', '결과', '토대')</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.00167</v>
+        <v>0.01715</v>
       </c>
       <c r="D391" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>438</v>
+        <v>112</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>('게임', '개발')</t>
+          <t>('주도', '학습')</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.00167</v>
+        <v>0.01707</v>
       </c>
       <c r="D392" t="n">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>166</v>
+        <v>817</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>('제안', '방법')</t>
+          <t>('중독', '정도')</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.00167</v>
+        <v>0.01684</v>
       </c>
       <c r="D393" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>299</v>
+        <v>800</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>('방법', '연구')</t>
+          <t>('사전', '검사')</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.00167</v>
+        <v>0.0168</v>
       </c>
       <c r="D394" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>491</v>
+        <v>243</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>('개발', '초등')</t>
+          <t>('비교', '분석')</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.00169</v>
+        <v>0.01675</v>
       </c>
       <c r="D395" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>39</v>
+        <v>1122</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>('개발', '연구')</t>
+          <t>('협업', '능력')</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.00169</v>
+        <v>0.01661</v>
       </c>
       <c r="D396" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>90</v>
+        <v>818</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>('교과', '교육')</t>
+          <t>('연구', '결과', '다음')</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.0017</v>
+        <v>0.01646</v>
       </c>
       <c r="D397" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>493</v>
+        <v>345</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>('학생', '정보')</t>
+          <t>('연구', '목적')</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.0017</v>
+        <v>0.01644</v>
       </c>
       <c r="D398" t="n">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>('학습', '도구')</t>
+          <t>('연수', '프로그램')</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.0017</v>
+        <v>0.01644</v>
       </c>
       <c r="D399" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>575</v>
+        <v>1183</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>('진단', '평가')</t>
+          <t>('디지털', '환경')</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.00172</v>
+        <v>0.01638</v>
       </c>
       <c r="D400" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>437</v>
+        <v>797</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>('사용', '실태')</t>
+          <t>('교사', '연수')</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.00172</v>
+        <v>0.01603</v>
       </c>
       <c r="D401" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>391</v>
+        <v>707</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>('평가', '방안')</t>
+          <t>('인터넷', '사용')</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.00173</v>
+        <v>0.01603</v>
       </c>
       <c r="D402" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>983</v>
+        <v>335</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>('중등', '대상')</t>
+          <t>('교사', '대상')</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.00173</v>
+        <v>0.01602</v>
       </c>
       <c r="D403" t="n">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>76</v>
+        <v>822</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>('학습', '가능')</t>
+          <t>('정보', '영재')</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.00174</v>
+        <v>0.01598</v>
       </c>
       <c r="D404" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>('학생', '교사')</t>
+          <t>('학생', '대상')</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.00176</v>
+        <v>0.01589</v>
       </c>
       <c r="D405" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>617</v>
+        <v>877</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>('학습', '객체')</t>
+          <t>('운영', '지침')</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.00177</v>
+        <v>0.01587</v>
       </c>
       <c r="D406" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>1165</v>
+        <v>809</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>('교육', '플랫폼')</t>
+          <t>('원리', '이해')</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.00178</v>
+        <v>0.01578</v>
       </c>
       <c r="D407" t="n">
         <v>13</v>
@@ -6949,959 +6949,959 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>908</v>
+        <v>1074</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>('알고리즘', '학습')</t>
+          <t>('스마트', '러닝')</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.00179</v>
+        <v>0.01563</v>
       </c>
       <c r="D408" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>('발견', '학습')</t>
+          <t>('로봇', '활용')</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.00182</v>
+        <v>0.01551</v>
       </c>
       <c r="D409" t="n">
-        <v>13</v>
+        <v>156</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>24</v>
+        <v>485</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>('교육', '환경')</t>
+          <t>('전통', '수업')</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.00182</v>
+        <v>0.01522</v>
       </c>
       <c r="D410" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>939</v>
+        <v>63</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>('과정', '설계')</t>
+          <t>('분석', '결과')</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.00183</v>
+        <v>0.0152</v>
       </c>
       <c r="D411" t="n">
-        <v>20</v>
+        <v>246</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>785</v>
+        <v>12</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>('제시', '연구')</t>
+          <t>('실정', '연구')</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.00183</v>
+        <v>0.01508</v>
       </c>
       <c r="D412" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>120</v>
+        <v>1141</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>('학습', '요소')</t>
+          <t>('플립러닝', '수업')</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.00183</v>
+        <v>0.01501</v>
       </c>
       <c r="D413" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>56</v>
+        <v>1132</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>('연구', '제안')</t>
+          <t>('sw', '교육')</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.00184</v>
+        <v>0.01475</v>
       </c>
       <c r="D414" t="n">
-        <v>25</v>
+        <v>397</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>1035</v>
+        <v>936</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>('실재감', '학습')</t>
+          <t>('학습', '부진아')</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.00186</v>
+        <v>0.01475</v>
       </c>
       <c r="D415" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>859</v>
+        <v>43</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>('확인', '연구')</t>
+          <t>('정보', '사회')</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.00187</v>
+        <v>0.0147</v>
       </c>
       <c r="D416" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>94</v>
+        <v>745</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>('방법', '제공')</t>
+          <t>('창의', '신장')</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.00188</v>
+        <v>0.01468</v>
       </c>
       <c r="D417" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>237</v>
+        <v>409</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>('활용', '교육')</t>
+          <t>('특성', '고려')</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.00193</v>
+        <v>0.01465</v>
       </c>
       <c r="D418" t="n">
-        <v>156</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>475</v>
+        <v>182</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>('교육', '관련')</t>
+          <t>('평가', '도구')</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.00193</v>
+        <v>0.0146</v>
       </c>
       <c r="D419" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>258</v>
+        <v>918</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>('교육', '관심')</t>
+          <t>('교육', '정보', '교육')</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.00194</v>
+        <v>0.01457</v>
       </c>
       <c r="D420" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>72</v>
+        <v>1046</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>('학습자', '다양')</t>
+          <t>('교육', '로봇', '교육')</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.00195</v>
+        <v>0.01424</v>
       </c>
       <c r="D421" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>840</v>
+        <v>488</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>('사고력', '문제')</t>
+          <t>('긍정', '효과')</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.00196</v>
+        <v>0.01413</v>
       </c>
       <c r="D422" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>('학습', '모델')</t>
+          <t>('가상현실', '콘텐츠')</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.00197</v>
+        <v>0.01401</v>
       </c>
       <c r="D423" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>779</v>
+        <v>13</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>('능력', '수준')</t>
+          <t>('서비스', '제공')</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.00198</v>
+        <v>0.01392</v>
       </c>
       <c r="D424" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>234</v>
+        <v>808</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>('학교', '교육')</t>
+          <t>('의사소통', '능력')</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.00198</v>
+        <v>0.01384</v>
       </c>
       <c r="D425" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>858</v>
+        <v>454</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>('유의미', '영향')</t>
+          <t>('상담', '시스템')</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.00199</v>
+        <v>0.0138</v>
       </c>
       <c r="D426" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>788</v>
+        <v>677</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>('교사', '전문')</t>
+          <t>('교사', '인식')</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.002</v>
+        <v>0.01363</v>
       </c>
       <c r="D427" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>330</v>
+        <v>935</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>('학생', '컴퓨터')</t>
+          <t>('학습', '스타일')</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.002</v>
+        <v>0.01357</v>
       </c>
       <c r="D428" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>913</v>
+        <v>1030</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>('로봇', '제작')</t>
+          <t>('로봇', '교육', '과정')</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.00201</v>
+        <v>0.01347</v>
       </c>
       <c r="D429" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>('학생', '인터넷')</t>
+          <t>('정보', '과학')</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.00204</v>
+        <v>0.01343</v>
       </c>
       <c r="D430" t="n">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>306</v>
+        <v>1129</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>('결과', '분석')</t>
+          <t>('소프트웨어', '교육', '교육')</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.00206</v>
+        <v>0.01337</v>
       </c>
       <c r="D431" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>370</v>
+        <v>876</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>('영향', '연구')</t>
+          <t>('교육', '과정', '개선')</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.00206</v>
+        <v>0.01335</v>
       </c>
       <c r="D432" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>('개발', '시스템')</t>
+          <t>('컴퓨터', '소양')</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.00207</v>
+        <v>0.01333</v>
       </c>
       <c r="D433" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>134</v>
+        <v>1114</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>('인터넷', '환경')</t>
+          <t>('기능', '게임')</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0.00208</v>
+        <v>0.01332</v>
       </c>
       <c r="D434" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>('ict', '교육')</t>
+          <t>('교육', '과정')</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0.00209</v>
+        <v>0.01319</v>
       </c>
       <c r="D435" t="n">
-        <v>47</v>
+        <v>624</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>839</v>
+        <v>631</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>('초등', '논리')</t>
+          <t>('정보', '윤리')</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0.0021</v>
+        <v>0.01309</v>
       </c>
       <c r="D436" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>628</v>
+        <v>985</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>('목적', '초등')</t>
+          <t>('동기', '학업')</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0.0021</v>
+        <v>0.01305</v>
       </c>
       <c r="D437" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>394</v>
+        <v>1024</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>('관련', '연구')</t>
+          <t>('유의미', '향상')</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0.00211</v>
+        <v>0.01292</v>
       </c>
       <c r="D438" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>742</v>
+        <v>107</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>('비교', '연구')</t>
+          <t>('환경', '제공')</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0.00212</v>
+        <v>0.01275</v>
       </c>
       <c r="D439" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>('컴퓨터', '사용')</t>
+          <t>('프로젝트', '학습')</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0.00213</v>
+        <v>0.01249</v>
       </c>
       <c r="D440" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>549</v>
+        <v>213</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>('학생', 'ict')</t>
+          <t>('실태', '분석')</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0.00213</v>
+        <v>0.01244</v>
       </c>
       <c r="D441" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>127</v>
+        <v>821</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>('정보', '활용')</t>
+          <t>('개발', '초등', '학년')</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>0.00215</v>
+        <v>0.01244</v>
       </c>
       <c r="D442" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>123</v>
+        <v>925</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>('구현', '시스템')</t>
+          <t>('시사점', '제시')</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0.00216</v>
+        <v>0.01235</v>
       </c>
       <c r="D443" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>884</v>
+        <v>266</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>('ict', '능력')</t>
+          <t>('교육', '과정', '컴퓨터')</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>0.00217</v>
+        <v>0.01233</v>
       </c>
       <c r="D444" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>924</v>
+        <v>1043</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>('대학', '컴퓨터')</t>
+          <t>('데이터', '수집')</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0.0022</v>
+        <v>0.01229</v>
       </c>
       <c r="D445" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>941</v>
+        <v>646</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>('과학', '언플러그드')</t>
+          <t>('중독', '실태')</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>0.00222</v>
+        <v>0.01222</v>
       </c>
       <c r="D446" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>471</v>
+        <v>33</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>('자료', '분석')</t>
+          <t>('활용', '능력')</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0.00223</v>
+        <v>0.01206</v>
       </c>
       <c r="D447" t="n">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>705</v>
+        <v>318</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>('원리', '학습')</t>
+          <t>('개발', '적용')</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>0.00224</v>
+        <v>0.01194</v>
       </c>
       <c r="D448" t="n">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>379</v>
+        <v>992</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>('개발', '프로그램')</t>
+          <t>('소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>0.00225</v>
+        <v>0.01193</v>
       </c>
       <c r="D449" t="n">
-        <v>25</v>
+        <v>284</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>44</v>
+        <v>584</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>('정보', '교육')</t>
+          <t>('교육', '초등', '학년')</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0.00227</v>
+        <v>0.01175</v>
       </c>
       <c r="D450" t="n">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>116</v>
+        <v>900</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>('중심', '교수')</t>
+          <t>('검사', '결과')</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0.00227</v>
+        <v>0.0116</v>
       </c>
       <c r="D451" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>414</v>
+        <v>222</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>('제안', '시스템')</t>
+          <t>('활동', '중심')</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0.00229</v>
+        <v>0.01152</v>
       </c>
       <c r="D452" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>('사례', '연구')</t>
+          <t>('컴퓨터', '교과서')</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>0.0023</v>
+        <v>0.01152</v>
       </c>
       <c r="D453" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>418</v>
+        <v>1007</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>('이론', '적용')</t>
+          <t>('과서', '사용')</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>0.0023</v>
+        <v>0.01145</v>
       </c>
       <c r="D454" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>686</v>
+        <v>1011</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>('도출', '연구')</t>
+          <t>('연구', '동향')</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0.0023</v>
+        <v>0.01141</v>
       </c>
       <c r="D455" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>413</v>
+        <v>117</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>('컴퓨터', '프로그래밍')</t>
+          <t>('학습자', '중심')</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>0.0023</v>
+        <v>0.01117</v>
       </c>
       <c r="D456" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>806</v>
+        <v>1094</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>('인식', '분석')</t>
+          <t>('steam', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>0.00232</v>
+        <v>0.01107</v>
       </c>
       <c r="D457" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>('교실', '수업')</t>
+          <t>('온라인', '게임')</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>0.00235</v>
+        <v>0.01105</v>
       </c>
       <c r="D458" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>689</v>
+        <v>334</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>('분석', '분석')</t>
+          <t>('교육', '대학교')</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>0.00236</v>
+        <v>0.01099</v>
       </c>
       <c r="D459" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>('교육', '방법')</t>
+          <t>('도구', '개발')</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>0.00237</v>
+        <v>0.01096</v>
       </c>
       <c r="D460" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>597</v>
+        <v>224</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>('활동', '지원')</t>
+          <t>('구성', '요소')</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>0.00239</v>
+        <v>0.01096</v>
       </c>
       <c r="D461" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>1206</v>
+        <v>738</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>('sw', '영재')</t>
+          <t>('학습', '성과')</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0.0024</v>
+        <v>0.01093</v>
       </c>
       <c r="D462" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>('학습자', '학습')</t>
+          <t>('교육', '시스템', '설계')</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0.0024</v>
+        <v>0.01089</v>
       </c>
       <c r="D463" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>1078</v>
+        <v>627</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>('현직', '초등')</t>
+          <t>('정보', '기기')</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>0.00242</v>
+        <v>0.01082</v>
       </c>
       <c r="D464" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>660</v>
+        <v>896</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>('프로그래밍', '교육', '과정')</t>
+          <t>('중요', '인식')</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>0.00242</v>
+        <v>0.0107</v>
       </c>
       <c r="D465" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>378</v>
+        <v>915</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>('도형', '학습')</t>
+          <t>('로봇', '프로그래밍')</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0.00245</v>
+        <v>0.01068</v>
       </c>
       <c r="D466" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>65</v>
+        <v>923</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>('다양', '형태')</t>
+          <t>('관계', '규명')</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>0.0025</v>
+        <v>0.01068</v>
       </c>
       <c r="D467" t="n">
         <v>11</v>
@@ -7909,546 +7909,546 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>497</v>
+        <v>1062</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>('알고리즘', '교육')</t>
+          <t>('학습', '몰입')</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0.00251</v>
+        <v>0.01066</v>
       </c>
       <c r="D468" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>635</v>
+        <v>49</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>('개발', '개발')</t>
+          <t>('교사', '학부모')</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0.00252</v>
+        <v>0.01064</v>
       </c>
       <c r="D469" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>851</v>
+        <v>542</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>('교사', '보조')</t>
+          <t>('모형', '개발')</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0.00252</v>
+        <v>0.01059</v>
       </c>
       <c r="D470" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>382</v>
+        <v>1136</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>('결과', '학생')</t>
+          <t>('협력', '문제')</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>0.00253</v>
+        <v>0.01053</v>
       </c>
       <c r="D471" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>899</v>
+        <v>73</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>('프로그램', '초등')</t>
+          <t>('교수자', '학습자')</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>0.00254</v>
+        <v>0.01051</v>
       </c>
       <c r="D472" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>310</v>
+        <v>483</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>('학습자', '문제')</t>
+          <t>('적용', '가능')</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>0.00257</v>
+        <v>0.01051</v>
       </c>
       <c r="D473" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>143</v>
+        <v>1119</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>('인터넷', '활용')</t>
+          <t>('초등', '예비')</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>0.00257</v>
+        <v>0.01043</v>
       </c>
       <c r="D474" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>499</v>
+        <v>904</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>('활용', '프로그래밍')</t>
+          <t>('과제', '수행')</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0.00258</v>
+        <v>0.01029</v>
       </c>
       <c r="D475" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>566</v>
+        <v>952</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>('초등', '현장')</t>
+          <t>('설문', '실시')</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0.00258</v>
+        <v>0.01026</v>
       </c>
       <c r="D476" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>4</v>
+        <v>1110</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>('환경', '구축')</t>
+          <t>('영역', '구분')</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>0.00264</v>
+        <v>0.01025</v>
       </c>
       <c r="D477" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>('학습', '능력')</t>
+          <t>('시스템', '개발')</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0.00267</v>
+        <v>0.01016</v>
       </c>
       <c r="D478" t="n">
-        <v>52</v>
+        <v>123</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>1178</v>
+        <v>257</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨팅')</t>
+          <t>('지식', '사회')</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>0.00267</v>
+        <v>0.01012</v>
       </c>
       <c r="D479" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>61</v>
+        <v>581</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>('구현', '논문')</t>
+          <t>('ict', '소양')</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0.00271</v>
+        <v>0.01012</v>
       </c>
       <c r="D480" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>832</v>
+        <v>351</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>('사례', '분석')</t>
+          <t>('연구', '결과')</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0.00272</v>
+        <v>0.01012</v>
       </c>
       <c r="D481" t="n">
-        <v>14</v>
+        <v>243</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>676</v>
+        <v>15</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>('실시', '연구')</t>
+          <t>('시스템', '구축')</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>0.00272</v>
+        <v>0.01003</v>
       </c>
       <c r="D482" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>('정보', '기술')</t>
+          <t>('코스웨어', '설계')</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>0.00272</v>
+        <v>0.00997</v>
       </c>
       <c r="D483" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>404</v>
+        <v>498</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>('기존', '연구')</t>
+          <t>('자료', '구조')</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0.00273</v>
+        <v>0.00997</v>
       </c>
       <c r="D484" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>303</v>
+        <v>926</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>('교육', '효과')</t>
+          <t>('수준', '측정')</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0.00273</v>
+        <v>0.00991</v>
       </c>
       <c r="D485" t="n">
-        <v>129</v>
+        <v>14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>721</v>
+        <v>53</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>('교육', '방향')</t>
+          <t>('단계', '구성')</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>0.00275</v>
+        <v>0.00984</v>
       </c>
       <c r="D486" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>292</v>
+        <v>554</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>('교수', '설계')</t>
+          <t>('수업', '모형')</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>0.00278</v>
+        <v>0.00976</v>
       </c>
       <c r="D487" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>206</v>
+        <v>430</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>('교육', '대학')</t>
+          <t>('콘텐츠', '개발')</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>0.0028</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="D488" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>32</v>
+        <v>1202</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>('컴퓨터', '활용')</t>
+          <t>('sw', '교육', '실시')</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0.00283</v>
+        <v>0.00957</v>
       </c>
       <c r="D489" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>('교육', '목표')</t>
+          <t>('제안', '제안')</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>0.00283</v>
+        <v>0.00945</v>
       </c>
       <c r="D490" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>358</v>
+        <v>1145</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>('과정', '운영')</t>
+          <t>('sw', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>0.00284</v>
+        <v>0.00937</v>
       </c>
       <c r="D491" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>1104</v>
+        <v>321</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>('영역', '성취')</t>
+          <t>('해결', '과정')</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>0.00284</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="D492" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>711</v>
+        <v>223</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>('교수', '학습자')</t>
+          <t>('컴퓨터', '교과')</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0.00286</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="D493" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>871</v>
+        <v>458</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>('사고', '문제')</t>
+          <t>('적용', '결과')</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>0.00287</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="D494" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>452</v>
+        <v>887</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>('교육', '필요')</t>
+          <t>('과학', '탐구')</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>0.00287</v>
+        <v>0.00924</v>
       </c>
       <c r="D495" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>510</v>
+        <v>714</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>('정보', '역기능')</t>
+          <t>('학습', '장애')</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>0.00288</v>
+        <v>0.00911</v>
       </c>
       <c r="D496" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>58</v>
+        <v>751</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>('분석', '연구')</t>
+          <t>('개인', '정보')</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>0.00292</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D497" t="n">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>691</v>
+        <v>1204</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>('교사', 'ict')</t>
+          <t>('메이커', '교육')</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>0.00292</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="D498" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>703</v>
+        <v>951</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>('과학', '교육')</t>
+          <t>('측정', '도구')</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0.00293</v>
+        <v>0.00891</v>
       </c>
       <c r="D499" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>1001</v>
+        <v>50</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>('프로그래밍', '교육', '효과')</t>
+          <t>('조사', '결과')</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>0.00293</v>
+        <v>0.008840000000000001</v>
       </c>
       <c r="D500" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>754</v>
+        <v>272</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>('학생', '학업')</t>
+          <t>('해결', '능력')</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>0.00294</v>
+        <v>0.00881</v>
       </c>
       <c r="D501" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -453,1151 +453,1151 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1012</v>
+        <v>918</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.77778</v>
+        <v>1.5083</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1093</v>
+        <v>793</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.53846</v>
+        <v>1.11111</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1088</v>
+        <v>977</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.5083</v>
+        <v>0.9868400000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>917</v>
+        <v>381</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.11111</v>
+        <v>0.95109</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>719</v>
+        <v>854</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.02975</v>
+        <v>0.84056</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1187</v>
+        <v>858</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9868400000000001</v>
+        <v>0.68807</v>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1195</v>
+        <v>485</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9539</v>
+        <v>0.625</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>433</v>
+        <v>886</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.95109</v>
+        <v>0.61538</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1044</v>
+        <v>36</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8547</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>998</v>
+        <v>803</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.84056</v>
+        <v>0.50561</v>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>856</v>
+        <v>700</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.82645</v>
+        <v>0.47795</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>527</v>
+        <v>989</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.80087</v>
+        <v>0.43048</v>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>459</v>
+        <v>73</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7672600000000001</v>
+        <v>0.41098</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1164</v>
+        <v>983</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.75758</v>
+        <v>0.32318</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1047</v>
+        <v>430</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.73099</v>
+        <v>0.30928</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1004</v>
+        <v>883</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.68807</v>
+        <v>0.26132</v>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>956</v>
+        <v>141</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6651899999999999</v>
+        <v>0.25685</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>525</v>
+        <v>987</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.64103</v>
+        <v>0.25641</v>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.625</v>
+        <v>0.24714</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1048</v>
+        <v>806</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.61538</v>
+        <v>0.24691</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>114</v>
+        <v>745</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.61047</v>
+        <v>0.23742</v>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>522</v>
+        <v>763</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.60494</v>
+        <v>0.22222</v>
       </c>
       <c r="D23" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>954</v>
+        <v>597</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('향상', '긍정', '영향')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.59524</v>
+        <v>0.21684</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1203</v>
+        <v>409</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('대응', '표본', '검정')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.59524</v>
+        <v>0.21225</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>614</v>
+        <v>465</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5791500000000001</v>
+        <v>0.21008</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>38</v>
+        <v>783</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.18543</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>718</v>
+        <v>444</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.56391</v>
+        <v>0.17942</v>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>273</v>
+        <v>933</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.55903</v>
+        <v>0.17631</v>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1111</v>
+        <v>697</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('융합', '활동', '영역')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.53476</v>
+        <v>0.17544</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>184</v>
+        <v>968</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5291</v>
+        <v>0.1708</v>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>931</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.50561</v>
+        <v>0.16401</v>
       </c>
       <c r="D32" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>804</v>
+        <v>751</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.47795</v>
+        <v>0.15983</v>
       </c>
       <c r="D33" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1120</v>
+        <v>838</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.47293</v>
+        <v>0.15226</v>
       </c>
       <c r="D34" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>833</v>
+        <v>253</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('정보', '보호', '교육')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.45249</v>
+        <v>0.1433</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1112</v>
+        <v>841</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('성취', '기준', '교수')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.45045</v>
+        <v>0.14243</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>1009</v>
+        <v>827</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.44379</v>
+        <v>0.14129</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>397</v>
+        <v>959</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.43846</v>
+        <v>0.13707</v>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>453</v>
+        <v>199</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.43492</v>
+        <v>0.13164</v>
       </c>
       <c r="D39" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>1205</v>
+        <v>279</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.43048</v>
+        <v>0.12751</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>672</v>
+        <v>853</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.41667</v>
+        <v>0.12531</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.41098</v>
+        <v>0.1245</v>
       </c>
       <c r="D42" t="n">
-        <v>187</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1211</v>
+        <v>678</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.40486</v>
+        <v>0.12371</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>652</v>
+        <v>881</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('학년', '학생', '대상')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.40404</v>
+        <v>0.12304</v>
       </c>
       <c r="D44" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>955</v>
+        <v>226</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.39753</v>
+        <v>0.1229</v>
       </c>
       <c r="D45" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>658</v>
+        <v>100</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.38919</v>
+        <v>0.1221</v>
       </c>
       <c r="D46" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1023</v>
+        <v>718</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.38647</v>
+        <v>0.11819</v>
       </c>
       <c r="D47" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>54</v>
+        <v>812</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.38373</v>
+        <v>0.11773</v>
       </c>
       <c r="D48" t="n">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1106</v>
+        <v>984</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.37037</v>
+        <v>0.11464</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>683</v>
+        <v>566</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.37037</v>
+        <v>0.11364</v>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>524</v>
+        <v>963</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('대상', '설문', '조사')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.36376</v>
+        <v>0.11338</v>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>253</v>
+        <v>479</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.36126</v>
+        <v>0.11111</v>
       </c>
       <c r="D52" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>521</v>
+        <v>849</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.35446</v>
+        <v>0.11074</v>
       </c>
       <c r="D53" t="n">
-        <v>108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1105</v>
+        <v>464</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.33436</v>
+        <v>0.11042</v>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>199</v>
+        <v>829</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('정보', '통신', '기술')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.32995</v>
+        <v>0.10975</v>
       </c>
       <c r="D55" t="n">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1172</v>
+        <v>801</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅', '교육')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.32895</v>
+        <v>0.10893</v>
       </c>
       <c r="D56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>903</v>
+        <v>681</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '향상')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.32859</v>
+        <v>0.10553</v>
       </c>
       <c r="D57" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('초등', '학년', '학생')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.3241</v>
+        <v>0.10314</v>
       </c>
       <c r="D58" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1194</v>
+        <v>221</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.32318</v>
+        <v>0.10252</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>432</v>
+        <v>712</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('교육', '자료', '개발')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.31797</v>
+        <v>0.10205</v>
       </c>
       <c r="D60" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>895</v>
+        <v>856</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('컴퓨터', '과학', '교육')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.31612</v>
+        <v>0.0993</v>
       </c>
       <c r="D61" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>327</v>
+        <v>530</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('문제', '해결', '과정')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.31093</v>
+        <v>0.09921000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.30928</v>
+        <v>0.09878000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>986</v>
+        <v>403</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('학습', '동기', '학업')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.29455</v>
+        <v>0.09676</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1201</v>
+        <v>923</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.29424</v>
+        <v>0.0964</v>
       </c>
       <c r="D65" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('창의', '문제', '해결력')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.29284</v>
+        <v>0.09563000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>545</v>
+        <v>124</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('학습', '모형', '개발')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2902</v>
+        <v>0.09515999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>27</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1018</v>
+        <v>784</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('결과', '실험', '집단')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.28011</v>
+        <v>0.09497999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1175</v>
+        <v>97</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('ict', '리터러시', '수준')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.26738</v>
+        <v>0.09276</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1042</v>
+        <v>129</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.26132</v>
+        <v>0.08841</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>151</v>
+        <v>986</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.25685</v>
+        <v>0.08803</v>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1200</v>
+        <v>927</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.25641</v>
+        <v>0.08731</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>910</v>
+        <v>627</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('교사', '대상', '설문')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.25585</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D73" t="n">
         <v>17</v>
@@ -1605,450 +1605,450 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>328</v>
+        <v>889</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('초등', '학년', '대상')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.25401</v>
+        <v>0.08469</v>
       </c>
       <c r="D74" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1207</v>
+        <v>870</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('협력', '문제', '해결력')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.25365</v>
+        <v>0.08418</v>
       </c>
       <c r="D75" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.25231</v>
+        <v>0.08201</v>
       </c>
       <c r="D76" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1128</v>
+        <v>188</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('초등', '소프트웨어', '교육')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.25019</v>
+        <v>0.08175</v>
       </c>
       <c r="D77" t="n">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>111</v>
+        <v>985</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.24714</v>
+        <v>0.08056000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>934</v>
+        <v>757</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.24691</v>
+        <v>0.07974000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('평가', '도구', '개발')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.24155</v>
+        <v>0.07906000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('학습자', '상호', '작용')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.24064</v>
+        <v>0.07729</v>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>477</v>
+        <v>610</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '개발')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.2395</v>
+        <v>0.07668999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>860</v>
+        <v>168</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.23742</v>
+        <v>0.07391</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>819</v>
+        <v>433</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('컴퓨터', '게임', '중독')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.23188</v>
+        <v>0.07174999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '신장')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.2259</v>
+        <v>0.06412</v>
       </c>
       <c r="D85" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>882</v>
+        <v>130</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.22222</v>
+        <v>0.0641</v>
       </c>
       <c r="D86" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>274</v>
+        <v>58</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('문제', '해결', '능력')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.22124</v>
+        <v>0.06383999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('통신', '기술', '발달')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.21923</v>
+        <v>0.06221</v>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>682</v>
+        <v>967</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.21684</v>
+        <v>0.06158</v>
       </c>
       <c r="D89" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>464</v>
+        <v>946</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.21225</v>
+        <v>0.05727</v>
       </c>
       <c r="D90" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>531</v>
+        <v>233</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.21008</v>
+        <v>0.05571</v>
       </c>
       <c r="D91" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>783</v>
+        <v>949</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('초등', '교사', '대상')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.20559</v>
+        <v>0.05569</v>
       </c>
       <c r="D92" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>1182</v>
+        <v>515</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('초등', '컴퓨팅', '사고력')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.19953</v>
+        <v>0.05543</v>
       </c>
       <c r="D93" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>1144</v>
+        <v>563</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('활용', 'sw', '교육')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.19408</v>
+        <v>0.05405</v>
       </c>
       <c r="D94" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('교육', '내용', '선정')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.1919</v>
+        <v>0.05264</v>
       </c>
       <c r="D95" t="n">
-        <v>19</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1097</v>
+        <v>625</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '초등')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.18895</v>
+        <v>0.05252</v>
       </c>
       <c r="D96" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>906</v>
+        <v>877</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.18543</v>
+        <v>0.05241</v>
       </c>
       <c r="D97" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>722</v>
+        <v>859</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('컴퓨터', '교과', '교육')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.18365</v>
+        <v>0.05206</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>291</v>
+        <v>585</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('설계', '구현', '연구')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.18182</v>
+        <v>0.04753</v>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>503</v>
+        <v>892</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.17942</v>
+        <v>0.04685</v>
       </c>
       <c r="D100" t="n">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1181</v>
+        <v>891</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('교육', '초등', '컴퓨팅')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.17724</v>
+        <v>0.04605</v>
       </c>
       <c r="D101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -453,1407 +453,1407 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>918</v>
+        <v>1164</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.5083</v>
+        <v>1.77778</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>793</v>
+        <v>1242</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.11111</v>
+        <v>1.53846</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>977</v>
+        <v>130</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9868400000000001</v>
+        <v>1.52174</v>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>381</v>
+        <v>1237</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.95109</v>
+        <v>1.5083</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>854</v>
+        <v>1062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.84056</v>
+        <v>1.11111</v>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>858</v>
+        <v>1329</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.68807</v>
+        <v>0.9868400000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>485</v>
+        <v>837</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.625</v>
+        <v>0.96618</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>886</v>
+        <v>1336</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.61538</v>
+        <v>0.9539</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>36</v>
+        <v>514</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5711000000000001</v>
+        <v>0.95109</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>803</v>
+        <v>1196</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.50561</v>
+        <v>0.8547</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>700</v>
+        <v>1148</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.47795</v>
+        <v>0.84056</v>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>989</v>
+        <v>998</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.43048</v>
+        <v>0.82645</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>73</v>
+        <v>615</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.41098</v>
+        <v>0.80087</v>
       </c>
       <c r="D14" t="n">
-        <v>187</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>983</v>
+        <v>542</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.32318</v>
+        <v>0.7672600000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>430</v>
+        <v>1198</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.30928</v>
+        <v>0.73099</v>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>883</v>
+        <v>1155</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.26132</v>
+        <v>0.68807</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>141</v>
+        <v>1101</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.25685</v>
+        <v>0.6651899999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>987</v>
+        <v>613</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.25641</v>
+        <v>0.65666</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>105</v>
+        <v>649</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.24714</v>
+        <v>0.625</v>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>806</v>
+        <v>1200</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.24691</v>
+        <v>0.61538</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>745</v>
+        <v>653</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.23742</v>
+        <v>0.61444</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>763</v>
+        <v>137</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.22222</v>
+        <v>0.61047</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.21684</v>
+        <v>0.60494</v>
       </c>
       <c r="D24" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>409</v>
+        <v>1098</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.21225</v>
+        <v>0.59524</v>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>465</v>
+        <v>1344</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('대응', '표본', '검정')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.21008</v>
+        <v>0.59524</v>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>783</v>
+        <v>718</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.18543</v>
+        <v>0.5791500000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>444</v>
+        <v>46</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.17942</v>
+        <v>0.5711000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>933</v>
+        <v>323</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.17631</v>
+        <v>0.55903</v>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>697</v>
+        <v>1257</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('융합', '활동', '영역')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.17544</v>
+        <v>0.53476</v>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>968</v>
+        <v>836</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1708</v>
+        <v>0.5291</v>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.16401</v>
+        <v>0.5291</v>
       </c>
       <c r="D32" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>751</v>
+        <v>1078</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.15983</v>
+        <v>0.50561</v>
       </c>
       <c r="D33" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>838</v>
+        <v>942</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.15226</v>
+        <v>0.47795</v>
       </c>
       <c r="D34" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>253</v>
+        <v>1264</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1433</v>
+        <v>0.47293</v>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>841</v>
+        <v>1178</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.14243</v>
+        <v>0.47031</v>
       </c>
       <c r="D36" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>827</v>
+        <v>465</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.14129</v>
+        <v>0.4687</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>959</v>
+        <v>1160</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.13707</v>
+        <v>0.44379</v>
       </c>
       <c r="D38" t="n">
-        <v>291</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>199</v>
+        <v>535</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.13164</v>
+        <v>0.43492</v>
       </c>
       <c r="D39" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>279</v>
+        <v>1346</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.12751</v>
+        <v>0.43048</v>
       </c>
       <c r="D40" t="n">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>853</v>
+        <v>784</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.12531</v>
+        <v>0.41667</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>364</v>
+        <v>1307</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.1245</v>
+        <v>0.41322</v>
       </c>
       <c r="D42" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>678</v>
+        <v>89</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.12371</v>
+        <v>0.41098</v>
       </c>
       <c r="D43" t="n">
-        <v>22</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>881</v>
+        <v>1353</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.12304</v>
+        <v>0.40486</v>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>226</v>
+        <v>761</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('학년', '학생', '대상')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.1229</v>
+        <v>0.40404</v>
       </c>
       <c r="D45" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>100</v>
+        <v>1099</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.1221</v>
+        <v>0.39753</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>718</v>
+        <v>1032</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.11819</v>
+        <v>0.3937</v>
       </c>
       <c r="D47" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>812</v>
+        <v>770</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.11773</v>
+        <v>0.38919</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>984</v>
+        <v>63</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.11464</v>
+        <v>0.38655</v>
       </c>
       <c r="D49" t="n">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>566</v>
+        <v>1173</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.11364</v>
+        <v>0.38647</v>
       </c>
       <c r="D50" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>963</v>
+        <v>750</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('영향', '미치', '나타나')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.11338</v>
+        <v>0.38306</v>
       </c>
       <c r="D51" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>479</v>
+        <v>612</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('대상', '설문', '조사')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.11111</v>
+        <v>0.37263</v>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>849</v>
+        <v>1253</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.11074</v>
+        <v>0.37037</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>464</v>
+        <v>298</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.11042</v>
+        <v>0.36986</v>
       </c>
       <c r="D54" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>829</v>
+        <v>778</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.10975</v>
+        <v>0.36955</v>
       </c>
       <c r="D55" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>801</v>
+        <v>609</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.10893</v>
+        <v>0.35446</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>681</v>
+        <v>1252</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.10553</v>
+        <v>0.3367</v>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>677</v>
+        <v>861</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.10314</v>
+        <v>0.3367</v>
       </c>
       <c r="D58" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>221</v>
+        <v>907</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('유의', '차이', '나타나')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.10252</v>
+        <v>0.3367</v>
       </c>
       <c r="D59" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>712</v>
+        <v>238</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('정보', '통신', '기술')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.10205</v>
+        <v>0.32995</v>
       </c>
       <c r="D60" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>856</v>
+        <v>1047</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('문제', '해결력', '향상')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.0993</v>
+        <v>0.32859</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('교육', '자료', '개발')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.09921000000000001</v>
+        <v>0.3268</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>80</v>
+        <v>760</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('초등', '학년', '학생')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.09878000000000001</v>
+        <v>0.3241</v>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>403</v>
+        <v>1334</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.09676</v>
+        <v>0.32318</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>923</v>
+        <v>1038</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('컴퓨터', '과학', '교육')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0964</v>
+        <v>0.31612</v>
       </c>
       <c r="D65" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>414</v>
+        <v>1020</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('유의미', '차이', '보이')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.09563000000000001</v>
+        <v>0.31348</v>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>124</v>
+        <v>382</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('문제', '해결', '과정')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.09515999999999999</v>
+        <v>0.31231</v>
       </c>
       <c r="D67" t="n">
-        <v>226</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>784</v>
+        <v>577</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.09497999999999999</v>
+        <v>0.30928</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>97</v>
+        <v>706</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('효과', '검증', '위하')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.09276</v>
+        <v>0.30395</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>129</v>
+        <v>525</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('창의', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.08841</v>
+        <v>0.29696</v>
       </c>
       <c r="D70" t="n">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>986</v>
+        <v>1316</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('피지컬', '컴퓨팅', '교육')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.08803</v>
+        <v>0.29561</v>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>927</v>
+        <v>1135</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('학습', '동기', '학업')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.08731</v>
+        <v>0.29455</v>
       </c>
       <c r="D72" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>627</v>
+        <v>1342</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.29424</v>
       </c>
       <c r="D73" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>889</v>
+        <v>634</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('학습', '모형', '개발')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.08469</v>
+        <v>0.2902</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>870</v>
+        <v>664</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('영향', '미치', '요인')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.08418</v>
+        <v>0.28409</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>670</v>
+        <v>1168</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('결과', '실험', '집단')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.08201</v>
+        <v>0.28011</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>188</v>
+        <v>415</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('향상', '미치', '효과')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.08175</v>
+        <v>0.26838</v>
       </c>
       <c r="D77" t="n">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>985</v>
+        <v>1319</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('ict', '리터러시', '수준')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.08056000000000001</v>
+        <v>0.26738</v>
       </c>
       <c r="D78" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>757</v>
+        <v>1194</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.07974000000000001</v>
+        <v>0.26132</v>
       </c>
       <c r="D79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.07906000000000001</v>
+        <v>0.25685</v>
       </c>
       <c r="D80" t="n">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>102</v>
+        <v>1341</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.07729</v>
+        <v>0.25641</v>
       </c>
       <c r="D81" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>610</v>
+        <v>802</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.07668999999999999</v>
+        <v>0.25615</v>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>168</v>
+        <v>1054</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('교사', '대상', '설문')</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.07391</v>
+        <v>0.25585</v>
       </c>
       <c r="D83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('초등', '학년', '대상')</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.07174999999999999</v>
+        <v>0.25401</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>218</v>
+        <v>1349</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('협력', '문제', '해결력')</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.06412</v>
+        <v>0.25365</v>
       </c>
       <c r="D85" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>130</v>
+        <v>1271</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('초등', '소프트웨어', '교육')</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0641</v>
+        <v>0.24743</v>
       </c>
       <c r="D86" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.06383999999999999</v>
+        <v>0.24714</v>
       </c>
       <c r="D87" t="n">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>181</v>
+        <v>1080</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.06221</v>
+        <v>0.24691</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('정보', '보호', '교육')</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.06158</v>
+        <v>0.2451</v>
       </c>
       <c r="D89" t="n">
         <v>11</v>
@@ -1861,194 +1861,194 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>946</v>
+        <v>224</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('평가', '도구', '개발')</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.05727</v>
+        <v>0.24155</v>
       </c>
       <c r="D90" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('학습자', '상호', '작용')</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.05571</v>
+        <v>0.24064</v>
       </c>
       <c r="D91" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>949</v>
+        <v>566</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('교육', '프로그램', '개발')</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.05569</v>
+        <v>0.24062</v>
       </c>
       <c r="D92" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>515</v>
+        <v>1003</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.05543</v>
+        <v>0.23742</v>
       </c>
       <c r="D93" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>563</v>
+        <v>958</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('컴퓨터', '게임', '중독')</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.05405</v>
+        <v>0.23188</v>
       </c>
       <c r="D94" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('문제', '해결력', '신장')</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.05264</v>
+        <v>0.2259</v>
       </c>
       <c r="D95" t="n">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>625</v>
+        <v>1028</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.05252</v>
+        <v>0.22222</v>
       </c>
       <c r="D96" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>877</v>
+        <v>324</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('문제', '해결', '능력')</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.05241</v>
+        <v>0.22222</v>
       </c>
       <c r="D97" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>859</v>
+        <v>663</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('유의', '영향', '미치')</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.05206</v>
+        <v>0.22059</v>
       </c>
       <c r="D98" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>585</v>
+        <v>178</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('통신', '기술', '발달')</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.04753</v>
+        <v>0.21923</v>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>892</v>
+        <v>751</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('긍정', '영향', '미치')</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.04685</v>
+        <v>0.21684</v>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>891</v>
+        <v>550</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.04605</v>
+        <v>0.21225</v>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,223 +453,223 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1164</v>
+        <v>513</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.77778</v>
+        <v>2.22222</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1242</v>
+        <v>1781</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('실험', '집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.53846</v>
+        <v>2.22222</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>130</v>
+        <v>2257</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.52174</v>
+        <v>2.22222</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1237</v>
+        <v>2326</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.5083</v>
+        <v>2.10526</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1062</v>
+        <v>2389</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.11111</v>
+        <v>1.81818</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1329</v>
+        <v>2578</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('로봇', '활용', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9868400000000001</v>
+        <v>1.80556</v>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>837</v>
+        <v>2310</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.96618</v>
+        <v>1.77778</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1336</v>
+        <v>2245</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('문제', '해결력', '미치', '는')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9539</v>
+        <v>1.77515</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>514</v>
+        <v>2558</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.95109</v>
+        <v>1.75676</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1196</v>
+        <v>845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('본', '논문', '제안', 'ㄴ')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8547</v>
+        <v>1.75439</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('자', '기', '주도', '학습')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.84056</v>
+        <v>1.6129</v>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>998</v>
+        <v>2362</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.82645</v>
+        <v>1.5873</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>615</v>
+        <v>2019</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('교육', '과정', '대하', 'ㄴ')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.80087</v>
+        <v>1.54799</v>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>542</v>
+        <v>2435</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7672600000000001</v>
+        <v>1.53846</v>
       </c>
       <c r="D15" t="n">
         <v>13</v>
@@ -677,1378 +677,2978 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1198</v>
+        <v>2370</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('것', '나타나', '본', '연구')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.73099</v>
+        <v>1.53846</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1155</v>
+        <v>315</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.68807</v>
+        <v>1.5377</v>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1101</v>
+        <v>407</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6651899999999999</v>
+        <v>1.52174</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>613</v>
+        <v>2105</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('본', '연구', '개발', 'ㄴ')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.65666</v>
+        <v>1.51515</v>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>649</v>
+        <v>918</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('는', '것', '이', '위하')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.625</v>
+        <v>1.51515</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1200</v>
+        <v>2425</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.61538</v>
+        <v>1.5083</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>653</v>
+        <v>2454</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('학습', '방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.61444</v>
+        <v>1.44928</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>137</v>
+        <v>2460</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.61047</v>
+        <v>1.44231</v>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>610</v>
+        <v>2419</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.60494</v>
+        <v>1.42998</v>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1098</v>
+        <v>694</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('향상', '긍정', '영향')</t>
+          <t>('수', '있', '보', 'ㄴ')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.59524</v>
+        <v>1.28205</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1344</v>
+        <v>2403</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('대응', '표본', '검정')</t>
+          <t>('이', '따르', 'ㄴ', '논문')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.59524</v>
+        <v>1.28205</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>718</v>
+        <v>947</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('도움', '주', 'ㄹ', '수')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5791500000000001</v>
+        <v>1.27628</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46</v>
+        <v>1150</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5711000000000001</v>
+        <v>1.26984</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>323</v>
+        <v>1398</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.55903</v>
+        <v>1.2285</v>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1257</v>
+        <v>1989</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('융합', '활동', '영역')</t>
+          <t>('높', '은', '것', '나타나')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.53476</v>
+        <v>1.21212</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>836</v>
+        <v>1734</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('초등', '정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5291</v>
+        <v>1.19048</v>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>221</v>
+        <v>2550</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5291</v>
+        <v>1.16807</v>
       </c>
       <c r="D32" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1078</v>
+        <v>2304</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.50561</v>
+        <v>1.13872</v>
       </c>
       <c r="D33" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>942</v>
+        <v>2462</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('개발', 'ㄴ', '교육', '프로그램')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.47795</v>
+        <v>1.12245</v>
       </c>
       <c r="D34" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1264</v>
+        <v>205</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('본', '연구', '제안', 'ㄴ')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.47293</v>
+        <v>1.12045</v>
       </c>
       <c r="D35" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1178</v>
+        <v>2140</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('그리', 'it')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.47031</v>
+        <v>1.11111</v>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>465</v>
+        <v>824</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('간', '의', '상호', '작용')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4687</v>
+        <v>1.0989</v>
       </c>
       <c r="D37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>1160</v>
+        <v>2567</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('차', '산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.44379</v>
+        <v>1.04167</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>535</v>
+        <v>2006</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('대하', 'ㄴ', '학생', '의')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.43492</v>
+        <v>1.04167</v>
       </c>
       <c r="D39" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>1346</v>
+        <v>1758</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.43048</v>
+        <v>1.01868</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>784</v>
+        <v>476</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('시스템', '의', '설계', '구현')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.41667</v>
+        <v>1.00471</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1307</v>
+        <v>1662</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('영향', '주', '는', '것')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.41322</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>89</v>
+        <v>2557</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.41098</v>
+        <v>0.9868400000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>187</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1353</v>
+        <v>2554</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('초등', '의', '컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.40486</v>
+        <v>0.97403</v>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>761</v>
+        <v>2571</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('학년', '학생', '대상')</t>
+          <t>('명', '대상', '실시', 'ㄴ')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.40404</v>
+        <v>0.96154</v>
       </c>
       <c r="D45" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1099</v>
+        <v>2566</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.39753</v>
+        <v>0.9539</v>
       </c>
       <c r="D46" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1032</v>
+        <v>1217</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('미치', '영향', '분석')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.3937</v>
+        <v>0.95109</v>
       </c>
       <c r="D47" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>770</v>
+        <v>240</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('얻', '을', '수', '있')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.38919</v>
+        <v>0.91848</v>
       </c>
       <c r="D48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>63</v>
+        <v>2443</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('의', '스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.38655</v>
+        <v>0.90498</v>
       </c>
       <c r="D49" t="n">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1173</v>
+        <v>2312</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.38647</v>
+        <v>0.9009</v>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>750</v>
+        <v>204</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('영향', '미치', '나타나')</t>
+          <t>('수', '있', '본', '연구')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.38306</v>
+        <v>0.89439</v>
       </c>
       <c r="D51" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>612</v>
+        <v>1387</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('대상', '설문', '조사')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.37263</v>
+        <v>0.89138</v>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1253</v>
+        <v>235</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.37037</v>
+        <v>0.88447</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>298</v>
+        <v>1890</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('학년', '학생', '명', '대상')</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.36986</v>
+        <v>0.86957</v>
       </c>
       <c r="D54" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>778</v>
+        <v>2161</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.36955</v>
+        <v>0.86957</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>609</v>
+        <v>1637</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('영향', '미치', '는', '것')</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.35446</v>
+        <v>0.8666700000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1252</v>
+        <v>885</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('설계', '구현', '본', '연구')</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.3367</v>
+        <v>0.86207</v>
       </c>
       <c r="D57" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>861</v>
+        <v>2507</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('활용', 'ㄴ', 'sw', '교육')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.3367</v>
+        <v>0.86083</v>
       </c>
       <c r="D58" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>907</v>
+        <v>2354</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('유의', '차이', '나타나')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3367</v>
+        <v>0.8547</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>238</v>
+        <v>2291</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('정보', '통신', '기술')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.32995</v>
+        <v>0.84056</v>
       </c>
       <c r="D60" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1047</v>
+        <v>2266</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '향상')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.32859</v>
+        <v>0.83333</v>
       </c>
       <c r="D61" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('교육', '자료', '개발')</t>
+          <t>('통신', '기술', '의', '발달')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.3268</v>
+        <v>0.83333</v>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>760</v>
+        <v>2518</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('초등', '학년', '학생')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.3241</v>
+        <v>0.83333</v>
       </c>
       <c r="D63" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1334</v>
+        <v>2348</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.32318</v>
+        <v>0.8316</v>
       </c>
       <c r="D64" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1038</v>
+        <v>2048</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('컴퓨터', '과학', '교육')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.31612</v>
+        <v>0.82645</v>
       </c>
       <c r="D65" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1020</v>
+        <v>2531</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('유의미', '차이', '보이')</t>
+          <t>('교육', '과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.31348</v>
+        <v>0.82645</v>
       </c>
       <c r="D66" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('문제', '해결', '과정')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.31231</v>
+        <v>0.82102</v>
       </c>
       <c r="D67" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>577</v>
+        <v>1657</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.30928</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>706</v>
+        <v>946</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('효과', '검증', '위하')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.30395</v>
+        <v>0.80357</v>
       </c>
       <c r="D69" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>525</v>
+        <v>1070</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('창의', '문제', '해결력')</t>
+          <t>('문제', '해결', 'ㄹ', '수')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.29696</v>
+        <v>0.8</v>
       </c>
       <c r="D70" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1316</v>
+        <v>478</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅', '교육')</t>
+          <t>('수', '있', '을', '것')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.29561</v>
+        <v>0.7949000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1135</v>
+        <v>763</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('학습', '동기', '학업')</t>
+          <t>('대하', 'ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.29455</v>
+        <v>0.79365</v>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1342</v>
+        <v>1587</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.29424</v>
+        <v>0.78125</v>
       </c>
       <c r="D73" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>634</v>
+        <v>1543</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('학습', '모형', '개발')</t>
+          <t>('효과', '있', '는', '것')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.2902</v>
+        <v>0.77519</v>
       </c>
       <c r="D74" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>664</v>
+        <v>475</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('영향', '미치', '요인')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.28409</v>
+        <v>0.77507</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1168</v>
+        <v>1380</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('결과', '실험', '집단')</t>
+          <t>('정보', '통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.28011</v>
+        <v>0.77345</v>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>415</v>
+        <v>1264</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('향상', '미치', '효과')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.26838</v>
+        <v>0.7672600000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1319</v>
+        <v>2432</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('ict', '리터러시', '수준')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.26738</v>
+        <v>0.76628</v>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1194</v>
+        <v>2146</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.26132</v>
+        <v>0.75188</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>183</v>
+        <v>2444</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('스', '마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.25685</v>
+        <v>0.7326</v>
       </c>
       <c r="D80" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1341</v>
+        <v>2358</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.25641</v>
+        <v>0.73099</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>802</v>
+        <v>1778</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.25615</v>
+        <v>0.72464</v>
       </c>
       <c r="D82" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1054</v>
+        <v>2552</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('교사', '대상', '설문')</t>
+          <t>('sw', '교육', '초등', '의')</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.25585</v>
+        <v>0.71429</v>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>383</v>
+        <v>2453</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('초등', '학년', '대상')</t>
+          <t>('교수', '학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.25401</v>
+        <v>0.70652</v>
       </c>
       <c r="D84" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1349</v>
+        <v>1577</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('협력', '문제', '해결력')</t>
+          <t>('세기', '지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.25365</v>
+        <v>0.6944399999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1271</v>
+        <v>2300</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('초등', '소프트웨어', '교육')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.24743</v>
+        <v>0.68807</v>
       </c>
       <c r="D86" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.24714</v>
+        <v>0.68399</v>
       </c>
       <c r="D87" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1080</v>
+        <v>1438</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.24691</v>
+        <v>0.6791199999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>972</v>
+        <v>2395</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('정보', '보호', '교육')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.2451</v>
+        <v>0.6787300000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>224</v>
+        <v>1211</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('평가', '도구', '개발')</t>
+          <t>('있', '을', '것', '기대')</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.24155</v>
+        <v>0.6775099999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>239</v>
+        <v>1375</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('학습자', '상호', '작용')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.24064</v>
+        <v>0.67394</v>
       </c>
       <c r="D91" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>566</v>
+        <v>1661</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('교육', '프로그램', '개발')</t>
+          <t>('초등', '학년', '학생', '대상')</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.24062</v>
+        <v>0.6734</v>
       </c>
       <c r="D92" t="n">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>1003</v>
+        <v>2441</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.23742</v>
+        <v>0.67308</v>
       </c>
       <c r="D93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>958</v>
+        <v>2214</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('컴퓨터', '게임', '중독')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.23188</v>
+        <v>0.6651899999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>364</v>
+        <v>2490</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('문제', '해결력', '신장')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.2259</v>
+        <v>0.65359</v>
       </c>
       <c r="D95" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1028</v>
+        <v>505</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.22222</v>
+        <v>0.63796</v>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('문제', '해결', '능력')</t>
+          <t>('것', '알', 'ㄹ', '수')</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.22222</v>
+        <v>0.62921</v>
       </c>
       <c r="D97" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>663</v>
+        <v>1435</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('유의', '영향', '미치')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.22059</v>
+        <v>0.625</v>
       </c>
       <c r="D98" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>178</v>
+        <v>579</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('통신', '기술', '발달')</t>
+          <t>('의', '정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.21923</v>
+        <v>0.6172800000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>751</v>
+        <v>1402</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('긍정', '영향', '미치')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.21684</v>
+        <v>0.61538</v>
       </c>
       <c r="D100" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>550</v>
+        <v>2360</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.21225</v>
+        <v>0.61538</v>
       </c>
       <c r="D101" t="n">
-        <v>38</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>1439</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>('인재', '양성', '위하')</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.61444</v>
+      </c>
+      <c r="D102" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>('는', '데', '있')</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.61237</v>
+      </c>
+      <c r="D103" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>1371</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>('통신', '윤리', '교육')</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.60621</v>
+      </c>
+      <c r="D104" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>1456</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>('영향', '미치', '는', '요인')</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.60606</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>('기', '주도', '학습')</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.60241</v>
+      </c>
+      <c r="D106" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>2458</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>('학', '회')</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>2579</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>('대응', '표본', 't', '검정')</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.59524</v>
+      </c>
+      <c r="D108" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>('ㄴ', '기초', '자료')</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.59524</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>2482</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>('스', '마', '스마트폰', '중독')</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.59172</v>
+      </c>
+      <c r="D110" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>('자기', '주도', '학습')</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.58735</v>
+      </c>
+      <c r="D111" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>('수', '있', '본', '논문')</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.5848</v>
+      </c>
+      <c r="D112" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>('자기', '주도', '학습', '능력')</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.58309</v>
+      </c>
+      <c r="D113" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>1505</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>('정보', '통신', '기술', '교육')</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5827</v>
+      </c>
+      <c r="D114" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>('중', '의', '하나')</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5797099999999999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>('주도', '학습', '능력')</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.57924</v>
+      </c>
+      <c r="D116" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2519</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>('d', '프린터')</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.5719</v>
+      </c>
+      <c r="D117" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>('학급', '경영')</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5711000000000001</v>
+      </c>
+      <c r="D118" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>('것', '알', 'ㄹ')</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.5684</v>
+      </c>
+      <c r="D119" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>('정보', '활용', '능력')</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.56634</v>
+      </c>
+      <c r="D120" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>('이', '같', '은')</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.56448</v>
+      </c>
+      <c r="D121" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>('찾', '을', '수')</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5597</v>
+      </c>
+      <c r="D122" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>('찾', '을', '수', '있')</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5597</v>
+      </c>
+      <c r="D123" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>('정보', '통신', '기술', '의')</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.55842</v>
+      </c>
+      <c r="D124" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>2577</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>('표본', 't', '검정')</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5555600000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>2408</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>('스', '스마트', '교육')</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5497300000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>('능력', '향상', '위하', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.54645</v>
+      </c>
+      <c r="D127" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>('ㄴ', '관심', '높')</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.54466</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>('자', '기')</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.54259</v>
+      </c>
+      <c r="D129" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>('정보', '통신', '기술', '활용')</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.53608</v>
+      </c>
+      <c r="D130" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>2232</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>('향상', '긍정', 'ㄴ', '영향')</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.52854</v>
+      </c>
+      <c r="D131" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>1639</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>('긍정', 'ㄴ', '영향', '미치')</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5168</v>
+      </c>
+      <c r="D132" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>('초점', '맞추', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5128200000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>('의', '자기', '주도')</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.51136</v>
+      </c>
+      <c r="D134" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>('정보', '통신', '윤리', '의식')</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5097699999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>2298</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>('디지털교과서', '서')</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.50812</v>
+      </c>
+      <c r="D136" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>2497</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>('sw', '교육', '대하', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.50521</v>
+      </c>
+      <c r="D137" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>2147</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>('본', '연구', '제시', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.50505</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>1541</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>('의', '효과', '검증', '위하')</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.50505</v>
+      </c>
+      <c r="D139" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>1502</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>('통신', '기술', '교육')</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.50485</v>
+      </c>
+      <c r="D140" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>('본', '연구', '의', '결과')</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.50325</v>
+      </c>
+      <c r="D141" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>1454</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>('유의', 'ㄴ', '영향', '미치')</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4902</v>
+      </c>
+      <c r="D142" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>('초등', '학년', '학생', '의')</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.47847</v>
+      </c>
+      <c r="D143" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>2596</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>('데이터', '시각', '교육')</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.47847</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>('사전', '사후')</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.47795</v>
+      </c>
+      <c r="D145" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>('본', '연구', '의', '목적')</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.47619</v>
+      </c>
+      <c r="D146" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>2468</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>('초등', '예비', '교사')</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.47293</v>
+      </c>
+      <c r="D147" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>2457</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>('정보교육', '학')</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="D148" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>2442</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>('마', '스마트폰', '사용')</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4662</v>
+      </c>
+      <c r="D149" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>2489</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>('다는', '점', '의의')</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4644</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>('위하', 'ㄴ', '교수', '학습')</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.46377</v>
+      </c>
+      <c r="D151" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>1455</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>('ㄴ', '영향', '미치', '는')</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.46296</v>
+      </c>
+      <c r="D152" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>2222</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>('기', '주도', '학습', '능력')</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.46083</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>('기술', '의', '발달')</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.45956</v>
+      </c>
+      <c r="D154" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>('유의미', 'ㄴ', '차이', '보이')</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.45455</v>
+      </c>
+      <c r="D155" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>('수준', '맞', '는')</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.45455</v>
+      </c>
+      <c r="D156" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>('미치', '는', '영향', '분석')</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.45217</v>
+      </c>
+      <c r="D157" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>1636</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>('사고력', '신장', '위하', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.45045</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>('는', '영향', '분석')</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.44859</v>
+      </c>
+      <c r="D159" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>1719</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>('분석', '분석', '결과')</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.44649</v>
+      </c>
+      <c r="D160" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>('지식', '정보', '사회')</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.44515</v>
+      </c>
+      <c r="D161" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>('학습자', '중심', '의')</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.44367</v>
+      </c>
+      <c r="D162" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>2575</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>('로봇', '활용', 'sw')</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.43734</v>
+      </c>
+      <c r="D163" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>2317</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>('교육', '프로그램', '개발', '적용')</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.43337</v>
+      </c>
+      <c r="D164" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>('ㄴ', '초등', '교사', '의')</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.43103</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>2585</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>('플립', '러닝')</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.43048</v>
+      </c>
+      <c r="D166" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>2437</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>('예비', '교원', '의')</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.42735</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>('분석', '그', '결과')</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.42678</v>
+      </c>
+      <c r="D168" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>('있', '알', 'ㄹ', '수')</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.42135</v>
+      </c>
+      <c r="D169" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>('글', '쓰', '기')</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>('재량', '활동', '시간')</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>('기여', 'ㄹ', '것', '기대')</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="D172" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>('세기', '지식', '정보')</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>1779</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>('향상', '긍정', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.41408</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>2530</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>('과정', '표준', '모델')</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.41322</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>('초등', '예비', '교사', '의')</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.41209</v>
+      </c>
+      <c r="D176" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>('상호', '작용')</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.41098</v>
+      </c>
+      <c r="D177" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>1776</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>('학생', '명', '대상')</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.41035</v>
+      </c>
+      <c r="D178" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>1341</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>('부족', 'ㄴ', '실정')</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.4085</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>('교육', '프로그래밍', '언어')</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.40756</v>
+      </c>
+      <c r="D180" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>1706</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>('대하', 'ㄴ', '초등', '교사')</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.40323</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>('대상', '설문', '조사', '실시')</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.40323</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>('유의', 'ㄴ', '차이')</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.40323</v>
+      </c>
+      <c r="D183" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>2234</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>('것', '확인', 'ㄹ', '수')</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.39788</v>
+      </c>
+      <c r="D184" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>('실험', '집단', '통제')</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.39683</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>2452</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>('방법', '평가', '방법')</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.39401</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>('그', '효과', '검증')</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.39256</v>
+      </c>
+      <c r="D187" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>('ㄴ', '구체', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.39216</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>1669</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>('정보', '과학', '영재')</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.38919</v>
+      </c>
+      <c r="D189" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>2418</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>('마', '스마트폰')</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.38827</v>
+      </c>
+      <c r="D190" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>('있', '알', 'ㄹ')</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.38785</v>
+      </c>
+      <c r="D191" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>('의', '상호', '작용')</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.38724</v>
+      </c>
+      <c r="D192" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>('등', '같', '은')</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.38685</v>
+      </c>
+      <c r="D193" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>('게임', '중독', '치료')</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.38647</v>
+      </c>
+      <c r="D194" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>2553</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>('교육', '초등', '의', '컴퓨팅')</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.38265</v>
+      </c>
+      <c r="D195" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>('대상', '실시', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.38095</v>
+      </c>
+      <c r="D196" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>1814</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>('개발', '개발', 'ㄴ')</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.37919</v>
+      </c>
+      <c r="D197" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>2541</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>('학생', '의', '컴퓨팅', '사고력')</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.37879</v>
+      </c>
+      <c r="D198" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>('ㄴ', '차이', '보이')</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.37481</v>
+      </c>
+      <c r="D199" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>1638</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>('미치', '는', '것', '나타나')</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.37402</v>
+      </c>
+      <c r="D200" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>2496</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>('의', 'sw', '교육', '대하')</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.37267</v>
+      </c>
+      <c r="D201" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/modi_data/ngram_candidates.xlsx
+++ b/datamining/modi_data/ngram_candidates.xlsx
@@ -453,11 +453,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>483</v>
+        <v>1398</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -469,11 +469,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2104</v>
+        <v>255</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -485,15 +485,15 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2170</v>
+        <v>1510</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.105263157894737</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
@@ -501,527 +501,527 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2228</v>
+        <v>1450</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.818181818181818</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2155</v>
+        <v>1652</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.777777777777778</v>
+        <v>1.756756756756757</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2378</v>
+        <v>1491</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.756756756756757</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2204</v>
+        <v>1549</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.587301587301587</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2273</v>
+        <v>187</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.538461538461539</v>
+        <v>1.521739130434783</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>299</v>
+        <v>1542</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.537698412698413</v>
+        <v>1.508295625942685</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>388</v>
+        <v>1568</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.521739130434783</v>
+        <v>1.442307692307692</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2263</v>
+        <v>1539</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.508295625942685</v>
+        <v>1.429980276134122</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2294</v>
+        <v>651</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.442307692307692</v>
+        <v>1.26984126984127</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2257</v>
+        <v>1444</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.429980276134122</v>
+        <v>1.228733459357278</v>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1077</v>
+        <v>824</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.26984126984127</v>
+        <v>1.228501228501228</v>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1307</v>
+        <v>1643</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.228501228501228</v>
+        <v>1.168072680077872</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2373</v>
+        <v>1315</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.168072680077872</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D17" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2149</v>
+        <v>1043</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.13871635610766</v>
+        <v>1.01867572156197</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1999</v>
+        <v>1651</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.111111111111111</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1637</v>
+        <v>1658</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.01867572156197</v>
+        <v>0.9538950715421303</v>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2377</v>
+        <v>697</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9510869565217392</v>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2386</v>
+        <v>1452</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9538950715421303</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1140</v>
+        <v>1329</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9510869565217392</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2157</v>
+        <v>1486</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('t', '검정')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9009009009009009</v>
+        <v>0.8547008547008548</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1296</v>
+        <v>1430</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8913764510779435</v>
+        <v>0.8405568689256633</v>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>226</v>
+        <v>1407</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.8844665561083471</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2019</v>
+        <v>1613</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2196</v>
+        <v>1480</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8547008547008548</v>
+        <v>0.8316008316008316</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2137</v>
+        <v>1242</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8405568689256633</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="D29" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2112</v>
+        <v>813</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8008736803785949</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2344</v>
+        <v>933</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.78125</v>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2190</v>
+        <v>735</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('표본', 't')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8316008316008316</v>
+        <v>0.7672634271099744</v>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1915</v>
+        <v>1488</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8264462809917356</v>
+        <v>0.7309941520467835</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>241</v>
+        <v>1061</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8210180623973727</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1542</v>
+        <v>1439</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8140008140008139</v>
+        <v>0.6880733944954129</v>
       </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>885</v>
+        <v>212</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8035714285714285</v>
+        <v>0.6839945280437756</v>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>1480</v>
+        <v>1516</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.78125</v>
+        <v>0.6787330316742082</v>
       </c>
       <c r="D37" t="n">
         <v>13</v>
@@ -1029,143 +1029,143 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7750711800063271</v>
+        <v>0.6746031746031746</v>
       </c>
       <c r="D38" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1183</v>
+        <v>809</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7672634271099744</v>
+        <v>0.6739409499358151</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2270</v>
+        <v>1368</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.7662835249042145</v>
+        <v>0.6651884700665188</v>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2005</v>
+        <v>1594</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.7518796992481203</v>
+        <v>0.6535947712418301</v>
       </c>
       <c r="D41" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>2200</v>
+        <v>250</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7309941520467835</v>
+        <v>0.6379585326953748</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1657</v>
+        <v>847</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.7246376811594203</v>
+        <v>0.625</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>2145</v>
+        <v>422</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6880733944954129</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="D44" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>421</v>
+        <v>1490</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6839945280437756</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1347</v>
+        <v>850</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.6791171477079796</v>
+        <v>0.6144393241167435</v>
       </c>
       <c r="D46" t="n">
         <v>14</v>
@@ -1173,79 +1173,79 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>2234</v>
+        <v>204</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.6787330316742082</v>
+        <v>0.6104651162790697</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1289</v>
+        <v>806</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.6739409499358151</v>
+        <v>0.6049382716049383</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>2279</v>
+        <v>1566</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.6</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>2071</v>
+        <v>652</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.6651884700665188</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="D50" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>2322</v>
+        <v>927</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.6535947712418301</v>
+        <v>0.5791505791505791</v>
       </c>
       <c r="D51" t="n">
         <v>13</v>
@@ -1253,143 +1253,143 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>475</v>
+        <v>1614</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.6379585326953748</v>
+        <v>0.5718954248366013</v>
       </c>
       <c r="D52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1344</v>
+        <v>57</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.625</v>
+        <v>0.5711022272986864</v>
       </c>
       <c r="D53" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1311</v>
+        <v>431</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5590339892665475</v>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>2202</v>
+        <v>1665</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1348</v>
+        <v>1530</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.6144393241167435</v>
+        <v>0.5497251374312844</v>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>961</v>
+        <v>306</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.612369871402327</v>
+        <v>0.548073911681804</v>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1285</v>
+        <v>647</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.6062136903258398</v>
+        <v>0.5425935973955507</v>
       </c>
       <c r="D58" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1078</v>
+        <v>195</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.6024096385542169</v>
+        <v>0.5424254165052305</v>
       </c>
       <c r="D59" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>2292</v>
+        <v>1381</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.6</v>
+        <v>0.5323868677905945</v>
       </c>
       <c r="D60" t="n">
         <v>16</v>
@@ -1397,658 +1397,658 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1629</v>
+        <v>1437</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.5081157374735357</v>
       </c>
       <c r="D61" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>411</v>
+        <v>978</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5873493975903614</v>
+        <v>0.5012531328320802</v>
       </c>
       <c r="D62" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1154</v>
+        <v>1177</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.5797101449275363</v>
+        <v>0.4779525131051496</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>728</v>
+        <v>1576</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.5792400370713624</v>
+        <v>0.4729288975864318</v>
       </c>
       <c r="D64" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>2345</v>
+        <v>1464</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5718954248366013</v>
+        <v>0.4703115814226925</v>
       </c>
       <c r="D65" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>93</v>
+        <v>964</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5711022272986864</v>
+        <v>0.468839336763865</v>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>401</v>
+        <v>1565</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.5683971201212581</v>
+        <v>0.46875</v>
       </c>
       <c r="D67" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>541</v>
+        <v>627</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5663430420711975</v>
+        <v>0.4686976899899564</v>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>949</v>
+        <v>1554</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5644811115935736</v>
+        <v>0.4662004662004662</v>
       </c>
       <c r="D69" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>487</v>
+        <v>1277</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.5597014925373134</v>
+        <v>0.4593175853018373</v>
       </c>
       <c r="D70" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>2395</v>
+        <v>1446</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('표본', 't', '검정')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4437869822485207</v>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>2246</v>
+        <v>1525</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.5497251374312844</v>
+        <v>0.4437869822485207</v>
       </c>
       <c r="D72" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.5446623093681917</v>
+        <v>0.4349176762969867</v>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1071</v>
+        <v>1667</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.5425935973955507</v>
+        <v>0.4304778303917348</v>
       </c>
       <c r="D74" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>2408</v>
+        <v>344</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.4267844002943341</v>
       </c>
       <c r="D75" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.5113636363636364</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D76" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>2143</v>
+        <v>221</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.5081157374735357</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1405</v>
+        <v>1625</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.5048543689320388</v>
+        <v>0.4132231404958678</v>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>2412</v>
+        <v>132</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.4784688995215311</v>
+        <v>0.4109779882975759</v>
       </c>
       <c r="D79" t="n">
-        <v>11</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1828</v>
+        <v>1675</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.4779525131051496</v>
+        <v>0.4048582995951417</v>
       </c>
       <c r="D80" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>2301</v>
+        <v>1366</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.4729288975864318</v>
+        <v>0.4020549475094929</v>
       </c>
       <c r="D81" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>2291</v>
+        <v>1059</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.46875</v>
+        <v>0.3982843137254902</v>
       </c>
       <c r="D82" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>2280</v>
+        <v>1546</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.4662004662004662</v>
+        <v>0.3970223325062034</v>
       </c>
       <c r="D83" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>2321</v>
+        <v>1060</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.4643962848297213</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="D84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>485</v>
+        <v>1220</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.4595588235294118</v>
+        <v>0.3965631196298744</v>
       </c>
       <c r="D85" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1044</v>
+        <v>843</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.3925619834710744</v>
       </c>
       <c r="D86" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1954</v>
+        <v>986</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.4485852311939268</v>
+        <v>0.3891941391941392</v>
       </c>
       <c r="D87" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1599</v>
+        <v>1538</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.4464928705170675</v>
+        <v>0.3882715222921408</v>
       </c>
       <c r="D88" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1172</v>
+        <v>1460</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.4451510333863275</v>
+        <v>0.3864734299516908</v>
       </c>
       <c r="D89" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>435</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.4436728395061728</v>
+        <v>0.3845503718728871</v>
       </c>
       <c r="D90" t="n">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>2393</v>
+        <v>1562</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.4373423044575274</v>
+        <v>0.3703703703703704</v>
       </c>
       <c r="D91" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>2401</v>
+        <v>404</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.4304778303917348</v>
+        <v>0.3698566805362922</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>2275</v>
+        <v>995</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.4273504273504274</v>
+        <v>0.3695491500369549</v>
       </c>
       <c r="D93" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>600</v>
+        <v>1131</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.4267844002943341</v>
+        <v>0.3663003663003663</v>
       </c>
       <c r="D94" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>436</v>
+        <v>1586</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3663003663003663</v>
       </c>
       <c r="D95" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1572</v>
+        <v>805</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3544560185185185</v>
       </c>
       <c r="D96" t="n">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>1469</v>
+        <v>134</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.4158004158004158</v>
+        <v>0.3500910236661532</v>
       </c>
       <c r="D97" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>1658</v>
+        <v>461</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.4140786749482402</v>
+        <v>0.3460207612456748</v>
       </c>
       <c r="D98" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>2356</v>
+        <v>1561</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.4132231404958678</v>
+        <v>0.3390714658320292</v>
       </c>
       <c r="D99" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>273</v>
+        <v>1129</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.4109779882975759</v>
+        <v>0.3370098039215687</v>
       </c>
       <c r="D100" t="n">
-        <v>187</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1655</v>
+        <v>1087</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.4103535353535354</v>
+        <v>0.3367003367003367</v>
       </c>
       <c r="D101" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
